--- a/BMY.xlsx
+++ b/BMY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8304F255-8EDB-4CB4-B053-E62FFA269751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B808A7D0-3169-4D7D-8CCA-3A1FEEBD6A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51795" yWindow="2655" windowWidth="24495" windowHeight="17940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57270" yWindow="1410" windowWidth="25035" windowHeight="19590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="23" r:id="rId1"/>
@@ -617,7 +617,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="688">
   <si>
     <t>Name</t>
   </si>
@@ -1402,15 +1402,6 @@
     <t>1.8log, 3.2log and 3.3log up to 100mg</t>
   </si>
   <si>
-    <t>Mat</t>
-  </si>
-  <si>
-    <t>Disc</t>
-  </si>
-  <si>
-    <t>NPV</t>
-  </si>
-  <si>
     <t>atazanavir</t>
   </si>
   <si>
@@ -1813,9 +1804,6 @@
     <t>BMS-824393</t>
   </si>
   <si>
-    <t>ROIC</t>
-  </si>
-  <si>
     <t>Operating Margin</t>
   </si>
   <si>
@@ -2605,9 +2593,6 @@
     <t>Breyanzi (lisocabtagene maraleucel)</t>
   </si>
   <si>
-    <t>deucravacitinib</t>
-  </si>
-  <si>
     <t>Zeposia (ozanimod)</t>
   </si>
   <si>
@@ -2693,6 +2678,9 @@
   </si>
   <si>
     <t>BCMA CART</t>
+  </si>
+  <si>
+    <t>Sotyktu (deucravacitinib)</t>
   </si>
 </sst>
 </file>
@@ -2702,7 +2690,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2794,12 +2782,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3217,13 +3199,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>114</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>26069</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>114</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>26069</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>15040</xdr:rowOff>
     </xdr:to>
@@ -3242,7 +3224,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="50122555" y="0"/>
+          <a:off x="50613845" y="0"/>
           <a:ext cx="0" cy="13299908"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3654,7 +3636,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>1</v>
@@ -3663,16 +3645,16 @@
         <v>141</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="J2" s="62" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K2" s="32" t="s">
         <v>151</v>
@@ -3683,13 +3665,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G3" s="16">
         <v>35703</v>
@@ -3703,13 +3685,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G4" s="16">
         <v>37288</v>
@@ -3723,7 +3705,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>32</v>
@@ -3763,7 +3745,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>245</v>
@@ -3784,7 +3766,7 @@
         <v>200</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J7" s="62"/>
       <c r="K7" s="32"/>
@@ -3792,7 +3774,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>33</v>
@@ -3813,7 +3795,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J8" s="62"/>
       <c r="K8" s="32"/>
@@ -3821,7 +3803,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="46" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>255</v>
@@ -3838,7 +3820,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J9" s="62"/>
       <c r="K9" s="32"/>
@@ -3905,19 +3887,19 @@
         <v>209</v>
       </c>
       <c r="D13" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="G13" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="E13" s="32" t="s">
-        <v>500</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>503</v>
-      </c>
       <c r="H13" s="32" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -3928,13 +3910,13 @@
         <v>209</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G14" s="32" t="s">
         <v>161</v>
@@ -3948,13 +3930,13 @@
         <v>209</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G15" s="32" t="s">
         <v>185</v>
@@ -3962,25 +3944,25 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>161</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="J16" s="61">
         <v>2008</v>
@@ -3988,16 +3970,16 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="32" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>111</v>
@@ -4006,27 +3988,27 @@
         <v>45</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="32" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>111</v>
@@ -4035,27 +4017,27 @@
         <v>161</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I18" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J18" s="61" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="32" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>111</v>
@@ -4064,33 +4046,33 @@
         <v>45</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I19" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="J19" s="61" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G20" t="s">
         <v>161</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="J20" s="61">
         <v>2010</v>
@@ -4098,25 +4080,25 @@
     </row>
     <row r="21" spans="2:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="63" t="s">
+        <v>532</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>533</v>
+      </c>
+      <c r="E21" s="63" t="s">
         <v>536</v>
       </c>
-      <c r="D21" s="63" t="s">
-        <v>537</v>
-      </c>
-      <c r="E21" s="63" t="s">
-        <v>540</v>
-      </c>
       <c r="F21" s="63" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G21" s="63" t="s">
         <v>177</v>
       </c>
       <c r="H21" s="63" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I21" s="63" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="J21" s="64">
         <v>2009</v>
@@ -4124,138 +4106,138 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="32" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E22" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>543</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>547</v>
       </c>
       <c r="G22" s="32" t="s">
         <v>177</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="J22" s="62" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G23" s="32" t="s">
         <v>177</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="J23" s="62" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="32" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G24" s="32" t="s">
         <v>177</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="2:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="63" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F25" s="63" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G25" s="63" t="s">
         <v>161</v>
       </c>
       <c r="H25" s="63" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I25" s="63" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="J25" s="64" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="32" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>213</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G26" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
@@ -4263,80 +4245,80 @@
         <v>256</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="J27" s="62" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="32" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="J28" s="62" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="32" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>161</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="J29" s="62" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L29" s="32" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
@@ -4344,30 +4326,30 @@
         <v>175</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>177</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="J30" s="62" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="13" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>158</v>
@@ -4379,21 +4361,21 @@
         <v>85</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>162</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="46" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>257</v>
@@ -4408,12 +4390,12 @@
         <v>161</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="46" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>257</v>
@@ -4422,21 +4404,21 @@
         <v>1</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F33" s="26" t="s">
         <v>161</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="46" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
@@ -4466,15 +4448,15 @@
         <v>177</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>257</v>
@@ -4492,12 +4474,12 @@
         <v>258</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>176</v>
@@ -4511,7 +4493,7 @@
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
@@ -4526,18 +4508,18 @@
         <v>181</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>176</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>82</v>
@@ -4546,7 +4528,7 @@
         <v>161</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H39" s="8"/>
     </row>
@@ -4570,12 +4552,12 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="32" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
@@ -4583,142 +4565,142 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="23" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -4770,7 +4752,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4895,12 +4877,12 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C25" s="17" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C26" s="23" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -5036,7 +5018,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5052,15 +5034,15 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5068,15 +5050,15 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5165,7 +5147,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5178,12 +5160,12 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="23" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5462,7 +5444,7 @@
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5475,10 +5457,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -5522,7 +5504,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5538,12 +5520,12 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5561,12 +5543,12 @@
         <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5609,7 +5591,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5617,7 +5599,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5633,15 +5615,15 @@
         <v>141</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="23" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5649,19 +5631,19 @@
         <v>123</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="23"/>
       <c r="C8" s="23" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5671,17 +5653,17 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="17" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="23" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="23" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5699,22 +5681,22 @@
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="23" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="23" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5903,17 +5885,17 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="17" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="23" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="23" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5944,7 +5926,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5993,7 +5975,7 @@
         <v>78</v>
       </c>
       <c r="K2" s="24">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6001,7 +5983,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -6013,10 +5995,10 @@
         <v>38709</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>109</v>
@@ -6025,15 +6007,15 @@
         <v>2135.2551579999999</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="73" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="27" t="s">
@@ -6043,7 +6025,7 @@
         <v>38713</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="H4" s="8"/>
       <c r="J4" s="1" t="s">
@@ -6051,18 +6033,18 @@
       </c>
       <c r="K4" s="25">
         <f>K2*K3</f>
-        <v>153738.371376</v>
+        <v>160144.13685000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>176</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>82</v>
@@ -6071,10 +6053,10 @@
         <v>41995</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>194</v>
@@ -6083,18 +6065,18 @@
         <v>13228</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>82</v>
@@ -6103,10 +6085,10 @@
         <v>42338</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>195</v>
@@ -6115,18 +6097,18 @@
         <v>42060</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="73" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>82</v>
@@ -6135,7 +6117,7 @@
         <v>43777</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H7" s="8"/>
       <c r="J7" s="1" t="s">
@@ -6143,16 +6125,16 @@
       </c>
       <c r="K7" s="25">
         <f>K4-K5+K6</f>
-        <v>182570.371376</v>
+        <v>188976.13685000001</v>
       </c>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="73" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="27" t="s">
@@ -6162,7 +6144,7 @@
         <v>41313</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="H8" s="8"/>
       <c r="K8" s="25"/>
@@ -6170,10 +6152,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="73" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="27" t="s">
@@ -6181,7 +6163,7 @@
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="26" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="H9" s="8"/>
       <c r="K9" s="25"/>
@@ -6189,50 +6171,50 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="46" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H10" s="86"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="46" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>82</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="H11" s="86"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="46" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>85</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H12" s="86"/>
       <c r="J12" s="23" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6255,25 +6237,25 @@
         <v>114</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="46" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>82</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="H14" s="86"/>
       <c r="J14" s="23" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -6284,7 +6266,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>82</v>
@@ -6296,10 +6278,10 @@
         <v>112</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -6327,7 +6309,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>174</v>
@@ -6347,99 +6329,103 @@
       <c r="H17" s="42"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="87" t="s">
-        <v>420</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="73" t="s">
+        <v>687</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="45">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="87" t="s">
+        <v>416</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="88">
+      <c r="F19" s="88">
         <v>40627</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
+      <c r="H19" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="73" t="s">
-        <v>662</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>672</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26" t="s">
-        <v>687</v>
-      </c>
-      <c r="H20" s="18"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="46" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="H21" s="86"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="46" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="H22" s="86"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="46" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>85</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="H23" s="86"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="46" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>174</v>
@@ -6447,21 +6433,21 @@
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
       <c r="G24" s="26" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="H24" s="86"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="46" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="26" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="H25" s="86"/>
     </row>
@@ -6486,10 +6472,10 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="46" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -6501,7 +6487,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>158</v>
@@ -6516,19 +6502,19 @@
         <v>177</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="46" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>176</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E29" s="26" t="s">
         <v>85</v>
@@ -6537,16 +6523,16 @@
         <v>161</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D30" s="6">
         <v>1</v>
@@ -6558,19 +6544,19 @@
         <v>161</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="46" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>85</v>
@@ -6579,7 +6565,7 @@
         <v>161</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H31" s="8"/>
     </row>
@@ -6627,7 +6613,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G35" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
@@ -6652,42 +6638,42 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G42" s="34" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G43" s="20" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G44" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G45" s="23" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G46" s="23" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G47" s="23" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G48" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G49" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -6697,7 +6683,7 @@
     <hyperlink ref="B3" location="Orencia!A1" display="Orencia (abatacept)" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="B17" location="apixaban!A1" display="Apixaban" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="B15" location="Erbitux!A1" display="Erbitux" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B18" location="ipilimumab!A1" display="Ipilimumab (MDX-010)" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B19" location="ipilimumab!A1" display="Ipilimumab (MDX-010)" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
     <hyperlink ref="B5" location="Opdivo!A1" display="BMS-936558 (nivolumab)" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
     <hyperlink ref="B6" location="Empliciti!A1" display="Empliciti (elotuzumab)" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
   </hyperlinks>
@@ -6725,7 +6711,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -6774,7 +6760,7 @@
         <v>141</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -6784,27 +6770,27 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="47" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="32" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="47" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="47" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="47" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -6828,10 +6814,10 @@
   <dimension ref="A1:FD122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DP3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="DI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DS18" sqref="DS18"/>
+      <selection pane="bottomRight" activeCell="DL7" sqref="DL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6920,184 +6906,184 @@
         <v>231</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="V2" s="33" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="W2" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="X2" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y2" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z2" s="49" t="s">
         <v>373</v>
       </c>
-      <c r="X2" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y2" s="49" t="s">
-        <v>375</v>
-      </c>
-      <c r="Z2" s="49" t="s">
-        <v>376</v>
-      </c>
       <c r="AA2" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB2" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC2" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="AD2" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE2" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="AB2" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="AC2" s="49" t="s">
-        <v>405</v>
-      </c>
-      <c r="AD2" s="49" t="s">
-        <v>406</v>
-      </c>
-      <c r="AE2" s="33" t="s">
-        <v>407</v>
-      </c>
       <c r="AF2" s="33" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AG2" s="33" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AH2" s="33" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AI2" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="AJ2" s="33" t="s">
+        <v>573</v>
+      </c>
+      <c r="AK2" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="AL2" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="AM2" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="AN2" s="33" t="s">
         <v>576</v>
       </c>
-      <c r="AJ2" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="AK2" s="33" t="s">
-        <v>578</v>
-      </c>
-      <c r="AL2" s="33" t="s">
+      <c r="AO2" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="AM2" s="33" t="s">
-        <v>575</v>
-      </c>
-      <c r="AN2" s="33" t="s">
+      <c r="AP2" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="AO2" s="33" t="s">
+      <c r="AQ2" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="AR2" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="AS2" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="AP2" s="33" t="s">
+      <c r="AT2" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="AQ2" s="33" t="s">
-        <v>585</v>
-      </c>
-      <c r="AR2" s="33" t="s">
+      <c r="AU2" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="AV2" s="33" t="s">
+        <v>588</v>
+      </c>
+      <c r="AW2" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="AX2" s="33" t="s">
+        <v>590</v>
+      </c>
+      <c r="AY2" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="AZ2" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="BA2" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="BB2" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="BC2" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="BD2" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="BE2" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="BF2" s="33" t="s">
+        <v>598</v>
+      </c>
+      <c r="BG2" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="BH2" s="33" t="s">
+        <v>600</v>
+      </c>
+      <c r="BI2" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="BJ2" s="33" t="s">
+        <v>602</v>
+      </c>
+      <c r="BK2" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="BL2" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="BM2" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="BN2" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="BO2" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="BP2" s="33" t="s">
+        <v>608</v>
+      </c>
+      <c r="BQ2" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="BR2" s="33" t="s">
+        <v>610</v>
+      </c>
+      <c r="BS2" s="33" t="s">
         <v>586</v>
       </c>
-      <c r="AS2" s="33" t="s">
-        <v>587</v>
-      </c>
-      <c r="AT2" s="28" t="s">
-        <v>588</v>
-      </c>
-      <c r="AU2" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="AV2" s="33" t="s">
-        <v>592</v>
-      </c>
-      <c r="AW2" s="33" t="s">
-        <v>593</v>
-      </c>
-      <c r="AX2" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="AY2" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="AZ2" s="33" t="s">
-        <v>596</v>
-      </c>
-      <c r="BA2" s="33" t="s">
-        <v>597</v>
-      </c>
-      <c r="BB2" s="33" t="s">
-        <v>598</v>
-      </c>
-      <c r="BC2" s="33" t="s">
-        <v>599</v>
-      </c>
-      <c r="BD2" s="33" t="s">
-        <v>600</v>
-      </c>
-      <c r="BE2" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="BF2" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="BG2" s="33" t="s">
-        <v>603</v>
-      </c>
-      <c r="BH2" s="33" t="s">
-        <v>604</v>
-      </c>
-      <c r="BI2" s="33" t="s">
-        <v>605</v>
-      </c>
-      <c r="BJ2" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="BK2" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="BL2" s="33" t="s">
-        <v>608</v>
-      </c>
-      <c r="BM2" s="33" t="s">
-        <v>609</v>
-      </c>
-      <c r="BN2" s="33" t="s">
-        <v>610</v>
-      </c>
-      <c r="BO2" s="33" t="s">
+      <c r="BT2" s="33" t="s">
         <v>611</v>
       </c>
-      <c r="BP2" s="33" t="s">
+      <c r="BU2" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="BQ2" s="33" t="s">
+      <c r="BV2" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="BR2" s="33" t="s">
-        <v>614</v>
-      </c>
-      <c r="BS2" s="33" t="s">
-        <v>590</v>
-      </c>
-      <c r="BT2" s="33" t="s">
+      <c r="BW2" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="BU2" s="33" t="s">
+      <c r="BX2" s="33" t="s">
         <v>616</v>
       </c>
-      <c r="BV2" s="33" t="s">
+      <c r="BY2" s="33" t="s">
         <v>617</v>
       </c>
-      <c r="BW2" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="BX2" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="BY2" s="33" t="s">
-        <v>621</v>
-      </c>
       <c r="BZ2" s="33" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="CD2" s="28">
         <v>1989</v>
@@ -7246,7 +7232,7 @@
     </row>
     <row r="3" spans="1:125" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="44" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -7545,7 +7531,7 @@
     </row>
     <row r="4" spans="1:125" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="44" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -7761,7 +7747,7 @@
     </row>
     <row r="5" spans="1:125" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="44" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -8056,7 +8042,7 @@
     </row>
     <row r="6" spans="1:125" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="44" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -8078,19 +8064,19 @@
       <c r="T6" s="35"/>
       <c r="U6" s="35"/>
       <c r="V6" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="W6" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="X6" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Y6" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Z6" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AA6" s="54"/>
       <c r="AB6" s="54">
@@ -8241,10 +8227,10 @@
       <c r="CV6" s="30"/>
       <c r="CW6" s="30"/>
       <c r="CX6" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CY6" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CZ6" s="50">
         <f t="shared" si="13"/>
@@ -8312,7 +8298,7 @@
     </row>
     <row r="7" spans="1:125" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="44" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -8525,7 +8511,7 @@
     </row>
     <row r="8" spans="1:125" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="44" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
@@ -8547,34 +8533,34 @@
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
       <c r="V8" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="W8" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="X8" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Y8" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Z8" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AA8" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AB8" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AC8" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AD8" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AE8" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AF8" s="35">
         <v>1</v>
@@ -8772,7 +8758,7 @@
     </row>
     <row r="9" spans="1:125" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="44" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -8985,7 +8971,7 @@
     </row>
     <row r="10" spans="1:125" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="44" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -9218,7 +9204,7 @@
     </row>
     <row r="11" spans="1:125" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="44" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -9431,7 +9417,7 @@
     </row>
     <row r="12" spans="1:125" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="44" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -9644,7 +9630,7 @@
     </row>
     <row r="13" spans="1:125" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="44" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -9857,7 +9843,7 @@
     </row>
     <row r="14" spans="1:125" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="44" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -10070,7 +10056,7 @@
     </row>
     <row r="15" spans="1:125" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="44" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -10283,7 +10269,7 @@
     </row>
     <row r="16" spans="1:125" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="44" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
@@ -10496,7 +10482,7 @@
     </row>
     <row r="17" spans="2:123" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="44" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -10709,7 +10695,7 @@
     </row>
     <row r="18" spans="2:123" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="44" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -10922,7 +10908,7 @@
     </row>
     <row r="19" spans="2:123" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="44" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -11135,7 +11121,7 @@
     </row>
     <row r="20" spans="2:123" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="44" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -11348,7 +11334,7 @@
     </row>
     <row r="21" spans="2:123" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="44" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -11523,7 +11509,7 @@
     </row>
     <row r="22" spans="2:123" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="44" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -11679,7 +11665,7 @@
     </row>
     <row r="23" spans="2:123" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="23" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="V23" s="35"/>
       <c r="W23" s="33"/>
@@ -11726,25 +11712,25 @@
       <c r="CV23" s="30"/>
       <c r="CW23" s="30"/>
       <c r="CX23" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CY23" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CZ23" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DA23" s="35" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="DB23" s="66" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="DC23" s="66" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="DD23" s="35" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="DE23" s="35">
         <v>50</v>
@@ -11753,13 +11739,13 @@
         <v>100</v>
       </c>
       <c r="DG23" s="85" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="DH23" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="DI23" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="DJ23" s="30"/>
       <c r="DK23" s="30"/>
@@ -11769,31 +11755,31 @@
     </row>
     <row r="24" spans="2:123" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="23" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="V24" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="W24" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="X24" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Y24" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Z24" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AA24" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AB24" s="49">
         <v>2</v>
       </c>
       <c r="AC24" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AD24" s="48">
         <v>1</v>
@@ -11874,13 +11860,13 @@
         <v>20</v>
       </c>
       <c r="DG24" s="85" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="DH24" s="85" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="DI24" s="85" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="DJ24" s="30"/>
       <c r="DK24" s="30"/>
@@ -11893,43 +11879,43 @@
         <v>89</v>
       </c>
       <c r="V25" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="W25" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="X25" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Y25" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Z25" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AA25" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AB25" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AC25" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AD25" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AE25" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AF25" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AG25" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AH25" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AI25" s="35"/>
       <c r="AJ25" s="35"/>
@@ -11969,31 +11955,31 @@
       <c r="CV25" s="30"/>
       <c r="CW25" s="30"/>
       <c r="CX25" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CY25" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CZ25" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DA25" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DB25" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DC25" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DD25" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DE25" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DF25" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DG25" s="35"/>
       <c r="DH25" s="35"/>
@@ -12009,43 +11995,43 @@
         <v>96</v>
       </c>
       <c r="V26" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="W26" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="X26" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Y26" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Z26" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AA26" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AB26" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AC26" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AD26" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AE26" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AF26" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AG26" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AH26" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AI26" s="35"/>
       <c r="AJ26" s="35"/>
@@ -12085,31 +12071,31 @@
       <c r="CV26" s="30"/>
       <c r="CW26" s="30"/>
       <c r="CX26" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CY26" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CZ26" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DA26" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DB26" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DC26" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DD26" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DE26" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DF26" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DG26" s="35"/>
       <c r="DH26" s="35"/>
@@ -12384,31 +12370,31 @@
       </c>
       <c r="CW28" s="30"/>
       <c r="CX28" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CY28" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CZ28" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DA28" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DB28" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DC28" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DD28" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DE28" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DF28" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DG28" s="35"/>
       <c r="DH28" s="35"/>
@@ -12508,31 +12494,31 @@
       </c>
       <c r="CW29" s="30"/>
       <c r="CX29" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CY29" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CZ29" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DA29" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DB29" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DC29" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DD29" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DE29" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DF29" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DG29" s="35"/>
       <c r="DH29" s="35"/>
@@ -12545,7 +12531,7 @@
     </row>
     <row r="30" spans="2:123" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="23" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="V30" s="30"/>
       <c r="AF30" s="30"/>
@@ -12604,7 +12590,7 @@
     </row>
     <row r="31" spans="2:123" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="23" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C31" s="28">
         <v>196</v>
@@ -12724,7 +12710,7 @@
       <c r="CE31" s="30"/>
       <c r="CF31" s="30"/>
       <c r="CH31" s="30" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="CI31" s="30"/>
       <c r="CJ31" s="30"/>
@@ -12845,31 +12831,31 @@
         <v>29</v>
       </c>
       <c r="Z32" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AA32" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AB32" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AC32" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AD32" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AE32" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AF32" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AG32" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AH32" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AI32" s="35"/>
       <c r="AJ32" s="35"/>
@@ -12917,25 +12903,25 @@
         <v>87</v>
       </c>
       <c r="CZ32" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DA32" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DB32" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DC32" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DD32" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DE32" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DF32" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DG32" s="35"/>
       <c r="DH32" s="35"/>
@@ -12999,53 +12985,53 @@
         <v>285</v>
       </c>
       <c r="S33" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="T33" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="U33" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="V33" s="30" t="str">
         <f>U33</f>
         <v>-</v>
       </c>
       <c r="W33" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="X33" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Y33" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Z33" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AA33" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AB33" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AC33" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AD33" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AE33" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AF33" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AG33" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AH33" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AI33" s="35"/>
       <c r="AJ33" s="35"/>
@@ -13091,31 +13077,31 @@
         <v>1157</v>
       </c>
       <c r="CX33" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CY33" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CZ33" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DA33" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DB33" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DC33" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DD33" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DE33" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DF33" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DG33" s="35"/>
       <c r="DH33" s="35"/>
@@ -13128,7 +13114,7 @@
     </row>
     <row r="34" spans="2:119" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="23" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="V34" s="30">
         <v>4</v>
@@ -13255,7 +13241,7 @@
     </row>
     <row r="35" spans="2:119" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="23" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C35" s="30">
         <v>814</v>
@@ -13456,7 +13442,7 @@
     </row>
     <row r="36" spans="2:119" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="23" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="V36" s="35"/>
       <c r="W36" s="33"/>
@@ -13551,7 +13537,7 @@
     </row>
     <row r="37" spans="2:119" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="23" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="V37" s="35"/>
       <c r="W37" s="33"/>
@@ -13625,13 +13611,13 @@
         <v>200</v>
       </c>
       <c r="DG37" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="DH37" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="DI37" s="85" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="DJ37" s="35"/>
       <c r="DK37" s="35"/>
@@ -13641,7 +13627,7 @@
     </row>
     <row r="38" spans="2:119" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="23" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C38" s="28">
         <v>87</v>
@@ -13840,7 +13826,7 @@
     </row>
     <row r="39" spans="2:119" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="23" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C39" s="28">
         <v>188</v>
@@ -14041,7 +14027,7 @@
     </row>
     <row r="40" spans="2:119" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="23" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C40" s="28">
         <v>173</v>
@@ -14244,7 +14230,7 @@
     </row>
     <row r="41" spans="2:119" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="23" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C41" s="28">
         <v>149</v>
@@ -14445,7 +14431,7 @@
     </row>
     <row r="42" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B42" s="23" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D42" s="28">
         <v>5</v>
@@ -14755,35 +14741,35 @@
       </c>
       <c r="CW43" s="30"/>
       <c r="CX43" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CY43" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CZ43" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DA43" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DB43" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DC43" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DD43" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DE43" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DF43" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DG43" s="35"/>
       <c r="DH43" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DI43" s="35"/>
       <c r="DJ43" s="35"/>
@@ -14845,53 +14831,53 @@
         <v>27</v>
       </c>
       <c r="S44" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="T44" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="U44" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="V44" s="30" t="str">
         <f>U44</f>
         <v>-</v>
       </c>
       <c r="W44" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="X44" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Y44" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Z44" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AA44" s="48" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AB44" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AC44" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AD44" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AE44" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AF44" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AG44" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AH44" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AI44" s="35"/>
       <c r="AJ44" s="35"/>
@@ -14945,35 +14931,35 @@
         <v>203</v>
       </c>
       <c r="CX44" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CY44" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CZ44" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DA44" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DB44" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DC44" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DD44" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DE44" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DF44" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DG44" s="35"/>
       <c r="DH44" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DI44" s="35"/>
       <c r="DJ44" s="35"/>
@@ -15035,53 +15021,53 @@
         <v>99</v>
       </c>
       <c r="S45" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="T45" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="U45" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="V45" s="30" t="str">
         <f>U45</f>
         <v>-</v>
       </c>
       <c r="W45" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="X45" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Y45" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Z45" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AA45" s="48" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AB45" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AC45" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AD45" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AE45" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AF45" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AG45" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AH45" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AI45" s="35"/>
       <c r="AJ45" s="35"/>
@@ -15133,35 +15119,35 @@
         <v>385</v>
       </c>
       <c r="CX45" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CY45" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CZ45" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DA45" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DB45" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DC45" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DD45" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DE45" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DF45" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DG45" s="35"/>
       <c r="DH45" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DI45" s="35"/>
       <c r="DJ45" s="35"/>
@@ -15253,35 +15239,35 @@
       </c>
       <c r="CW46" s="30"/>
       <c r="CX46" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CY46" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CZ46" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DA46" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DB46" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DC46" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DD46" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DE46" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DF46" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DG46" s="35"/>
       <c r="DH46" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DI46" s="35"/>
       <c r="DJ46" s="35"/>
@@ -15373,35 +15359,35 @@
       </c>
       <c r="CW47" s="30"/>
       <c r="CX47" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CY47" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CZ47" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DA47" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DB47" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DC47" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DD47" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DE47" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DF47" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DG47" s="35"/>
       <c r="DH47" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DI47" s="35"/>
       <c r="DJ47" s="35"/>
@@ -15435,35 +15421,35 @@
       <c r="AR48" s="30"/>
       <c r="AS48" s="30"/>
       <c r="CX48" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CY48" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CZ48" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DA48" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DB48" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DC48" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DD48" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DE48" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DF48" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DG48" s="35"/>
       <c r="DH48" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DI48" s="35"/>
       <c r="DJ48" s="35"/>
@@ -15497,35 +15483,35 @@
       <c r="AR49" s="30"/>
       <c r="AS49" s="30"/>
       <c r="CX49" s="49" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CY49" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CZ49" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DA49" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DB49" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DC49" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DD49" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DE49" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DF49" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DG49" s="35"/>
       <c r="DH49" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DI49" s="35"/>
       <c r="DJ49" s="35"/>
@@ -15612,43 +15598,43 @@
         <v>699</v>
       </c>
       <c r="V50" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="W50" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="X50" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Y50" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Z50" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AA50" s="50" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AB50" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AC50" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AD50" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AE50" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AF50" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AG50" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AH50" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AI50" s="35"/>
       <c r="AJ50" s="35"/>
@@ -15682,32 +15668,32 @@
         <v>2111</v>
       </c>
       <c r="CY50" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CZ50" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DA50" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DB50" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DC50" s="66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DD50" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DE50" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DF50" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DG50" s="35"/>
       <c r="DH50" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DI50" s="35"/>
       <c r="DJ50" s="35"/>
@@ -15775,43 +15761,43 @@
         <v>0</v>
       </c>
       <c r="V51" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="W51" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="X51" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Y51" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Z51" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AA51" s="50" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AB51" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AC51" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AD51" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AE51" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AF51" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AG51" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AH51" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AI51" s="35"/>
       <c r="AJ51" s="35"/>
@@ -15841,35 +15827,35 @@
         <v>290</v>
       </c>
       <c r="CX51" s="54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CY51" s="50" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CZ51" s="50" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DA51" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DB51" s="65" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DC51" s="65" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DD51" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DE51" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DF51" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DG51" s="30"/>
       <c r="DH51" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="DI51" s="30"/>
       <c r="DJ51" s="30"/>
@@ -18641,35 +18627,35 @@
       </c>
       <c r="DA60" s="30">
         <f t="shared" ref="DA60:DH60" si="140">CZ92*$DQ$66</f>
-        <v>1431.4</v>
+        <v>0</v>
       </c>
       <c r="DB60" s="65">
         <f t="shared" si="140"/>
-        <v>1742.8609750000001</v>
+        <v>0</v>
       </c>
       <c r="DC60" s="65">
         <f t="shared" si="140"/>
-        <v>1989.7804981000002</v>
+        <v>0</v>
       </c>
       <c r="DD60" s="30">
         <f t="shared" si="140"/>
-        <v>2239.7013915316002</v>
+        <v>0</v>
       </c>
       <c r="DE60" s="30">
         <f t="shared" si="140"/>
-        <v>2472.7396859367382</v>
+        <v>0</v>
       </c>
       <c r="DF60" s="30">
         <f t="shared" si="140"/>
-        <v>2691.5264064552102</v>
+        <v>0</v>
       </c>
       <c r="DG60" s="30">
         <f t="shared" si="140"/>
-        <v>2943.3030827436405</v>
+        <v>0</v>
       </c>
       <c r="DH60" s="30">
         <f t="shared" si="140"/>
-        <v>3195.0797590320708</v>
+        <v>0</v>
       </c>
       <c r="DI60" s="30"/>
       <c r="DJ60" s="30"/>
@@ -18967,35 +18953,35 @@
       </c>
       <c r="DA61" s="30">
         <f t="shared" si="149"/>
-        <v>9210.4500000000007</v>
+        <v>7779.05</v>
       </c>
       <c r="DB61" s="65">
         <f t="shared" si="149"/>
-        <v>6901.9589749999996</v>
+        <v>5159.098</v>
       </c>
       <c r="DC61" s="65">
         <f t="shared" si="149"/>
-        <v>6946.5553730999982</v>
+        <v>4956.7748749999982</v>
       </c>
       <c r="DD61" s="30">
         <f t="shared" si="149"/>
-        <v>6473.7167890316005</v>
+        <v>4234.0153975000003</v>
       </c>
       <c r="DE61" s="30">
         <f t="shared" si="149"/>
-        <v>6077.4519866242381</v>
+        <v>3604.7123006874999</v>
       </c>
       <c r="DF61" s="30">
         <f t="shared" si="149"/>
-        <v>6993.8008719008358</v>
+        <v>4302.2744654456255</v>
       </c>
       <c r="DG61" s="30">
         <f t="shared" ref="DG61:DM61" si="150">DG60+DG59</f>
-        <v>17868.511251103017</v>
+        <v>14925.208168359375</v>
       </c>
       <c r="DH61" s="30">
         <f t="shared" si="150"/>
-        <v>20914.188843211756</v>
+        <v>17719.109084179687</v>
       </c>
       <c r="DI61" s="30">
         <f t="shared" si="150"/>
@@ -19270,35 +19256,35 @@
       </c>
       <c r="DA62" s="30">
         <f>DA61*0.29</f>
-        <v>2671.0304999999998</v>
+        <v>2255.9245000000001</v>
       </c>
       <c r="DB62" s="65">
         <f>DB61*0.28</f>
-        <v>1932.548513</v>
+        <v>1444.5474400000001</v>
       </c>
       <c r="DC62" s="65">
         <f>DC61*0.28</f>
-        <v>1945.0355044679998</v>
+        <v>1387.8969649999997</v>
       </c>
       <c r="DD62" s="30">
         <f>DD61*0.28</f>
-        <v>1812.6407009288482</v>
+        <v>1185.5243113000001</v>
       </c>
       <c r="DE62" s="30">
         <f>DE61*0.28</f>
-        <v>1701.6865562547869</v>
+        <v>1009.3194441925001</v>
       </c>
       <c r="DF62" s="30">
         <f>DF61*0.28</f>
-        <v>1958.2642441322341</v>
+        <v>1204.6368503247752</v>
       </c>
       <c r="DG62" s="30">
         <f t="shared" ref="DG62:DH62" si="152">DG61*0.28</f>
-        <v>5003.1831503088451</v>
+        <v>4179.058287140625</v>
       </c>
       <c r="DH62" s="30">
         <f t="shared" si="152"/>
-        <v>5855.9728760992921</v>
+        <v>4961.3505435703128</v>
       </c>
       <c r="DI62" s="30"/>
       <c r="DJ62" s="30"/>
@@ -19581,7 +19567,7 @@
     </row>
     <row r="64" spans="2:160" x14ac:dyDescent="0.2">
       <c r="B64" s="23" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C64" s="30">
         <f t="shared" ref="C64:R64" si="155">C61-C62-C63</f>
@@ -19850,35 +19836,35 @@
       </c>
       <c r="DA64" s="30">
         <f t="shared" ref="DA64:DF64" si="163">DA61-DA62-DA63</f>
-        <v>6229.2195000000011</v>
+        <v>5212.9255000000003</v>
       </c>
       <c r="DB64" s="65">
         <f t="shared" si="163"/>
-        <v>4938.3904619999994</v>
+        <v>3683.5305599999997</v>
       </c>
       <c r="DC64" s="65">
         <f t="shared" si="163"/>
-        <v>4998.4178686319983</v>
+        <v>3565.7759099999985</v>
       </c>
       <c r="DD64" s="30">
         <f t="shared" si="163"/>
-        <v>4660.7658881027528</v>
+        <v>3048.1808862000003</v>
       </c>
       <c r="DE64" s="30">
         <f t="shared" si="163"/>
-        <v>4375.7344103694504</v>
+        <v>2595.3618364949998</v>
       </c>
       <c r="DF64" s="30">
         <f t="shared" si="163"/>
-        <v>5035.533525768602</v>
+        <v>3097.6345131208504</v>
       </c>
       <c r="DG64" s="30">
         <f>DF64*(1+DQ67)</f>
-        <v>5035.533525768602</v>
+        <v>3097.6345131208504</v>
       </c>
       <c r="DH64" s="30">
         <f t="shared" ref="DH64" si="164">DG64*(1+$DQ$67)</f>
-        <v>5035.533525768602</v>
+        <v>3097.6345131208504</v>
       </c>
       <c r="DI64" s="30"/>
       <c r="DJ64" s="30"/>
@@ -20232,35 +20218,35 @@
       </c>
       <c r="DA65" s="38">
         <f t="shared" si="178"/>
-        <v>3.6306102287629325</v>
+        <v>3.0382780125309634</v>
       </c>
       <c r="DB65" s="68">
         <f t="shared" si="178"/>
-        <v>2.8782692478507936</v>
+        <v>2.1468923561124869</v>
       </c>
       <c r="DC65" s="68">
         <f t="shared" si="178"/>
-        <v>2.9132553510896098</v>
+        <v>2.0782607664286745</v>
       </c>
       <c r="DD65" s="38">
         <f t="shared" si="178"/>
-        <v>2.7164597919876163</v>
+        <v>1.7765880146874546</v>
       </c>
       <c r="DE65" s="38">
         <f t="shared" si="178"/>
-        <v>2.5503333296630921</v>
+        <v>1.5126689998513769</v>
       </c>
       <c r="DF65" s="38">
         <f t="shared" si="178"/>
-        <v>2.934887673477256</v>
+        <v>1.8054113437976689</v>
       </c>
       <c r="DG65" s="38">
         <f t="shared" ref="DG65:DN65" si="179">DG64/DG66</f>
-        <v>2.934887673477256</v>
+        <v>1.8054113437976689</v>
       </c>
       <c r="DH65" s="38">
         <f t="shared" si="179"/>
-        <v>2.934887673477256</v>
+        <v>1.8054113437976689</v>
       </c>
       <c r="DI65" s="38">
         <f t="shared" si="179"/>
@@ -20558,39 +20544,31 @@
         <f t="shared" si="182"/>
         <v>1715.75</v>
       </c>
-      <c r="DP66" s="33" t="s">
-        <v>398</v>
-      </c>
-      <c r="DQ66" s="59">
-        <v>0.05</v>
-      </c>
+      <c r="DP66" s="33"/>
+      <c r="DQ66" s="59"/>
     </row>
     <row r="67" spans="2:121" x14ac:dyDescent="0.2">
       <c r="CW67" s="37"/>
       <c r="DB67" s="69"/>
       <c r="DC67" s="69"/>
-      <c r="DP67" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="DQ67" s="41">
-        <v>0</v>
-      </c>
+      <c r="DP67" s="33"/>
+      <c r="DQ67" s="41"/>
     </row>
     <row r="68" spans="2:121" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="19" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G68" s="40">
         <f t="shared" ref="G68:AK68" si="183">G52/C52-1</f>
@@ -20914,16 +20892,12 @@
         <f t="shared" si="197"/>
         <v>-5.3193810109322559E-2</v>
       </c>
-      <c r="DP68" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="DQ68" s="39">
-        <v>0.11</v>
-      </c>
+      <c r="DP68" s="28"/>
+      <c r="DQ68" s="39"/>
     </row>
     <row r="69" spans="2:121" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="23" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
@@ -21043,12 +21017,12 @@
       <c r="DL69" s="53"/>
       <c r="DM69" s="53"/>
       <c r="DN69" s="53"/>
-      <c r="DP69" s="28"/>
-      <c r="DQ69" s="39"/>
+      <c r="DP69" s="33"/>
+      <c r="DQ69" s="79"/>
     </row>
     <row r="70" spans="2:121" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="23" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
@@ -21214,12 +21188,12 @@
       <c r="DL70" s="58"/>
       <c r="DM70" s="58"/>
       <c r="DN70" s="58"/>
-      <c r="DP70" s="33"/>
-      <c r="DQ70" s="72"/>
+      <c r="DP70" s="75"/>
+      <c r="DQ70" s="84"/>
     </row>
     <row r="71" spans="2:121" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="23" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
@@ -21390,7 +21364,7 @@
     </row>
     <row r="72" spans="2:121" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="23" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
@@ -21552,19 +21526,19 @@
     </row>
     <row r="73" spans="2:121" s="74" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="74" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C73" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D73" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E73" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F73" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G73" s="76">
         <f t="shared" ref="G73:AK73" si="234">+G35/C35-1</f>
@@ -21751,7 +21725,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="CQ73" s="77" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CR73" s="77">
         <f t="shared" ref="CR73:DN73" si="235">CR35/CQ35-1</f>
@@ -21845,29 +21819,22 @@
         <f t="shared" si="235"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="DP73" s="75" t="s">
-        <v>263</v>
-      </c>
-      <c r="DQ73" s="79">
-        <f>NPV($DQ$68,CZ64:FF64)+Main!K5-Main!K6+CY64</f>
-        <v>5160.5987470501204</v>
-      </c>
     </row>
     <row r="74" spans="2:121" s="74" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="74" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C74" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D74" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E74" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F74" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G74" s="76">
         <f t="shared" ref="G74:AK74" si="236">+G40/C40-1</f>
@@ -22068,39 +22035,34 @@
       <c r="DF74" s="75"/>
       <c r="DH74" s="80"/>
       <c r="DI74" s="83"/>
-      <c r="DP74" s="75"/>
-      <c r="DQ74" s="84">
-        <f>DQ73/Main!K3</f>
-        <v>2.4168534274301097</v>
-      </c>
     </row>
     <row r="75" spans="2:121" x14ac:dyDescent="0.2">
       <c r="B75" s="23" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G75" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H75" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I75" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J75" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K75" s="57">
         <f t="shared" ref="K75:AK75" si="237">+K3/G3-1</f>
@@ -22224,19 +22186,19 @@
     </row>
     <row r="76" spans="2:121" s="74" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="74" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C76" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D76" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E76" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F76" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G76" s="76">
         <f t="shared" ref="G76:AK76" si="238">+G31/C31-1</f>
@@ -22440,19 +22402,19 @@
     </row>
     <row r="77" spans="2:121" s="74" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="74" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C77" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D77" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E77" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F77" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G77" s="76">
         <f t="shared" ref="G77:AK77" si="239">+G41/C41-1</f>
@@ -22656,28 +22618,28 @@
     </row>
     <row r="78" spans="2:121" s="74" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="74" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C78" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D78" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E78" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F78" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G78" s="76" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H78" s="76" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I78" s="76" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J78" s="76">
         <f t="shared" ref="J78:AK78" si="240">+J42/F42-1</f>
@@ -22869,19 +22831,19 @@
     </row>
     <row r="79" spans="2:121" s="74" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="74" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C79" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D79" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E79" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F79" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G79" s="76">
         <f t="shared" ref="G79:P80" si="241">+G38/C38-1</f>
@@ -23004,7 +22966,7 @@
         <v>-4.4692737430167551E-2</v>
       </c>
       <c r="AK79" s="76">
-        <f t="shared" ref="AK79:AT80" si="244">+AK38/AG38-1</f>
+        <f t="shared" ref="AK79:AK80" si="244">+AK38/AG38-1</f>
         <v>5.7803468208092568E-2</v>
       </c>
       <c r="AL79" s="76"/>
@@ -23085,19 +23047,19 @@
     </row>
     <row r="80" spans="2:121" s="74" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="74" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C80" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D80" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E80" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F80" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G80" s="76">
         <f t="shared" si="241"/>
@@ -23301,37 +23263,37 @@
     </row>
     <row r="81" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B81" s="23" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G81" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H81" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I81" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J81" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K81" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L81" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M81" s="41">
         <f t="shared" ref="M81:AK81" si="245">M5/I5-1</f>
@@ -23445,76 +23407,76 @@
     </row>
     <row r="82" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B82" s="23" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G82" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H82" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I82" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J82" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K82" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L82" s="33" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M82" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N82" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="O82" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P82" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q82" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="R82" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="S82" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="T82" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="U82" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="V82" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="W82" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="X82" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Y82" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Z82" s="41">
         <f t="shared" ref="Z82:AK82" si="246">Z34/V34-1</f>
@@ -23940,7 +23902,7 @@
     </row>
     <row r="85" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B85" s="23" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C85" s="39"/>
       <c r="D85" s="39"/>
@@ -24157,7 +24119,7 @@
     </row>
     <row r="86" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B86" s="23" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C86" s="39"/>
       <c r="D86" s="39"/>
@@ -24374,7 +24336,7 @@
     </row>
     <row r="87" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B87" s="23" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C87" s="39"/>
       <c r="D87" s="39"/>
@@ -24585,7 +24547,7 @@
     </row>
     <row r="88" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B88" s="23" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C88" s="39"/>
       <c r="D88" s="39"/>
@@ -24860,7 +24822,7 @@
     </row>
     <row r="89" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B89" s="23" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C89" s="39"/>
       <c r="D89" s="39"/>
@@ -25038,7 +25000,7 @@
       </c>
       <c r="DG89" s="39">
         <f t="shared" ref="DG89:DN89" si="265">DG62/DG61</f>
-        <v>0.28000000000000003</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="DH89" s="39">
         <f t="shared" si="265"/>
@@ -25365,7 +25327,7 @@
     <row r="92" spans="1:118" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="23"/>
       <c r="B92" s="23" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C92" s="33"/>
       <c r="D92" s="41"/>
@@ -25531,59 +25493,59 @@
       </c>
       <c r="DA92" s="35">
         <f t="shared" si="268"/>
-        <v>34857.219499999999</v>
+        <v>33840.925499999998</v>
       </c>
       <c r="DB92" s="35">
         <f t="shared" si="268"/>
-        <v>39795.609962000002</v>
+        <v>37524.456059999997</v>
       </c>
       <c r="DC92" s="35">
         <f t="shared" si="268"/>
-        <v>44794.027830632003</v>
+        <v>41090.231969999993</v>
       </c>
       <c r="DD92" s="35">
         <f t="shared" si="268"/>
-        <v>49454.793718734756</v>
+        <v>44138.412856199997</v>
       </c>
       <c r="DE92" s="35">
         <f t="shared" si="268"/>
-        <v>53830.528129104205</v>
+        <v>46733.774692694999</v>
       </c>
       <c r="DF92" s="35">
         <f t="shared" si="268"/>
-        <v>58866.061654872807</v>
+        <v>49831.409205815849</v>
       </c>
       <c r="DG92" s="35">
         <f t="shared" ref="DG92:DN92" si="269">DF92+DG64</f>
-        <v>63901.595180641409</v>
+        <v>52929.0437189367</v>
       </c>
       <c r="DH92" s="35">
         <f t="shared" si="269"/>
-        <v>68937.128706410003</v>
+        <v>56026.678232057551</v>
       </c>
       <c r="DI92" s="35">
         <f t="shared" si="269"/>
-        <v>68937.128706410003</v>
+        <v>56026.678232057551</v>
       </c>
       <c r="DJ92" s="35">
         <f t="shared" si="269"/>
-        <v>68937.128706410003</v>
+        <v>56026.678232057551</v>
       </c>
       <c r="DK92" s="35">
         <f t="shared" si="269"/>
-        <v>68937.128706410003</v>
+        <v>56026.678232057551</v>
       </c>
       <c r="DL92" s="35">
         <f t="shared" si="269"/>
-        <v>68937.128706410003</v>
+        <v>56026.678232057551</v>
       </c>
       <c r="DM92" s="35">
         <f t="shared" si="269"/>
-        <v>68937.128706410003</v>
+        <v>56026.678232057551</v>
       </c>
       <c r="DN92" s="35">
         <f t="shared" si="269"/>
-        <v>68937.128706410003</v>
+        <v>56026.678232057551</v>
       </c>
     </row>
     <row r="93" spans="1:118" x14ac:dyDescent="0.2">
@@ -25724,7 +25686,7 @@
     </row>
     <row r="94" spans="1:118" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="25" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C94" s="30"/>
       <c r="D94" s="30"/>
@@ -25851,7 +25813,7 @@
     </row>
     <row r="95" spans="1:118" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="25" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C95" s="30"/>
       <c r="D95" s="30"/>
@@ -25978,7 +25940,7 @@
     </row>
     <row r="96" spans="1:118" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="25" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C96" s="30"/>
       <c r="D96" s="30"/>
@@ -26105,7 +26067,7 @@
     </row>
     <row r="97" spans="2:110" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="25" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C97" s="30"/>
       <c r="D97" s="30"/>
@@ -26232,7 +26194,7 @@
     </row>
     <row r="98" spans="2:110" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="25" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C98" s="30"/>
       <c r="D98" s="30"/>
@@ -26359,7 +26321,7 @@
     </row>
     <row r="99" spans="2:110" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C99" s="30"/>
       <c r="D99" s="30"/>
@@ -26493,7 +26455,7 @@
     </row>
     <row r="100" spans="2:110" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="25" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C100" s="30"/>
       <c r="D100" s="30"/>
@@ -26620,7 +26582,7 @@
     </row>
     <row r="101" spans="2:110" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="25" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C101" s="30"/>
       <c r="D101" s="30"/>
@@ -26747,7 +26709,7 @@
     </row>
     <row r="102" spans="2:110" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="25" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C102" s="30"/>
       <c r="D102" s="30"/>
@@ -27125,7 +27087,7 @@
     </row>
     <row r="105" spans="2:110" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="25" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C105" s="30"/>
       <c r="D105" s="30"/>
@@ -27252,7 +27214,7 @@
     </row>
     <row r="106" spans="2:110" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C106" s="30"/>
       <c r="D106" s="30"/>
@@ -27379,7 +27341,7 @@
     </row>
     <row r="107" spans="2:110" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="25" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C107" s="30"/>
       <c r="D107" s="30"/>
@@ -27508,7 +27470,7 @@
     </row>
     <row r="108" spans="2:110" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C108" s="30"/>
       <c r="D108" s="30"/>
@@ -27766,7 +27728,7 @@
     </row>
     <row r="110" spans="2:110" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="25" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C110" s="30"/>
       <c r="D110" s="30"/>
@@ -27891,7 +27853,7 @@
     </row>
     <row r="111" spans="2:110" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="25" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C111" s="30"/>
       <c r="D111" s="30"/>
@@ -28016,7 +27978,7 @@
     </row>
     <row r="112" spans="2:110" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C112" s="30"/>
       <c r="D112" s="30"/>
@@ -28267,7 +28229,7 @@
     </row>
     <row r="114" spans="1:111" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="44" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C114" s="30"/>
       <c r="D114" s="30"/>
@@ -28395,7 +28357,7 @@
     </row>
     <row r="115" spans="1:111" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="25" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C115" s="30"/>
       <c r="D115" s="30"/>
@@ -28521,7 +28483,7 @@
     </row>
     <row r="116" spans="1:111" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="44" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C116" s="30"/>
       <c r="D116" s="30"/>
@@ -28652,7 +28614,7 @@
     </row>
     <row r="117" spans="1:111" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="25" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C117" s="30"/>
       <c r="D117" s="30"/>
@@ -28893,7 +28855,7 @@
     </row>
     <row r="119" spans="1:111" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="CG119" s="39">
         <f>CG52/CF52-1</f>
@@ -28906,7 +28868,7 @@
     </row>
     <row r="120" spans="1:111" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="CG120" s="39">
         <v>0.01</v>
@@ -28917,7 +28879,7 @@
     </row>
     <row r="121" spans="1:111" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="CG121" s="39">
         <v>0.04</v>
@@ -28928,7 +28890,7 @@
     </row>
     <row r="122" spans="1:111" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="CG122" s="39">
         <v>0.01</v>
@@ -28975,7 +28937,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -28996,7 +28958,7 @@
         <v>141</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -29004,7 +28966,7 @@
         <v>151</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -29015,13 +28977,13 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="32"/>
       <c r="C8" s="47" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="32"/>
       <c r="C9" s="32" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -29029,42 +28991,42 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="47" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="32" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="32" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="32" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="32" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="32" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="32" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="32" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -29099,7 +29061,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -29170,12 +29132,12 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="17" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="23" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -29250,17 +29212,17 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="17" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="17" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="23" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -29318,7 +29280,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -29424,12 +29386,12 @@
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" s="17" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" s="23" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -29464,7 +29426,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D2" s="32"/>
     </row>
@@ -29473,7 +29435,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -29481,7 +29443,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -29489,7 +29451,7 @@
         <v>141</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -29497,7 +29459,7 @@
         <v>151</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -29507,12 +29469,12 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" s="47" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="32" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -29520,7 +29482,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="47" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -29528,17 +29490,17 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" s="47" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" s="32" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" s="32" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -29573,7 +29535,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -29581,7 +29543,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -29589,7 +29551,7 @@
         <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -29597,7 +29559,7 @@
         <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -29605,7 +29567,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -29615,12 +29577,12 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -29634,18 +29596,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29763,18 +29725,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC6227C-4700-4C6A-A399-7F39853AD9C6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2206DA00-2832-4926-9B8E-385E975B4BC4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2206DA00-2832-4926-9B8E-385E975B4BC4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC6227C-4700-4C6A-A399-7F39853AD9C6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/BMY.xlsx
+++ b/BMY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B808A7D0-3169-4D7D-8CCA-3A1FEEBD6A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29866D30-1E5D-4E46-848C-2E299441449F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57270" yWindow="1410" windowWidth="25035" windowHeight="19590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57180" yWindow="1050" windowWidth="24855" windowHeight="19110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="23" r:id="rId1"/>
@@ -617,7 +617,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="689">
   <si>
     <t>Name</t>
   </si>
@@ -2681,6 +2681,9 @@
   </si>
   <si>
     <t>Sotyktu (deucravacitinib)</t>
+  </si>
+  <si>
+    <t>daclatasvir/HCV</t>
   </si>
 </sst>
 </file>
@@ -6814,10 +6817,10 @@
   <dimension ref="A1:FD122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CA28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DL7" sqref="DL7"/>
+      <selection pane="bottomRight" activeCell="CK33" sqref="CK33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6836,10 +6839,7 @@
     <col min="63" max="66" width="6.85546875" style="28" customWidth="1"/>
     <col min="67" max="78" width="7.5703125" style="28" customWidth="1"/>
     <col min="79" max="81" width="5.42578125" style="28" customWidth="1"/>
-    <col min="82" max="83" width="6.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="6.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="7.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="87" max="93" width="5" style="28" bestFit="1" customWidth="1"/>
+    <col min="82" max="93" width="6.5703125" style="28" customWidth="1"/>
     <col min="94" max="94" width="7" style="28" bestFit="1" customWidth="1"/>
     <col min="95" max="96" width="6.5703125" style="28" bestFit="1" customWidth="1"/>
     <col min="97" max="101" width="7" style="28" customWidth="1"/>
@@ -7345,14 +7345,30 @@
       <c r="AT3" s="35"/>
       <c r="AU3" s="35"/>
       <c r="AV3" s="35"/>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="35"/>
-      <c r="AY3" s="35"/>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="35"/>
-      <c r="BB3" s="35"/>
-      <c r="BC3" s="35"/>
-      <c r="BD3" s="35"/>
+      <c r="AW3" s="35">
+        <v>572</v>
+      </c>
+      <c r="AX3" s="35">
+        <v>625</v>
+      </c>
+      <c r="AY3" s="35">
+        <v>535</v>
+      </c>
+      <c r="AZ3" s="35">
+        <v>650</v>
+      </c>
+      <c r="BA3" s="35">
+        <v>632</v>
+      </c>
+      <c r="BB3" s="35">
+        <v>662</v>
+      </c>
+      <c r="BC3" s="35">
+        <v>593</v>
+      </c>
+      <c r="BD3" s="35">
+        <v>711</v>
+      </c>
       <c r="BE3" s="35">
         <v>675</v>
       </c>
@@ -7579,14 +7595,30 @@
       <c r="AT4" s="30"/>
       <c r="AU4" s="30"/>
       <c r="AV4" s="30"/>
-      <c r="AW4" s="30"/>
-      <c r="AX4" s="30"/>
-      <c r="AY4" s="30"/>
-      <c r="AZ4" s="30"/>
-      <c r="BA4" s="30"/>
-      <c r="BB4" s="30"/>
-      <c r="BC4" s="30"/>
-      <c r="BD4" s="30"/>
+      <c r="AW4" s="30">
+        <v>920</v>
+      </c>
+      <c r="AX4" s="30">
+        <v>1310</v>
+      </c>
+      <c r="AY4" s="30">
+        <v>1127</v>
+      </c>
+      <c r="AZ4" s="30">
+        <v>1195</v>
+      </c>
+      <c r="BA4" s="30">
+        <v>1265</v>
+      </c>
+      <c r="BB4" s="30">
+        <v>1361</v>
+      </c>
+      <c r="BC4" s="30">
+        <v>1511</v>
+      </c>
+      <c r="BD4" s="30">
+        <v>1627</v>
+      </c>
       <c r="BE4" s="30">
         <v>1793</v>
       </c>
@@ -7856,14 +7888,30 @@
       <c r="AT5" s="30"/>
       <c r="AU5" s="30"/>
       <c r="AV5" s="30"/>
-      <c r="AW5" s="30"/>
-      <c r="AX5" s="30"/>
-      <c r="AY5" s="30"/>
-      <c r="AZ5" s="30"/>
-      <c r="BA5" s="30"/>
-      <c r="BB5" s="30"/>
-      <c r="BC5" s="30"/>
-      <c r="BD5" s="30"/>
+      <c r="AW5" s="30">
+        <v>472</v>
+      </c>
+      <c r="AX5" s="30">
+        <v>494</v>
+      </c>
+      <c r="AY5" s="30">
+        <v>463</v>
+      </c>
+      <c r="AZ5" s="30">
+        <v>506</v>
+      </c>
+      <c r="BA5" s="30">
+        <v>509</v>
+      </c>
+      <c r="BB5" s="30">
+        <v>527</v>
+      </c>
+      <c r="BC5" s="30">
+        <v>438</v>
+      </c>
+      <c r="BD5" s="30">
+        <v>535</v>
+      </c>
       <c r="BE5" s="30">
         <v>491</v>
       </c>
@@ -8123,14 +8171,30 @@
       <c r="AT6" s="30"/>
       <c r="AU6" s="30"/>
       <c r="AV6" s="30"/>
-      <c r="AW6" s="30"/>
-      <c r="AX6" s="30"/>
-      <c r="AY6" s="30"/>
-      <c r="AZ6" s="30"/>
-      <c r="BA6" s="30"/>
-      <c r="BB6" s="30"/>
-      <c r="BC6" s="30"/>
-      <c r="BD6" s="30"/>
+      <c r="AW6" s="30">
+        <v>285</v>
+      </c>
+      <c r="AX6" s="30">
+        <v>264</v>
+      </c>
+      <c r="AY6" s="30">
+        <v>330</v>
+      </c>
+      <c r="AZ6" s="30">
+        <v>322</v>
+      </c>
+      <c r="BA6" s="30">
+        <v>323</v>
+      </c>
+      <c r="BB6" s="30">
+        <v>269</v>
+      </c>
+      <c r="BC6" s="30">
+        <v>249</v>
+      </c>
+      <c r="BD6" s="30">
+        <v>315</v>
+      </c>
       <c r="BE6" s="30">
         <v>382</v>
       </c>
@@ -8346,14 +8410,30 @@
       <c r="AT7" s="30"/>
       <c r="AU7" s="30"/>
       <c r="AV7" s="30"/>
-      <c r="AW7" s="30"/>
-      <c r="AX7" s="30"/>
-      <c r="AY7" s="30"/>
-      <c r="AZ7" s="30"/>
-      <c r="BA7" s="30"/>
-      <c r="BB7" s="30"/>
-      <c r="BC7" s="30"/>
-      <c r="BD7" s="30"/>
+      <c r="AW7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="30">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="30">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="30">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="30">
+        <v>0</v>
+      </c>
       <c r="BE7" s="30">
         <v>0</v>
       </c>
@@ -8593,14 +8673,30 @@
       <c r="AT8" s="30"/>
       <c r="AU8" s="30"/>
       <c r="AV8" s="30"/>
-      <c r="AW8" s="30"/>
-      <c r="AX8" s="30"/>
-      <c r="AY8" s="30"/>
-      <c r="AZ8" s="30"/>
-      <c r="BA8" s="30"/>
-      <c r="BB8" s="30"/>
-      <c r="BC8" s="30"/>
-      <c r="BD8" s="30"/>
+      <c r="AW8" s="30">
+        <v>884</v>
+      </c>
+      <c r="AX8" s="30">
+        <v>948</v>
+      </c>
+      <c r="AY8" s="30">
+        <v>1101</v>
+      </c>
+      <c r="AZ8" s="30">
+        <v>1176</v>
+      </c>
+      <c r="BA8" s="30">
+        <v>1232</v>
+      </c>
+      <c r="BB8" s="30">
+        <v>1363</v>
+      </c>
+      <c r="BC8" s="30">
+        <v>1506</v>
+      </c>
+      <c r="BD8" s="30">
+        <v>1650</v>
+      </c>
       <c r="BE8" s="30">
         <v>1577</v>
       </c>
@@ -8806,14 +8902,30 @@
       <c r="AT9" s="30"/>
       <c r="AU9" s="30"/>
       <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30"/>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30"/>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="30"/>
+      <c r="AW9" s="30">
+        <v>41</v>
+      </c>
+      <c r="AX9" s="30">
+        <v>47</v>
+      </c>
+      <c r="AY9" s="30">
+        <v>53</v>
+      </c>
+      <c r="AZ9" s="30">
+        <v>55</v>
+      </c>
+      <c r="BA9" s="30">
+        <v>60</v>
+      </c>
+      <c r="BB9" s="30">
+        <v>63</v>
+      </c>
+      <c r="BC9" s="30">
+        <v>55</v>
+      </c>
+      <c r="BD9" s="30">
+        <v>64</v>
+      </c>
       <c r="BE9" s="30">
         <v>59</v>
       </c>
@@ -9019,14 +9131,30 @@
       <c r="AT10" s="30"/>
       <c r="AU10" s="30"/>
       <c r="AV10" s="30"/>
-      <c r="AW10" s="30"/>
-      <c r="AX10" s="30"/>
-      <c r="AY10" s="30"/>
-      <c r="AZ10" s="30"/>
-      <c r="BA10" s="30"/>
-      <c r="BB10" s="30"/>
-      <c r="BC10" s="30"/>
-      <c r="BD10" s="30"/>
+      <c r="AW10" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="30">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="30">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="30">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="30">
+        <v>0</v>
+      </c>
       <c r="BE10" s="30">
         <v>0</v>
       </c>
@@ -9252,14 +9380,30 @@
       <c r="AT11" s="30"/>
       <c r="AU11" s="30"/>
       <c r="AV11" s="30"/>
-      <c r="AW11" s="30"/>
-      <c r="AX11" s="30"/>
-      <c r="AY11" s="30"/>
-      <c r="AZ11" s="30"/>
-      <c r="BA11" s="30"/>
-      <c r="BB11" s="30"/>
-      <c r="BC11" s="30"/>
-      <c r="BD11" s="30"/>
+      <c r="AW11" s="30">
+        <v>550</v>
+      </c>
+      <c r="AX11" s="30">
+        <v>581</v>
+      </c>
+      <c r="AY11" s="30">
+        <v>499</v>
+      </c>
+      <c r="AZ11" s="30">
+        <v>479</v>
+      </c>
+      <c r="BA11" s="30">
+        <v>539</v>
+      </c>
+      <c r="BB11" s="30">
+        <v>595</v>
+      </c>
+      <c r="BC11" s="30">
+        <v>405</v>
+      </c>
+      <c r="BD11" s="30">
+        <v>421</v>
+      </c>
       <c r="BE11" s="30">
         <v>539</v>
       </c>
@@ -9465,14 +9609,30 @@
       <c r="AT12" s="30"/>
       <c r="AU12" s="30"/>
       <c r="AV12" s="30"/>
-      <c r="AW12" s="30"/>
-      <c r="AX12" s="30"/>
-      <c r="AY12" s="30"/>
-      <c r="AZ12" s="30"/>
-      <c r="BA12" s="30"/>
-      <c r="BB12" s="30"/>
-      <c r="BC12" s="30"/>
-      <c r="BD12" s="30"/>
+      <c r="AW12" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="30">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="30">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="30">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="30">
+        <v>0</v>
+      </c>
       <c r="BE12" s="30">
         <v>0</v>
       </c>
@@ -9678,14 +9838,30 @@
       <c r="AT13" s="30"/>
       <c r="AU13" s="30"/>
       <c r="AV13" s="30"/>
-      <c r="AW13" s="30"/>
-      <c r="AX13" s="30"/>
-      <c r="AY13" s="30"/>
-      <c r="AZ13" s="30"/>
-      <c r="BA13" s="30"/>
-      <c r="BB13" s="30"/>
-      <c r="BC13" s="30"/>
-      <c r="BD13" s="30"/>
+      <c r="AW13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="30">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="30">
+        <v>0</v>
+      </c>
       <c r="BE13" s="30">
         <v>0</v>
       </c>
@@ -9891,14 +10067,30 @@
       <c r="AT14" s="30"/>
       <c r="AU14" s="30"/>
       <c r="AV14" s="30"/>
-      <c r="AW14" s="30"/>
-      <c r="AX14" s="30"/>
-      <c r="AY14" s="30"/>
-      <c r="AZ14" s="30"/>
-      <c r="BA14" s="30"/>
-      <c r="BB14" s="30"/>
-      <c r="BC14" s="30"/>
-      <c r="BD14" s="30"/>
+      <c r="AW14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="30">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="30">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="30">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="30">
+        <v>0</v>
+      </c>
       <c r="BE14" s="30">
         <v>0</v>
       </c>
@@ -10104,14 +10296,30 @@
       <c r="AT15" s="30"/>
       <c r="AU15" s="30"/>
       <c r="AV15" s="30"/>
-      <c r="AW15" s="30"/>
-      <c r="AX15" s="30"/>
-      <c r="AY15" s="30"/>
-      <c r="AZ15" s="30"/>
-      <c r="BA15" s="30"/>
-      <c r="BB15" s="30"/>
-      <c r="BC15" s="30"/>
-      <c r="BD15" s="30"/>
+      <c r="AW15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="30">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="30">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="30">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="30">
+        <v>0</v>
+      </c>
       <c r="BE15" s="30">
         <v>0</v>
       </c>
@@ -10317,14 +10525,30 @@
       <c r="AT16" s="30"/>
       <c r="AU16" s="30"/>
       <c r="AV16" s="30"/>
-      <c r="AW16" s="30"/>
-      <c r="AX16" s="30"/>
-      <c r="AY16" s="30"/>
-      <c r="AZ16" s="30"/>
-      <c r="BA16" s="30"/>
-      <c r="BB16" s="30"/>
-      <c r="BC16" s="30"/>
-      <c r="BD16" s="30"/>
+      <c r="AW16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="30">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="30">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="30">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="30">
+        <v>0</v>
+      </c>
       <c r="BE16" s="30">
         <v>0</v>
       </c>
@@ -10530,14 +10754,30 @@
       <c r="AT17" s="30"/>
       <c r="AU17" s="30"/>
       <c r="AV17" s="30"/>
-      <c r="AW17" s="30"/>
-      <c r="AX17" s="30"/>
-      <c r="AY17" s="30"/>
-      <c r="AZ17" s="30"/>
-      <c r="BA17" s="30"/>
-      <c r="BB17" s="30"/>
-      <c r="BC17" s="30"/>
-      <c r="BD17" s="30"/>
+      <c r="AW17" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="30">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="30">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="30">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="30">
+        <v>0</v>
+      </c>
       <c r="BE17" s="30">
         <v>0</v>
       </c>
@@ -10743,14 +10983,30 @@
       <c r="AT18" s="30"/>
       <c r="AU18" s="30"/>
       <c r="AV18" s="30"/>
-      <c r="AW18" s="30"/>
-      <c r="AX18" s="30"/>
-      <c r="AY18" s="30"/>
-      <c r="AZ18" s="30"/>
-      <c r="BA18" s="30"/>
-      <c r="BB18" s="30"/>
-      <c r="BC18" s="30"/>
-      <c r="BD18" s="30"/>
+      <c r="AW18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="30">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="30">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="30">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="30">
+        <v>0</v>
+      </c>
       <c r="BE18" s="30">
         <v>0</v>
       </c>
@@ -10956,14 +11212,30 @@
       <c r="AT19" s="30"/>
       <c r="AU19" s="30"/>
       <c r="AV19" s="30"/>
-      <c r="AW19" s="30"/>
-      <c r="AX19" s="30"/>
-      <c r="AY19" s="30"/>
-      <c r="AZ19" s="30"/>
-      <c r="BA19" s="30"/>
-      <c r="BB19" s="30"/>
-      <c r="BC19" s="30"/>
-      <c r="BD19" s="30"/>
+      <c r="AW19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="30">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="30">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="30">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="30">
+        <v>0</v>
+      </c>
       <c r="BE19" s="30">
         <v>0</v>
       </c>
@@ -11169,14 +11441,30 @@
       <c r="AT20" s="30"/>
       <c r="AU20" s="30"/>
       <c r="AV20" s="30"/>
-      <c r="AW20" s="30"/>
-      <c r="AX20" s="30"/>
-      <c r="AY20" s="30"/>
-      <c r="AZ20" s="30"/>
-      <c r="BA20" s="30"/>
-      <c r="BB20" s="30"/>
-      <c r="BC20" s="30"/>
-      <c r="BD20" s="30"/>
+      <c r="AW20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="30">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="30">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="30">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="30">
+        <v>0</v>
+      </c>
       <c r="BE20" s="30">
         <v>0</v>
       </c>
@@ -11382,19 +11670,45 @@
       <c r="AT21" s="30"/>
       <c r="AU21" s="30"/>
       <c r="AV21" s="30"/>
-      <c r="AW21" s="30"/>
-      <c r="AX21" s="30"/>
-      <c r="AY21" s="30"/>
-      <c r="AZ21" s="30"/>
-      <c r="BA21" s="30"/>
-      <c r="BB21" s="30"/>
-      <c r="BC21" s="30"/>
-      <c r="BD21" s="30"/>
-      <c r="BE21" s="30"/>
-      <c r="BF21" s="30"/>
-      <c r="BG21" s="30"/>
-      <c r="BH21" s="30"/>
-      <c r="BI21" s="30"/>
+      <c r="AW21" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="30">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="30">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="30">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="30">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="30">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="30">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="30">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="30">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="30">
+        <v>0</v>
+      </c>
       <c r="BJ21" s="30"/>
       <c r="BK21" s="30"/>
       <c r="BL21" s="30"/>
@@ -11557,14 +11871,30 @@
       <c r="AT22" s="30"/>
       <c r="AU22" s="30"/>
       <c r="AV22" s="30"/>
-      <c r="AW22" s="30"/>
-      <c r="AX22" s="30"/>
-      <c r="AY22" s="30"/>
-      <c r="AZ22" s="30"/>
-      <c r="BA22" s="30"/>
-      <c r="BB22" s="30"/>
-      <c r="BC22" s="30"/>
-      <c r="BD22" s="30"/>
+      <c r="AW22" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="30">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="30">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="30">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="30">
+        <v>0</v>
+      </c>
       <c r="BE22" s="30">
         <v>0</v>
       </c>
@@ -11663,9 +11993,9 @@
       <c r="DR22" s="30"/>
       <c r="DS22" s="30"/>
     </row>
-    <row r="23" spans="2:123" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B23" s="23" t="s">
-        <v>423</v>
+        <v>688</v>
       </c>
       <c r="V23" s="35"/>
       <c r="W23" s="33"/>
@@ -11691,6 +12021,30 @@
       <c r="AQ23" s="35"/>
       <c r="AR23" s="35"/>
       <c r="AS23" s="35"/>
+      <c r="AW23" s="28">
+        <v>379</v>
+      </c>
+      <c r="AX23" s="28">
+        <v>226</v>
+      </c>
+      <c r="AY23" s="28">
+        <v>162</v>
+      </c>
+      <c r="AZ23" s="28">
+        <v>112</v>
+      </c>
+      <c r="BA23" s="28">
+        <v>73</v>
+      </c>
+      <c r="BB23" s="28">
+        <v>59</v>
+      </c>
+      <c r="BC23" s="28">
+        <v>3</v>
+      </c>
+      <c r="BD23" s="28">
+        <v>12</v>
+      </c>
       <c r="CD23" s="30"/>
       <c r="CE23" s="30"/>
       <c r="CF23" s="30"/>
@@ -11753,7 +12107,7 @@
       <c r="DM23" s="30"/>
       <c r="DN23" s="35"/>
     </row>
-    <row r="24" spans="2:123" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B24" s="23" t="s">
         <v>422</v>
       </c>
@@ -11874,7 +12228,7 @@
       <c r="DM24" s="30"/>
       <c r="DN24" s="30"/>
     </row>
-    <row r="25" spans="2:123" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
@@ -11990,7 +12344,7 @@
       <c r="DM25" s="35"/>
       <c r="DN25" s="35"/>
     </row>
-    <row r="26" spans="2:123" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>96</v>
       </c>
@@ -12106,7 +12460,7 @@
       <c r="DM26" s="35"/>
       <c r="DN26" s="35"/>
     </row>
-    <row r="27" spans="2:123" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>98</v>
       </c>
@@ -12322,7 +12676,7 @@
         <v>2085.3396265624997</v>
       </c>
     </row>
-    <row r="28" spans="2:123" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>94</v>
       </c>
@@ -12405,7 +12759,7 @@
       <c r="DM28" s="35"/>
       <c r="DN28" s="35"/>
     </row>
-    <row r="29" spans="2:123" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>88</v>
       </c>
@@ -12529,7 +12883,7 @@
       <c r="DM29" s="35"/>
       <c r="DN29" s="35"/>
     </row>
-    <row r="30" spans="2:123" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B30" s="23" t="s">
         <v>585</v>
       </c>
@@ -12588,7 +12942,7 @@
       <c r="DM30" s="30"/>
       <c r="DN30" s="30"/>
     </row>
-    <row r="31" spans="2:123" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B31" s="23" t="s">
         <v>463</v>
       </c>
@@ -12790,7 +13144,7 @@
       <c r="DM31" s="30"/>
       <c r="DN31" s="30"/>
     </row>
-    <row r="32" spans="2:123" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:123" x14ac:dyDescent="0.2">
       <c r="B32" s="23" t="s">
         <v>210</v>
       </c>
@@ -12932,7 +13286,7 @@
       <c r="DM32" s="35"/>
       <c r="DN32" s="35"/>
     </row>
-    <row r="33" spans="2:119" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>238</v>
       </c>
@@ -13112,7 +13466,7 @@
       <c r="DM33" s="35"/>
       <c r="DN33" s="35"/>
     </row>
-    <row r="34" spans="2:119" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B34" s="23" t="s">
         <v>462</v>
       </c>
@@ -13239,7 +13593,7 @@
       <c r="DN34" s="30"/>
       <c r="DO34" s="30"/>
     </row>
-    <row r="35" spans="2:119" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B35" s="23" t="s">
         <v>456</v>
       </c>
@@ -13440,7 +13794,7 @@
       <c r="DM35" s="30"/>
       <c r="DN35" s="30"/>
     </row>
-    <row r="36" spans="2:119" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B36" s="23" t="s">
         <v>578</v>
       </c>
@@ -13535,7 +13889,7 @@
       <c r="DM36" s="35"/>
       <c r="DN36" s="35"/>
     </row>
-    <row r="37" spans="2:119" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B37" s="23" t="s">
         <v>577</v>
       </c>
@@ -13625,7 +13979,7 @@
       <c r="DM37" s="35"/>
       <c r="DN37" s="35"/>
     </row>
-    <row r="38" spans="2:119" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B38" s="23" t="s">
         <v>449</v>
       </c>
@@ -13824,7 +14178,7 @@
       <c r="DM38" s="30"/>
       <c r="DN38" s="30"/>
     </row>
-    <row r="39" spans="2:119" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B39" s="23" t="s">
         <v>457</v>
       </c>
@@ -14025,7 +14379,7 @@
       <c r="DM39" s="30"/>
       <c r="DN39" s="30"/>
     </row>
-    <row r="40" spans="2:119" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B40" s="23" t="s">
         <v>458</v>
       </c>
@@ -14145,6 +14499,30 @@
       <c r="AQ40" s="30"/>
       <c r="AR40" s="30"/>
       <c r="AS40" s="30"/>
+      <c r="AW40" s="28">
+        <v>275</v>
+      </c>
+      <c r="AX40" s="28">
+        <v>246</v>
+      </c>
+      <c r="AY40" s="28">
+        <v>184</v>
+      </c>
+      <c r="AZ40" s="28">
+        <v>188</v>
+      </c>
+      <c r="BA40" s="28">
+        <v>183</v>
+      </c>
+      <c r="BB40" s="28">
+        <v>174</v>
+      </c>
+      <c r="BC40" s="28">
+        <v>84</v>
+      </c>
+      <c r="BD40" s="28">
+        <v>73</v>
+      </c>
       <c r="CD40" s="30"/>
       <c r="CE40" s="30"/>
       <c r="CF40" s="30"/>
@@ -14228,7 +14606,7 @@
       <c r="DM40" s="30"/>
       <c r="DN40" s="30"/>
     </row>
-    <row r="41" spans="2:119" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B41" s="23" t="s">
         <v>459</v>
       </c>
@@ -14348,6 +14726,30 @@
       <c r="AQ41" s="30"/>
       <c r="AR41" s="30"/>
       <c r="AS41" s="30"/>
+      <c r="AW41" s="28">
+        <v>238</v>
+      </c>
+      <c r="AX41" s="28">
+        <v>206</v>
+      </c>
+      <c r="AY41" s="28">
+        <v>193</v>
+      </c>
+      <c r="AZ41" s="28">
+        <v>188</v>
+      </c>
+      <c r="BA41" s="28">
+        <v>174</v>
+      </c>
+      <c r="BB41" s="28">
+        <v>143</v>
+      </c>
+      <c r="BC41" s="28">
+        <v>124</v>
+      </c>
+      <c r="BD41" s="28">
+        <v>117</v>
+      </c>
       <c r="CD41" s="30"/>
       <c r="CE41" s="30"/>
       <c r="CF41" s="30"/>
@@ -14546,6 +14948,30 @@
       <c r="AQ42" s="30"/>
       <c r="AR42" s="30"/>
       <c r="AS42" s="30"/>
+      <c r="AW42" s="28">
+        <v>306</v>
+      </c>
+      <c r="AX42" s="28">
+        <v>296</v>
+      </c>
+      <c r="AY42" s="28">
+        <v>282</v>
+      </c>
+      <c r="AZ42" s="28">
+        <v>273</v>
+      </c>
+      <c r="BA42" s="28">
+        <v>264</v>
+      </c>
+      <c r="BB42" s="28">
+        <v>233</v>
+      </c>
+      <c r="BC42" s="28">
+        <v>225</v>
+      </c>
+      <c r="BD42" s="28">
+        <v>179</v>
+      </c>
       <c r="BE42" s="28">
         <v>175</v>
       </c>
@@ -16028,16 +16454,40 @@
       <c r="AT52" s="36"/>
       <c r="AU52" s="36"/>
       <c r="AV52" s="36"/>
-      <c r="AW52" s="36"/>
-      <c r="AX52" s="36"/>
-      <c r="AY52" s="36"/>
-      <c r="AZ52" s="36"/>
-      <c r="BA52" s="36"/>
-      <c r="BB52" s="36"/>
-      <c r="BC52" s="36"/>
-      <c r="BD52" s="36"/>
+      <c r="AW52" s="36">
+        <f t="shared" ref="AW52:BP52" si="99">SUM(AW3:AW42)</f>
+        <v>4922</v>
+      </c>
+      <c r="AX52" s="36">
+        <f t="shared" si="99"/>
+        <v>5243</v>
+      </c>
+      <c r="AY52" s="36">
+        <f t="shared" si="99"/>
+        <v>4929</v>
+      </c>
+      <c r="AZ52" s="36">
+        <f t="shared" si="99"/>
+        <v>5144</v>
+      </c>
+      <c r="BA52" s="36">
+        <f t="shared" si="99"/>
+        <v>5254</v>
+      </c>
+      <c r="BB52" s="36">
+        <f t="shared" si="99"/>
+        <v>5449</v>
+      </c>
+      <c r="BC52" s="36">
+        <f t="shared" si="99"/>
+        <v>5193</v>
+      </c>
+      <c r="BD52" s="36">
+        <f t="shared" si="99"/>
+        <v>5704</v>
+      </c>
       <c r="BE52" s="36">
-        <f t="shared" ref="BE52:BP52" si="99">SUM(BE3:BE42)</f>
+        <f t="shared" si="99"/>
         <v>5691</v>
       </c>
       <c r="BF52" s="36">
@@ -16393,14 +16843,37 @@
       <c r="AT53" s="30"/>
       <c r="AU53" s="30"/>
       <c r="AV53" s="30"/>
-      <c r="AW53" s="30"/>
-      <c r="AX53" s="30"/>
-      <c r="AY53" s="30"/>
-      <c r="AZ53" s="30"/>
-      <c r="BA53" s="30"/>
-      <c r="BB53" s="30"/>
-      <c r="BC53" s="30"/>
-      <c r="BD53" s="30"/>
+      <c r="AW53" s="30">
+        <f>1305-7</f>
+        <v>1298</v>
+      </c>
+      <c r="AX53" s="30">
+        <f>1383-6</f>
+        <v>1377</v>
+      </c>
+      <c r="AY53" s="30">
+        <v>1265</v>
+      </c>
+      <c r="AZ53" s="30">
+        <f>1569-130</f>
+        <v>1439</v>
+      </c>
+      <c r="BA53" s="30">
+        <f>1572-1</f>
+        <v>1571</v>
+      </c>
+      <c r="BB53" s="30">
+        <f>1673-18</f>
+        <v>1655</v>
+      </c>
+      <c r="BC53" s="30">
+        <f>1584-13</f>
+        <v>1571</v>
+      </c>
+      <c r="BD53" s="30">
+        <f>1625-14</f>
+        <v>1611</v>
+      </c>
       <c r="BE53" s="30"/>
       <c r="BF53" s="30"/>
       <c r="BG53" s="30">
@@ -16716,52 +17189,76 @@
       <c r="AT54" s="30"/>
       <c r="AU54" s="30"/>
       <c r="AV54" s="30"/>
-      <c r="AW54" s="30"/>
-      <c r="AX54" s="30"/>
-      <c r="AY54" s="30"/>
-      <c r="AZ54" s="30"/>
-      <c r="BA54" s="30"/>
-      <c r="BB54" s="30"/>
-      <c r="BC54" s="30"/>
-      <c r="BD54" s="30"/>
+      <c r="AW54" s="30">
+        <f t="shared" ref="AW54" si="107">+AW52-AW53</f>
+        <v>3624</v>
+      </c>
+      <c r="AX54" s="30">
+        <f>+AX52-AX53</f>
+        <v>3866</v>
+      </c>
+      <c r="AY54" s="30">
+        <f>+AY52-AY53</f>
+        <v>3664</v>
+      </c>
+      <c r="AZ54" s="30">
+        <f>+AZ52-AZ53</f>
+        <v>3705</v>
+      </c>
+      <c r="BA54" s="30">
+        <f t="shared" ref="BA54" si="108">+BA52-BA53</f>
+        <v>3683</v>
+      </c>
+      <c r="BB54" s="30">
+        <f>+BB52-BB53</f>
+        <v>3794</v>
+      </c>
+      <c r="BC54" s="30">
+        <f>+BC52-BC53</f>
+        <v>3622</v>
+      </c>
+      <c r="BD54" s="30">
+        <f>+BD52-BD53</f>
+        <v>4093</v>
+      </c>
       <c r="BE54" s="30"/>
       <c r="BF54" s="30"/>
       <c r="BG54" s="30">
-        <f t="shared" ref="BG54:BH54" si="107">BG52-BG53</f>
+        <f t="shared" ref="BG54:BH54" si="109">BG52-BG53</f>
         <v>4096</v>
       </c>
       <c r="BH54" s="30">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>4301</v>
       </c>
       <c r="BI54" s="30"/>
       <c r="BJ54" s="30"/>
       <c r="BK54" s="30">
-        <f t="shared" ref="BK54" si="108">BK52-BK53</f>
+        <f t="shared" ref="BK54" si="110">BK52-BK53</f>
         <v>8557</v>
       </c>
       <c r="BL54" s="30">
-        <f t="shared" ref="BL54:BN54" si="109">BL52-BL53</f>
+        <f t="shared" ref="BL54:BN54" si="111">BL52-BL53</f>
         <v>7430</v>
       </c>
       <c r="BM54" s="30">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>8038</v>
       </c>
       <c r="BN54" s="30">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>8833</v>
       </c>
       <c r="BO54" s="30">
-        <f t="shared" ref="BO54:BQ54" si="110">BO52-BO53</f>
+        <f t="shared" ref="BO54:BQ54" si="112">BO52-BO53</f>
         <v>8649</v>
       </c>
       <c r="BP54" s="30">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>9340</v>
       </c>
       <c r="BQ54" s="30">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>9333</v>
       </c>
       <c r="BR54" s="30">
@@ -16773,7 +17270,7 @@
         <v>9229</v>
       </c>
       <c r="BT54" s="30">
-        <f t="shared" ref="BT54" si="111">BT52-BT53</f>
+        <f t="shared" ref="BT54" si="113">BT52-BT53</f>
         <v>9312</v>
       </c>
       <c r="BU54" s="30">
@@ -16781,23 +17278,23 @@
         <v>8458.9961000000003</v>
       </c>
       <c r="BV54" s="30">
-        <f t="shared" ref="BV54:BZ54" si="112">+BV52*0.79</f>
+        <f t="shared" ref="BV54:BZ54" si="114">+BV52*0.79</f>
         <v>8634.6684000000005</v>
       </c>
       <c r="BW54" s="30">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>8858.6729000000014</v>
       </c>
       <c r="BX54" s="30">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>9164.6715000000004</v>
       </c>
       <c r="BY54" s="30">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>8466.793321000001</v>
       </c>
       <c r="BZ54" s="30">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>8738.786924</v>
       </c>
       <c r="CA54" s="30"/>
@@ -16857,35 +17354,35 @@
         <v>15646</v>
       </c>
       <c r="DA54" s="30">
-        <f t="shared" ref="DA54:DH54" si="113">DA52*DA84</f>
+        <f t="shared" ref="DA54:DH54" si="115">DA52*DA84</f>
         <v>12826.1</v>
       </c>
       <c r="DB54" s="65">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>9754.0044999999991</v>
       </c>
       <c r="DC54" s="65">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>9326.9179999999978</v>
       </c>
       <c r="DD54" s="30">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>7557.8705837500002</v>
       </c>
       <c r="DE54" s="30">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>6716.8490061249995</v>
       </c>
       <c r="DF54" s="30">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>6071.7805747031252</v>
       </c>
       <c r="DG54" s="30">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>16920.75</v>
       </c>
       <c r="DH54" s="30">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>19608.75</v>
       </c>
       <c r="DI54" s="30"/>
@@ -17020,14 +17517,30 @@
       <c r="AT55" s="30"/>
       <c r="AU55" s="30"/>
       <c r="AV55" s="30"/>
-      <c r="AW55" s="30"/>
-      <c r="AX55" s="30"/>
-      <c r="AY55" s="30"/>
-      <c r="AZ55" s="30"/>
-      <c r="BA55" s="30"/>
-      <c r="BB55" s="30"/>
-      <c r="BC55" s="30"/>
-      <c r="BD55" s="30"/>
+      <c r="AW55" s="30">
+        <v>1144</v>
+      </c>
+      <c r="AX55" s="30">
+        <v>1461</v>
+      </c>
+      <c r="AY55" s="30">
+        <v>1085</v>
+      </c>
+      <c r="AZ55" s="30">
+        <v>1187</v>
+      </c>
+      <c r="BA55" s="30">
+        <v>1147</v>
+      </c>
+      <c r="BB55" s="30">
+        <v>1299</v>
+      </c>
+      <c r="BC55" s="30">
+        <v>979</v>
+      </c>
+      <c r="BD55" s="30">
+        <v>1131</v>
+      </c>
       <c r="BE55" s="30"/>
       <c r="BF55" s="30"/>
       <c r="BG55" s="30">
@@ -17078,23 +17591,23 @@
         <v>1820.2903000000001</v>
       </c>
       <c r="BV55" s="30">
-        <f t="shared" ref="BV55:BZ55" si="114">+BV52*0.17</f>
+        <f t="shared" ref="BV55:BZ55" si="116">+BV52*0.17</f>
         <v>1858.0932000000003</v>
       </c>
       <c r="BW55" s="30">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>1906.2967000000001</v>
       </c>
       <c r="BX55" s="30">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>1972.1445000000001</v>
       </c>
       <c r="BY55" s="30">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>1821.9681830000004</v>
       </c>
       <c r="BZ55" s="30">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>1880.4984520000003</v>
       </c>
       <c r="CA55" s="30"/>
@@ -17172,11 +17685,11 @@
         <v>1283.7636632812498</v>
       </c>
       <c r="DG55" s="30">
-        <f t="shared" ref="DG55:DH55" si="115">+DF55*0.5</f>
+        <f t="shared" ref="DG55:DH55" si="117">+DF55*0.5</f>
         <v>641.88183164062491</v>
       </c>
       <c r="DH55" s="30">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>320.94091582031245</v>
       </c>
       <c r="DI55" s="30"/>
@@ -17391,35 +17904,35 @@
         <v>957</v>
       </c>
       <c r="DA56" s="30">
-        <f t="shared" ref="DA56:DH56" si="116">DA52*0.06</f>
+        <f t="shared" ref="DA56:DH56" si="118">DA52*0.06</f>
         <v>1054.2</v>
       </c>
       <c r="DB56" s="65">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>801.69899999999996</v>
       </c>
       <c r="DC56" s="65">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>766.59599999999989</v>
       </c>
       <c r="DD56" s="30">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>621.19484250000005</v>
       </c>
       <c r="DE56" s="30">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>544.60937887499995</v>
       </c>
       <c r="DF56" s="30">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>485.74244597625</v>
       </c>
       <c r="DG56" s="30">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>1353.6599999999999</v>
       </c>
       <c r="DH56" s="30">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>1568.7</v>
       </c>
       <c r="DI56" s="30"/>
@@ -17553,14 +18066,30 @@
       <c r="AT57" s="30"/>
       <c r="AU57" s="30"/>
       <c r="AV57" s="30"/>
-      <c r="AW57" s="30"/>
-      <c r="AX57" s="30"/>
-      <c r="AY57" s="30"/>
-      <c r="AZ57" s="30"/>
-      <c r="BA57" s="30"/>
-      <c r="BB57" s="30"/>
-      <c r="BC57" s="30"/>
-      <c r="BD57" s="30"/>
+      <c r="AW57" s="30">
+        <v>1079</v>
+      </c>
+      <c r="AX57" s="30">
+        <v>1214</v>
+      </c>
+      <c r="AY57" s="30">
+        <v>1106</v>
+      </c>
+      <c r="AZ57" s="30">
+        <v>1190</v>
+      </c>
+      <c r="BA57" s="30">
+        <v>1169</v>
+      </c>
+      <c r="BB57" s="30">
+        <v>1393</v>
+      </c>
+      <c r="BC57" s="30">
+        <v>1170</v>
+      </c>
+      <c r="BD57" s="30">
+        <v>1341</v>
+      </c>
       <c r="BE57" s="30"/>
       <c r="BF57" s="30"/>
       <c r="BG57" s="30">
@@ -17610,23 +18139,23 @@
         <v>3251</v>
       </c>
       <c r="BV57" s="30">
-        <f t="shared" ref="BV57:BZ57" si="117">+BR57</f>
+        <f t="shared" ref="BV57:BZ57" si="119">+BR57</f>
         <v>2607</v>
       </c>
       <c r="BW57" s="30">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>2133</v>
       </c>
       <c r="BX57" s="30">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>2300</v>
       </c>
       <c r="BY57" s="30">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>3251</v>
       </c>
       <c r="BZ57" s="30">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>2607</v>
       </c>
       <c r="CA57" s="30"/>
@@ -17699,55 +18228,55 @@
         <v>247</v>
       </c>
       <c r="C58" s="30">
-        <f t="shared" ref="C58:R58" si="118">C57+C56+C55</f>
+        <f t="shared" ref="C58:R58" si="120">C57+C56+C55</f>
         <v>2154</v>
       </c>
       <c r="D58" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>2282</v>
       </c>
       <c r="E58" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>2304</v>
       </c>
       <c r="F58" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>2588</v>
       </c>
       <c r="G58" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>2283</v>
       </c>
       <c r="H58" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>2273</v>
       </c>
       <c r="I58" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>2231</v>
       </c>
       <c r="J58" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>2498</v>
       </c>
       <c r="K58" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>2192</v>
       </c>
       <c r="L58" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>2355</v>
       </c>
       <c r="M58" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>2392</v>
       </c>
       <c r="N58" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>2734</v>
       </c>
       <c r="O58" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>2348</v>
       </c>
       <c r="P58" s="30">
@@ -17759,59 +18288,59 @@
         <v>2330</v>
       </c>
       <c r="R58" s="30">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>2330</v>
       </c>
       <c r="S58" s="30">
-        <f t="shared" ref="S58:Z58" si="119">S57+S56+S55</f>
+        <f t="shared" ref="S58:Z58" si="121">S57+S56+S55</f>
         <v>2311</v>
       </c>
       <c r="T58" s="30">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>2306</v>
       </c>
       <c r="U58" s="30">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>2316</v>
       </c>
       <c r="V58" s="30">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>2612</v>
       </c>
       <c r="W58" s="30">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>2022</v>
       </c>
       <c r="X58" s="30">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>1979</v>
       </c>
       <c r="Y58" s="30">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>1947</v>
       </c>
       <c r="Z58" s="50">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>2281</v>
       </c>
       <c r="AA58" s="50">
-        <f t="shared" ref="AA58:AK58" si="120">AA57+AA56+AA55</f>
+        <f t="shared" ref="AA58:AK58" si="122">AA57+AA56+AA55</f>
         <v>2077</v>
       </c>
       <c r="AB58" s="30">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2216</v>
       </c>
       <c r="AC58" s="30">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2197</v>
       </c>
       <c r="AD58" s="30">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2509</v>
       </c>
       <c r="AE58" s="30">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2105</v>
       </c>
       <c r="AF58" s="30">
@@ -17819,23 +18348,23 @@
         <v>2190</v>
       </c>
       <c r="AG58" s="50">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>4019</v>
       </c>
       <c r="AH58" s="50">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2437</v>
       </c>
       <c r="AI58" s="50">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2113</v>
       </c>
       <c r="AJ58" s="50">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2211</v>
       </c>
       <c r="AK58" s="50">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2067</v>
       </c>
       <c r="AL58" s="50">
@@ -17855,44 +18384,76 @@
       <c r="AQ58" s="30"/>
       <c r="AR58" s="30"/>
       <c r="AS58" s="30"/>
+      <c r="AW58" s="30">
+        <f t="shared" ref="AW58:AX58" si="123">SUM(AW55:AW57)</f>
+        <v>2223</v>
+      </c>
+      <c r="AX58" s="30">
+        <f t="shared" si="123"/>
+        <v>2675</v>
+      </c>
+      <c r="AY58" s="30">
+        <f t="shared" ref="AY58:AZ58" si="124">SUM(AY55:AY57)</f>
+        <v>2191</v>
+      </c>
+      <c r="AZ58" s="30">
+        <f t="shared" si="124"/>
+        <v>2377</v>
+      </c>
+      <c r="BA58" s="30">
+        <f t="shared" ref="BA58:BB58" si="125">SUM(BA55:BA57)</f>
+        <v>2316</v>
+      </c>
+      <c r="BB58" s="30">
+        <f t="shared" si="125"/>
+        <v>2692</v>
+      </c>
+      <c r="BC58" s="30">
+        <f t="shared" ref="BC58:BD58" si="126">SUM(BC55:BC57)</f>
+        <v>2149</v>
+      </c>
+      <c r="BD58" s="30">
+        <f t="shared" si="126"/>
+        <v>2472</v>
+      </c>
       <c r="BG58" s="30">
-        <f t="shared" ref="BG58:BH58" si="121">SUM(BG55:BG57)</f>
+        <f t="shared" ref="BG58:BH58" si="127">SUM(BG55:BG57)</f>
         <v>2354</v>
       </c>
       <c r="BH58" s="30">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>2401</v>
       </c>
       <c r="BK58" s="30">
-        <f t="shared" ref="BK58" si="122">SUM(BK55:BK57)</f>
+        <f t="shared" ref="BK58" si="128">SUM(BK55:BK57)</f>
         <v>3978</v>
       </c>
       <c r="BL58" s="30">
-        <f t="shared" ref="BL58:BN58" si="123">SUM(BL55:BL57)</f>
+        <f t="shared" ref="BL58:BN58" si="129">SUM(BL55:BL57)</f>
         <v>4150</v>
       </c>
       <c r="BM58" s="30">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>4205</v>
       </c>
       <c r="BN58" s="30">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>5017</v>
       </c>
       <c r="BO58" s="30">
-        <f t="shared" ref="BO58:BR58" si="124">SUM(BO55:BO57)</f>
+        <f t="shared" ref="BO58:BR58" si="130">SUM(BO55:BO57)</f>
         <v>3885</v>
       </c>
       <c r="BP58" s="30">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>4129</v>
       </c>
       <c r="BQ58" s="30">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>5039</v>
       </c>
       <c r="BR58" s="30">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>4959</v>
       </c>
       <c r="BS58" s="30">
@@ -17908,23 +18469,23 @@
         <v>5071.2903000000006</v>
       </c>
       <c r="BV58" s="30">
-        <f t="shared" ref="BV58:BZ58" si="125">SUM(BV55:BV57)</f>
+        <f t="shared" ref="BV58:BZ58" si="131">SUM(BV55:BV57)</f>
         <v>4465.0932000000003</v>
       </c>
       <c r="BW58" s="30">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>4039.2966999999999</v>
       </c>
       <c r="BX58" s="30">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>4272.1445000000003</v>
       </c>
       <c r="BY58" s="30">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>5072.9681830000009</v>
       </c>
       <c r="BZ58" s="30">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>4487.4984519999998</v>
       </c>
       <c r="CD58" s="30">
@@ -17949,51 +18510,51 @@
       </c>
       <c r="CV58" s="30"/>
       <c r="CW58" s="30">
-        <f t="shared" ref="CW58:DF58" si="126">SUM(CW55:CW57)</f>
+        <f t="shared" ref="CW58:DF58" si="132">SUM(CW55:CW57)</f>
         <v>9366</v>
       </c>
       <c r="CX58" s="50">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>9545</v>
       </c>
       <c r="CY58" s="50">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>8229</v>
       </c>
       <c r="CZ58" s="50">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>8999</v>
       </c>
       <c r="DA58" s="30">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>5047.05</v>
       </c>
       <c r="DB58" s="65">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>4594.9064999999991</v>
       </c>
       <c r="DC58" s="65">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>4370.1431249999996</v>
       </c>
       <c r="DD58" s="30">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>3323.8551862499999</v>
       </c>
       <c r="DE58" s="30">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>3112.1367054374996</v>
       </c>
       <c r="DF58" s="30">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>1769.5061092574997</v>
       </c>
       <c r="DG58" s="30">
-        <f t="shared" ref="DG58:DN58" si="127">SUM(DG55:DG57)</f>
+        <f t="shared" ref="DG58:DN58" si="133">SUM(DG55:DG57)</f>
         <v>1995.5418316406249</v>
       </c>
       <c r="DH58" s="30">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>1889.6409158203126</v>
       </c>
       <c r="DI58" s="30">
@@ -18001,23 +18562,23 @@
         <v>0</v>
       </c>
       <c r="DJ58" s="30">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="DK58" s="30">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="DL58" s="30">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="DM58" s="30">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="DN58" s="30">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
     </row>
@@ -18026,55 +18587,55 @@
         <v>246</v>
       </c>
       <c r="C59" s="30">
-        <f t="shared" ref="C59:R59" si="128">C54-C58</f>
+        <f t="shared" ref="C59:R59" si="134">C54-C58</f>
         <v>2867</v>
       </c>
       <c r="D59" s="30">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>3346</v>
       </c>
       <c r="E59" s="30">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>3104</v>
       </c>
       <c r="F59" s="30">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>3146</v>
       </c>
       <c r="G59" s="30">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>3074</v>
       </c>
       <c r="H59" s="30">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>3309</v>
       </c>
       <c r="I59" s="30">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>2056</v>
       </c>
       <c r="J59" s="30">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>1701</v>
       </c>
       <c r="K59" s="30">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>2620</v>
       </c>
       <c r="L59" s="30">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>3187</v>
       </c>
       <c r="M59" s="30">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>3836</v>
       </c>
       <c r="N59" s="30">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>3940</v>
       </c>
       <c r="O59" s="30">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>4133</v>
       </c>
       <c r="P59" s="30">
@@ -18086,59 +18647,59 @@
         <v>4669</v>
       </c>
       <c r="R59" s="30">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>-2330</v>
       </c>
       <c r="S59" s="30">
-        <f t="shared" ref="S59:Z59" si="129">S54-S58</f>
+        <f t="shared" ref="S59:Z59" si="135">S54-S58</f>
         <v>4571</v>
       </c>
       <c r="T59" s="30">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>5136</v>
       </c>
       <c r="U59" s="30">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>5218</v>
       </c>
       <c r="V59" s="30">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>4809</v>
       </c>
       <c r="W59" s="30">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>1479</v>
       </c>
       <c r="X59" s="30">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>5219</v>
       </c>
       <c r="Y59" s="30">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>1571</v>
       </c>
       <c r="Z59" s="50">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>1416</v>
       </c>
       <c r="AA59" s="50">
-        <f t="shared" ref="AA59:AK59" si="130">AA54-AA58</f>
+        <f t="shared" ref="AA59:AK59" si="136">AA54-AA58</f>
         <v>1591</v>
       </c>
       <c r="AB59" s="30">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>1737</v>
       </c>
       <c r="AC59" s="30">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>1741</v>
       </c>
       <c r="AD59" s="30">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>1578</v>
       </c>
       <c r="AE59" s="30">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>1843</v>
       </c>
       <c r="AF59" s="30">
@@ -18146,23 +18707,23 @@
         <v>1008</v>
       </c>
       <c r="AG59" s="50">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>-1270</v>
       </c>
       <c r="AH59" s="50">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>679</v>
       </c>
       <c r="AI59" s="50">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>655</v>
       </c>
       <c r="AJ59" s="50">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>729</v>
       </c>
       <c r="AK59" s="50">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>823</v>
       </c>
       <c r="AL59" s="50">
@@ -18182,44 +18743,76 @@
       <c r="AQ59" s="30"/>
       <c r="AR59" s="30"/>
       <c r="AS59" s="30"/>
+      <c r="AW59" s="30">
+        <f t="shared" ref="AW59:AX59" si="137">AW54-AW58</f>
+        <v>1401</v>
+      </c>
+      <c r="AX59" s="30">
+        <f t="shared" si="137"/>
+        <v>1191</v>
+      </c>
+      <c r="AY59" s="30">
+        <f t="shared" ref="AY59:AZ59" si="138">AY54-AY58</f>
+        <v>1473</v>
+      </c>
+      <c r="AZ59" s="30">
+        <f t="shared" si="138"/>
+        <v>1328</v>
+      </c>
+      <c r="BA59" s="30">
+        <f t="shared" ref="BA59:BB59" si="139">BA54-BA58</f>
+        <v>1367</v>
+      </c>
+      <c r="BB59" s="30">
+        <f t="shared" si="139"/>
+        <v>1102</v>
+      </c>
+      <c r="BC59" s="30">
+        <f t="shared" ref="BC59:BD59" si="140">BC54-BC58</f>
+        <v>1473</v>
+      </c>
+      <c r="BD59" s="30">
+        <f t="shared" si="140"/>
+        <v>1621</v>
+      </c>
       <c r="BG59" s="30">
-        <f t="shared" ref="BG59:BH59" si="131">BG54-BG58</f>
+        <f t="shared" ref="BG59:BH59" si="141">BG54-BG58</f>
         <v>1742</v>
       </c>
       <c r="BH59" s="30">
-        <f t="shared" si="131"/>
+        <f t="shared" si="141"/>
         <v>1900</v>
       </c>
       <c r="BK59" s="30">
-        <f t="shared" ref="BK59" si="132">BK54-BK58</f>
+        <f t="shared" ref="BK59" si="142">BK54-BK58</f>
         <v>4579</v>
       </c>
       <c r="BL59" s="30">
-        <f t="shared" ref="BL59:BN59" si="133">BL54-BL58</f>
+        <f t="shared" ref="BL59:BN59" si="143">BL54-BL58</f>
         <v>3280</v>
       </c>
       <c r="BM59" s="30">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v>3833</v>
       </c>
       <c r="BN59" s="30">
-        <f t="shared" si="133"/>
+        <f t="shared" si="143"/>
         <v>3816</v>
       </c>
       <c r="BO59" s="30">
-        <f t="shared" ref="BO59:BR59" si="134">BO54-BO58</f>
+        <f t="shared" ref="BO59:BR59" si="144">BO54-BO58</f>
         <v>4764</v>
       </c>
       <c r="BP59" s="30">
-        <f t="shared" si="134"/>
+        <f t="shared" si="144"/>
         <v>5211</v>
       </c>
       <c r="BQ59" s="30">
-        <f t="shared" si="134"/>
+        <f t="shared" si="144"/>
         <v>4294</v>
       </c>
       <c r="BR59" s="30">
-        <f t="shared" si="134"/>
+        <f t="shared" si="144"/>
         <v>4670</v>
       </c>
       <c r="BS59" s="30">
@@ -18235,23 +18828,23 @@
         <v>3387.7057999999997</v>
       </c>
       <c r="BV59" s="30">
-        <f t="shared" ref="BV59:BZ59" si="135">BV54-BV58</f>
+        <f t="shared" ref="BV59:BZ59" si="145">BV54-BV58</f>
         <v>4169.5752000000002</v>
       </c>
       <c r="BW59" s="30">
-        <f t="shared" si="135"/>
+        <f t="shared" si="145"/>
         <v>4819.3762000000015</v>
       </c>
       <c r="BX59" s="30">
-        <f t="shared" si="135"/>
+        <f t="shared" si="145"/>
         <v>4892.527</v>
       </c>
       <c r="BY59" s="30">
-        <f t="shared" si="135"/>
+        <f t="shared" si="145"/>
         <v>3393.8251380000002</v>
       </c>
       <c r="BZ59" s="30">
-        <f t="shared" si="135"/>
+        <f t="shared" si="145"/>
         <v>4251.2884720000002</v>
       </c>
       <c r="CD59" s="30">
@@ -18275,75 +18868,75 @@
         <v>2903</v>
       </c>
       <c r="CW59" s="30">
-        <f t="shared" ref="CW59:DF59" si="136">CW54-CW58</f>
+        <f t="shared" ref="CW59:DF59" si="146">CW54-CW58</f>
         <v>10920</v>
       </c>
       <c r="CX59" s="50">
-        <f t="shared" si="136"/>
+        <f t="shared" si="146"/>
         <v>19734</v>
       </c>
       <c r="CY59" s="50">
-        <f t="shared" si="136"/>
+        <f t="shared" si="146"/>
         <v>9685</v>
       </c>
       <c r="CZ59" s="50">
-        <f t="shared" si="136"/>
+        <f t="shared" si="146"/>
         <v>6647</v>
       </c>
       <c r="DA59" s="30">
-        <f t="shared" si="136"/>
+        <f t="shared" si="146"/>
         <v>7779.05</v>
       </c>
       <c r="DB59" s="65">
-        <f t="shared" si="136"/>
+        <f t="shared" si="146"/>
         <v>5159.098</v>
       </c>
       <c r="DC59" s="65">
-        <f t="shared" si="136"/>
+        <f t="shared" si="146"/>
         <v>4956.7748749999982</v>
       </c>
       <c r="DD59" s="30">
-        <f t="shared" si="136"/>
+        <f t="shared" si="146"/>
         <v>4234.0153975000003</v>
       </c>
       <c r="DE59" s="30">
-        <f t="shared" si="136"/>
+        <f t="shared" si="146"/>
         <v>3604.7123006874999</v>
       </c>
       <c r="DF59" s="30">
-        <f t="shared" si="136"/>
+        <f t="shared" si="146"/>
         <v>4302.2744654456255</v>
       </c>
       <c r="DG59" s="30">
-        <f t="shared" ref="DG59:DN59" si="137">DG54-DG58</f>
+        <f t="shared" ref="DG59:DN59" si="147">DG54-DG58</f>
         <v>14925.208168359375</v>
       </c>
       <c r="DH59" s="30">
-        <f t="shared" si="137"/>
+        <f t="shared" si="147"/>
         <v>17719.109084179687</v>
       </c>
       <c r="DI59" s="30">
-        <f t="shared" si="137"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="DJ59" s="30">
-        <f t="shared" si="137"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="DK59" s="30">
-        <f t="shared" si="137"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="DL59" s="30">
-        <f t="shared" si="137"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="DM59" s="30">
-        <f t="shared" si="137"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="DN59" s="30">
-        <f t="shared" si="137"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
     </row>
@@ -18496,18 +19089,34 @@
       <c r="AT60" s="30"/>
       <c r="AU60" s="30"/>
       <c r="AV60" s="30"/>
-      <c r="AW60" s="30"/>
-      <c r="AX60" s="30"/>
-      <c r="AY60" s="30"/>
-      <c r="AZ60" s="30"/>
-      <c r="BA60" s="30"/>
-      <c r="BB60" s="30"/>
-      <c r="BC60" s="30"/>
-      <c r="BD60" s="30"/>
+      <c r="AW60" s="30">
+        <v>246</v>
+      </c>
+      <c r="AX60" s="30">
+        <v>170</v>
+      </c>
+      <c r="AY60" s="30">
+        <v>295</v>
+      </c>
+      <c r="AZ60" s="30">
+        <v>249</v>
+      </c>
+      <c r="BA60" s="30">
+        <v>241</v>
+      </c>
+      <c r="BB60" s="30">
+        <v>273</v>
+      </c>
+      <c r="BC60" s="30">
+        <v>407</v>
+      </c>
+      <c r="BD60" s="30">
+        <v>384</v>
+      </c>
       <c r="BE60" s="30"/>
       <c r="BF60" s="30"/>
       <c r="BG60" s="30">
-        <f t="shared" ref="BG60" si="138">-100+106+10-71-2+15+303</f>
+        <f t="shared" ref="BG60" si="148">-100+106+10-71-2+15+303</f>
         <v>261</v>
       </c>
       <c r="BH60" s="30">
@@ -18555,23 +19164,23 @@
         <v>134.5</v>
       </c>
       <c r="BV60" s="30">
-        <f t="shared" ref="BV60:BZ60" si="139">AVERAGE(BR60:BU60)</f>
+        <f t="shared" ref="BV60:BZ60" si="149">AVERAGE(BR60:BU60)</f>
         <v>138.375</v>
       </c>
       <c r="BW60" s="30">
-        <f t="shared" si="139"/>
+        <f t="shared" si="149"/>
         <v>142.71875</v>
       </c>
       <c r="BX60" s="30">
-        <f t="shared" si="139"/>
+        <f t="shared" si="149"/>
         <v>148.6484375</v>
       </c>
       <c r="BY60" s="30">
-        <f t="shared" si="139"/>
+        <f t="shared" si="149"/>
         <v>141.060546875</v>
       </c>
       <c r="BZ60" s="30">
-        <f t="shared" si="139"/>
+        <f t="shared" si="149"/>
         <v>142.70068359375</v>
       </c>
       <c r="CA60" s="30"/>
@@ -18626,35 +19235,35 @@
         <v>450</v>
       </c>
       <c r="DA60" s="30">
-        <f t="shared" ref="DA60:DH60" si="140">CZ92*$DQ$66</f>
+        <f t="shared" ref="DA60:DH60" si="150">CZ92*$DQ$66</f>
         <v>0</v>
       </c>
       <c r="DB60" s="65">
-        <f t="shared" si="140"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="DC60" s="65">
-        <f t="shared" si="140"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="DD60" s="30">
-        <f t="shared" si="140"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="DE60" s="30">
-        <f t="shared" si="140"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="DF60" s="30">
-        <f t="shared" si="140"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="DG60" s="30">
-        <f t="shared" si="140"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="DH60" s="30">
-        <f t="shared" si="140"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="DI60" s="30"/>
@@ -18669,59 +19278,59 @@
         <v>105</v>
       </c>
       <c r="C61" s="30">
-        <f t="shared" ref="C61:R61" si="141">C59+C60</f>
+        <f t="shared" ref="C61:R61" si="151">C59+C60</f>
         <v>2911</v>
       </c>
       <c r="D61" s="30">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>3328</v>
       </c>
       <c r="E61" s="30">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>3150</v>
       </c>
       <c r="F61" s="30">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>3371</v>
       </c>
       <c r="G61" s="30">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>3130</v>
       </c>
       <c r="H61" s="30">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>3378</v>
       </c>
       <c r="I61" s="30">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>2208</v>
       </c>
       <c r="J61" s="30">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>1599</v>
       </c>
       <c r="K61" s="30">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>2724</v>
       </c>
       <c r="L61" s="30">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>3315</v>
       </c>
       <c r="M61" s="30">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>3964</v>
       </c>
       <c r="N61" s="30">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>3740</v>
       </c>
       <c r="O61" s="30">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>4258</v>
       </c>
       <c r="P61" s="30">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>4609</v>
       </c>
       <c r="Q61" s="30">
@@ -18729,95 +19338,95 @@
         <v>4890</v>
       </c>
       <c r="R61" s="30">
-        <f t="shared" si="141"/>
+        <f t="shared" si="151"/>
         <v>-2210</v>
       </c>
       <c r="S61" s="30">
-        <f t="shared" ref="S61:AA61" si="142">S59+S60</f>
+        <f t="shared" ref="S61:AA61" si="152">S59+S60</f>
         <v>4795</v>
       </c>
       <c r="T61" s="30">
-        <f t="shared" si="142"/>
+        <f t="shared" si="152"/>
         <v>5308</v>
       </c>
       <c r="U61" s="30">
-        <f t="shared" si="142"/>
+        <f t="shared" si="152"/>
         <v>5387</v>
       </c>
       <c r="V61" s="30">
-        <f t="shared" si="142"/>
+        <f t="shared" si="152"/>
         <v>5188</v>
       </c>
       <c r="W61" s="30">
-        <f t="shared" si="142"/>
+        <f t="shared" si="152"/>
         <v>1463</v>
       </c>
       <c r="X61" s="30">
-        <f t="shared" si="142"/>
+        <f t="shared" si="152"/>
         <v>5323</v>
       </c>
       <c r="Y61" s="30">
-        <f t="shared" si="142"/>
+        <f t="shared" si="152"/>
         <v>1651</v>
       </c>
       <c r="Z61" s="50">
-        <f t="shared" si="142"/>
+        <f t="shared" si="152"/>
         <v>1435</v>
       </c>
       <c r="AA61" s="50">
-        <f t="shared" si="142"/>
+        <f t="shared" si="152"/>
         <v>1811</v>
       </c>
       <c r="AB61" s="30">
-        <f t="shared" ref="AB61:AN61" si="143">AB59+AB60</f>
+        <f t="shared" ref="AB61:AN61" si="153">AB59+AB60</f>
         <v>1830</v>
       </c>
       <c r="AC61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>1838</v>
       </c>
       <c r="AD61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>1618</v>
       </c>
       <c r="AE61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>1877</v>
       </c>
       <c r="AF61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>1079</v>
       </c>
       <c r="AG61" s="50">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>-713</v>
       </c>
       <c r="AH61" s="50">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>599</v>
       </c>
       <c r="AI61" s="50">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>674</v>
       </c>
       <c r="AJ61" s="50">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>530</v>
       </c>
       <c r="AK61" s="50">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>818</v>
       </c>
       <c r="AL61" s="50">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="AM61" s="50">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="AN61" s="50">
-        <f t="shared" si="143"/>
+        <f t="shared" si="153"/>
         <v>909</v>
       </c>
       <c r="AO61" s="30"/>
@@ -18828,56 +19437,80 @@
       <c r="AT61" s="30"/>
       <c r="AU61" s="30"/>
       <c r="AV61" s="30"/>
-      <c r="AW61" s="30"/>
-      <c r="AX61" s="30"/>
-      <c r="AY61" s="30"/>
-      <c r="AZ61" s="30"/>
-      <c r="BA61" s="30"/>
-      <c r="BB61" s="30"/>
-      <c r="BC61" s="30"/>
-      <c r="BD61" s="30"/>
+      <c r="AW61" s="30">
+        <f t="shared" ref="AW61:AX61" si="154">AW59+AW60</f>
+        <v>1647</v>
+      </c>
+      <c r="AX61" s="30">
+        <f t="shared" si="154"/>
+        <v>1361</v>
+      </c>
+      <c r="AY61" s="30">
+        <f t="shared" ref="AY61:AZ61" si="155">AY59+AY60</f>
+        <v>1768</v>
+      </c>
+      <c r="AZ61" s="30">
+        <f t="shared" si="155"/>
+        <v>1577</v>
+      </c>
+      <c r="BA61" s="30">
+        <f t="shared" ref="BA61:BB61" si="156">BA59+BA60</f>
+        <v>1608</v>
+      </c>
+      <c r="BB61" s="30">
+        <f t="shared" si="156"/>
+        <v>1375</v>
+      </c>
+      <c r="BC61" s="30">
+        <f t="shared" ref="BC61:BD61" si="157">BC59+BC60</f>
+        <v>1880</v>
+      </c>
+      <c r="BD61" s="30">
+        <f t="shared" si="157"/>
+        <v>2005</v>
+      </c>
       <c r="BE61" s="30"/>
       <c r="BF61" s="30"/>
       <c r="BG61" s="30">
-        <f t="shared" ref="BG61:BH61" si="144">BG59+BG60</f>
+        <f t="shared" ref="BG61:BH61" si="158">BG59+BG60</f>
         <v>2003</v>
       </c>
       <c r="BH61" s="30">
-        <f t="shared" si="144"/>
+        <f t="shared" si="158"/>
         <v>2161</v>
       </c>
       <c r="BI61" s="30"/>
       <c r="BJ61" s="30"/>
       <c r="BK61" s="30">
-        <f t="shared" ref="BK61" si="145">BK59+BK60</f>
+        <f t="shared" ref="BK61" si="159">BK59+BK60</f>
         <v>4676</v>
       </c>
       <c r="BL61" s="30">
-        <f t="shared" ref="BL61:BN61" si="146">BL59+BL60</f>
+        <f t="shared" ref="BL61:BN61" si="160">BL59+BL60</f>
         <v>3284</v>
       </c>
       <c r="BM61" s="30">
-        <f t="shared" si="146"/>
+        <f t="shared" si="160"/>
         <v>3866</v>
       </c>
       <c r="BN61" s="30">
-        <f t="shared" si="146"/>
+        <f t="shared" si="160"/>
         <v>3941</v>
       </c>
       <c r="BO61" s="30">
-        <f t="shared" ref="BO61:BR61" si="147">BO59+BO60</f>
+        <f t="shared" ref="BO61:BR61" si="161">BO59+BO60</f>
         <v>4781</v>
       </c>
       <c r="BP61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="161"/>
         <v>5250</v>
       </c>
       <c r="BQ61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="161"/>
         <v>4413</v>
       </c>
       <c r="BR61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="161"/>
         <v>4791</v>
       </c>
       <c r="BS61" s="30">
@@ -18893,23 +19526,23 @@
         <v>3522.2057999999997</v>
       </c>
       <c r="BV61" s="30">
-        <f t="shared" ref="BV61:BZ61" si="148">BV59+BV60</f>
+        <f t="shared" ref="BV61:BZ61" si="162">BV59+BV60</f>
         <v>4307.9502000000002</v>
       </c>
       <c r="BW61" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="162"/>
         <v>4962.0949500000015</v>
       </c>
       <c r="BX61" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="162"/>
         <v>5041.1754375</v>
       </c>
       <c r="BY61" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="162"/>
         <v>3534.8856848750002</v>
       </c>
       <c r="BZ61" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="162"/>
         <v>4393.9891555937502</v>
       </c>
       <c r="CA61" s="30"/>
@@ -18936,71 +19569,71 @@
         <v>3071</v>
       </c>
       <c r="CW61" s="30">
-        <f t="shared" ref="CW61:DF61" si="149">CW60+CW59</f>
+        <f t="shared" ref="CW61:DF61" si="163">CW60+CW59</f>
         <v>11547</v>
       </c>
       <c r="CX61" s="50">
-        <f t="shared" si="149"/>
+        <f t="shared" si="163"/>
         <v>20678</v>
       </c>
       <c r="CY61" s="50">
-        <f t="shared" si="149"/>
+        <f t="shared" si="163"/>
         <v>9872</v>
       </c>
       <c r="CZ61" s="50">
-        <f t="shared" si="149"/>
+        <f t="shared" si="163"/>
         <v>7097</v>
       </c>
       <c r="DA61" s="30">
-        <f t="shared" si="149"/>
+        <f t="shared" si="163"/>
         <v>7779.05</v>
       </c>
       <c r="DB61" s="65">
-        <f t="shared" si="149"/>
+        <f t="shared" si="163"/>
         <v>5159.098</v>
       </c>
       <c r="DC61" s="65">
-        <f t="shared" si="149"/>
+        <f t="shared" si="163"/>
         <v>4956.7748749999982</v>
       </c>
       <c r="DD61" s="30">
-        <f t="shared" si="149"/>
+        <f t="shared" si="163"/>
         <v>4234.0153975000003</v>
       </c>
       <c r="DE61" s="30">
-        <f t="shared" si="149"/>
+        <f t="shared" si="163"/>
         <v>3604.7123006874999</v>
       </c>
       <c r="DF61" s="30">
-        <f t="shared" si="149"/>
+        <f t="shared" si="163"/>
         <v>4302.2744654456255</v>
       </c>
       <c r="DG61" s="30">
-        <f t="shared" ref="DG61:DM61" si="150">DG60+DG59</f>
+        <f t="shared" ref="DG61:DM61" si="164">DG60+DG59</f>
         <v>14925.208168359375</v>
       </c>
       <c r="DH61" s="30">
-        <f t="shared" si="150"/>
+        <f t="shared" si="164"/>
         <v>17719.109084179687</v>
       </c>
       <c r="DI61" s="30">
-        <f t="shared" si="150"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="DJ61" s="30">
-        <f t="shared" si="150"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="DK61" s="30">
-        <f t="shared" si="150"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="DL61" s="30">
-        <f t="shared" si="150"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="DM61" s="30">
-        <f t="shared" si="150"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="DN61" s="30">
@@ -19131,14 +19764,30 @@
       <c r="AT62" s="30"/>
       <c r="AU62" s="30"/>
       <c r="AV62" s="30"/>
-      <c r="AW62" s="30"/>
-      <c r="AX62" s="30"/>
-      <c r="AY62" s="30"/>
-      <c r="AZ62" s="30"/>
-      <c r="BA62" s="30"/>
-      <c r="BB62" s="30"/>
-      <c r="BC62" s="30"/>
-      <c r="BD62" s="30"/>
+      <c r="AW62" s="30">
+        <v>347</v>
+      </c>
+      <c r="AX62" s="30">
+        <v>293</v>
+      </c>
+      <c r="AY62" s="30">
+        <v>357</v>
+      </c>
+      <c r="AZ62" s="30">
+        <v>353</v>
+      </c>
+      <c r="BA62" s="30">
+        <v>368</v>
+      </c>
+      <c r="BB62" s="30">
+        <v>254</v>
+      </c>
+      <c r="BC62" s="30">
+        <v>324</v>
+      </c>
+      <c r="BD62" s="30">
+        <v>350</v>
+      </c>
       <c r="BE62" s="30"/>
       <c r="BF62" s="30"/>
       <c r="BG62" s="30">
@@ -19184,23 +19833,23 @@
         <v>704.44115999999997</v>
       </c>
       <c r="BV62" s="30">
-        <f t="shared" ref="BV62:BZ62" si="151">+BV61*0.2</f>
+        <f t="shared" ref="BV62:BZ62" si="165">+BV61*0.2</f>
         <v>861.59004000000004</v>
       </c>
       <c r="BW62" s="30">
-        <f t="shared" si="151"/>
+        <f t="shared" si="165"/>
         <v>992.41899000000035</v>
       </c>
       <c r="BX62" s="30">
-        <f t="shared" si="151"/>
+        <f t="shared" si="165"/>
         <v>1008.2350875000001</v>
       </c>
       <c r="BY62" s="30">
-        <f t="shared" si="151"/>
+        <f t="shared" si="165"/>
         <v>706.97713697500012</v>
       </c>
       <c r="BZ62" s="30">
-        <f t="shared" si="151"/>
+        <f t="shared" si="165"/>
         <v>878.79783111875008</v>
       </c>
       <c r="CA62" s="30"/>
@@ -19279,11 +19928,11 @@
         <v>1204.6368503247752</v>
       </c>
       <c r="DG62" s="30">
-        <f t="shared" ref="DG62:DH62" si="152">DG61*0.28</f>
+        <f t="shared" ref="DG62:DH62" si="166">DG61*0.28</f>
         <v>4179.058287140625</v>
       </c>
       <c r="DH62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="166"/>
         <v>4961.3505435703128</v>
       </c>
       <c r="DI62" s="30"/>
@@ -19417,6 +20066,30 @@
       <c r="AQ63" s="30"/>
       <c r="AR63" s="30"/>
       <c r="AS63" s="30"/>
+      <c r="AW63" s="28">
+        <v>13</v>
+      </c>
+      <c r="AX63" s="28">
+        <v>4</v>
+      </c>
+      <c r="AY63" s="28">
+        <v>11</v>
+      </c>
+      <c r="AZ63" s="28">
+        <v>6</v>
+      </c>
+      <c r="BA63" s="28">
+        <v>11</v>
+      </c>
+      <c r="BB63" s="28">
+        <v>-1</v>
+      </c>
+      <c r="BC63" s="28">
+        <v>9</v>
+      </c>
+      <c r="BD63" s="28">
+        <v>9</v>
+      </c>
       <c r="BG63" s="30">
         <v>5</v>
       </c>
@@ -19458,23 +20131,23 @@
         <v>4.75</v>
       </c>
       <c r="BV63" s="30">
-        <f t="shared" ref="BV63:BZ63" si="153">AVERAGE(BR63:BU63)</f>
+        <f t="shared" ref="BV63:BZ63" si="167">AVERAGE(BR63:BU63)</f>
         <v>4.4375</v>
       </c>
       <c r="BW63" s="30">
-        <f t="shared" si="153"/>
+        <f t="shared" si="167"/>
         <v>5.546875</v>
       </c>
       <c r="BX63" s="30">
-        <f t="shared" si="153"/>
+        <f t="shared" si="167"/>
         <v>5.68359375</v>
       </c>
       <c r="BY63" s="30">
-        <f t="shared" si="153"/>
+        <f t="shared" si="167"/>
         <v>5.1044921875</v>
       </c>
       <c r="BZ63" s="30">
-        <f t="shared" si="153"/>
+        <f t="shared" si="167"/>
         <v>5.193115234375</v>
       </c>
       <c r="CD63" s="30">
@@ -19533,35 +20206,35 @@
         <v>3.102000000000001E-3</v>
       </c>
       <c r="DG63" s="30">
-        <f t="shared" ref="DG63:DN63" si="154">DF63*0.1</f>
+        <f t="shared" ref="DG63:DN63" si="168">DF63*0.1</f>
         <v>3.1020000000000011E-4</v>
       </c>
       <c r="DH63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="168"/>
         <v>3.1020000000000011E-5</v>
       </c>
       <c r="DI63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="168"/>
         <v>3.1020000000000014E-6</v>
       </c>
       <c r="DJ63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="168"/>
         <v>3.1020000000000017E-7</v>
       </c>
       <c r="DK63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="168"/>
         <v>3.1020000000000016E-8</v>
       </c>
       <c r="DL63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="168"/>
         <v>3.1020000000000019E-9</v>
       </c>
       <c r="DM63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="168"/>
         <v>3.1020000000000023E-10</v>
       </c>
       <c r="DN63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="168"/>
         <v>3.1020000000000026E-11</v>
       </c>
     </row>
@@ -19570,59 +20243,59 @@
         <v>443</v>
       </c>
       <c r="C64" s="30">
-        <f t="shared" ref="C64:R64" si="155">C61-C62-C63</f>
+        <f t="shared" ref="C64:R64" si="169">C61-C62-C63</f>
         <v>2521</v>
       </c>
       <c r="D64" s="28">
-        <f t="shared" si="155"/>
+        <f t="shared" si="169"/>
         <v>3189</v>
       </c>
       <c r="E64" s="28">
-        <f t="shared" si="155"/>
+        <f t="shared" si="169"/>
         <v>2488</v>
       </c>
       <c r="F64" s="28">
-        <f t="shared" si="155"/>
+        <f t="shared" si="169"/>
         <v>3038</v>
       </c>
       <c r="G64" s="28">
-        <f t="shared" si="155"/>
+        <f t="shared" si="169"/>
         <v>2651</v>
       </c>
       <c r="H64" s="28">
-        <f t="shared" si="155"/>
+        <f t="shared" si="169"/>
         <v>2935</v>
       </c>
       <c r="I64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="169"/>
         <v>1929</v>
       </c>
       <c r="J64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="169"/>
         <v>1766</v>
       </c>
       <c r="K64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="169"/>
         <v>2515</v>
       </c>
       <c r="L64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="169"/>
         <v>2864</v>
       </c>
       <c r="M64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="169"/>
         <v>3411</v>
       </c>
       <c r="N64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="169"/>
         <v>3346</v>
       </c>
       <c r="O64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="169"/>
         <v>3669</v>
       </c>
       <c r="P64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="169"/>
         <v>4076</v>
       </c>
       <c r="Q64" s="30">
@@ -19630,27 +20303,27 @@
         <v>4236</v>
       </c>
       <c r="R64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="169"/>
         <v>-1857.5</v>
       </c>
       <c r="S64" s="30">
-        <f t="shared" ref="S64:Y64" si="156">S61-S62-S63</f>
+        <f t="shared" ref="S64:Y64" si="170">S61-S62-S63</f>
         <v>4049</v>
       </c>
       <c r="T64" s="30">
-        <f t="shared" si="156"/>
+        <f t="shared" si="170"/>
         <v>4550</v>
       </c>
       <c r="U64" s="30">
-        <f t="shared" si="156"/>
+        <f t="shared" si="170"/>
         <v>4629</v>
       </c>
       <c r="V64" s="30">
-        <f t="shared" si="156"/>
+        <f t="shared" si="170"/>
         <v>4672</v>
       </c>
       <c r="W64" s="30">
-        <f t="shared" si="156"/>
+        <f t="shared" si="170"/>
         <v>754</v>
       </c>
       <c r="X64" s="30">
@@ -19658,7 +20331,7 @@
         <v>4658</v>
       </c>
       <c r="Y64" s="30">
-        <f t="shared" si="156"/>
+        <f t="shared" si="170"/>
         <v>986</v>
       </c>
       <c r="Z64" s="50">
@@ -19670,43 +20343,43 @@
         <v>1030</v>
       </c>
       <c r="AB64" s="30">
-        <f t="shared" ref="AB64:AK64" si="157">+AB61-AB62-AB63</f>
+        <f t="shared" ref="AB64:AK64" si="171">+AB61-AB62-AB63</f>
         <v>942</v>
       </c>
       <c r="AC64" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="171"/>
         <v>977</v>
       </c>
       <c r="AD64" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="171"/>
         <v>876</v>
       </c>
       <c r="AE64" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="171"/>
         <v>951</v>
       </c>
       <c r="AF64" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="171"/>
         <v>665</v>
       </c>
       <c r="AG64" s="50">
-        <f t="shared" si="157"/>
+        <f t="shared" si="171"/>
         <v>-713</v>
       </c>
       <c r="AH64" s="50">
-        <f t="shared" si="157"/>
+        <f t="shared" si="171"/>
         <v>760</v>
       </c>
       <c r="AI64" s="50">
-        <f t="shared" si="157"/>
+        <f t="shared" si="171"/>
         <v>609</v>
       </c>
       <c r="AJ64" s="50">
-        <f t="shared" si="157"/>
+        <f t="shared" si="171"/>
         <v>536</v>
       </c>
       <c r="AK64" s="50">
-        <f t="shared" si="157"/>
+        <f t="shared" si="171"/>
         <v>692</v>
       </c>
       <c r="AL64" s="50">
@@ -19726,44 +20399,76 @@
       <c r="AQ64" s="30"/>
       <c r="AR64" s="30"/>
       <c r="AS64" s="30"/>
+      <c r="AW64" s="30">
+        <f t="shared" ref="AW64:AX64" si="172">AW61-AW62-AW63</f>
+        <v>1287</v>
+      </c>
+      <c r="AX64" s="30">
+        <f t="shared" si="172"/>
+        <v>1064</v>
+      </c>
+      <c r="AY64" s="30">
+        <f t="shared" ref="AY64:AZ64" si="173">AY61-AY62-AY63</f>
+        <v>1400</v>
+      </c>
+      <c r="AZ64" s="30">
+        <f t="shared" si="173"/>
+        <v>1218</v>
+      </c>
+      <c r="BA64" s="30">
+        <f t="shared" ref="BA64:BB64" si="174">BA61-BA62-BA63</f>
+        <v>1229</v>
+      </c>
+      <c r="BB64" s="30">
+        <f t="shared" si="174"/>
+        <v>1122</v>
+      </c>
+      <c r="BC64" s="30">
+        <f t="shared" ref="BC64:BD64" si="175">BC61-BC62-BC63</f>
+        <v>1547</v>
+      </c>
+      <c r="BD64" s="30">
+        <f t="shared" si="175"/>
+        <v>1646</v>
+      </c>
       <c r="BG64" s="30">
-        <f t="shared" ref="BG64:BH64" si="158">BG61-BG62-BG63</f>
+        <f t="shared" ref="BG64:BH64" si="176">BG61-BG62-BG63</f>
         <v>1734</v>
       </c>
       <c r="BH64" s="30">
-        <f t="shared" si="158"/>
+        <f t="shared" si="176"/>
         <v>1817</v>
       </c>
       <c r="BK64" s="30">
-        <f t="shared" ref="BK64" si="159">BK61-BK62-BK63</f>
+        <f t="shared" ref="BK64" si="177">BK61-BK62-BK63</f>
         <v>4205</v>
       </c>
       <c r="BL64" s="30">
-        <f t="shared" ref="BL64:BN64" si="160">BL61-BL62-BL63</f>
+        <f t="shared" ref="BL64:BN64" si="178">BL61-BL62-BL63</f>
         <v>1572</v>
       </c>
       <c r="BM64" s="30">
-        <f t="shared" si="160"/>
+        <f t="shared" si="178"/>
         <v>3481</v>
       </c>
       <c r="BN64" s="30">
-        <f t="shared" si="160"/>
+        <f t="shared" si="178"/>
         <v>3331</v>
       </c>
       <c r="BO64" s="30">
-        <f t="shared" ref="BO64:BR64" si="161">BO61-BO62-BO63</f>
+        <f t="shared" ref="BO64:BR64" si="179">BO61-BO62-BO63</f>
         <v>3969</v>
       </c>
       <c r="BP64" s="30">
-        <f t="shared" si="161"/>
+        <f t="shared" si="179"/>
         <v>4460</v>
       </c>
       <c r="BQ64" s="30">
-        <f t="shared" si="161"/>
+        <f t="shared" si="179"/>
         <v>3802</v>
       </c>
       <c r="BR64" s="30">
-        <f t="shared" si="161"/>
+        <f t="shared" si="179"/>
         <v>4071</v>
       </c>
       <c r="BS64" s="30">
@@ -19779,23 +20484,23 @@
         <v>2813.0146399999999</v>
       </c>
       <c r="BV64" s="30">
-        <f t="shared" ref="BV64:BZ64" si="162">BV61-BV62-BV63</f>
+        <f t="shared" ref="BV64:BZ64" si="180">BV61-BV62-BV63</f>
         <v>3441.9226600000002</v>
       </c>
       <c r="BW64" s="30">
-        <f t="shared" si="162"/>
+        <f t="shared" si="180"/>
         <v>3964.1290850000014</v>
       </c>
       <c r="BX64" s="30">
-        <f t="shared" si="162"/>
+        <f t="shared" si="180"/>
         <v>4027.2567562499999</v>
       </c>
       <c r="BY64" s="30">
-        <f t="shared" si="162"/>
+        <f t="shared" si="180"/>
         <v>2822.8040557125</v>
       </c>
       <c r="BZ64" s="30">
-        <f t="shared" si="162"/>
+        <f t="shared" si="180"/>
         <v>3509.9982092406253</v>
       </c>
       <c r="CD64" s="30">
@@ -19835,27 +20540,27 @@
         <v>3825</v>
       </c>
       <c r="DA64" s="30">
-        <f t="shared" ref="DA64:DF64" si="163">DA61-DA62-DA63</f>
+        <f t="shared" ref="DA64:DF64" si="181">DA61-DA62-DA63</f>
         <v>5212.9255000000003</v>
       </c>
       <c r="DB64" s="65">
-        <f t="shared" si="163"/>
+        <f t="shared" si="181"/>
         <v>3683.5305599999997</v>
       </c>
       <c r="DC64" s="65">
-        <f t="shared" si="163"/>
+        <f t="shared" si="181"/>
         <v>3565.7759099999985</v>
       </c>
       <c r="DD64" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="181"/>
         <v>3048.1808862000003</v>
       </c>
       <c r="DE64" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="181"/>
         <v>2595.3618364949998</v>
       </c>
       <c r="DF64" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="181"/>
         <v>3097.6345131208504</v>
       </c>
       <c r="DG64" s="30">
@@ -19863,7 +20568,7 @@
         <v>3097.6345131208504</v>
       </c>
       <c r="DH64" s="30">
-        <f t="shared" ref="DH64" si="164">DG64*(1+$DQ$67)</f>
+        <f t="shared" ref="DH64" si="182">DG64*(1+$DQ$67)</f>
         <v>3097.6345131208504</v>
       </c>
       <c r="DI64" s="30"/>
@@ -19920,55 +20625,55 @@
         <v>108</v>
       </c>
       <c r="C65" s="38">
-        <f t="shared" ref="C65:R65" si="165">C64/C66</f>
+        <f t="shared" ref="C65:R65" si="183">C64/C66</f>
         <v>1.2725896012115094</v>
       </c>
       <c r="D65" s="38">
-        <f t="shared" si="165"/>
+        <f t="shared" si="183"/>
         <v>1.607358870967742</v>
       </c>
       <c r="E65" s="38">
-        <f t="shared" si="165"/>
+        <f t="shared" si="183"/>
         <v>1.2540322580645162</v>
       </c>
       <c r="F65" s="38">
-        <f t="shared" si="165"/>
+        <f t="shared" si="183"/>
         <v>1.5320221886031267</v>
       </c>
       <c r="G65" s="38">
-        <f t="shared" si="165"/>
+        <f t="shared" si="183"/>
         <v>1.3335010060362174</v>
       </c>
       <c r="H65" s="38">
-        <f t="shared" si="165"/>
+        <f t="shared" si="183"/>
         <v>1.4719157472417252</v>
       </c>
       <c r="I65" s="38">
-        <f t="shared" si="165"/>
+        <f t="shared" si="183"/>
         <v>0.96837349397590367</v>
       </c>
       <c r="J65" s="38">
-        <f t="shared" si="165"/>
+        <f t="shared" si="183"/>
         <v>0.90056093829678741</v>
       </c>
       <c r="K65" s="38">
-        <f t="shared" si="165"/>
+        <f t="shared" si="183"/>
         <v>1.2593890836254382</v>
       </c>
       <c r="L65" s="38">
-        <f t="shared" si="165"/>
+        <f t="shared" si="183"/>
         <v>1.427716849451645</v>
       </c>
       <c r="M65" s="38">
-        <f t="shared" si="165"/>
+        <f t="shared" si="183"/>
         <v>1.695328031809145</v>
       </c>
       <c r="N65" s="38">
-        <f t="shared" si="165"/>
+        <f t="shared" si="183"/>
         <v>1.6941772151898735</v>
       </c>
       <c r="O65" s="38">
-        <f t="shared" si="165"/>
+        <f t="shared" si="183"/>
         <v>1.827191235059761</v>
       </c>
       <c r="P65" s="38">
@@ -19980,83 +20685,83 @@
         <v>2.1398137967980082</v>
       </c>
       <c r="R65" s="38">
-        <f t="shared" si="165"/>
+        <f t="shared" si="183"/>
         <v>-0.93878965122764124</v>
       </c>
       <c r="S65" s="38">
-        <f t="shared" ref="S65:Y65" si="166">S64/S66</f>
+        <f t="shared" ref="S65:Y65" si="184">S64/S66</f>
         <v>2.0418557740796772</v>
       </c>
       <c r="T65" s="38">
-        <f t="shared" si="166"/>
+        <f t="shared" si="184"/>
         <v>2.2945032778618257</v>
       </c>
       <c r="U65" s="38">
-        <f t="shared" si="166"/>
+        <f t="shared" si="184"/>
         <v>2.333165322580645</v>
       </c>
       <c r="V65" s="38">
-        <f t="shared" si="166"/>
+        <f t="shared" si="184"/>
         <v>2.3751906456532792</v>
       </c>
       <c r="W65" s="38">
-        <f t="shared" si="166"/>
+        <f t="shared" si="184"/>
         <v>0.43845519557776647</v>
       </c>
       <c r="X65" s="38">
-        <f t="shared" si="166"/>
+        <f t="shared" si="184"/>
         <v>2.6956018518518516</v>
       </c>
       <c r="Y65" s="38">
-        <f t="shared" si="166"/>
+        <f t="shared" si="184"/>
         <v>0.57126303592120509</v>
       </c>
       <c r="Z65" s="52">
-        <f t="shared" ref="Z65:AE65" si="167">Z64/Z66</f>
+        <f t="shared" ref="Z65:AE65" si="185">Z64/Z66</f>
         <v>0.2930934416715032</v>
       </c>
       <c r="AA65" s="52">
-        <f t="shared" si="167"/>
+        <f t="shared" si="185"/>
         <v>0.60093348891481912</v>
       </c>
       <c r="AB65" s="38">
-        <f t="shared" si="167"/>
+        <f t="shared" si="185"/>
         <v>0.54703832752613235</v>
       </c>
       <c r="AC65" s="38">
-        <f t="shared" si="167"/>
+        <f t="shared" si="185"/>
         <v>0.56967930029154523</v>
       </c>
       <c r="AD65" s="38">
-        <f t="shared" si="167"/>
+        <f t="shared" si="185"/>
         <v>0.51168224299065423</v>
       </c>
       <c r="AE65" s="38">
-        <f t="shared" si="167"/>
+        <f t="shared" si="185"/>
         <v>0.55744431418522855</v>
       </c>
       <c r="AF65" s="38">
-        <f t="shared" ref="AF65:AK65" si="168">AF64/AF66</f>
+        <f t="shared" ref="AF65:AK65" si="186">AF64/AF66</f>
         <v>0.38980070339976552</v>
       </c>
       <c r="AG65" s="52">
-        <f t="shared" si="168"/>
+        <f t="shared" si="186"/>
         <v>-0.42364824717765892</v>
       </c>
       <c r="AH65" s="52">
-        <f t="shared" si="168"/>
+        <f t="shared" si="186"/>
         <v>0.46426389737324375</v>
       </c>
       <c r="AI65" s="52">
-        <f t="shared" si="168"/>
+        <f t="shared" si="186"/>
         <v>0.37066342057212415</v>
       </c>
       <c r="AJ65" s="52">
-        <f t="shared" si="168"/>
+        <f t="shared" si="186"/>
         <v>0.32563791008505466</v>
       </c>
       <c r="AK65" s="52">
-        <f t="shared" si="168"/>
+        <f t="shared" si="186"/>
         <v>0.42015786278081357</v>
       </c>
       <c r="AL65" s="52">
@@ -20079,18 +20784,42 @@
       <c r="AT65" s="37"/>
       <c r="AU65" s="37"/>
       <c r="AV65" s="37"/>
-      <c r="AW65" s="37"/>
-      <c r="AX65" s="37"/>
-      <c r="AY65" s="37"/>
-      <c r="AZ65" s="37"/>
-      <c r="BA65" s="37"/>
-      <c r="BB65" s="37"/>
-      <c r="BC65" s="37"/>
-      <c r="BD65" s="37"/>
+      <c r="AW65" s="38">
+        <f t="shared" ref="AW65:AX65" si="187">AW64/AW66</f>
+        <v>0.76652769505658125</v>
+      </c>
+      <c r="AX65" s="38">
+        <f t="shared" si="187"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="AY65" s="38">
+        <f t="shared" ref="AY65:AZ65" si="188">AY64/AY66</f>
+        <v>0.83782166367444644</v>
+      </c>
+      <c r="AZ65" s="38">
+        <f t="shared" si="188"/>
+        <v>0.73818181818181816</v>
+      </c>
+      <c r="BA65" s="38">
+        <f t="shared" ref="BA65:BB65" si="189">BA64/BA66</f>
+        <v>0.74711246200607906</v>
+      </c>
+      <c r="BB65" s="38">
+        <f t="shared" si="189"/>
+        <v>0.68331303288672351</v>
+      </c>
+      <c r="BC65" s="38">
+        <f t="shared" ref="BC65:BD65" si="190">BC64/BC66</f>
+        <v>0.94329268292682922</v>
+      </c>
+      <c r="BD65" s="38">
+        <f t="shared" si="190"/>
+        <v>1.0061124694376529</v>
+      </c>
       <c r="BE65" s="37"/>
       <c r="BF65" s="37"/>
       <c r="BG65" s="38">
-        <f t="shared" ref="BG65" si="169">BG64/BG66</f>
+        <f t="shared" ref="BG65" si="191">BG64/BG66</f>
         <v>1.059254734270006</v>
       </c>
       <c r="BH65" s="38">
@@ -20100,67 +20829,67 @@
       <c r="BI65" s="37"/>
       <c r="BJ65" s="37"/>
       <c r="BK65" s="38">
-        <f t="shared" ref="BK65" si="170">BK64/BK66</f>
+        <f t="shared" ref="BK65" si="192">BK64/BK66</f>
         <v>1.862267493356953</v>
       </c>
       <c r="BL65" s="38">
-        <f t="shared" ref="BL65:BS65" si="171">BL64/BL66</f>
+        <f t="shared" ref="BL65:BS65" si="193">BL64/BL66</f>
         <v>0.69465311533362795</v>
       </c>
       <c r="BM65" s="38">
-        <f t="shared" si="171"/>
+        <f t="shared" si="193"/>
         <v>1.5200873362445415</v>
       </c>
       <c r="BN65" s="38">
-        <f t="shared" si="171"/>
+        <f t="shared" si="193"/>
         <v>1.4571303587051618</v>
       </c>
       <c r="BO65" s="38">
-        <f t="shared" si="171"/>
+        <f t="shared" si="193"/>
         <v>1.752317880794702</v>
       </c>
       <c r="BP65" s="38">
-        <f t="shared" si="171"/>
+        <f t="shared" si="193"/>
         <v>1.9804618117229129</v>
       </c>
       <c r="BQ65" s="38">
-        <f t="shared" si="171"/>
+        <f t="shared" si="193"/>
         <v>1.6950512706197058</v>
       </c>
       <c r="BR65" s="38">
-        <f t="shared" si="171"/>
+        <f t="shared" si="193"/>
         <v>1.8346101847679135</v>
       </c>
       <c r="BS65" s="38">
-        <f t="shared" si="171"/>
+        <f t="shared" si="193"/>
         <v>2.1159889094269873</v>
       </c>
       <c r="BT65" s="38">
-        <f t="shared" ref="BT65:BU65" si="172">BT64/BT66</f>
+        <f t="shared" ref="BT65:BU65" si="194">BT64/BT66</f>
         <v>2.1172638436482085</v>
       </c>
       <c r="BU65" s="38">
-        <f t="shared" si="172"/>
+        <f t="shared" si="194"/>
         <v>1.3089877338296882</v>
       </c>
       <c r="BV65" s="38">
-        <f t="shared" ref="BV65" si="173">BV64/BV66</f>
+        <f t="shared" ref="BV65" si="195">BV64/BV66</f>
         <v>1.6016392089343883</v>
       </c>
       <c r="BW65" s="38">
-        <f t="shared" ref="BW65" si="174">BW64/BW66</f>
+        <f t="shared" ref="BW65" si="196">BW64/BW66</f>
         <v>1.8446389413680788</v>
       </c>
       <c r="BX65" s="38">
-        <f t="shared" ref="BX65" si="175">BX64/BX66</f>
+        <f t="shared" ref="BX65" si="197">BX64/BX66</f>
         <v>1.8740143118892507</v>
       </c>
       <c r="BY65" s="38">
-        <f t="shared" ref="BY65" si="176">BY64/BY66</f>
+        <f t="shared" ref="BY65" si="198">BY64/BY66</f>
         <v>1.313543069200791</v>
       </c>
       <c r="BZ65" s="38">
-        <f t="shared" ref="BZ65" si="177">BZ64/BZ66</f>
+        <f t="shared" ref="BZ65" si="199">BZ64/BZ66</f>
         <v>1.6333169889439858</v>
       </c>
       <c r="CA65" s="37"/>
@@ -20201,75 +20930,75 @@
       <c r="CU65" s="37"/>
       <c r="CV65" s="37"/>
       <c r="CW65" s="38">
-        <f t="shared" ref="CW65:DF65" si="178">CW64/CW66</f>
+        <f t="shared" ref="CW65:DF65" si="200">CW64/CW66</f>
         <v>5.0781123126353505</v>
       </c>
       <c r="CX65" s="52">
-        <f t="shared" si="178"/>
+        <f t="shared" si="200"/>
         <v>9.0438297334849054</v>
       </c>
       <c r="CY65" s="52">
-        <f t="shared" si="178"/>
+        <f t="shared" si="200"/>
         <v>4.0036690149483647</v>
       </c>
       <c r="CZ65" s="52">
-        <f t="shared" si="178"/>
+        <f t="shared" si="200"/>
         <v>2.2293457671572199</v>
       </c>
       <c r="DA65" s="38">
-        <f t="shared" si="178"/>
+        <f t="shared" si="200"/>
         <v>3.0382780125309634</v>
       </c>
       <c r="DB65" s="68">
-        <f t="shared" si="178"/>
+        <f t="shared" si="200"/>
         <v>2.1468923561124869</v>
       </c>
       <c r="DC65" s="68">
-        <f t="shared" si="178"/>
+        <f t="shared" si="200"/>
         <v>2.0782607664286745</v>
       </c>
       <c r="DD65" s="38">
-        <f t="shared" si="178"/>
+        <f t="shared" si="200"/>
         <v>1.7765880146874546</v>
       </c>
       <c r="DE65" s="38">
-        <f t="shared" si="178"/>
+        <f t="shared" si="200"/>
         <v>1.5126689998513769</v>
       </c>
       <c r="DF65" s="38">
-        <f t="shared" si="178"/>
+        <f t="shared" si="200"/>
         <v>1.8054113437976689</v>
       </c>
       <c r="DG65" s="38">
-        <f t="shared" ref="DG65:DN65" si="179">DG64/DG66</f>
+        <f t="shared" ref="DG65:DN65" si="201">DG64/DG66</f>
         <v>1.8054113437976689</v>
       </c>
       <c r="DH65" s="38">
-        <f t="shared" si="179"/>
+        <f t="shared" si="201"/>
         <v>1.8054113437976689</v>
       </c>
       <c r="DI65" s="38">
-        <f t="shared" si="179"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="DJ65" s="38">
-        <f t="shared" si="179"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="DK65" s="38">
-        <f t="shared" si="179"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="DL65" s="38">
-        <f t="shared" si="179"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="DM65" s="38">
-        <f t="shared" si="179"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
       <c r="DN65" s="38">
-        <f t="shared" si="179"/>
+        <f t="shared" si="201"/>
         <v>0</v>
       </c>
     </row>
@@ -20397,6 +21126,30 @@
       <c r="AQ66" s="30"/>
       <c r="AR66" s="30"/>
       <c r="AS66" s="30"/>
+      <c r="AW66" s="30">
+        <v>1679</v>
+      </c>
+      <c r="AX66" s="30">
+        <v>1680</v>
+      </c>
+      <c r="AY66" s="30">
+        <v>1671</v>
+      </c>
+      <c r="AZ66" s="30">
+        <v>1650</v>
+      </c>
+      <c r="BA66" s="30">
+        <v>1645</v>
+      </c>
+      <c r="BB66" s="30">
+        <v>1642</v>
+      </c>
+      <c r="BC66" s="30">
+        <v>1640</v>
+      </c>
+      <c r="BD66" s="30">
+        <v>1636</v>
+      </c>
       <c r="BG66" s="30">
         <v>1637</v>
       </c>
@@ -20438,23 +21191,23 @@
         <v>2149</v>
       </c>
       <c r="BV66" s="30">
-        <f t="shared" ref="BV66:BZ66" si="180">+BU66</f>
+        <f t="shared" ref="BV66:BZ66" si="202">+BU66</f>
         <v>2149</v>
       </c>
       <c r="BW66" s="30">
-        <f t="shared" si="180"/>
+        <f t="shared" si="202"/>
         <v>2149</v>
       </c>
       <c r="BX66" s="30">
-        <f t="shared" si="180"/>
+        <f t="shared" si="202"/>
         <v>2149</v>
       </c>
       <c r="BY66" s="30">
-        <f t="shared" si="180"/>
+        <f t="shared" si="202"/>
         <v>2149</v>
       </c>
       <c r="BZ66" s="30">
-        <f t="shared" si="180"/>
+        <f t="shared" si="202"/>
         <v>2149</v>
       </c>
       <c r="CD66" s="30">
@@ -20489,59 +21242,59 @@
         <v>1715.75</v>
       </c>
       <c r="DA66" s="30">
-        <f t="shared" ref="DA66:DF66" si="181">CZ66</f>
+        <f t="shared" ref="DA66:DF66" si="203">CZ66</f>
         <v>1715.75</v>
       </c>
       <c r="DB66" s="65">
-        <f t="shared" si="181"/>
+        <f t="shared" si="203"/>
         <v>1715.75</v>
       </c>
       <c r="DC66" s="65">
-        <f t="shared" si="181"/>
+        <f t="shared" si="203"/>
         <v>1715.75</v>
       </c>
       <c r="DD66" s="30">
-        <f t="shared" si="181"/>
+        <f t="shared" si="203"/>
         <v>1715.75</v>
       </c>
       <c r="DE66" s="30">
-        <f t="shared" si="181"/>
+        <f t="shared" si="203"/>
         <v>1715.75</v>
       </c>
       <c r="DF66" s="30">
-        <f t="shared" si="181"/>
+        <f t="shared" si="203"/>
         <v>1715.75</v>
       </c>
       <c r="DG66" s="30">
-        <f t="shared" ref="DG66:DN66" si="182">DF66</f>
+        <f t="shared" ref="DG66:DN66" si="204">DF66</f>
         <v>1715.75</v>
       </c>
       <c r="DH66" s="30">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>1715.75</v>
       </c>
       <c r="DI66" s="30">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>1715.75</v>
       </c>
       <c r="DJ66" s="30">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>1715.75</v>
       </c>
       <c r="DK66" s="30">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>1715.75</v>
       </c>
       <c r="DL66" s="30">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>1715.75</v>
       </c>
       <c r="DM66" s="30">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>1715.75</v>
       </c>
       <c r="DN66" s="30">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>1715.75</v>
       </c>
       <c r="DP66" s="33"/>
@@ -20571,127 +21324,127 @@
         <v>362</v>
       </c>
       <c r="G68" s="40">
-        <f t="shared" ref="G68:AK68" si="183">G52/C52-1</f>
+        <f t="shared" ref="G68:AK68" si="205">G52/C52-1</f>
         <v>6.9661865998747574E-2</v>
       </c>
       <c r="H68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>5.4844606946984342E-3</v>
       </c>
       <c r="I68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>-0.16528805688579307</v>
       </c>
       <c r="J68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>-0.23673079547005049</v>
       </c>
       <c r="K68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>-9.9663398214547061E-2</v>
       </c>
       <c r="L68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>-8.2517482517482366E-3</v>
       </c>
       <c r="M68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>0.36474269819193328</v>
       </c>
       <c r="N68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>0.51787629603146224</v>
       </c>
       <c r="O68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>0.32282184655396629</v>
       </c>
       <c r="P68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>0.18713862642786627</v>
       </c>
       <c r="Q68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>9.2993630573248387E-2</v>
       </c>
       <c r="R68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>1.6252502649864553E-2</v>
       </c>
       <c r="S68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>1.9292209388056092E-2</v>
       </c>
       <c r="T68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>5.7614635305298201E-2</v>
       </c>
       <c r="U68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>6.0139860139860168E-2</v>
       </c>
       <c r="V68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>2.607486383126667E-2</v>
       </c>
       <c r="W68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>-0.42049427365883063</v>
       </c>
       <c r="X68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>-4.8073683028192704E-2</v>
       </c>
       <c r="Y68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>-0.47251539138082677</v>
       </c>
       <c r="Z68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>-0.42274678111587982</v>
       </c>
       <c r="AA68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>4.2438111087996777E-2</v>
       </c>
       <c r="AB68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>-0.35882005899705016</v>
       </c>
       <c r="AC68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>0.11400583576490209</v>
       </c>
       <c r="AD68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>6.7110154568577496E-2</v>
       </c>
       <c r="AE68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>4.7894631810017962E-2</v>
       </c>
       <c r="AF68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>-0.18237026131762979</v>
       </c>
       <c r="AG68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>-0.30102899906454628</v>
       </c>
       <c r="AH68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>-0.23157315731573158</v>
       </c>
       <c r="AI68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>-0.27042468101314032</v>
       </c>
       <c r="AJ68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>-8.8903893765473807E-2</v>
       </c>
       <c r="AK68" s="40">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>8.8062098501070718E-2</v>
       </c>
       <c r="AL68" s="40"/>
@@ -20709,46 +21462,76 @@
       <c r="AX68" s="37"/>
       <c r="AY68" s="37"/>
       <c r="AZ68" s="37"/>
-      <c r="BA68" s="37"/>
-      <c r="BB68" s="37"/>
-      <c r="BC68" s="37"/>
-      <c r="BD68" s="37"/>
-      <c r="BE68" s="37"/>
-      <c r="BF68" s="37"/>
-      <c r="BG68" s="37"/>
-      <c r="BH68" s="37"/>
-      <c r="BI68" s="37"/>
-      <c r="BJ68" s="37"/>
+      <c r="BA68" s="40">
+        <f t="shared" ref="BA68" si="206">BA52/AW52-1</f>
+        <v>6.7452255180820764E-2</v>
+      </c>
+      <c r="BB68" s="40">
+        <f t="shared" ref="BB68" si="207">BB52/AX52-1</f>
+        <v>3.9290482548159478E-2</v>
+      </c>
+      <c r="BC68" s="40">
+        <f t="shared" ref="BC68:BK68" si="208">BC52/AY52-1</f>
+        <v>5.3560559951308484E-2</v>
+      </c>
+      <c r="BD68" s="40">
+        <f t="shared" ref="BD68" si="209">BD52/AZ52-1</f>
+        <v>0.10886469673405919</v>
+      </c>
+      <c r="BE68" s="40">
+        <f t="shared" ref="BE68" si="210">BE52/BA52-1</f>
+        <v>8.3174724019794422E-2</v>
+      </c>
+      <c r="BF68" s="40">
+        <f t="shared" ref="BF68" si="211">BF52/BB52-1</f>
+        <v>9.616443384107165E-2</v>
+      </c>
+      <c r="BG68" s="40">
+        <f t="shared" si="208"/>
+        <v>0.13999614866165988</v>
+      </c>
+      <c r="BH68" s="40">
+        <f t="shared" si="208"/>
+        <v>9.9754558204768529E-2</v>
+      </c>
+      <c r="BI68" s="40">
+        <f t="shared" si="208"/>
+        <v>5.5526269548409779E-2</v>
+      </c>
+      <c r="BJ68" s="40">
+        <f t="shared" si="208"/>
+        <v>0.33015235225179973</v>
+      </c>
       <c r="BK68" s="40">
-        <f t="shared" ref="BK68" si="184">BK52/BG52-1</f>
+        <f t="shared" si="208"/>
         <v>0.82111486486486496</v>
       </c>
       <c r="BL68" s="40">
-        <f t="shared" ref="BL68" si="185">BL52/BH52-1</f>
+        <f t="shared" ref="BL68" si="212">BL52/BH52-1</f>
         <v>0.6146979116849991</v>
       </c>
       <c r="BM68" s="40">
-        <f t="shared" ref="BM68" si="186">BM52/BI52-1</f>
+        <f t="shared" ref="BM68" si="213">BM52/BI52-1</f>
         <v>0.75461961045446979</v>
       </c>
       <c r="BN68" s="40">
-        <f t="shared" ref="BN68" si="187">BN52/BJ52-1</f>
+        <f t="shared" ref="BN68" si="214">BN52/BJ52-1</f>
         <v>0.39307740717432349</v>
       </c>
       <c r="BO68" s="40">
-        <f t="shared" ref="BO68" si="188">BO52/BK52-1</f>
+        <f t="shared" ref="BO68" si="215">BO52/BK52-1</f>
         <v>2.7084686021704885E-2</v>
       </c>
       <c r="BP68" s="40">
-        <f t="shared" ref="BP68:BR68" si="189">BP52/BL52-1</f>
+        <f t="shared" ref="BP68:BR68" si="216">BP52/BL52-1</f>
         <v>0.15539539934840563</v>
       </c>
       <c r="BQ68" s="40">
-        <f t="shared" si="189"/>
+        <f t="shared" si="216"/>
         <v>0.10284629981024662</v>
       </c>
       <c r="BR68" s="40">
-        <f t="shared" si="189"/>
+        <f t="shared" si="216"/>
         <v>8.2851463679074699E-2</v>
       </c>
       <c r="BS68" s="40">
@@ -20756,31 +21539,31 @@
         <v>5.1928113429061673E-2</v>
       </c>
       <c r="BT68" s="40">
-        <f t="shared" ref="BT68" si="190">BT52/BP52-1</f>
+        <f t="shared" ref="BT68" si="217">BT52/BP52-1</f>
         <v>1.5722464325386598E-2</v>
       </c>
       <c r="BU68" s="40">
-        <f t="shared" ref="BU68" si="191">BU52/BQ52-1</f>
+        <f t="shared" ref="BU68" si="218">BU52/BQ52-1</f>
         <v>-7.8837749483826602E-2</v>
       </c>
       <c r="BV68" s="40">
-        <f t="shared" ref="BV68" si="192">BV52/BR52-1</f>
+        <f t="shared" ref="BV68" si="219">BV52/BR52-1</f>
         <v>-8.8030037546933615E-2</v>
       </c>
       <c r="BW68" s="40">
-        <f t="shared" ref="BW68" si="193">BW52/BS52-1</f>
+        <f t="shared" ref="BW68" si="220">BW52/BS52-1</f>
         <v>-3.7301682692307714E-2</v>
       </c>
       <c r="BX68" s="40">
-        <f t="shared" ref="BX68" si="194">BX52/BT52-1</f>
+        <f t="shared" ref="BX68" si="221">BX52/BT52-1</f>
         <v>-2.4072516194161619E-2</v>
       </c>
       <c r="BY68" s="40">
-        <f t="shared" ref="BY68" si="195">BY52/BU52-1</f>
+        <f t="shared" ref="BY68" si="222">BY52/BU52-1</f>
         <v>9.2176670940902206E-4</v>
       </c>
       <c r="BZ68" s="40">
-        <f t="shared" ref="BZ68" si="196">BZ52/BV52-1</f>
+        <f t="shared" ref="BZ68" si="223">BZ52/BV52-1</f>
         <v>1.2058196004376853E-2</v>
       </c>
       <c r="CA68" s="37"/>
@@ -20801,95 +21584,95 @@
       <c r="CP68" s="37"/>
       <c r="CQ68" s="37"/>
       <c r="CR68" s="53">
-        <f t="shared" ref="CR68:DN68" si="197">CR52/CQ52-1</f>
+        <f t="shared" ref="CR68:DN68" si="224">CR52/CQ52-1</f>
         <v>0.26885218551885215</v>
       </c>
       <c r="CS68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>5.6735257379527892E-2</v>
       </c>
       <c r="CT68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>0.72471071295259426</v>
       </c>
       <c r="CU68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>-8.635429066118383E-2</v>
       </c>
       <c r="CV68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>0.21947175174700928</v>
       </c>
       <c r="CW68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>9.3142968142968074E-2</v>
       </c>
       <c r="CX68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>4.0959573522878712E-2</v>
       </c>
       <c r="CY68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>-0.34019005348810738</v>
       </c>
       <c r="CZ68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>-8.3954982536328715E-2</v>
       </c>
       <c r="DA68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>-0.17294294859725101</v>
       </c>
       <c r="DB68" s="70">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>-0.23951906659077971</v>
       </c>
       <c r="DC68" s="70">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>-4.3785759992216566E-2</v>
       </c>
       <c r="DD68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>-0.1896711664292533</v>
       </c>
       <c r="DE68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>-0.12328734623227344</v>
       </c>
       <c r="DF68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>-0.10809019304873424</v>
       </c>
       <c r="DG68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>1.7867854893335515</v>
       </c>
       <c r="DH68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>0.15885820663977657</v>
       </c>
       <c r="DI68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>0.62623828647925039</v>
       </c>
       <c r="DJ68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>9.0949715414647914E-2</v>
       </c>
       <c r="DK68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>-2.6138837986417918E-2</v>
       </c>
       <c r="DL68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>-1.2816954101550482E-2</v>
       </c>
       <c r="DM68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>-8.4201801894086881E-2</v>
       </c>
       <c r="DN68" s="53">
-        <f t="shared" si="197"/>
+        <f t="shared" si="224"/>
         <v>-5.3193810109322559E-2</v>
       </c>
       <c r="DP68" s="28"/>
@@ -21074,46 +21857,76 @@
       <c r="AX70" s="33"/>
       <c r="AY70" s="33"/>
       <c r="AZ70" s="33"/>
-      <c r="BA70" s="33"/>
-      <c r="BB70" s="33"/>
-      <c r="BC70" s="33"/>
-      <c r="BD70" s="33"/>
-      <c r="BE70" s="33"/>
-      <c r="BF70" s="33"/>
-      <c r="BG70" s="33"/>
-      <c r="BH70" s="33"/>
-      <c r="BI70" s="33"/>
-      <c r="BJ70" s="33"/>
+      <c r="BA70" s="41">
+        <f t="shared" ref="BA70:BB70" si="225">BA8/AW8-1</f>
+        <v>0.39366515837104066</v>
+      </c>
+      <c r="BB70" s="41">
+        <f t="shared" si="225"/>
+        <v>0.43776371308016881</v>
+      </c>
+      <c r="BC70" s="41">
+        <f t="shared" ref="BC70" si="226">BC8/AY8-1</f>
+        <v>0.36784741144414168</v>
+      </c>
+      <c r="BD70" s="41">
+        <f t="shared" ref="BD70" si="227">BD8/AZ8-1</f>
+        <v>0.40306122448979598</v>
+      </c>
+      <c r="BE70" s="41">
+        <f t="shared" ref="BE70" si="228">BE8/BA8-1</f>
+        <v>0.28003246753246747</v>
+      </c>
+      <c r="BF70" s="41">
+        <f t="shared" ref="BF70" si="229">BF8/BB8-1</f>
+        <v>0.25091709464416723</v>
+      </c>
+      <c r="BG70" s="41">
+        <f t="shared" ref="BG70" si="230">BG8/BC8-1</f>
+        <v>0.27822045152722441</v>
+      </c>
+      <c r="BH70" s="41">
+        <f t="shared" ref="BH70" si="231">BH8/BD8-1</f>
+        <v>0.23757575757575755</v>
+      </c>
+      <c r="BI70" s="41">
+        <f t="shared" ref="BI70" si="232">BI8/BE8-1</f>
+        <v>0.22257450856055794</v>
+      </c>
+      <c r="BJ70" s="41">
+        <f t="shared" ref="BJ70" si="233">BJ8/BF8-1</f>
+        <v>0.19296187683284449</v>
+      </c>
       <c r="BK70" s="41">
-        <f t="shared" ref="BK70" si="198">BK8/BG8-1</f>
+        <f t="shared" ref="BK70" si="234">BK8/BG8-1</f>
         <v>0.37194805194805203</v>
       </c>
       <c r="BL70" s="41">
-        <f t="shared" ref="BL70" si="199">BL8/BH8-1</f>
+        <f t="shared" ref="BL70" si="235">BL8/BH8-1</f>
         <v>5.9255631733594605E-2</v>
       </c>
       <c r="BM70" s="41">
-        <f t="shared" ref="BM70" si="200">BM8/BI8-1</f>
+        <f t="shared" ref="BM70" si="236">BM8/BI8-1</f>
         <v>8.6618257261410703E-2</v>
       </c>
       <c r="BN70" s="41">
-        <f t="shared" ref="BN70" si="201">BN8/BJ8-1</f>
+        <f t="shared" ref="BN70" si="237">BN8/BJ8-1</f>
         <v>0.115535889872173</v>
       </c>
       <c r="BO70" s="41">
-        <f t="shared" ref="BO70" si="202">BO8/BK8-1</f>
+        <f t="shared" ref="BO70" si="238">BO8/BK8-1</f>
         <v>9.2767890950397502E-2</v>
       </c>
       <c r="BP70" s="41">
-        <f t="shared" ref="BP70:BR70" si="203">BP8/BL8-1</f>
+        <f t="shared" ref="BP70:BR70" si="239">BP8/BL8-1</f>
         <v>0.29079981507165975</v>
       </c>
       <c r="BQ70" s="41">
-        <f t="shared" si="203"/>
+        <f t="shared" si="239"/>
         <v>0.15178997613365164</v>
       </c>
       <c r="BR70" s="41">
-        <f t="shared" si="203"/>
+        <f t="shared" si="239"/>
         <v>0.17717055971793738</v>
       </c>
       <c r="BS70" s="41">
@@ -21121,31 +21934,31 @@
         <v>0.11261261261261257</v>
       </c>
       <c r="BT70" s="41">
-        <f t="shared" ref="BT70" si="204">BT8/BP8-1</f>
+        <f t="shared" ref="BT70" si="240">BT8/BP8-1</f>
         <v>0.1586676217765044</v>
       </c>
       <c r="BU70" s="41">
-        <f t="shared" ref="BU70" si="205">BU8/BQ8-1</f>
+        <f t="shared" ref="BU70" si="241">BU8/BQ8-1</f>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="BV70" s="41">
-        <f t="shared" ref="BV70" si="206">BV8/BR8-1</f>
+        <f t="shared" ref="BV70" si="242">BV8/BR8-1</f>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="BW70" s="41">
-        <f t="shared" ref="BW70" si="207">BW8/BS8-1</f>
+        <f t="shared" ref="BW70" si="243">BW8/BS8-1</f>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="BX70" s="41">
-        <f t="shared" ref="BX70" si="208">BX8/BT8-1</f>
+        <f t="shared" ref="BX70" si="244">BX8/BT8-1</f>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="BY70" s="41">
-        <f t="shared" ref="BY70" si="209">BY8/BU8-1</f>
+        <f t="shared" ref="BY70" si="245">BY8/BU8-1</f>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="BZ70" s="41">
-        <f t="shared" ref="BZ70" si="210">BZ8/BV8-1</f>
+        <f t="shared" ref="BZ70" si="246">BZ8/BV8-1</f>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="CA70" s="33"/>
@@ -21245,46 +22058,76 @@
       <c r="AX71" s="33"/>
       <c r="AY71" s="33"/>
       <c r="AZ71" s="33"/>
-      <c r="BA71" s="33"/>
-      <c r="BB71" s="33"/>
-      <c r="BC71" s="33"/>
-      <c r="BD71" s="33"/>
-      <c r="BE71" s="33"/>
-      <c r="BF71" s="33"/>
-      <c r="BG71" s="33"/>
-      <c r="BH71" s="33"/>
-      <c r="BI71" s="33"/>
-      <c r="BJ71" s="33"/>
+      <c r="BA71" s="41">
+        <f t="shared" ref="BA71:BB71" si="247">BA4/AW4-1</f>
+        <v>0.375</v>
+      </c>
+      <c r="BB71" s="41">
+        <f t="shared" si="247"/>
+        <v>3.8931297709923651E-2</v>
+      </c>
+      <c r="BC71" s="41">
+        <f t="shared" ref="BC71" si="248">BC4/AY4-1</f>
+        <v>0.34072759538598052</v>
+      </c>
+      <c r="BD71" s="41">
+        <f t="shared" ref="BD71" si="249">BD4/AZ4-1</f>
+        <v>0.36150627615062758</v>
+      </c>
+      <c r="BE71" s="41">
+        <f t="shared" ref="BE71" si="250">BE4/BA4-1</f>
+        <v>0.41739130434782612</v>
+      </c>
+      <c r="BF71" s="41">
+        <f t="shared" ref="BF71" si="251">BF4/BB4-1</f>
+        <v>0.32549595885378402</v>
+      </c>
+      <c r="BG71" s="41">
+        <f t="shared" ref="BG71" si="252">BG4/BC4-1</f>
+        <v>0.19192587690271345</v>
+      </c>
+      <c r="BH71" s="41">
+        <f t="shared" ref="BH71" si="253">BH4/BD4-1</f>
+        <v>0.12046711739397664</v>
+      </c>
+      <c r="BI71" s="41">
+        <f t="shared" ref="BI71" si="254">BI4/BE4-1</f>
+        <v>1.3385387618516376E-2</v>
+      </c>
+      <c r="BJ71" s="41">
+        <f t="shared" ref="BJ71" si="255">BJ4/BF4-1</f>
+        <v>-2.2727272727272707E-2</v>
+      </c>
       <c r="BK71" s="41">
-        <f t="shared" ref="BK71" si="211">BK4/BG4-1</f>
+        <f t="shared" ref="BK71" si="256">BK4/BG4-1</f>
         <v>-1.9433647973348123E-2</v>
       </c>
       <c r="BL71" s="41">
-        <f t="shared" ref="BL71" si="212">BL4/BH4-1</f>
+        <f t="shared" ref="BL71" si="257">BL4/BH4-1</f>
         <v>-9.3252879868348848E-2</v>
       </c>
       <c r="BM71" s="41">
-        <f t="shared" ref="BM71" si="213">BM4/BI4-1</f>
+        <f t="shared" ref="BM71" si="258">BM4/BI4-1</f>
         <v>-2.0363236103467242E-2</v>
       </c>
       <c r="BN71" s="41">
-        <f t="shared" ref="BN71" si="214">BN4/BJ4-1</f>
+        <f t="shared" ref="BN71" si="259">BN4/BJ4-1</f>
         <v>1.7016449234259712E-2</v>
       </c>
       <c r="BO71" s="41">
-        <f t="shared" ref="BO71" si="215">BO4/BK4-1</f>
+        <f t="shared" ref="BO71" si="260">BO4/BK4-1</f>
         <v>-2.6047565118912819E-2</v>
       </c>
       <c r="BP71" s="41">
-        <f t="shared" ref="BP71:BR71" si="216">BP4/BL4-1</f>
+        <f t="shared" ref="BP71:BR71" si="261">BP4/BL4-1</f>
         <v>0.15547489413188154</v>
       </c>
       <c r="BQ71" s="41">
-        <f t="shared" si="216"/>
+        <f t="shared" si="261"/>
         <v>7.02247191011236E-2</v>
       </c>
       <c r="BR71" s="41">
-        <f t="shared" si="216"/>
+        <f t="shared" si="261"/>
         <v>0.10875627440044622</v>
       </c>
       <c r="BS71" s="41">
@@ -21292,31 +22135,31 @@
         <v>0.11802325581395356</v>
       </c>
       <c r="BT71" s="41">
-        <f t="shared" ref="BT71" si="217">BT4/BP4-1</f>
+        <f t="shared" ref="BT71" si="262">BT4/BP4-1</f>
         <v>8.010471204188474E-2</v>
       </c>
       <c r="BU71" s="41">
-        <f t="shared" ref="BU71" si="218">BU4/BQ4-1</f>
+        <f t="shared" ref="BU71" si="263">BU4/BQ4-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BV71" s="41">
-        <f t="shared" ref="BV71" si="219">BV4/BR4-1</f>
+        <f t="shared" ref="BV71" si="264">BV4/BR4-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BW71" s="41">
-        <f t="shared" ref="BW71" si="220">BW4/BS4-1</f>
+        <f t="shared" ref="BW71" si="265">BW4/BS4-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BX71" s="41">
-        <f t="shared" ref="BX71" si="221">BX4/BT4-1</f>
+        <f t="shared" ref="BX71" si="266">BX4/BT4-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BY71" s="41">
-        <f t="shared" ref="BY71" si="222">BY4/BU4-1</f>
+        <f t="shared" ref="BY71" si="267">BY4/BU4-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="BZ71" s="41">
-        <f t="shared" ref="BZ71" si="223">BZ4/BV4-1</f>
+        <f t="shared" ref="BZ71" si="268">BZ4/BV4-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CA71" s="33"/>
@@ -21430,23 +22273,23 @@
       <c r="BL72" s="41"/>
       <c r="BM72" s="41"/>
       <c r="BN72" s="41">
-        <f t="shared" ref="BN72" si="224">BN10/BJ10-1</f>
+        <f t="shared" ref="BN72" si="269">BN10/BJ10-1</f>
         <v>1.5250192455735183</v>
       </c>
       <c r="BO72" s="41">
-        <f t="shared" ref="BO72" si="225">BO10/BK10-1</f>
+        <f t="shared" ref="BO72" si="270">BO10/BK10-1</f>
         <v>9.9485420240137401E-3</v>
       </c>
       <c r="BP72" s="41">
-        <f t="shared" ref="BP72:BR72" si="226">BP10/BL10-1</f>
+        <f t="shared" ref="BP72:BR72" si="271">BP10/BL10-1</f>
         <v>0.11026352288488206</v>
       </c>
       <c r="BQ72" s="41">
-        <f t="shared" si="226"/>
+        <f t="shared" si="271"/>
         <v>0.10571522960026436</v>
       </c>
       <c r="BR72" s="41">
-        <f t="shared" si="226"/>
+        <f t="shared" si="271"/>
         <v>1.4634146341463428E-2</v>
       </c>
       <c r="BS72" s="41">
@@ -21454,31 +22297,31 @@
         <v>-4.9932065217391353E-2</v>
       </c>
       <c r="BT72" s="41">
-        <f t="shared" ref="BT72" si="227">BT10/BP10-1</f>
+        <f t="shared" ref="BT72" si="272">BT10/BP10-1</f>
         <v>-0.21892567145534036</v>
       </c>
       <c r="BU72" s="41">
-        <f t="shared" ref="BU72" si="228">BU10/BQ10-1</f>
+        <f t="shared" ref="BU72" si="273">BU10/BQ10-1</f>
         <v>-0.37257245294293395</v>
       </c>
       <c r="BV72" s="41">
-        <f t="shared" ref="BV72" si="229">BV10/BR10-1</f>
+        <f t="shared" ref="BV72" si="274">BV10/BR10-1</f>
         <v>-0.42908653846153844</v>
       </c>
       <c r="BW72" s="41">
-        <f t="shared" ref="BW72" si="230">BW10/BS10-1</f>
+        <f t="shared" ref="BW72" si="275">BW10/BS10-1</f>
         <v>-0.35645334286735786</v>
       </c>
       <c r="BX72" s="41">
-        <f t="shared" ref="BX72" si="231">BX10/BT10-1</f>
+        <f t="shared" ref="BX72" si="276">BX10/BT10-1</f>
         <v>-0.32027189124350264</v>
       </c>
       <c r="BY72" s="41">
-        <f t="shared" ref="BY72" si="232">BY10/BU10-1</f>
+        <f t="shared" ref="BY72" si="277">BY10/BU10-1</f>
         <v>-0.23809523809523814</v>
       </c>
       <c r="BZ72" s="41">
-        <f t="shared" ref="BZ72" si="233">BZ10/BV10-1</f>
+        <f t="shared" ref="BZ72" si="278">BZ10/BV10-1</f>
         <v>-0.21052631578947367</v>
       </c>
       <c r="CA72" s="33"/>
@@ -21541,127 +22384,127 @@
         <v>362</v>
       </c>
       <c r="G73" s="76">
-        <f t="shared" ref="G73:AK73" si="234">+G35/C35-1</f>
+        <f t="shared" ref="G73:AK73" si="279">+G35/C35-1</f>
         <v>0.21130221130221138</v>
       </c>
       <c r="H73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>0.18285123966942152</v>
       </c>
       <c r="I73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>-0.3571428571428571</v>
       </c>
       <c r="J73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>-0.53251649387370403</v>
       </c>
       <c r="K73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>-4.8681541582150101E-2</v>
       </c>
       <c r="L73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>3.8427947598253187E-2</v>
       </c>
       <c r="M73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>0.99047619047619051</v>
       </c>
       <c r="N73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>1.7701612903225805</v>
       </c>
       <c r="O73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>0.3944562899786781</v>
       </c>
       <c r="P73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>0.16652649285113541</v>
       </c>
       <c r="Q73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>0.1475279106858054</v>
       </c>
       <c r="R73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>6.9141193595342099E-2</v>
       </c>
       <c r="S73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>9.7094801223241545E-2</v>
       </c>
       <c r="T73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>0.1095890410958904</v>
       </c>
       <c r="U73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>7.9916608756080532E-2</v>
       </c>
       <c r="V73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>0.10142954390741998</v>
       </c>
       <c r="W73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>0.16097560975609748</v>
       </c>
       <c r="X73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>5.7179987004548405E-2</v>
       </c>
       <c r="Y73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>6.6924066924066938E-2</v>
       </c>
       <c r="Z73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>5.9950556242274411E-2</v>
       </c>
       <c r="AA73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>5.7623049219687861E-2</v>
       </c>
       <c r="AB73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>0.146281499692686</v>
       </c>
       <c r="AC73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>7.8407720144752613E-2</v>
       </c>
       <c r="AD73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>-2.507288629737614E-2</v>
       </c>
       <c r="AE73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>-3.9160045402951149E-2</v>
       </c>
       <c r="AF73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>-0.60268096514745306</v>
       </c>
       <c r="AG73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>-0.96420581655480986</v>
       </c>
       <c r="AH73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>-0.97069377990430628</v>
       </c>
       <c r="AI73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>-0.94624926166568224</v>
       </c>
       <c r="AJ73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>-0.94062078272604588</v>
       </c>
       <c r="AK73" s="76">
-        <f t="shared" si="234"/>
+        <f t="shared" si="279"/>
         <v>-0.34375</v>
       </c>
       <c r="AL73" s="76"/>
@@ -21728,95 +22571,95 @@
         <v>362</v>
       </c>
       <c r="CR73" s="77">
-        <f t="shared" ref="CR73:DN73" si="235">CR35/CQ35-1</f>
+        <f t="shared" ref="CR73:DN73" si="280">CR35/CQ35-1</f>
         <v>0.30529100529100539</v>
       </c>
       <c r="CS73" s="77">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>0.34860154033238744</v>
       </c>
       <c r="CT73" s="77">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>0.14908325819056212</v>
       </c>
       <c r="CU73" s="77">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>-0.14805126863719587</v>
       </c>
       <c r="CV73" s="77">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>0.45993245317777087</v>
       </c>
       <c r="CW73" s="77">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>0.17833859095688753</v>
       </c>
       <c r="CX73" s="77">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>9.6912368374085345E-2</v>
       </c>
       <c r="CY73" s="77">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>8.4607875040676905E-2</v>
       </c>
       <c r="CZ73" s="77">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>6.3156315631563098E-2</v>
       </c>
       <c r="DA73" s="77">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>-0.64060956681247361</v>
       </c>
       <c r="DB73" s="78">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>-0.8</v>
       </c>
       <c r="DC73" s="78">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>-0.5</v>
       </c>
       <c r="DD73" s="77">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>-0.5</v>
       </c>
       <c r="DE73" s="77">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="DF73" s="77">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="DG73" s="77">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>-1</v>
       </c>
       <c r="DH73" s="77" t="e">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DI73" s="77" t="e">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DJ73" s="77" t="e">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DK73" s="77" t="e">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DL73" s="77" t="e">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DM73" s="77" t="e">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DN73" s="77" t="e">
-        <f t="shared" si="235"/>
+        <f t="shared" si="280"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21837,127 +22680,127 @@
         <v>362</v>
       </c>
       <c r="G74" s="76">
-        <f t="shared" ref="G74:AK74" si="236">+G40/C40-1</f>
+        <f t="shared" ref="G74:AK74" si="281">+G40/C40-1</f>
         <v>1.1560693641618602E-2</v>
       </c>
       <c r="H74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>0.15568862275449091</v>
       </c>
       <c r="I74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>0.18235294117647061</v>
       </c>
       <c r="J74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>0.30588235294117649</v>
       </c>
       <c r="K74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>0.29142857142857137</v>
       </c>
       <c r="L74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>0.20725388601036276</v>
       </c>
       <c r="M74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>0.17910447761194037</v>
       </c>
       <c r="N74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>0.1711711711711712</v>
       </c>
       <c r="O74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>0.20796460176991149</v>
       </c>
       <c r="P74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>0.21030042918454939</v>
       </c>
       <c r="Q74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>0.240506329113924</v>
       </c>
       <c r="R74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>0.15384615384615374</v>
       </c>
       <c r="S74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>6.9597069597069572E-2</v>
       </c>
       <c r="T74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>0.1063829787234043</v>
       </c>
       <c r="U74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="V74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>0.19333333333333336</v>
       </c>
       <c r="W74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>0.14726027397260277</v>
       </c>
       <c r="X74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>6.0897435897435903E-2</v>
       </c>
       <c r="Y74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>8.5714285714285632E-2</v>
       </c>
       <c r="Z74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>5.5865921787709993E-3</v>
       </c>
       <c r="AA74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>2.3880597014925398E-2</v>
       </c>
       <c r="AB74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>0.12084592145015116</v>
       </c>
       <c r="AC74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>4.9707602339181367E-2</v>
       </c>
       <c r="AD74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>0.14444444444444438</v>
       </c>
       <c r="AE74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>0.12536443148688048</v>
       </c>
       <c r="AF74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>4.5822102425876032E-2</v>
       </c>
       <c r="AG74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>3.0640668523676862E-2</v>
       </c>
       <c r="AH74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>-7.0388349514563076E-2</v>
       </c>
       <c r="AI74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>2.5906735751295429E-3</v>
       </c>
       <c r="AJ74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>5.9278350515463929E-2</v>
       </c>
       <c r="AK74" s="76">
-        <f t="shared" si="236"/>
+        <f t="shared" si="281"/>
         <v>5.1351351351351271E-2</v>
       </c>
       <c r="AL74" s="76"/>
@@ -22065,111 +22908,111 @@
         <v>362</v>
       </c>
       <c r="K75" s="57">
-        <f t="shared" ref="K75:AK75" si="237">+K3/G3-1</f>
+        <f t="shared" ref="K75:AK75" si="282">+K3/G3-1</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="L75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>2.0555555555555554</v>
       </c>
       <c r="M75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="N75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>1.34375</v>
       </c>
       <c r="O75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>1.1219512195121952</v>
       </c>
       <c r="P75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.92727272727272725</v>
       </c>
       <c r="Q75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.98333333333333339</v>
       </c>
       <c r="R75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.72</v>
       </c>
       <c r="S75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.42528735632183912</v>
       </c>
       <c r="T75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.39622641509433953</v>
       </c>
       <c r="U75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.3613445378151261</v>
       </c>
       <c r="V75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.30232558139534893</v>
       </c>
       <c r="W75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.36290322580645151</v>
       </c>
       <c r="X75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.20270270270270263</v>
       </c>
       <c r="Y75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.13580246913580241</v>
       </c>
       <c r="Z75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.20238095238095233</v>
       </c>
       <c r="AA75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.1775147928994083</v>
       </c>
       <c r="AB75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.2808988764044944</v>
       </c>
       <c r="AC75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.26630434782608692</v>
       </c>
       <c r="AD75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.2722772277227723</v>
       </c>
       <c r="AE75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.27638190954773867</v>
       </c>
       <c r="AF75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.27192982456140347</v>
       </c>
       <c r="AG75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.31759656652360513</v>
       </c>
       <c r="AH75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.2645914396887159</v>
       </c>
       <c r="AI75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.25984251968503935</v>
       </c>
       <c r="AJ75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.21379310344827585</v>
       </c>
       <c r="AK75" s="57">
-        <f t="shared" si="237"/>
+        <f t="shared" si="282"/>
         <v>0.22149837133550498</v>
       </c>
       <c r="AL75" s="57"/>
@@ -22201,127 +23044,127 @@
         <v>362</v>
       </c>
       <c r="G76" s="76">
-        <f t="shared" ref="G76:AK76" si="238">+G31/C31-1</f>
+        <f t="shared" ref="G76:AK76" si="283">+G31/C31-1</f>
         <v>0.18877551020408156</v>
       </c>
       <c r="H76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>8.5271317829457294E-2</v>
       </c>
       <c r="I76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>0.10358565737051784</v>
       </c>
       <c r="J76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>0.10830324909747291</v>
       </c>
       <c r="K76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>0.15879828326180268</v>
       </c>
       <c r="L76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>6.0714285714285721E-2</v>
       </c>
       <c r="M76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>0.11552346570397121</v>
       </c>
       <c r="N76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>6.8403908794788304E-2</v>
       </c>
       <c r="O76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>0.12962962962962954</v>
       </c>
       <c r="P76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>0.12794612794612803</v>
       </c>
       <c r="Q76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>8.0906148867313954E-2</v>
       </c>
       <c r="R76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-3.6585365853658569E-2</v>
       </c>
       <c r="S76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-9.8360655737704805E-3</v>
       </c>
       <c r="T76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-6.5671641791044788E-2</v>
       </c>
       <c r="U76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-1.4970059880239472E-2</v>
       </c>
       <c r="V76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>7.2784810126582222E-2</v>
       </c>
       <c r="W76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>3.9735099337748325E-2</v>
       </c>
       <c r="X76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-1.9169329073482455E-2</v>
       </c>
       <c r="Y76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-7.9027355623100259E-2</v>
       </c>
       <c r="Z76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-0.25663716814159288</v>
       </c>
       <c r="AA76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-7.6433121019108263E-2</v>
       </c>
       <c r="AB76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-0.1824104234527687</v>
       </c>
       <c r="AC76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-0.28712871287128716</v>
       </c>
       <c r="AD76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-0.22619047619047616</v>
       </c>
       <c r="AE76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-0.28620689655172415</v>
       </c>
       <c r="AF76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-0.53386454183266929</v>
       </c>
       <c r="AG76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-0.56018518518518512</v>
       </c>
       <c r="AH76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-0.56923076923076921</v>
       </c>
       <c r="AI76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-0.77777777777777779</v>
       </c>
       <c r="AJ76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-0.52136752136752129</v>
       </c>
       <c r="AK76" s="76">
-        <f t="shared" si="238"/>
+        <f t="shared" si="283"/>
         <v>-0.25263157894736843</v>
       </c>
       <c r="AL76" s="76"/>
@@ -22417,127 +23260,127 @@
         <v>362</v>
       </c>
       <c r="G77" s="76">
-        <f t="shared" ref="G77:AK77" si="239">+G41/C41-1</f>
+        <f t="shared" ref="G77:AK77" si="284">+G41/C41-1</f>
         <v>0.38926174496644306</v>
       </c>
       <c r="H77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>0.28961748633879791</v>
       </c>
       <c r="I77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>0.32386363636363646</v>
       </c>
       <c r="J77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>0.3563829787234043</v>
       </c>
       <c r="K77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>0.27053140096618367</v>
       </c>
       <c r="L77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>7.6271186440677985E-2</v>
       </c>
       <c r="M77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>0.17167381974248919</v>
       </c>
       <c r="N77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>0.30980392156862746</v>
       </c>
       <c r="O77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>0.12927756653992395</v>
       </c>
       <c r="P77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>0.27559055118110232</v>
       </c>
       <c r="Q77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>0.25274725274725274</v>
       </c>
       <c r="R77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>-1.4970059880239472E-2</v>
       </c>
       <c r="S77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>8.4175084175084125E-2</v>
       </c>
       <c r="T77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>2.1604938271605034E-2</v>
       </c>
       <c r="U77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>5.2631578947368363E-2</v>
       </c>
       <c r="V77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>0.17933130699088151</v>
       </c>
       <c r="W77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>0.15838509316770177</v>
       </c>
       <c r="X77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>7.8549848942598199E-2</v>
       </c>
       <c r="Y77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="Z77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>-3.6082474226804107E-2</v>
       </c>
       <c r="AA77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>-1.8766756032171594E-2</v>
       </c>
       <c r="AB77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>0.10924369747899165</v>
       </c>
       <c r="AC77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>4.2666666666666631E-2</v>
       </c>
       <c r="AD77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>0.11229946524064172</v>
       </c>
       <c r="AE77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>-2.1857923497267784E-2</v>
       </c>
       <c r="AF77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>2.5252525252525304E-2</v>
       </c>
       <c r="AG77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>-7.1611253196930957E-2</v>
       </c>
       <c r="AH77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>-5.2884615384615419E-2</v>
       </c>
       <c r="AI77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>8.379888268156499E-3</v>
       </c>
       <c r="AJ77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>6.1576354679802936E-2</v>
       </c>
       <c r="AK77" s="76">
-        <f t="shared" si="239"/>
+        <f t="shared" si="284"/>
         <v>3.3057851239669311E-2</v>
       </c>
       <c r="AL77" s="76"/>
@@ -22642,115 +23485,115 @@
         <v>362</v>
       </c>
       <c r="J78" s="76">
-        <f t="shared" ref="J78:AK78" si="240">+J42/F42-1</f>
+        <f t="shared" ref="J78:AK78" si="285">+J42/F42-1</f>
         <v>6.2</v>
       </c>
       <c r="K78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>3.0909090909090908</v>
       </c>
       <c r="L78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>3.2142857142857144</v>
       </c>
       <c r="M78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>2.2727272727272729</v>
       </c>
       <c r="N78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>1.75</v>
       </c>
       <c r="O78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>1.4</v>
       </c>
       <c r="P78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>1.3050847457627119</v>
       </c>
       <c r="Q78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>1</v>
       </c>
       <c r="R78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="S78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.40740740740740744</v>
       </c>
       <c r="T78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.31617647058823528</v>
       </c>
       <c r="U78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.32638888888888884</v>
       </c>
       <c r="V78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.3856209150326797</v>
       </c>
       <c r="W78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.42105263157894735</v>
       </c>
       <c r="X78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.24581005586592175</v>
       </c>
       <c r="Y78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.19371727748691092</v>
       </c>
       <c r="Z78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.24528301886792447</v>
       </c>
       <c r="AA78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.27314814814814814</v>
       </c>
       <c r="AB78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.3094170403587444</v>
       </c>
       <c r="AC78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.36403508771929816</v>
       </c>
       <c r="AD78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.20454545454545459</v>
       </c>
       <c r="AE78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.18181818181818188</v>
       </c>
       <c r="AF78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.22260273972602729</v>
       </c>
       <c r="AG78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.112540192926045</v>
       </c>
       <c r="AH78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.5691823899371069</v>
       </c>
       <c r="AI78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>0.12615384615384606</v>
       </c>
       <c r="AJ78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>3.9215686274509887E-2</v>
       </c>
       <c r="AK78" s="76">
-        <f t="shared" si="240"/>
+        <f t="shared" si="285"/>
         <v>9.2485549132947931E-2</v>
       </c>
       <c r="AL78" s="76"/>
@@ -22846,127 +23689,127 @@
         <v>362</v>
       </c>
       <c r="G79" s="76">
-        <f t="shared" ref="G79:P80" si="241">+G38/C38-1</f>
+        <f t="shared" ref="G79:P80" si="286">+G38/C38-1</f>
         <v>0.5862068965517242</v>
       </c>
       <c r="H79" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>0.75510204081632648</v>
       </c>
       <c r="I79" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>0.63551401869158886</v>
       </c>
       <c r="J79" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>0.38016528925619841</v>
       </c>
       <c r="K79" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>0.15942028985507251</v>
       </c>
       <c r="L79" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>-5.8139534883720922E-2</v>
       </c>
       <c r="M79" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>5.7142857142857162E-2</v>
       </c>
       <c r="N79" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>0.10778443113772451</v>
       </c>
       <c r="O79" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>0.16874999999999996</v>
       </c>
       <c r="P79" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>0.20987654320987659</v>
       </c>
       <c r="Q79" s="76">
-        <f t="shared" ref="Q79:Z80" si="242">+Q38/M38-1</f>
+        <f t="shared" ref="Q79:Z80" si="287">+Q38/M38-1</f>
         <v>-5.4054054054053502E-3</v>
       </c>
       <c r="R79" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>-1.6216216216216162E-2</v>
       </c>
       <c r="S79" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>-0.12299465240641716</v>
       </c>
       <c r="T79" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>-0.11734693877551017</v>
       </c>
       <c r="U79" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>-2.7173913043478271E-2</v>
       </c>
       <c r="V79" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>-8.2417582417582458E-2</v>
       </c>
       <c r="W79" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>1.2195121951219523E-2</v>
       </c>
       <c r="X79" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>-5.7803468208093012E-3</v>
       </c>
       <c r="Y79" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>-0.11173184357541899</v>
       </c>
       <c r="Z79" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>-1.19760479041916E-2</v>
       </c>
       <c r="AA79" s="76">
-        <f t="shared" ref="AA79:AJ80" si="243">+AA38/W38-1</f>
+        <f t="shared" ref="AA79:AJ80" si="288">+AA38/W38-1</f>
         <v>-6.0240963855421326E-3</v>
       </c>
       <c r="AB79" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>5.8139534883721034E-3</v>
       </c>
       <c r="AC79" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>8.1761006289308158E-2</v>
       </c>
       <c r="AD79" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>9.6969696969696928E-2</v>
       </c>
       <c r="AE79" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>8.4848484848484951E-2</v>
       </c>
       <c r="AF79" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>3.4682080924855585E-2</v>
       </c>
       <c r="AG79" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>5.8139534883721034E-3</v>
       </c>
       <c r="AH79" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>-5.5248618784530357E-2</v>
       </c>
       <c r="AI79" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>-9.4972067039106101E-2</v>
       </c>
       <c r="AJ79" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>-4.4692737430167551E-2</v>
       </c>
       <c r="AK79" s="76">
-        <f t="shared" ref="AK79:AK80" si="244">+AK38/AG38-1</f>
+        <f t="shared" ref="AK79:AK80" si="289">+AK38/AG38-1</f>
         <v>5.7803468208092568E-2</v>
       </c>
       <c r="AL79" s="76"/>
@@ -23062,127 +23905,127 @@
         <v>362</v>
       </c>
       <c r="G80" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>0.50531914893617014</v>
       </c>
       <c r="H80" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="I80" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>0.20384615384615379</v>
       </c>
       <c r="J80" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>0.6160714285714286</v>
       </c>
       <c r="K80" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>0.29328621908127217</v>
       </c>
       <c r="L80" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>0.27160493827160503</v>
       </c>
       <c r="M80" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>0.34185303514377008</v>
       </c>
       <c r="N80" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>0.27624309392265189</v>
       </c>
       <c r="O80" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>0.2404371584699454</v>
       </c>
       <c r="P80" s="76">
-        <f t="shared" si="241"/>
+        <f t="shared" si="286"/>
         <v>0.28398058252427183</v>
       </c>
       <c r="Q80" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>0.34285714285714275</v>
       </c>
       <c r="R80" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>0.31168831168831179</v>
       </c>
       <c r="S80" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>0.29735682819383258</v>
       </c>
       <c r="T80" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>0.21550094517958418</v>
       </c>
       <c r="U80" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>0.15780141843971629</v>
       </c>
       <c r="V80" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>0.16666666666666674</v>
       </c>
       <c r="W80" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>4.7538200339558578E-2</v>
       </c>
       <c r="X80" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>-1.5552099533437058E-2</v>
       </c>
       <c r="Y80" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>-6.8912710566615631E-2</v>
       </c>
       <c r="Z80" s="76">
-        <f t="shared" si="242"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AA80" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>1.1345218800648205E-2</v>
       </c>
       <c r="AB80" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>0.11532385466034745</v>
       </c>
       <c r="AC80" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>0.13651315789473695</v>
       </c>
       <c r="AD80" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>4.2432814710042344E-2</v>
       </c>
       <c r="AE80" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>-4.8076923076922906E-3</v>
       </c>
       <c r="AF80" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>7.0821529745042078E-3</v>
       </c>
       <c r="AG80" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>-2.1707670043415339E-2</v>
       </c>
       <c r="AH80" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>0.11126187245590224</v>
       </c>
       <c r="AI80" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>-0.15942028985507251</v>
       </c>
       <c r="AJ80" s="76">
-        <f t="shared" si="243"/>
+        <f t="shared" si="288"/>
         <v>-0.20815752461322079</v>
       </c>
       <c r="AK80" s="76">
-        <f t="shared" si="244"/>
+        <f t="shared" si="289"/>
         <v>-0.15828402366863903</v>
       </c>
       <c r="AL80" s="76"/>
@@ -23296,103 +24139,103 @@
         <v>362</v>
       </c>
       <c r="M81" s="41">
-        <f t="shared" ref="M81:AK81" si="245">M5/I5-1</f>
+        <f t="shared" ref="M81:AK81" si="290">M5/I5-1</f>
         <v>3.1818181818181817</v>
       </c>
       <c r="N81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>3</v>
       </c>
       <c r="O81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="P81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>1.1714285714285713</v>
       </c>
       <c r="Q81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.78260869565217384</v>
       </c>
       <c r="R81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.53571428571428581</v>
       </c>
       <c r="S81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="T81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.40789473684210531</v>
       </c>
       <c r="U81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.30487804878048785</v>
       </c>
       <c r="V81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.38372093023255816</v>
       </c>
       <c r="W81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.48863636363636354</v>
       </c>
       <c r="X81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.23364485981308403</v>
       </c>
       <c r="Y81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.34579439252336441</v>
       </c>
       <c r="Z81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.42016806722689082</v>
       </c>
       <c r="AA81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.31297709923664119</v>
       </c>
       <c r="AB81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.46212121212121215</v>
       </c>
       <c r="AC81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.46527777777777768</v>
       </c>
       <c r="AD81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.34319526627218933</v>
       </c>
       <c r="AE81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.34302325581395343</v>
       </c>
       <c r="AF81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.26424870466321249</v>
       </c>
       <c r="AG81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.24644549763033186</v>
       </c>
       <c r="AH81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.23788546255506615</v>
       </c>
       <c r="AI81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.24242424242424243</v>
       </c>
       <c r="AJ81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.27868852459016402</v>
       </c>
       <c r="AK81" s="41">
-        <f t="shared" si="245"/>
+        <f t="shared" si="290"/>
         <v>0.20152091254752857</v>
       </c>
       <c r="AL81" s="41"/>
@@ -23479,51 +24322,51 @@
         <v>362</v>
       </c>
       <c r="Z82" s="41">
-        <f t="shared" ref="Z82:AK82" si="246">Z34/V34-1</f>
+        <f t="shared" ref="Z82:AK82" si="291">Z34/V34-1</f>
         <v>17.25</v>
       </c>
       <c r="AA82" s="41">
-        <f t="shared" si="246"/>
+        <f t="shared" si="291"/>
         <v>7.1</v>
       </c>
       <c r="AB82" s="41">
-        <f t="shared" si="246"/>
+        <f t="shared" si="291"/>
         <v>3</v>
       </c>
       <c r="AC82" s="41">
-        <f t="shared" si="246"/>
+        <f t="shared" si="291"/>
         <v>1.7021276595744679</v>
       </c>
       <c r="AD82" s="41">
-        <f t="shared" si="246"/>
+        <f t="shared" si="291"/>
         <v>1.095890410958904</v>
       </c>
       <c r="AE82" s="41">
-        <f t="shared" si="246"/>
+        <f t="shared" si="291"/>
         <v>0.98765432098765427</v>
       </c>
       <c r="AF82" s="41">
-        <f t="shared" si="246"/>
+        <f t="shared" si="291"/>
         <v>0.53571428571428581</v>
       </c>
       <c r="AG82" s="41">
-        <f t="shared" si="246"/>
+        <f t="shared" si="291"/>
         <v>0.40157480314960625</v>
       </c>
       <c r="AH82" s="41">
-        <f t="shared" si="246"/>
+        <f t="shared" si="291"/>
         <v>0.29411764705882359</v>
       </c>
       <c r="AI82" s="41">
-        <f t="shared" si="246"/>
+        <f t="shared" si="291"/>
         <v>0.25465838509316763</v>
       </c>
       <c r="AJ82" s="41">
-        <f t="shared" si="246"/>
+        <f t="shared" si="291"/>
         <v>0.39534883720930236</v>
       </c>
       <c r="AK82" s="41">
-        <f t="shared" si="246"/>
+        <f t="shared" si="291"/>
         <v>0.18539325842696619</v>
       </c>
       <c r="AL82" s="41"/>
@@ -23584,123 +24427,123 @@
         <v>166</v>
       </c>
       <c r="C84" s="39">
-        <f t="shared" ref="C84:AF84" si="247">C54/C52</f>
+        <f t="shared" ref="C84:AF84" si="292">C54/C52</f>
         <v>0.7860050093926112</v>
       </c>
       <c r="D84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.79144986640416259</v>
       </c>
       <c r="E84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.78479175736467854</v>
       </c>
       <c r="F84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.7823714012825761</v>
       </c>
       <c r="G84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.78398946290062932</v>
       </c>
       <c r="H84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.78069930069930071</v>
       </c>
       <c r="I84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.74530598052851182</v>
       </c>
       <c r="J84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.75062567036110117</v>
       </c>
       <c r="K84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.78218465539661897</v>
       </c>
       <c r="L84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.78155408263996617</v>
       </c>
       <c r="M84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.79337579617834397</v>
       </c>
       <c r="N84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.78600871511011661</v>
       </c>
       <c r="O84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.79638731875153601</v>
       </c>
       <c r="P84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.80850558327393685</v>
       </c>
       <c r="Q84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.81573426573426577</v>
       </c>
       <c r="R84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0</v>
       </c>
       <c r="S84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.82965641952983726</v>
       </c>
       <c r="T84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.83589801190609903</v>
       </c>
       <c r="U84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.82827616534740545</v>
       </c>
       <c r="V84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.83815224757171902</v>
       </c>
       <c r="W84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.72831287705429582</v>
       </c>
       <c r="X84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.84932153392330378</v>
       </c>
       <c r="Y84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.73322217590662775</v>
       </c>
       <c r="Z84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.72334181177851697</v>
       </c>
       <c r="AA84" s="55">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.73198962282977453</v>
       </c>
       <c r="AB84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.72745675377254326</v>
       </c>
       <c r="AC84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.73676333021515439</v>
       </c>
       <c r="AD84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.74935826916024939</v>
       </c>
       <c r="AE84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.7518567891830128</v>
       </c>
       <c r="AF84" s="39">
-        <f t="shared" si="247"/>
+        <f t="shared" si="292"/>
         <v>0.71978392977717753</v>
       </c>
       <c r="AG84" s="39">
@@ -23727,39 +24570,39 @@
       <c r="AR84" s="39"/>
       <c r="AS84" s="39"/>
       <c r="BK84" s="57">
-        <f t="shared" ref="BK84:BS84" si="248">+BK54/BK52</f>
+        <f t="shared" ref="BK84:BS84" si="293">+BK54/BK52</f>
         <v>0.79371115851961782</v>
       </c>
       <c r="BL84" s="57">
-        <f t="shared" si="248"/>
+        <f t="shared" si="293"/>
         <v>0.73353736795340108</v>
       </c>
       <c r="BM84" s="57">
-        <f t="shared" si="248"/>
+        <f t="shared" si="293"/>
         <v>0.7626185958254269</v>
       </c>
       <c r="BN84" s="57">
-        <f t="shared" si="248"/>
+        <f t="shared" si="293"/>
         <v>0.79806649801228768</v>
       </c>
       <c r="BO84" s="57">
-        <f t="shared" si="248"/>
+        <f t="shared" si="293"/>
         <v>0.78108913573557304</v>
       </c>
       <c r="BP84" s="57">
-        <f t="shared" si="248"/>
+        <f t="shared" si="293"/>
         <v>0.79808596086473549</v>
       </c>
       <c r="BQ84" s="57">
-        <f t="shared" si="248"/>
+        <f t="shared" si="293"/>
         <v>0.80290777701307636</v>
       </c>
       <c r="BR84" s="57">
-        <f t="shared" si="248"/>
+        <f t="shared" si="293"/>
         <v>0.80342094284522314</v>
       </c>
       <c r="BS84" s="57">
-        <f t="shared" si="248"/>
+        <f t="shared" si="293"/>
         <v>0.79232486263736268</v>
       </c>
       <c r="BT84" s="57">
@@ -23767,27 +24610,27 @@
         <v>0.78337679818288886</v>
       </c>
       <c r="BU84" s="57">
-        <f t="shared" ref="BU84:BZ84" si="249">+BU54/BU52</f>
+        <f t="shared" ref="BU84:BZ84" si="294">+BU54/BU52</f>
         <v>0.79</v>
       </c>
       <c r="BV84" s="57">
-        <f t="shared" si="249"/>
+        <f t="shared" si="294"/>
         <v>0.78999999999999992</v>
       </c>
       <c r="BW84" s="57">
-        <f t="shared" si="249"/>
+        <f t="shared" si="294"/>
         <v>0.79000000000000015</v>
       </c>
       <c r="BX84" s="57">
-        <f t="shared" si="249"/>
+        <f t="shared" si="294"/>
         <v>0.79</v>
       </c>
       <c r="BY84" s="57">
-        <f t="shared" si="249"/>
+        <f t="shared" si="294"/>
         <v>0.78999999999999992</v>
       </c>
       <c r="BZ84" s="57">
-        <f t="shared" si="249"/>
+        <f t="shared" si="294"/>
         <v>0.78999999999999992</v>
       </c>
       <c r="CD84" s="39">
@@ -23819,35 +24662,35 @@
       <c r="CO84" s="39"/>
       <c r="CP84" s="39"/>
       <c r="CQ84" s="39">
-        <f t="shared" ref="CQ84:CX84" si="250">CQ54/CQ52</f>
+        <f t="shared" ref="CQ84:CX84" si="295">CQ54/CQ52</f>
         <v>0</v>
       </c>
       <c r="CR84" s="39">
-        <f t="shared" si="250"/>
+        <f t="shared" si="295"/>
         <v>0</v>
       </c>
       <c r="CS84" s="39">
-        <f t="shared" si="250"/>
+        <f t="shared" si="295"/>
         <v>0</v>
       </c>
       <c r="CT84" s="39">
-        <f t="shared" si="250"/>
+        <f t="shared" si="295"/>
         <v>0</v>
       </c>
       <c r="CU84" s="39">
-        <f t="shared" si="250"/>
+        <f t="shared" si="295"/>
         <v>0</v>
       </c>
       <c r="CV84" s="39">
-        <f t="shared" si="250"/>
+        <f t="shared" si="295"/>
         <v>0.68</v>
       </c>
       <c r="CW84" s="39">
-        <f t="shared" si="250"/>
+        <f t="shared" si="295"/>
         <v>0.60079964460239899</v>
       </c>
       <c r="CX84" s="55">
-        <f t="shared" si="250"/>
+        <f t="shared" si="295"/>
         <v>0.8330203710026175</v>
       </c>
       <c r="CY84" s="55">
@@ -23913,111 +24756,111 @@
       <c r="I85" s="39"/>
       <c r="J85" s="39"/>
       <c r="K85" s="39">
-        <f t="shared" ref="K85:AK85" si="251">+K55/K52</f>
+        <f t="shared" ref="K85:AK85" si="296">+K55/K52</f>
         <v>0.18416775032509752</v>
       </c>
       <c r="L85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.17049781413058807</v>
       </c>
       <c r="M85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.15464968152866243</v>
       </c>
       <c r="N85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.15816747144034859</v>
       </c>
       <c r="O85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.1502826247235193</v>
       </c>
       <c r="P85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.13578047042052743</v>
       </c>
       <c r="Q85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.13648018648018648</v>
       </c>
       <c r="R85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.13570518020628114</v>
       </c>
       <c r="S85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.12827004219409283</v>
       </c>
       <c r="T85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.12097045939570931</v>
       </c>
       <c r="U85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.12280123131046614</v>
       </c>
       <c r="V85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.13214366388073187</v>
       </c>
       <c r="W85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.18722696068233827</v>
       </c>
       <c r="X85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.10548672566371682</v>
       </c>
       <c r="Y85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.18591079616506878</v>
       </c>
       <c r="Z85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.19565642731363725</v>
       </c>
       <c r="AA85" s="55">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.18519257633206945</v>
       </c>
       <c r="AB85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.19138755980861244</v>
       </c>
       <c r="AC85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.19064546304957905</v>
       </c>
       <c r="AD85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.22295562889622295</v>
       </c>
       <c r="AE85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.19082079603884974</v>
       </c>
       <c r="AF85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.22597344136844474</v>
       </c>
       <c r="AG85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.77649892933618847</v>
       </c>
       <c r="AH85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="AI85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.25946228138867139</v>
       </c>
       <c r="AJ85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.2574110671936759</v>
       </c>
       <c r="AK85" s="39">
-        <f t="shared" si="251"/>
+        <f t="shared" si="296"/>
         <v>0.24108241082410825</v>
       </c>
       <c r="AL85" s="39"/>
@@ -24049,71 +24892,71 @@
       <c r="CV85" s="39"/>
       <c r="CW85" s="39"/>
       <c r="CX85" s="55">
-        <f t="shared" ref="CX85:DN85" si="252">CX55/CX52</f>
+        <f t="shared" ref="CX85:DN85" si="297">CX55/CX52</f>
         <v>0.12598156367360874</v>
       </c>
       <c r="CY85" s="55">
-        <f t="shared" si="252"/>
+        <f t="shared" si="297"/>
         <v>0.1589409684791514</v>
       </c>
       <c r="CZ85" s="55">
-        <f t="shared" si="252"/>
+        <f t="shared" si="297"/>
         <v>0.19784409715684428</v>
       </c>
       <c r="DA85" s="39">
-        <f t="shared" si="252"/>
+        <f t="shared" si="297"/>
         <v>0.22725384177575411</v>
       </c>
       <c r="DB85" s="39">
-        <f t="shared" si="252"/>
+        <f t="shared" si="297"/>
         <v>0.28388765609037803</v>
       </c>
       <c r="DC85" s="39">
-        <f t="shared" si="252"/>
+        <f t="shared" si="297"/>
         <v>0.28204272850367079</v>
       </c>
       <c r="DD85" s="39">
-        <f t="shared" si="252"/>
+        <f t="shared" si="297"/>
         <v>0.26104469891022958</v>
       </c>
       <c r="DE85" s="39">
-        <f t="shared" si="252"/>
+        <f t="shared" si="297"/>
         <v>0.28286629935014079</v>
       </c>
       <c r="DF85" s="39">
-        <f t="shared" si="252"/>
+        <f t="shared" si="297"/>
         <v>0.15857337655980985</v>
       </c>
       <c r="DG85" s="39">
-        <f t="shared" si="252"/>
+        <f t="shared" si="297"/>
         <v>2.8450947725749076E-2</v>
       </c>
       <c r="DH85" s="39">
-        <f t="shared" si="252"/>
+        <f t="shared" si="297"/>
         <v>1.2275422291845953E-2</v>
       </c>
       <c r="DI85" s="39">
-        <f t="shared" si="252"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="DJ85" s="39">
-        <f t="shared" si="252"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="DK85" s="39">
-        <f t="shared" si="252"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="DL85" s="39">
-        <f t="shared" si="252"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="DM85" s="39">
-        <f t="shared" si="252"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
       <c r="DN85" s="39">
-        <f t="shared" si="252"/>
+        <f t="shared" si="297"/>
         <v>0</v>
       </c>
     </row>
@@ -24130,111 +24973,111 @@
       <c r="I86" s="39"/>
       <c r="J86" s="39"/>
       <c r="K86" s="39">
-        <f t="shared" ref="K86:AK86" si="253">+K56/K52</f>
+        <f t="shared" ref="K86:AK86" si="298">+K56/K52</f>
         <v>4.3563068920676205E-2</v>
       </c>
       <c r="L86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>5.1896770554223662E-2</v>
       </c>
       <c r="M86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>4.4713375796178345E-2</v>
       </c>
       <c r="N86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>5.688375927452597E-2</v>
       </c>
       <c r="O86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>4.0550503809289755E-2</v>
       </c>
       <c r="P86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>4.9893086243763367E-2</v>
       </c>
       <c r="Q86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>4.2191142191142193E-2</v>
       </c>
       <c r="R86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>4.1951558697415695E-2</v>
       </c>
       <c r="S86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>3.9059674502712478E-2</v>
       </c>
       <c r="T86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>4.4928675727282937E-2</v>
       </c>
       <c r="U86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>3.9687774846086189E-2</v>
       </c>
       <c r="V86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>3.7723063022362772E-2</v>
       </c>
       <c r="W86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>4.4102350738506345E-2</v>
       </c>
       <c r="X86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>3.103244837758112E-2</v>
       </c>
       <c r="Y86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>4.8145060441850768E-2</v>
       </c>
       <c r="Z86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>5.3022891801995695E-2</v>
       </c>
       <c r="AA86" s="55">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>4.2706046697266013E-2</v>
       </c>
       <c r="AB86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>4.6558704453441298E-2</v>
       </c>
       <c r="AC86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>3.8353601496725911E-2</v>
       </c>
       <c r="AD86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>5.2255225522552254E-2</v>
       </c>
       <c r="AE86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>3.6945343744048752E-2</v>
       </c>
       <c r="AF86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>5.0416385325230698E-2</v>
       </c>
       <c r="AG86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>4.470021413276231E-2</v>
       </c>
       <c r="AH86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>5.0584586017656884E-2</v>
       </c>
       <c r="AI86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>4.9334377447141739E-2</v>
       </c>
       <c r="AJ86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>5.3853754940711464E-2</v>
       </c>
       <c r="AK86" s="39">
-        <f t="shared" si="253"/>
+        <f t="shared" si="298"/>
         <v>4.7724477244772447E-2</v>
       </c>
       <c r="AL86" s="39"/>
@@ -24266,71 +25109,71 @@
       <c r="CV86" s="39"/>
       <c r="CW86" s="39"/>
       <c r="CX86" s="55">
-        <f t="shared" ref="CX86:DN86" si="254">CX56/CX52</f>
+        <f t="shared" ref="CX86:DN86" si="299">CX56/CX52</f>
         <v>4.0372140662342099E-2</v>
       </c>
       <c r="CY86" s="55">
-        <f t="shared" si="254"/>
+        <f t="shared" si="299"/>
         <v>4.2128411883920483E-2</v>
       </c>
       <c r="CZ86" s="55">
-        <f t="shared" si="254"/>
+        <f t="shared" si="299"/>
         <v>4.5048013556768969E-2</v>
       </c>
       <c r="DA86" s="39">
-        <f t="shared" si="254"/>
+        <f t="shared" si="299"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="DB86" s="39">
-        <f t="shared" si="254"/>
+        <f t="shared" si="299"/>
         <v>0.06</v>
       </c>
       <c r="DC86" s="39">
-        <f t="shared" si="254"/>
+        <f t="shared" si="299"/>
         <v>0.06</v>
       </c>
       <c r="DD86" s="39">
-        <f t="shared" si="254"/>
+        <f t="shared" si="299"/>
         <v>0.06</v>
       </c>
       <c r="DE86" s="39">
-        <f t="shared" si="254"/>
+        <f t="shared" si="299"/>
         <v>0.06</v>
       </c>
       <c r="DF86" s="39">
-        <f t="shared" si="254"/>
+        <f t="shared" si="299"/>
         <v>0.06</v>
       </c>
       <c r="DG86" s="39">
-        <f t="shared" si="254"/>
+        <f t="shared" si="299"/>
         <v>5.9999999999999991E-2</v>
       </c>
       <c r="DH86" s="39">
-        <f t="shared" si="254"/>
+        <f t="shared" si="299"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="DI86" s="39">
-        <f t="shared" si="254"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="DJ86" s="39">
-        <f t="shared" si="254"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="DK86" s="39">
-        <f t="shared" si="254"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="DL86" s="39">
-        <f t="shared" si="254"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="DM86" s="39">
-        <f t="shared" si="254"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
       <c r="DN86" s="39">
-        <f t="shared" si="254"/>
+        <f t="shared" si="299"/>
         <v>0</v>
       </c>
     </row>
@@ -24347,111 +25190,111 @@
       <c r="I87" s="39"/>
       <c r="J87" s="39"/>
       <c r="K87" s="39">
-        <f t="shared" ref="K87:AK87" si="255">+K57/K52</f>
+        <f t="shared" ref="K87:AK87" si="300">+K57/K52</f>
         <v>0.12857607282184655</v>
       </c>
       <c r="L87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.10971654209561416</v>
       </c>
       <c r="M87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.10535031847133758</v>
       </c>
       <c r="N87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.10693675656577553</v>
       </c>
       <c r="O87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>9.7689850086016217E-2</v>
       </c>
       <c r="P87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>9.4440484675694936E-2</v>
       </c>
       <c r="Q87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>9.289044289044289E-2</v>
       </c>
       <c r="R87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>9.2362962104531238E-2</v>
       </c>
       <c r="S87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.11127185051235684</v>
       </c>
       <c r="T87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>9.3114680444793888E-2</v>
       </c>
       <c r="U87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>9.2128408091468772E-2</v>
       </c>
       <c r="V87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.12514117912807771</v>
       </c>
       <c r="W87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.18930726024547534</v>
       </c>
       <c r="X87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>9.6991150442477872E-2</v>
       </c>
       <c r="Y87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.17173822426010837</v>
       </c>
       <c r="Z87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.19761299158677362</v>
       </c>
       <c r="AA87" s="55">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.18658950309319497</v>
       </c>
       <c r="AB87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.16985645933014354</v>
       </c>
       <c r="AC87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.18203928905519176</v>
       </c>
       <c r="AD87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.18481848184818481</v>
       </c>
       <c r="AE87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.1731098838316511</v>
       </c>
       <c r="AF87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.216520369119964</v>
       </c>
       <c r="AG87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.25455032119914345</v>
       </c>
       <c r="AH87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.2581722739203054</v>
       </c>
       <c r="AI87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.2427564604541895</v>
       </c>
       <c r="AJ87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.2349308300395257</v>
       </c>
       <c r="AK87" s="39">
-        <f t="shared" si="255"/>
+        <f t="shared" si="300"/>
         <v>0.21968019680196801</v>
       </c>
       <c r="AL87" s="39"/>
@@ -24485,63 +25328,63 @@
       <c r="CX87" s="55"/>
       <c r="CY87" s="55"/>
       <c r="CZ87" s="55">
-        <f t="shared" ref="CZ87:DN87" si="256">+CZ57/CZ52</f>
+        <f t="shared" ref="CZ87:DN87" si="301">+CZ57/CZ52</f>
         <v>0.18070984748634908</v>
       </c>
       <c r="DA87" s="39">
-        <f t="shared" si="256"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="DB87" s="39">
-        <f t="shared" si="256"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="DC87" s="39">
-        <f t="shared" si="256"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="DD87" s="39">
-        <f t="shared" si="256"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="DE87" s="39">
-        <f t="shared" si="256"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="DF87" s="39">
-        <f t="shared" si="256"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="DG87" s="39">
-        <f t="shared" si="256"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="DH87" s="39">
-        <f t="shared" si="256"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="DI87" s="39">
-        <f t="shared" si="256"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="DJ87" s="39">
-        <f t="shared" si="256"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="DK87" s="39">
-        <f t="shared" si="256"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="DL87" s="39">
-        <f t="shared" si="256"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="DM87" s="39">
-        <f t="shared" si="256"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
       <c r="DN87" s="39">
-        <f t="shared" si="256"/>
+        <f t="shared" si="301"/>
         <v>0</v>
       </c>
     </row>
@@ -24558,111 +25401,111 @@
       <c r="I88" s="39"/>
       <c r="J88" s="39"/>
       <c r="K88" s="39">
-        <f t="shared" ref="K88:AK88" si="257">+K59/K52</f>
+        <f t="shared" ref="K88:AK88" si="302">+K59/K52</f>
         <v>0.42587776332899868</v>
       </c>
       <c r="L88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.44944295585954025</v>
       </c>
       <c r="M88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.48866242038216562</v>
       </c>
       <c r="N88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.46402072782946652</v>
       </c>
       <c r="O88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.50786434013271076</v>
       </c>
       <c r="P88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.5283915419339511</v>
       </c>
       <c r="Q88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.54417249417249414</v>
       </c>
       <c r="R88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>-0.27001970100822809</v>
       </c>
       <c r="S88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.55105485232067508</v>
       </c>
       <c r="T88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.57688419633831289</v>
       </c>
       <c r="U88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.57365875109938436</v>
       </c>
       <c r="V88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.54314434154054669</v>
       </c>
       <c r="W88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.30767630538797586</v>
       </c>
       <c r="X88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.61581120943952805</v>
       </c>
       <c r="Y88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.32742809503959985</v>
       </c>
       <c r="Z88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.27704950107611037</v>
       </c>
       <c r="AA88" s="55">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.31750149670724409</v>
       </c>
       <c r="AB88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.31965403018034599</v>
       </c>
       <c r="AC88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.32572497661365762</v>
       </c>
       <c r="AD88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.28932893289328931</v>
       </c>
       <c r="AE88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.35098076556846314</v>
       </c>
       <c r="AF88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.22687373396353816</v>
       </c>
       <c r="AG88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>-0.33993576017130622</v>
       </c>
       <c r="AH88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.16201383917919351</v>
       </c>
       <c r="AI88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.17097363612633776</v>
       </c>
       <c r="AJ88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.1800889328063241</v>
       </c>
       <c r="AK88" s="39">
-        <f t="shared" si="257"/>
+        <f t="shared" si="302"/>
         <v>0.20246002460024601</v>
       </c>
       <c r="AL88" s="39"/>
@@ -24674,39 +25517,39 @@
       <c r="AR88" s="39"/>
       <c r="AS88" s="39"/>
       <c r="BK88" s="57">
-        <f t="shared" ref="BK88:BS88" si="258">+BK59/BK52</f>
+        <f t="shared" ref="BK88:BS88" si="303">+BK59/BK52</f>
         <v>0.42472868936091274</v>
       </c>
       <c r="BL88" s="57">
-        <f t="shared" si="258"/>
+        <f t="shared" si="303"/>
         <v>0.32382268733339914</v>
       </c>
       <c r="BM88" s="57">
-        <f t="shared" si="258"/>
+        <f t="shared" si="303"/>
         <v>0.36366223908918405</v>
       </c>
       <c r="BN88" s="57">
-        <f t="shared" si="258"/>
+        <f t="shared" si="303"/>
         <v>0.34477773762197328</v>
       </c>
       <c r="BO88" s="57">
-        <f t="shared" si="258"/>
+        <f t="shared" si="303"/>
         <v>0.43023570848008669</v>
       </c>
       <c r="BP88" s="57">
-        <f t="shared" si="258"/>
+        <f t="shared" si="303"/>
         <v>0.44527044347603179</v>
       </c>
       <c r="BQ88" s="57">
-        <f t="shared" si="258"/>
+        <f t="shared" si="303"/>
         <v>0.36940812112869925</v>
       </c>
       <c r="BR88" s="57">
-        <f t="shared" si="258"/>
+        <f t="shared" si="303"/>
         <v>0.38965373383395913</v>
       </c>
       <c r="BS88" s="57">
-        <f t="shared" si="258"/>
+        <f t="shared" si="303"/>
         <v>0.45218063186813184</v>
       </c>
       <c r="BT88" s="57">
@@ -24714,27 +25557,27 @@
         <v>0.43989231934045597</v>
       </c>
       <c r="BU88" s="57">
-        <f t="shared" ref="BU88:BZ88" si="259">+BU59/BU52</f>
+        <f t="shared" ref="BU88:BZ88" si="304">+BU59/BU52</f>
         <v>0.31638359332025223</v>
       </c>
       <c r="BV88" s="57">
-        <f t="shared" si="259"/>
+        <f t="shared" si="304"/>
         <v>0.38148128629930939</v>
       </c>
       <c r="BW88" s="57">
-        <f t="shared" si="259"/>
+        <f t="shared" si="304"/>
         <v>0.42978302065990054</v>
       </c>
       <c r="BX88" s="57">
-        <f t="shared" si="259"/>
+        <f t="shared" si="304"/>
         <v>0.42173866570122015</v>
       </c>
       <c r="BY88" s="57">
-        <f t="shared" si="259"/>
+        <f t="shared" si="304"/>
         <v>0.31666319908507423</v>
       </c>
       <c r="BZ88" s="57">
-        <f t="shared" si="259"/>
+        <f t="shared" si="304"/>
         <v>0.38432312426067344</v>
       </c>
       <c r="CD88" s="39"/>
@@ -24760,63 +25603,63 @@
       <c r="CX88" s="55"/>
       <c r="CY88" s="55"/>
       <c r="CZ88" s="55">
-        <f t="shared" ref="CZ88:DN88" si="260">+CZ59/CZ52</f>
+        <f t="shared" ref="CZ88:DN88" si="305">+CZ59/CZ52</f>
         <v>0.31288834494445489</v>
       </c>
       <c r="DA88" s="39">
-        <f t="shared" si="260"/>
+        <f t="shared" si="305"/>
         <v>0.4427461582242459</v>
       </c>
       <c r="DB88" s="39">
-        <f t="shared" si="260"/>
+        <f t="shared" si="305"/>
         <v>0.38611234390962196</v>
       </c>
       <c r="DC88" s="39">
-        <f t="shared" si="260"/>
+        <f t="shared" si="305"/>
         <v>0.38795727149632914</v>
       </c>
       <c r="DD88" s="39">
-        <f t="shared" si="260"/>
+        <f t="shared" si="305"/>
         <v>0.40895530108977041</v>
       </c>
       <c r="DE88" s="39">
-        <f t="shared" si="260"/>
+        <f t="shared" si="305"/>
         <v>0.3971337006498592</v>
       </c>
       <c r="DF88" s="39">
-        <f t="shared" si="260"/>
+        <f t="shared" si="305"/>
         <v>0.5314266234401902</v>
       </c>
       <c r="DG88" s="39">
-        <f t="shared" si="260"/>
+        <f t="shared" si="305"/>
         <v>0.66154905227425087</v>
       </c>
       <c r="DH88" s="39">
-        <f t="shared" si="260"/>
+        <f t="shared" si="305"/>
         <v>0.67772457770815397</v>
       </c>
       <c r="DI88" s="39">
-        <f t="shared" si="260"/>
+        <f t="shared" si="305"/>
         <v>0</v>
       </c>
       <c r="DJ88" s="39">
-        <f t="shared" si="260"/>
+        <f t="shared" si="305"/>
         <v>0</v>
       </c>
       <c r="DK88" s="39">
-        <f t="shared" si="260"/>
+        <f t="shared" si="305"/>
         <v>0</v>
       </c>
       <c r="DL88" s="39">
-        <f t="shared" si="260"/>
+        <f t="shared" si="305"/>
         <v>0</v>
       </c>
       <c r="DM88" s="39">
-        <f t="shared" si="260"/>
+        <f t="shared" si="305"/>
         <v>0</v>
       </c>
       <c r="DN88" s="39">
-        <f t="shared" si="260"/>
+        <f t="shared" si="305"/>
         <v>0</v>
       </c>
     </row>
@@ -24833,87 +25676,87 @@
       <c r="I89" s="39"/>
       <c r="J89" s="39"/>
       <c r="K89" s="39">
-        <f t="shared" ref="K89:U89" si="261">K62/K61</f>
+        <f t="shared" ref="K89:U89" si="306">K62/K61</f>
         <v>2.4963289280469897E-2</v>
       </c>
       <c r="L89" s="39">
-        <f t="shared" si="261"/>
+        <f t="shared" si="306"/>
         <v>7.7526395173453999E-2</v>
       </c>
       <c r="M89" s="39">
-        <f t="shared" si="261"/>
+        <f t="shared" si="306"/>
         <v>8.6276488395560041E-2</v>
       </c>
       <c r="N89" s="39">
-        <f t="shared" si="261"/>
+        <f t="shared" si="306"/>
         <v>4.7326203208556149E-2</v>
       </c>
       <c r="O89" s="39">
-        <f t="shared" si="261"/>
+        <f t="shared" si="306"/>
         <v>8.431188351338656E-2</v>
       </c>
       <c r="P89" s="39">
-        <f t="shared" si="261"/>
+        <f t="shared" si="306"/>
         <v>6.3354306791060966E-2</v>
       </c>
       <c r="Q89" s="39">
-        <f t="shared" si="261"/>
+        <f t="shared" si="306"/>
         <v>8.0777096114519428E-2</v>
       </c>
       <c r="R89" s="39">
-        <f t="shared" si="261"/>
+        <f t="shared" si="306"/>
         <v>0.25</v>
       </c>
       <c r="S89" s="39">
-        <f t="shared" si="261"/>
+        <f t="shared" si="306"/>
         <v>9.6558915537017731E-2</v>
       </c>
       <c r="T89" s="39">
-        <f t="shared" si="261"/>
+        <f t="shared" si="306"/>
         <v>8.3458929917106253E-2</v>
       </c>
       <c r="U89" s="39">
-        <f t="shared" si="261"/>
+        <f t="shared" si="306"/>
         <v>8.0564321514757745E-2</v>
       </c>
       <c r="V89" s="39">
-        <f t="shared" ref="V89:AA89" si="262">V62/V61</f>
+        <f t="shared" ref="V89:AA89" si="307">V62/V61</f>
         <v>3.6237471087124135E-2</v>
       </c>
       <c r="W89" s="39">
-        <f t="shared" si="262"/>
+        <f t="shared" si="307"/>
         <v>0.23991797676008203</v>
       </c>
       <c r="X89" s="39">
-        <f t="shared" si="262"/>
+        <f t="shared" si="307"/>
         <v>6.0867931617508926E-2</v>
       </c>
       <c r="Y89" s="39">
-        <f t="shared" si="262"/>
+        <f t="shared" si="307"/>
         <v>0.1889763779527559</v>
       </c>
       <c r="Z89" s="39">
-        <f t="shared" si="262"/>
+        <f t="shared" si="307"/>
         <v>0.3979094076655052</v>
       </c>
       <c r="AA89" s="55">
-        <f t="shared" si="262"/>
+        <f t="shared" si="307"/>
         <v>0.22087244616234125</v>
       </c>
       <c r="AB89" s="39">
-        <f t="shared" ref="AB89:AH89" si="263">AB62/AB61</f>
+        <f t="shared" ref="AB89:AH89" si="308">AB62/AB61</f>
         <v>0.26393442622950819</v>
       </c>
       <c r="AC89" s="39">
-        <f t="shared" si="263"/>
+        <f t="shared" si="308"/>
         <v>0.2584330794341676</v>
       </c>
       <c r="AD89" s="39">
-        <f t="shared" si="263"/>
+        <f t="shared" si="308"/>
         <v>0.22435105067985167</v>
       </c>
       <c r="AE89" s="39">
-        <f t="shared" si="263"/>
+        <f t="shared" si="308"/>
         <v>0.29035695258391048</v>
       </c>
       <c r="AF89" s="39">
@@ -24921,11 +25764,11 @@
         <v>0.23262279888785914</v>
       </c>
       <c r="AG89" s="39">
-        <f t="shared" si="263"/>
+        <f t="shared" si="308"/>
         <v>0</v>
       </c>
       <c r="AH89" s="39">
-        <f t="shared" si="263"/>
+        <f t="shared" si="308"/>
         <v>-0.26878130217028379</v>
       </c>
       <c r="AI89" s="39">
@@ -24971,63 +25814,63 @@
       <c r="CX89" s="55"/>
       <c r="CY89" s="55"/>
       <c r="CZ89" s="55">
-        <f t="shared" ref="CZ89:DF89" si="264">CZ62/CZ61</f>
+        <f t="shared" ref="CZ89:DF89" si="309">CZ62/CZ61</f>
         <v>0.24249682964632943</v>
       </c>
       <c r="DA89" s="39">
-        <f t="shared" si="264"/>
+        <f t="shared" si="309"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="DB89" s="39">
-        <f t="shared" si="264"/>
+        <f t="shared" si="309"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="DC89" s="39">
-        <f t="shared" si="264"/>
+        <f t="shared" si="309"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="DD89" s="39">
-        <f t="shared" si="264"/>
+        <f t="shared" si="309"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="DE89" s="39">
-        <f t="shared" si="264"/>
+        <f t="shared" si="309"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="DF89" s="39">
-        <f t="shared" si="264"/>
+        <f t="shared" si="309"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="DG89" s="39">
-        <f t="shared" ref="DG89:DN89" si="265">DG62/DG61</f>
+        <f t="shared" ref="DG89:DN89" si="310">DG62/DG61</f>
         <v>0.27999999999999997</v>
       </c>
       <c r="DH89" s="39">
-        <f t="shared" si="265"/>
+        <f t="shared" si="310"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="DI89" s="39" t="e">
-        <f t="shared" si="265"/>
+        <f t="shared" si="310"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DJ89" s="39" t="e">
-        <f t="shared" si="265"/>
+        <f t="shared" si="310"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DK89" s="39" t="e">
-        <f t="shared" si="265"/>
+        <f t="shared" si="310"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DL89" s="39" t="e">
-        <f t="shared" si="265"/>
+        <f t="shared" si="310"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DM89" s="39" t="e">
-        <f t="shared" si="265"/>
+        <f t="shared" si="310"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DN89" s="39" t="e">
-        <f t="shared" si="265"/>
+        <f t="shared" si="310"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -25040,71 +25883,71 @@
       <c r="E90" s="76"/>
       <c r="F90" s="76"/>
       <c r="G90" s="76">
-        <f t="shared" ref="G90:W90" si="266">G52/C52-1</f>
+        <f t="shared" ref="G90:W90" si="311">G52/C52-1</f>
         <v>6.9661865998747574E-2</v>
       </c>
       <c r="H90" s="76">
-        <f t="shared" si="266"/>
+        <f t="shared" si="311"/>
         <v>5.4844606946984342E-3</v>
       </c>
       <c r="I90" s="76">
-        <f t="shared" si="266"/>
+        <f t="shared" si="311"/>
         <v>-0.16528805688579307</v>
       </c>
       <c r="J90" s="76">
-        <f t="shared" si="266"/>
+        <f t="shared" si="311"/>
         <v>-0.23673079547005049</v>
       </c>
       <c r="K90" s="76">
-        <f t="shared" si="266"/>
+        <f t="shared" si="311"/>
         <v>-9.9663398214547061E-2</v>
       </c>
       <c r="L90" s="76">
-        <f t="shared" si="266"/>
+        <f t="shared" si="311"/>
         <v>-8.2517482517482366E-3</v>
       </c>
       <c r="M90" s="76">
-        <f t="shared" si="266"/>
+        <f t="shared" si="311"/>
         <v>0.36474269819193328</v>
       </c>
       <c r="N90" s="76">
-        <f t="shared" si="266"/>
+        <f t="shared" si="311"/>
         <v>0.51787629603146224</v>
       </c>
       <c r="O90" s="76">
-        <f t="shared" si="266"/>
+        <f t="shared" si="311"/>
         <v>0.32282184655396629</v>
       </c>
       <c r="P90" s="76">
-        <f t="shared" si="266"/>
+        <f t="shared" si="311"/>
         <v>0.18713862642786627</v>
       </c>
       <c r="Q90" s="76">
-        <f t="shared" si="266"/>
+        <f t="shared" si="311"/>
         <v>9.2993630573248387E-2</v>
       </c>
       <c r="R90" s="76">
-        <f t="shared" si="266"/>
+        <f t="shared" si="311"/>
         <v>1.6252502649864553E-2</v>
       </c>
       <c r="S90" s="76">
-        <f t="shared" si="266"/>
+        <f t="shared" si="311"/>
         <v>1.9292209388056092E-2</v>
       </c>
       <c r="T90" s="76">
-        <f t="shared" si="266"/>
+        <f t="shared" si="311"/>
         <v>5.7614635305298201E-2</v>
       </c>
       <c r="U90" s="76">
-        <f t="shared" si="266"/>
+        <f t="shared" si="311"/>
         <v>6.0139860139860168E-2</v>
       </c>
       <c r="V90" s="76">
-        <f t="shared" si="266"/>
+        <f t="shared" si="311"/>
         <v>2.607486383126667E-2</v>
       </c>
       <c r="W90" s="76">
-        <f t="shared" si="266"/>
+        <f t="shared" si="311"/>
         <v>-0.42049427365883063</v>
       </c>
       <c r="X90" s="76"/>
@@ -25370,35 +26213,35 @@
         <v>3711</v>
       </c>
       <c r="Y92" s="35">
-        <f t="shared" ref="Y92:AF92" si="267">+Y93-Y104</f>
+        <f t="shared" ref="Y92:AF92" si="312">+Y93-Y104</f>
         <v>0</v>
       </c>
       <c r="Z92" s="35">
-        <f t="shared" si="267"/>
+        <f t="shared" si="312"/>
         <v>0</v>
       </c>
       <c r="AA92" s="35">
-        <f t="shared" si="267"/>
+        <f t="shared" si="312"/>
         <v>4447</v>
       </c>
       <c r="AB92" s="35">
-        <f t="shared" si="267"/>
+        <f t="shared" si="312"/>
         <v>0</v>
       </c>
       <c r="AC92" s="35">
-        <f t="shared" si="267"/>
+        <f t="shared" si="312"/>
         <v>0</v>
       </c>
       <c r="AD92" s="35">
-        <f t="shared" si="267"/>
+        <f t="shared" si="312"/>
         <v>0</v>
       </c>
       <c r="AE92" s="35">
-        <f t="shared" si="267"/>
+        <f t="shared" si="312"/>
         <v>3199</v>
       </c>
       <c r="AF92" s="35">
-        <f t="shared" si="267"/>
+        <f t="shared" si="312"/>
         <v>3324</v>
       </c>
       <c r="AG92" s="35"/>
@@ -25480,71 +26323,71 @@
       <c r="CV92" s="41"/>
       <c r="CW92" s="35"/>
       <c r="CX92" s="54">
-        <f t="shared" ref="CX92:DF92" si="268">CW92+CX64</f>
+        <f t="shared" ref="CX92:DF92" si="313">CW92+CX64</f>
         <v>17900</v>
       </c>
       <c r="CY92" s="54">
-        <f t="shared" si="268"/>
+        <f t="shared" si="313"/>
         <v>24803</v>
       </c>
       <c r="CZ92" s="54">
-        <f t="shared" si="268"/>
+        <f t="shared" si="313"/>
         <v>28628</v>
       </c>
       <c r="DA92" s="35">
-        <f t="shared" si="268"/>
+        <f t="shared" si="313"/>
         <v>33840.925499999998</v>
       </c>
       <c r="DB92" s="35">
-        <f t="shared" si="268"/>
+        <f t="shared" si="313"/>
         <v>37524.456059999997</v>
       </c>
       <c r="DC92" s="35">
-        <f t="shared" si="268"/>
+        <f t="shared" si="313"/>
         <v>41090.231969999993</v>
       </c>
       <c r="DD92" s="35">
-        <f t="shared" si="268"/>
+        <f t="shared" si="313"/>
         <v>44138.412856199997</v>
       </c>
       <c r="DE92" s="35">
-        <f t="shared" si="268"/>
+        <f t="shared" si="313"/>
         <v>46733.774692694999</v>
       </c>
       <c r="DF92" s="35">
-        <f t="shared" si="268"/>
+        <f t="shared" si="313"/>
         <v>49831.409205815849</v>
       </c>
       <c r="DG92" s="35">
-        <f t="shared" ref="DG92:DN92" si="269">DF92+DG64</f>
+        <f t="shared" ref="DG92:DN92" si="314">DF92+DG64</f>
         <v>52929.0437189367</v>
       </c>
       <c r="DH92" s="35">
-        <f t="shared" si="269"/>
+        <f t="shared" si="314"/>
         <v>56026.678232057551</v>
       </c>
       <c r="DI92" s="35">
-        <f t="shared" si="269"/>
+        <f t="shared" si="314"/>
         <v>56026.678232057551</v>
       </c>
       <c r="DJ92" s="35">
-        <f t="shared" si="269"/>
+        <f t="shared" si="314"/>
         <v>56026.678232057551</v>
       </c>
       <c r="DK92" s="35">
-        <f t="shared" si="269"/>
+        <f t="shared" si="314"/>
         <v>56026.678232057551</v>
       </c>
       <c r="DL92" s="35">
-        <f t="shared" si="269"/>
+        <f t="shared" si="314"/>
         <v>56026.678232057551</v>
       </c>
       <c r="DM92" s="35">
-        <f t="shared" si="269"/>
+        <f t="shared" si="314"/>
         <v>56026.678232057551</v>
       </c>
       <c r="DN92" s="35">
-        <f t="shared" si="269"/>
+        <f t="shared" si="314"/>
         <v>56026.678232057551</v>
       </c>
     </row>
@@ -29596,21 +30439,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -29724,10 +30552,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2206DA00-2832-4926-9B8E-385E975B4BC4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51D3B50D-5291-4A7C-B8EF-C3BAE1EC0802}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -29742,16 +30592,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51D3B50D-5291-4A7C-B8EF-C3BAE1EC0802}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2206DA00-2832-4926-9B8E-385E975B4BC4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/BMY.xlsx
+++ b/BMY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86555731-6238-467C-860A-CE0E9ED24763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069885E4-1874-4921-97DB-976FF5845FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26280" yWindow="1740" windowWidth="25155" windowHeight="18300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33015" yWindow="1425" windowWidth="30975" windowHeight="19335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="23" r:id="rId1"/>
@@ -6212,8 +6212,8 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G10"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6628,7 +6628,9 @@
       <c r="E18" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="45"/>
+      <c r="F18" s="45">
+        <v>45456</v>
+      </c>
       <c r="G18" s="26" t="s">
         <v>664</v>
       </c>
@@ -34385,6 +34387,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -34498,15 +34509,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2206DA00-2832-4926-9B8E-385E975B4BC4}">
   <ds:schemaRefs>
@@ -34517,6 +34519,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC6227C-4700-4C6A-A399-7F39853AD9C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51D3B50D-5291-4A7C-B8EF-C3BAE1EC0802}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34530,12 +34540,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC6227C-4700-4C6A-A399-7F39853AD9C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/BMY.xlsx
+++ b/BMY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069885E4-1874-4921-97DB-976FF5845FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBB5B77-CD91-420C-9FCB-B1640D86D7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33015" yWindow="1425" windowWidth="30975" windowHeight="19335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-41730" yWindow="1050" windowWidth="30405" windowHeight="18060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="23" r:id="rId1"/>
@@ -646,6 +646,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="DD70" authorId="15" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin Shkreli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+increase mid-upper single digit</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="DD87" authorId="15" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
@@ -670,36 +694,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="DD93" authorId="15" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Martin Shkreli:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-increase mid-upper single digit</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="750">
   <si>
     <t>Name</t>
   </si>
@@ -1199,9 +1199,6 @@
     <t>Case began 1/22/2007. '265 patent likely valid &amp; enforceable - comments from Judge Stein</t>
   </si>
   <si>
-    <t>Revenue</t>
-  </si>
-  <si>
     <t>Q106</t>
   </si>
   <si>
@@ -2901,6 +2898,57 @@
   </si>
   <si>
     <t>Return</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>IPRD</t>
+  </si>
+  <si>
+    <t>Investment/Divest/Royalty</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Acquisition</t>
+  </si>
+  <si>
+    <t>Divestiture</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>ESOP</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>CIC</t>
   </si>
 </sst>
 </file>
@@ -3372,15 +3420,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>80</xdr:col>
-      <xdr:colOff>73481</xdr:colOff>
+      <xdr:colOff>25856</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>80</xdr:col>
-      <xdr:colOff>73481</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>25856</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3397,8 +3445,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="36309302" y="0"/>
-          <a:ext cx="0" cy="20149004"/>
+          <a:off x="38947387" y="0"/>
+          <a:ext cx="0" cy="23205282"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3433,7 +3481,7 @@
     <xdr:to>
       <xdr:col>124</xdr:col>
       <xdr:colOff>79542</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>15040</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3922,7 +3970,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>1</v>
@@ -3931,16 +3979,16 @@
         <v>140</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J2" s="62" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K2" s="32" t="s">
         <v>149</v>
@@ -3951,13 +3999,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="G3" s="16">
         <v>35703</v>
@@ -3971,13 +4019,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G4" s="16">
         <v>37288</v>
@@ -3991,7 +4039,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>32</v>
@@ -4011,13 +4059,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G6" s="16">
         <v>39371</v>
@@ -4031,10 +4079,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
@@ -4049,10 +4097,10 @@
         <v>116</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J7" s="62"/>
       <c r="K7" s="32"/>
@@ -4060,7 +4108,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>33</v>
@@ -4081,7 +4129,7 @@
         <v>13</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J8" s="62"/>
       <c r="K8" s="32"/>
@@ -4089,10 +4137,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="46" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -4106,7 +4154,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J9" s="62"/>
       <c r="K9" s="32"/>
@@ -4114,7 +4162,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>156</v>
@@ -4167,42 +4215,42 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="E13" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="E13" s="32" t="s">
-        <v>492</v>
-      </c>
       <c r="F13" s="32" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G14" s="32" t="s">
         <v>159</v>
@@ -4210,45 +4258,45 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="D16" s="32" t="s">
+      <c r="E16" s="32" t="s">
         <v>504</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>505</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>159</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J16" s="61">
         <v>2008</v>
@@ -4256,16 +4304,16 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>110</v>
@@ -4274,27 +4322,27 @@
         <v>45</v>
       </c>
       <c r="H17" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="I17" s="32" t="s">
         <v>521</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="J17" s="61" t="s">
         <v>522</v>
-      </c>
-      <c r="J17" s="61" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D18" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>509</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>510</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>110</v>
@@ -4303,27 +4351,27 @@
         <v>159</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I18" t="s">
+        <v>511</v>
+      </c>
+      <c r="J18" s="61" t="s">
         <v>512</v>
-      </c>
-      <c r="J18" s="61" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>110</v>
@@ -4332,33 +4380,33 @@
         <v>45</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I19" t="s">
+        <v>524</v>
+      </c>
+      <c r="J19" s="61" t="s">
         <v>525</v>
-      </c>
-      <c r="J19" s="61" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G20" t="s">
         <v>159</v>
       </c>
       <c r="H20" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="I20" s="32" t="s">
         <v>518</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>519</v>
       </c>
       <c r="J20" s="61">
         <v>2010</v>
@@ -4366,25 +4414,25 @@
     </row>
     <row r="21" spans="2:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="63" t="s">
+        <v>527</v>
+      </c>
+      <c r="D21" s="63" t="s">
         <v>528</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="E21" s="63" t="s">
+        <v>531</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>530</v>
+      </c>
+      <c r="G21" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>530</v>
+      </c>
+      <c r="I21" s="63" t="s">
         <v>529</v>
-      </c>
-      <c r="E21" s="63" t="s">
-        <v>532</v>
-      </c>
-      <c r="F21" s="63" t="s">
-        <v>531</v>
-      </c>
-      <c r="G21" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="H21" s="63" t="s">
-        <v>531</v>
-      </c>
-      <c r="I21" s="63" t="s">
-        <v>530</v>
       </c>
       <c r="J21" s="64">
         <v>2009</v>
@@ -4392,250 +4440,250 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>538</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="J22" s="62" t="s">
+        <v>536</v>
+      </c>
+      <c r="K22" s="32" t="s">
         <v>533</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>539</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>538</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>536</v>
-      </c>
-      <c r="J22" s="62" t="s">
-        <v>537</v>
-      </c>
-      <c r="K22" s="32" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="J23" s="62" t="s">
+        <v>539</v>
+      </c>
+      <c r="K23" s="32" t="s">
         <v>406</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>542</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>538</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>541</v>
-      </c>
-      <c r="J23" s="62" t="s">
-        <v>540</v>
-      </c>
-      <c r="K23" s="32" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="2:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="63" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F25" s="63" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G25" s="63" t="s">
         <v>159</v>
       </c>
       <c r="H25" s="63" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I25" s="63" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J25" s="64" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>548</v>
       </c>
-      <c r="C26" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="D26" s="32" t="s">
+      <c r="E26" s="32" t="s">
         <v>549</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="F26" s="32" t="s">
         <v>550</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>551</v>
       </c>
       <c r="G26" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I27" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="J27" s="62" t="s">
         <v>553</v>
-      </c>
-      <c r="J27" s="62" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>555</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>556</v>
-      </c>
       <c r="D28" s="32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>45</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I28" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="J28" s="62" t="s">
         <v>553</v>
-      </c>
-      <c r="J28" s="62" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>528</v>
+      </c>
+      <c r="E29" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="D29" s="32" t="s">
-        <v>529</v>
-      </c>
-      <c r="E29" s="32" t="s">
+      <c r="F29" s="32" t="s">
         <v>559</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>560</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>159</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I29" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="J29" s="62" t="s">
         <v>561</v>
       </c>
-      <c r="J29" s="62" t="s">
-        <v>562</v>
-      </c>
       <c r="L29" s="32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I30" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="J30" s="62" t="s">
         <v>563</v>
-      </c>
-      <c r="J30" s="62" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>156</v>
@@ -4647,24 +4695,24 @@
         <v>84</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>160</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="46" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D32" s="6">
         <v>1</v>
@@ -4676,50 +4724,50 @@
         <v>159</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="46" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F33" s="26" t="s">
         <v>159</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>32</v>
@@ -4731,21 +4779,21 @@
         <v>84</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
@@ -4757,18 +4805,18 @@
         <v>45</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D37" s="6">
         <v>1</v>
@@ -4779,33 +4827,33 @@
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>81</v>
@@ -4814,7 +4862,7 @@
         <v>159</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H39" s="8"/>
     </row>
@@ -4838,12 +4886,12 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="32" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
@@ -4851,142 +4899,142 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5030,7 +5078,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5038,7 +5086,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5046,7 +5094,7 @@
         <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5054,7 +5102,7 @@
         <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5062,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5072,12 +5120,12 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5121,7 +5169,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5129,12 +5177,12 @@
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5142,15 +5190,15 @@
         <v>140</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>199</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5158,7 +5206,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5171,7 +5219,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5246,12 +5294,12 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C25" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C26" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5301,14 +5349,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5387,7 +5435,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5403,15 +5451,15 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5419,15 +5467,15 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5516,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5529,12 +5577,12 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5674,12 +5722,12 @@
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5725,7 +5773,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5733,7 +5781,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5743,42 +5791,42 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5813,7 +5861,7 @@
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5821,15 +5869,15 @@
         <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -5873,7 +5921,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5889,12 +5937,12 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5912,12 +5960,12 @@
         <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5960,7 +6008,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5968,7 +6016,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5984,15 +6032,15 @@
         <v>140</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -6000,19 +6048,19 @@
         <v>122</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="23"/>
       <c r="C8" s="23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -6022,17 +6070,17 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -6040,32 +6088,32 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -6103,7 +6151,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -6111,7 +6159,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6119,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -6127,7 +6175,7 @@
         <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -6167,12 +6215,12 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
@@ -6212,9 +6260,7 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6235,7 +6281,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -6272,7 +6318,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -6284,10 +6330,10 @@
         <v>38709</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>108</v>
@@ -6296,15 +6342,15 @@
         <v>2027.395178</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="73" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="27" t="s">
@@ -6314,11 +6360,11 @@
         <v>38713</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H4" s="8"/>
       <c r="J4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K4" s="25">
         <f>K2*K3</f>
@@ -6327,13 +6373,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>81</v>
@@ -6342,30 +6388,30 @@
         <v>41995</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K5" s="25">
         <v>7010</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>81</v>
@@ -6374,30 +6420,30 @@
         <v>42338</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K6" s="25">
         <v>52389</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="73" t="s">
+        <v>626</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>627</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>659</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>628</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>81</v>
@@ -6406,11 +6452,11 @@
         <v>43777</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H7" s="8"/>
       <c r="J7" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K7" s="25">
         <f>K4-K5+K6</f>
@@ -6420,10 +6466,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="73" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="27" t="s">
@@ -6433,7 +6479,7 @@
         <v>41313</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H8" s="8"/>
       <c r="K8" s="25"/>
@@ -6441,10 +6487,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="73" t="s">
+        <v>664</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>665</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>666</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="27" t="s">
@@ -6452,7 +6498,7 @@
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="26" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H9" s="8"/>
       <c r="K9" s="25"/>
@@ -6460,50 +6506,50 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="46" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H10" s="86"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="46" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>81</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H11" s="86"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="46" t="s">
+        <v>649</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>650</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>651</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>84</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H12" s="86"/>
       <c r="J12" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6526,36 +6572,36 @@
         <v>113</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="46" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>81</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H14" s="86"/>
       <c r="J14" s="23" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>81</v>
@@ -6567,10 +6613,10 @@
         <v>111</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -6598,13 +6644,13 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>84</v>
@@ -6619,10 +6665,10 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="73" t="s">
+        <v>688</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>689</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>690</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
@@ -6632,13 +6678,13 @@
         <v>45456</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H18" s="42"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="73" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
@@ -6649,10 +6695,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="73" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
@@ -6662,13 +6708,13 @@
         <v>44813</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="87" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>28</v>
@@ -6683,10 +6729,10 @@
         <v>40627</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
@@ -6702,19 +6748,19 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="46" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H23" s="86"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>33</v>
@@ -6727,71 +6773,71 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="46" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H25" s="86"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="46" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="26" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H26" s="86"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="46" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23" t="s">
         <v>45</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H27" s="86"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="46" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
@@ -6803,7 +6849,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>156</v>
@@ -6815,22 +6861,22 @@
         <v>84</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>84</v>
@@ -6839,16 +6885,16 @@
         <v>159</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="D32" s="6">
         <v>1</v>
@@ -6860,19 +6906,19 @@
         <v>159</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="D33" s="27" t="s">
         <v>435</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>436</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>84</v>
@@ -6881,16 +6927,16 @@
         <v>159</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
@@ -6902,16 +6948,16 @@
         <v>159</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="D35" s="11">
         <v>1</v>
@@ -6920,16 +6966,16 @@
         <v>84</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H35" s="12"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G37" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
@@ -6939,87 +6985,87 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G41" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G42" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G43" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G44" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G45" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G46" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G47" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G48" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G49" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G50" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="51" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G51" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="52" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G52" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="53" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G53" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="54" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G54" s="23" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="55" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G55" s="23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="56" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G56" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="57" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G57" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -7063,7 +7109,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -7071,7 +7117,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -7079,7 +7125,7 @@
         <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -7089,27 +7135,27 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -7140,7 +7186,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7181,7 +7227,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -7189,7 +7235,7 @@
         <v>140</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -7199,27 +7245,27 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="47" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="47" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="47" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="47" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -7240,13 +7286,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:FY125"/>
+  <dimension ref="A1:FY150"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BO126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="CB149" sqref="CB149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7254,18 +7300,11 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="21" width="6.42578125" style="28" customWidth="1"/>
-    <col min="22" max="24" width="6.7109375" style="28" customWidth="1"/>
-    <col min="25" max="30" width="6.7109375" style="48" customWidth="1"/>
-    <col min="31" max="31" width="6.7109375" style="28" customWidth="1"/>
-    <col min="32" max="45" width="6.42578125" style="28" customWidth="1"/>
-    <col min="46" max="46" width="5.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.42578125" style="28" customWidth="1"/>
-    <col min="48" max="52" width="6.42578125" style="28" customWidth="1"/>
-    <col min="53" max="55" width="5.42578125" style="28" customWidth="1"/>
-    <col min="56" max="61" width="5.7109375" style="28" customWidth="1"/>
-    <col min="62" max="62" width="6.140625" style="28" customWidth="1"/>
-    <col min="63" max="66" width="6.85546875" style="28" customWidth="1"/>
-    <col min="67" max="86" width="7.42578125" style="28" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="28" customWidth="1"/>
+    <col min="23" max="24" width="7.28515625" style="28" customWidth="1"/>
+    <col min="25" max="30" width="7.28515625" style="48" customWidth="1"/>
+    <col min="31" max="82" width="7.28515625" style="28" customWidth="1"/>
+    <col min="83" max="86" width="7.42578125" style="28" customWidth="1"/>
     <col min="87" max="89" width="5.42578125" style="28" customWidth="1"/>
     <col min="90" max="101" width="6.42578125" style="28" customWidth="1"/>
     <col min="102" max="102" width="7" style="28" bestFit="1" customWidth="1"/>
@@ -7289,19 +7328,19 @@
     </row>
     <row r="2" spans="1:137" x14ac:dyDescent="0.2">
       <c r="C2" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>137</v>
@@ -7319,226 +7358,226 @@
         <v>163</v>
       </c>
       <c r="M2" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="N2" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="N2" s="28" t="s">
-        <v>206</v>
-      </c>
       <c r="O2" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P2" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q2" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="R2" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="R2" s="28" t="s">
-        <v>229</v>
-      </c>
       <c r="S2" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="T2" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="U2" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="V2" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="V2" s="33" t="s">
-        <v>359</v>
-      </c>
       <c r="W2" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="X2" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="X2" s="33" t="s">
+      <c r="Y2" s="49" t="s">
         <v>369</v>
       </c>
-      <c r="Y2" s="49" t="s">
+      <c r="Z2" s="49" t="s">
         <v>370</v>
       </c>
-      <c r="Z2" s="49" t="s">
-        <v>371</v>
-      </c>
       <c r="AA2" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB2" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="AB2" s="49" t="s">
+      <c r="AC2" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="AC2" s="49" t="s">
+      <c r="AD2" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="AD2" s="49" t="s">
+      <c r="AE2" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="AE2" s="33" t="s">
-        <v>401</v>
-      </c>
       <c r="AF2" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AG2" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AH2" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="AH2" s="33" t="s">
-        <v>419</v>
-      </c>
       <c r="AI2" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="AJ2" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="AK2" s="33" t="s">
         <v>569</v>
       </c>
-      <c r="AK2" s="33" t="s">
+      <c r="AL2" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="AL2" s="33" t="s">
+      <c r="AM2" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="AN2" s="33" t="s">
         <v>571</v>
       </c>
-      <c r="AM2" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="AN2" s="33" t="s">
-        <v>572</v>
-      </c>
       <c r="AO2" s="33" t="s">
+        <v>574</v>
+      </c>
+      <c r="AP2" s="33" t="s">
         <v>575</v>
       </c>
-      <c r="AP2" s="33" t="s">
+      <c r="AQ2" s="33" t="s">
         <v>576</v>
       </c>
-      <c r="AQ2" s="33" t="s">
+      <c r="AR2" s="33" t="s">
         <v>577</v>
       </c>
-      <c r="AR2" s="33" t="s">
+      <c r="AS2" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="AS2" s="33" t="s">
+      <c r="AT2" s="28" t="s">
         <v>579</v>
       </c>
-      <c r="AT2" s="28" t="s">
-        <v>580</v>
-      </c>
       <c r="AU2" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="AV2" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="AV2" s="33" t="s">
+      <c r="AW2" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="AW2" s="33" t="s">
+      <c r="AX2" s="33" t="s">
         <v>585</v>
       </c>
-      <c r="AX2" s="33" t="s">
+      <c r="AY2" s="33" t="s">
         <v>586</v>
       </c>
-      <c r="AY2" s="33" t="s">
+      <c r="AZ2" s="33" t="s">
         <v>587</v>
       </c>
-      <c r="AZ2" s="33" t="s">
+      <c r="BA2" s="33" t="s">
         <v>588</v>
       </c>
-      <c r="BA2" s="33" t="s">
+      <c r="BB2" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="BB2" s="33" t="s">
+      <c r="BC2" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="BC2" s="33" t="s">
+      <c r="BD2" s="33" t="s">
         <v>591</v>
       </c>
-      <c r="BD2" s="33" t="s">
+      <c r="BE2" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="BE2" s="33" t="s">
+      <c r="BF2" s="33" t="s">
         <v>593</v>
       </c>
-      <c r="BF2" s="33" t="s">
+      <c r="BG2" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="BG2" s="33" t="s">
+      <c r="BH2" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="BH2" s="33" t="s">
+      <c r="BI2" s="33" t="s">
         <v>596</v>
       </c>
-      <c r="BI2" s="33" t="s">
+      <c r="BJ2" s="33" t="s">
         <v>597</v>
       </c>
-      <c r="BJ2" s="33" t="s">
+      <c r="BK2" s="33" t="s">
         <v>598</v>
       </c>
-      <c r="BK2" s="33" t="s">
+      <c r="BL2" s="33" t="s">
         <v>599</v>
       </c>
-      <c r="BL2" s="33" t="s">
+      <c r="BM2" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="BM2" s="33" t="s">
+      <c r="BN2" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="BN2" s="33" t="s">
+      <c r="BO2" s="33" t="s">
         <v>602</v>
       </c>
-      <c r="BO2" s="33" t="s">
+      <c r="BP2" s="33" t="s">
         <v>603</v>
       </c>
-      <c r="BP2" s="33" t="s">
+      <c r="BQ2" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="BQ2" s="33" t="s">
+      <c r="BR2" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="BR2" s="33" t="s">
+      <c r="BS2" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="BT2" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="BS2" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="BT2" s="33" t="s">
+      <c r="BU2" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="BU2" s="33" t="s">
+      <c r="BV2" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="BV2" s="33" t="s">
-        <v>609</v>
-      </c>
       <c r="BW2" s="33" t="s">
+        <v>610</v>
+      </c>
+      <c r="BX2" s="33" t="s">
         <v>611</v>
       </c>
-      <c r="BX2" s="33" t="s">
+      <c r="BY2" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="BY2" s="33" t="s">
+      <c r="BZ2" s="33" t="s">
         <v>613</v>
       </c>
-      <c r="BZ2" s="33" t="s">
-        <v>614</v>
-      </c>
       <c r="CA2" s="33" t="s">
+        <v>678</v>
+      </c>
+      <c r="CB2" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="CB2" s="33" t="s">
+      <c r="CC2" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="CC2" s="33" t="s">
+      <c r="CD2" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="CD2" s="33" t="s">
+      <c r="CE2" s="33" t="s">
         <v>682</v>
       </c>
-      <c r="CE2" s="33" t="s">
+      <c r="CF2" s="33" t="s">
         <v>683</v>
       </c>
-      <c r="CF2" s="33" t="s">
+      <c r="CG2" s="33" t="s">
         <v>684</v>
       </c>
-      <c r="CG2" s="33" t="s">
+      <c r="CH2" s="33" t="s">
         <v>685</v>
-      </c>
-      <c r="CH2" s="33" t="s">
-        <v>686</v>
       </c>
       <c r="CL2" s="28">
         <v>1989</v>
@@ -7705,7 +7744,7 @@
     </row>
     <row r="3" spans="1:137" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="44" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -8074,7 +8113,7 @@
     </row>
     <row r="4" spans="1:137" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="44" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -8096,34 +8135,34 @@
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="V4" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W4" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X4" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y4" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z4" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA4" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB4" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AC4" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AD4" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AE4" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF4" s="35">
         <v>1</v>
@@ -8391,7 +8430,7 @@
     </row>
     <row r="5" spans="1:137" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="44" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -8674,7 +8713,7 @@
     </row>
     <row r="6" spans="1:137" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="44" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -8969,7 +9008,7 @@
     </row>
     <row r="7" spans="1:137" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="44" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -9248,7 +9287,7 @@
     </row>
     <row r="8" spans="1:137" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
@@ -9270,19 +9309,19 @@
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
       <c r="V8" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W8" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X8" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y8" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z8" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA8" s="54"/>
       <c r="AB8" s="54">
@@ -9473,10 +9512,10 @@
       <c r="DD8" s="30"/>
       <c r="DE8" s="30"/>
       <c r="DF8" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DG8" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DH8" s="50">
         <f>SUM(AA8:AD8)</f>
@@ -9570,7 +9609,7 @@
     </row>
     <row r="9" spans="1:137" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="44" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -9849,7 +9888,7 @@
     </row>
     <row r="10" spans="1:137" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -10508,7 +10547,7 @@
     </row>
     <row r="12" spans="1:137" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="44" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -10787,7 +10826,7 @@
     </row>
     <row r="13" spans="1:137" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -11066,7 +11105,7 @@
     </row>
     <row r="14" spans="1:137" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="44" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -11339,7 +11378,7 @@
     </row>
     <row r="15" spans="1:137" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -11618,7 +11657,7 @@
     </row>
     <row r="16" spans="1:137" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
@@ -11897,7 +11936,7 @@
     </row>
     <row r="17" spans="2:136" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="44" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -12176,7 +12215,7 @@
     </row>
     <row r="18" spans="2:136" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -12455,7 +12494,7 @@
     </row>
     <row r="19" spans="2:136" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="44" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -12712,7 +12751,7 @@
     </row>
     <row r="20" spans="2:136" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="44" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -12932,7 +12971,7 @@
     </row>
     <row r="21" spans="2:136" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="44" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -13152,7 +13191,7 @@
     </row>
     <row r="22" spans="2:136" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="44" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -13372,7 +13411,7 @@
     </row>
     <row r="23" spans="2:136" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="44" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -13588,7 +13627,7 @@
     </row>
     <row r="24" spans="2:136" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="44" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -13803,7 +13842,7 @@
     </row>
     <row r="25" spans="2:136" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="44" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -13989,7 +14028,7 @@
     </row>
     <row r="26" spans="2:136" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="44" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -14175,7 +14214,7 @@
     </row>
     <row r="27" spans="2:136" x14ac:dyDescent="0.2">
       <c r="B27" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="V27" s="35"/>
       <c r="W27" s="33"/>
@@ -14246,19 +14285,19 @@
       <c r="DD27" s="30"/>
       <c r="DE27" s="30"/>
       <c r="DF27" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DG27" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DH27" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DI27" s="35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="DJ27" s="66" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="DK27" s="66"/>
       <c r="DL27" s="35">
@@ -14282,31 +14321,31 @@
     </row>
     <row r="28" spans="2:136" x14ac:dyDescent="0.2">
       <c r="B28" s="23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="V28" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W28" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X28" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y28" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z28" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA28" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB28" s="49">
         <v>2</v>
       </c>
       <c r="AC28" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AD28" s="48">
         <v>1</v>
@@ -14394,43 +14433,43 @@
         <v>88</v>
       </c>
       <c r="V29" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W29" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X29" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y29" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z29" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA29" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB29" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AC29" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AD29" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AE29" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF29" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG29" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AH29" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AI29" s="35"/>
       <c r="AJ29" s="35"/>
@@ -14470,31 +14509,31 @@
       <c r="DD29" s="30"/>
       <c r="DE29" s="30"/>
       <c r="DF29" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DG29" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DH29" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DI29" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DJ29" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DK29" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DL29" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DM29" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DN29" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DO29" s="35"/>
       <c r="DP29" s="35"/>
@@ -14510,43 +14549,43 @@
         <v>95</v>
       </c>
       <c r="V30" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W30" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X30" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y30" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z30" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA30" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB30" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AC30" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AD30" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AE30" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF30" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG30" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AH30" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AI30" s="35"/>
       <c r="AJ30" s="35"/>
@@ -14586,31 +14625,31 @@
       <c r="DD30" s="30"/>
       <c r="DE30" s="30"/>
       <c r="DF30" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DG30" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DH30" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DI30" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DJ30" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DK30" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DL30" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DM30" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DN30" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DO30" s="35"/>
       <c r="DP30" s="35"/>
@@ -14669,31 +14708,31 @@
       </c>
       <c r="DE31" s="30"/>
       <c r="DF31" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DG31" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DH31" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DI31" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DJ31" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DK31" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DL31" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DM31" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DN31" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DO31" s="35"/>
       <c r="DP31" s="35"/>
@@ -14793,31 +14832,31 @@
       </c>
       <c r="DE32" s="30"/>
       <c r="DF32" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DG32" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DH32" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DI32" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DJ32" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DK32" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DL32" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DM32" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DN32" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DO32" s="35"/>
       <c r="DP32" s="35"/>
@@ -14830,7 +14869,7 @@
     </row>
     <row r="33" spans="2:127" x14ac:dyDescent="0.2">
       <c r="B33" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="V33" s="30"/>
       <c r="AF33" s="30"/>
@@ -14889,7 +14928,7 @@
     </row>
     <row r="34" spans="2:127" x14ac:dyDescent="0.2">
       <c r="B34" s="23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C34" s="28">
         <v>196</v>
@@ -15009,7 +15048,7 @@
       <c r="CM34" s="30"/>
       <c r="CN34" s="30"/>
       <c r="CP34" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CQ34" s="30"/>
       <c r="CR34" s="30"/>
@@ -15082,7 +15121,7 @@
     </row>
     <row r="35" spans="2:127" x14ac:dyDescent="0.2">
       <c r="B35" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N35" s="28">
         <v>15</v>
@@ -15121,31 +15160,31 @@
         <v>29</v>
       </c>
       <c r="Z35" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA35" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB35" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AC35" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AD35" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AE35" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF35" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG35" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AH35" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AI35" s="35"/>
       <c r="AJ35" s="35"/>
@@ -15193,25 +15232,25 @@
         <v>87</v>
       </c>
       <c r="DH35" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DI35" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DJ35" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DK35" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DL35" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DM35" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DN35" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DO35" s="35"/>
       <c r="DP35" s="35"/>
@@ -15224,7 +15263,7 @@
     </row>
     <row r="36" spans="2:127" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C36" s="28">
         <v>235</v>
@@ -15275,53 +15314,53 @@
         <v>285</v>
       </c>
       <c r="S36" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T36" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U36" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V36" s="30" t="str">
         <f>U36</f>
         <v>-</v>
       </c>
       <c r="W36" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X36" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y36" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z36" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA36" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB36" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AC36" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AD36" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AE36" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF36" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG36" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AH36" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AI36" s="35"/>
       <c r="AJ36" s="35"/>
@@ -15367,31 +15406,31 @@
         <v>1157</v>
       </c>
       <c r="DF36" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DG36" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DH36" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DI36" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DJ36" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DK36" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DL36" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DM36" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DN36" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DO36" s="35"/>
       <c r="DP36" s="35"/>
@@ -15404,7 +15443,7 @@
     </row>
     <row r="37" spans="2:127" x14ac:dyDescent="0.2">
       <c r="B37" s="23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V37" s="30">
         <v>4</v>
@@ -15522,7 +15561,7 @@
     </row>
     <row r="38" spans="2:127" x14ac:dyDescent="0.2">
       <c r="B38" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C38" s="30">
         <v>814</v>
@@ -15714,7 +15753,7 @@
     </row>
     <row r="39" spans="2:127" x14ac:dyDescent="0.2">
       <c r="B39" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="V39" s="35"/>
       <c r="W39" s="33"/>
@@ -15801,7 +15840,7 @@
     </row>
     <row r="40" spans="2:127" x14ac:dyDescent="0.2">
       <c r="B40" s="23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="V40" s="35"/>
       <c r="W40" s="33"/>
@@ -15869,13 +15908,13 @@
       <c r="DM40" s="30"/>
       <c r="DN40" s="30"/>
       <c r="DO40" s="85" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="DP40" s="85" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="DQ40" s="85" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="DR40" s="35"/>
       <c r="DS40" s="35"/>
@@ -15885,7 +15924,7 @@
     </row>
     <row r="41" spans="2:127" x14ac:dyDescent="0.2">
       <c r="B41" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C41" s="28">
         <v>87</v>
@@ -16075,7 +16114,7 @@
     </row>
     <row r="42" spans="2:127" x14ac:dyDescent="0.2">
       <c r="B42" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C42" s="28">
         <v>188</v>
@@ -16267,7 +16306,7 @@
     </row>
     <row r="43" spans="2:127" x14ac:dyDescent="0.2">
       <c r="B43" s="23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C43" s="28">
         <v>173</v>
@@ -16491,7 +16530,7 @@
     </row>
     <row r="44" spans="2:127" x14ac:dyDescent="0.2">
       <c r="B44" s="23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C44" s="28">
         <v>149</v>
@@ -16713,7 +16752,7 @@
     </row>
     <row r="45" spans="2:127" x14ac:dyDescent="0.2">
       <c r="B45" s="23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D45" s="28">
         <v>5</v>
@@ -17044,35 +17083,35 @@
       </c>
       <c r="DE46" s="30"/>
       <c r="DF46" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DG46" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DH46" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DI46" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DJ46" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DK46" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DL46" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DM46" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DN46" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DO46" s="35"/>
       <c r="DP46" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DQ46" s="35"/>
       <c r="DR46" s="35"/>
@@ -17134,53 +17173,53 @@
         <v>27</v>
       </c>
       <c r="S47" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T47" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U47" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V47" s="30" t="str">
         <f>U47</f>
         <v>-</v>
       </c>
       <c r="W47" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X47" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y47" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z47" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA47" s="48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB47" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AC47" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AD47" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AE47" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF47" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG47" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AH47" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AI47" s="35"/>
       <c r="AJ47" s="35"/>
@@ -17234,35 +17273,35 @@
         <v>203</v>
       </c>
       <c r="DF47" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DG47" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DH47" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DI47" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DJ47" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DK47" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DL47" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DM47" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DN47" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DO47" s="35"/>
       <c r="DP47" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DQ47" s="35"/>
       <c r="DR47" s="35"/>
@@ -17324,53 +17363,53 @@
         <v>99</v>
       </c>
       <c r="S48" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T48" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U48" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V48" s="30" t="str">
         <f>U48</f>
         <v>-</v>
       </c>
       <c r="W48" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X48" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y48" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z48" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA48" s="48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB48" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AC48" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AD48" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AE48" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF48" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG48" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AH48" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AI48" s="35"/>
       <c r="AJ48" s="35"/>
@@ -17422,35 +17461,35 @@
         <v>385</v>
       </c>
       <c r="DF48" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DG48" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DH48" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DI48" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DJ48" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DK48" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DL48" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DM48" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DN48" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DO48" s="35"/>
       <c r="DP48" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DQ48" s="35"/>
       <c r="DR48" s="35"/>
@@ -17542,35 +17581,35 @@
       </c>
       <c r="DE49" s="30"/>
       <c r="DF49" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DG49" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DH49" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DI49" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DJ49" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DK49" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DL49" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DM49" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DN49" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DO49" s="35"/>
       <c r="DP49" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DQ49" s="35"/>
       <c r="DR49" s="35"/>
@@ -17662,35 +17701,35 @@
       </c>
       <c r="DE50" s="30"/>
       <c r="DF50" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DG50" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DH50" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DI50" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DJ50" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DK50" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DL50" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DM50" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DN50" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DO50" s="35"/>
       <c r="DP50" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DQ50" s="35"/>
       <c r="DR50" s="35"/>
@@ -17724,35 +17763,35 @@
       <c r="AR51" s="30"/>
       <c r="AS51" s="30"/>
       <c r="DF51" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DG51" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DH51" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DI51" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DJ51" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DK51" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DL51" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DM51" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DN51" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DO51" s="35"/>
       <c r="DP51" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DQ51" s="35"/>
       <c r="DR51" s="35"/>
@@ -17786,35 +17825,35 @@
       <c r="AR52" s="30"/>
       <c r="AS52" s="30"/>
       <c r="DF52" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DG52" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DH52" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DI52" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DJ52" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DK52" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DL52" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DM52" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DN52" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DO52" s="35"/>
       <c r="DP52" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DQ52" s="35"/>
       <c r="DR52" s="35"/>
@@ -17901,43 +17940,43 @@
         <v>699</v>
       </c>
       <c r="V53" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W53" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X53" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y53" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z53" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA53" s="50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB53" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AC53" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AD53" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AE53" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF53" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG53" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AH53" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AI53" s="35"/>
       <c r="AJ53" s="35"/>
@@ -17971,32 +18010,32 @@
         <v>2111</v>
       </c>
       <c r="DG53" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DH53" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DI53" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DJ53" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DK53" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DL53" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DM53" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DN53" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DO53" s="35"/>
       <c r="DP53" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DQ53" s="35"/>
       <c r="DR53" s="35"/>
@@ -18064,43 +18103,43 @@
         <v>0</v>
       </c>
       <c r="V54" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W54" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X54" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y54" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z54" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA54" s="50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB54" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AC54" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AD54" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AE54" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF54" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG54" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AH54" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AI54" s="35"/>
       <c r="AJ54" s="35"/>
@@ -18130,35 +18169,35 @@
         <v>290</v>
       </c>
       <c r="DF54" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DG54" s="50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DH54" s="50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DI54" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DJ54" s="65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DK54" s="65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DL54" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DM54" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DN54" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DO54" s="30"/>
       <c r="DP54" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DQ54" s="30"/>
       <c r="DR54" s="30"/>
@@ -18169,7 +18208,7 @@
     </row>
     <row r="55" spans="2:136" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C55" s="36">
         <f t="shared" ref="C55:AN55" ca="1" si="115">SUM(C3:C54)</f>
@@ -19040,7 +19079,7 @@
     </row>
     <row r="57" spans="2:136" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C57" s="30">
         <f t="shared" ref="C57:Q57" ca="1" si="124">C55-C56</f>
@@ -19476,7 +19515,7 @@
     </row>
     <row r="58" spans="2:136" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C58" s="30">
         <v>1183</v>
@@ -20431,7 +20470,7 @@
     </row>
     <row r="61" spans="2:136" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C61" s="30">
         <f t="shared" ref="C61:R61" si="151">C60+C59+C58</f>
@@ -20862,7 +20901,7 @@
     </row>
     <row r="62" spans="2:136" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C62" s="30">
         <f t="shared" ref="C62:R62" ca="1" si="167">C57-C61</f>
@@ -21595,7 +21634,7 @@
         <v>450</v>
       </c>
       <c r="DI63" s="30">
-        <f t="shared" ref="DI63:DP63" si="185">DH95*$DY$69</f>
+        <f t="shared" ref="DI63:DP63" si="185">DH94*$DY$69</f>
         <v>0</v>
       </c>
       <c r="DJ63" s="65">
@@ -21639,11 +21678,11 @@
         <v>0</v>
       </c>
       <c r="DX63" s="25">
-        <f>DW95*$EI$72</f>
+        <f>DW94*$EI$72</f>
         <v>75.460087013200024</v>
       </c>
       <c r="DY63" s="25">
-        <f t="shared" ref="DY63:EF63" si="188">DX95*$EI$72</f>
+        <f t="shared" ref="DY63:EF63" si="188">DX94*$EI$72</f>
         <v>349.54279951278966</v>
       </c>
       <c r="DZ63" s="25">
@@ -22830,7 +22869,7 @@
     </row>
     <row r="67" spans="2:181" x14ac:dyDescent="0.2">
       <c r="B67" s="23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C67" s="30">
         <f t="shared" ref="C67:R67" ca="1" si="214">C64-C65-C66</f>
@@ -24247,6 +24286,10 @@
       </c>
     </row>
     <row r="70" spans="2:181" x14ac:dyDescent="0.2">
+      <c r="DD70" s="76">
+        <f ca="1">DD55/DC55-1</f>
+        <v>0.21947175174700928</v>
+      </c>
       <c r="DE70" s="37"/>
       <c r="DJ70" s="69"/>
       <c r="DK70" s="69"/>
@@ -24255,19 +24298,19 @@
     </row>
     <row r="71" spans="2:181" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G71" s="40">
         <f t="shared" ref="G71:AK71" ca="1" si="256">G55/C55-1</f>
@@ -24694,7 +24737,7 @@
         <v>-0.4586193687277702</v>
       </c>
       <c r="EH71" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="EI71" s="92">
         <v>-0.01</v>
@@ -24702,7 +24745,7 @@
     </row>
     <row r="72" spans="2:181" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
@@ -24833,7 +24876,7 @@
       <c r="DX72" s="33"/>
       <c r="DY72" s="79"/>
       <c r="EH72" s="19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="EI72" s="92">
         <v>0.01</v>
@@ -24841,7 +24884,7 @@
     </row>
     <row r="73" spans="2:181" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
@@ -25072,7 +25115,7 @@
       <c r="DX73" s="75"/>
       <c r="DY73" s="84"/>
       <c r="EH73" s="23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="EI73" s="59">
         <v>7.0000000000000007E-2</v>
@@ -25080,7 +25123,7 @@
     </row>
     <row r="74" spans="2:181" s="23" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
@@ -25299,7 +25342,7 @@
       <c r="DX74" s="33"/>
       <c r="DY74" s="72"/>
       <c r="EH74" s="23" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="EI74" s="44">
         <f>NPV(EI73,DV67:FY67)+Main!K5-Main!K6</f>
@@ -25308,7 +25351,7 @@
     </row>
     <row r="75" spans="2:181" s="23" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
@@ -25482,7 +25525,7 @@
       <c r="DX75" s="33"/>
       <c r="DY75" s="72"/>
       <c r="EH75" s="23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="EI75" s="93">
         <f>EI74/Main!K3</f>
@@ -25491,19 +25534,19 @@
     </row>
     <row r="76" spans="2:181" s="74" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="74" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C76" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D76" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E76" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F76" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G76" s="76">
         <f t="shared" ref="G76:AK76" si="278">+G38/C38-1</f>
@@ -25698,7 +25741,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="CY76" s="77" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="CZ76" s="77">
         <f t="shared" ref="CZ76:DV76" si="279">CZ38/CY38-1</f>
@@ -25801,19 +25844,19 @@
     </row>
     <row r="77" spans="2:181" s="74" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="74" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C77" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D77" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E77" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F77" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G77" s="76">
         <f t="shared" ref="G77:AK77" si="280">+G43/C43-1</f>
@@ -26023,7 +26066,7 @@
       <c r="DP77" s="80"/>
       <c r="DQ77" s="83"/>
       <c r="EH77" s="23" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="EI77" s="59">
         <f>+EI75/EI76-1</f>
@@ -26032,31 +26075,31 @@
     </row>
     <row r="78" spans="2:181" x14ac:dyDescent="0.2">
       <c r="B78" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G78" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H78" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I78" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J78" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K78" s="57">
         <f t="shared" ref="K78:AK78" si="281">+K3/G3-1</f>
@@ -26297,19 +26340,19 @@
     </row>
     <row r="79" spans="2:181" s="74" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="74" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C79" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D79" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E79" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F79" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G79" s="76">
         <f t="shared" ref="G79:AK79" si="306">+G34/C34-1</f>
@@ -26521,19 +26564,19 @@
     </row>
     <row r="80" spans="2:181" s="74" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="74" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C80" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D80" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E80" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F80" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G80" s="76">
         <f t="shared" ref="G80:AK80" si="307">+G44/C44-1</f>
@@ -26745,28 +26788,28 @@
     </row>
     <row r="81" spans="1:136" s="74" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="74" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C81" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D81" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E81" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F81" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G81" s="76" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H81" s="76" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I81" s="76" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J81" s="76">
         <f t="shared" ref="J81:AK81" si="308">+J45/F45-1</f>
@@ -26966,19 +27009,19 @@
     </row>
     <row r="82" spans="1:136" s="74" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="74" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C82" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D82" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E82" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F82" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G82" s="76">
         <f t="shared" ref="G82:P83" si="309">+G41/C41-1</f>
@@ -27190,19 +27233,19 @@
     </row>
     <row r="83" spans="1:136" s="74" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C83" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D83" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E83" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F83" s="75" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G83" s="76">
         <f t="shared" si="309"/>
@@ -27414,37 +27457,37 @@
     </row>
     <row r="84" spans="1:136" x14ac:dyDescent="0.2">
       <c r="B84" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G84" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H84" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I84" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J84" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K84" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L84" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M84" s="41">
         <f t="shared" ref="M84:AK84" si="313">M10/I10-1</f>
@@ -27558,76 +27601,76 @@
     </row>
     <row r="85" spans="1:136" x14ac:dyDescent="0.2">
       <c r="B85" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G85" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H85" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I85" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J85" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K85" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L85" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M85" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N85" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O85" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P85" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q85" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R85" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S85" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T85" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U85" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V85" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W85" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X85" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y85" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z85" s="41">
         <f t="shared" ref="Z85:AK85" si="314">Z37/V37-1</f>
@@ -27918,7 +27961,7 @@
         <v>0.78337679818288886</v>
       </c>
       <c r="BU87" s="57">
-        <f t="shared" ref="BU87:CA87" si="317">+BU57/BU55</f>
+        <f t="shared" ref="BU87:CB87" si="317">+BU57/BU55</f>
         <v>0.79000000000000015</v>
       </c>
       <c r="BV87" s="57">
@@ -27945,7 +27988,10 @@
         <f t="shared" si="317"/>
         <v>0.75474083438685213</v>
       </c>
-      <c r="CB87" s="57"/>
+      <c r="CB87" s="57">
+        <f t="shared" si="317"/>
+        <v>0.79</v>
+      </c>
       <c r="CC87" s="57"/>
       <c r="CD87" s="57"/>
       <c r="CE87" s="57"/>
@@ -28096,7 +28142,7 @@
     </row>
     <row r="88" spans="1:136" x14ac:dyDescent="0.2">
       <c r="B88" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C88" s="39"/>
       <c r="D88" s="39"/>
@@ -28353,7 +28399,7 @@
     </row>
     <row r="89" spans="1:136" x14ac:dyDescent="0.2">
       <c r="B89" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C89" s="39"/>
       <c r="D89" s="39"/>
@@ -28610,7 +28656,7 @@
     </row>
     <row r="90" spans="1:136" x14ac:dyDescent="0.2">
       <c r="B90" s="23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C90" s="39"/>
       <c r="D90" s="39"/>
@@ -28861,7 +28907,7 @@
     </row>
     <row r="91" spans="1:136" x14ac:dyDescent="0.2">
       <c r="B91" s="23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C91" s="39"/>
       <c r="D91" s="39"/>
@@ -29028,7 +29074,7 @@
         <v>0.43989231934045597</v>
       </c>
       <c r="BU91" s="57">
-        <f t="shared" ref="BU91:CA91" si="331">+BU62/BU55</f>
+        <f t="shared" ref="BU91:CB91" si="331">+BU62/BU55</f>
         <v>0.33019789623818868</v>
       </c>
       <c r="BV91" s="57">
@@ -29055,7 +29101,10 @@
         <f t="shared" si="331"/>
         <v>0.38938053097345132</v>
       </c>
-      <c r="CB91" s="57"/>
+      <c r="CB91" s="57">
+        <f t="shared" si="331"/>
+        <v>0.44162657159249247</v>
+      </c>
       <c r="CC91" s="57"/>
       <c r="CD91" s="57"/>
       <c r="CE91" s="57"/>
@@ -29187,7 +29236,7 @@
     </row>
     <row r="92" spans="1:136" x14ac:dyDescent="0.2">
       <c r="B92" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C92" s="39"/>
       <c r="D92" s="39"/>
@@ -29436,564 +29485,533 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="93" spans="1:136" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="C93" s="75"/>
-      <c r="D93" s="76"/>
-      <c r="E93" s="76"/>
-      <c r="F93" s="76"/>
-      <c r="G93" s="76">
-        <f t="shared" ref="G93:W93" ca="1" si="340">G55/C55-1</f>
-        <v>6.9661865998747574E-2</v>
-      </c>
-      <c r="H93" s="76">
-        <f t="shared" ca="1" si="340"/>
-        <v>5.4844606946984342E-3</v>
-      </c>
-      <c r="I93" s="76">
-        <f t="shared" ca="1" si="340"/>
-        <v>-0.16528805688579307</v>
-      </c>
-      <c r="J93" s="76">
-        <f t="shared" ca="1" si="340"/>
-        <v>-0.23673079547005049</v>
-      </c>
-      <c r="K93" s="76">
-        <f t="shared" ca="1" si="340"/>
-        <v>-9.9663398214547061E-2</v>
-      </c>
-      <c r="L93" s="76">
-        <f t="shared" ca="1" si="340"/>
-        <v>-8.2517482517482366E-3</v>
-      </c>
-      <c r="M93" s="76">
-        <f t="shared" ca="1" si="340"/>
-        <v>0.36474269819193328</v>
-      </c>
-      <c r="N93" s="76">
-        <f t="shared" ca="1" si="340"/>
-        <v>0.51787629603146224</v>
-      </c>
-      <c r="O93" s="76">
-        <f t="shared" ca="1" si="340"/>
-        <v>0.32282184655396629</v>
-      </c>
-      <c r="P93" s="76">
-        <f t="shared" ca="1" si="340"/>
-        <v>0.18713862642786627</v>
-      </c>
-      <c r="Q93" s="76">
-        <f t="shared" ca="1" si="340"/>
-        <v>9.2993630573248387E-2</v>
-      </c>
-      <c r="R93" s="76">
-        <f t="shared" ca="1" si="340"/>
-        <v>1.6252502649864553E-2</v>
-      </c>
-      <c r="S93" s="76">
-        <f t="shared" ca="1" si="340"/>
-        <v>1.9292209388056092E-2</v>
-      </c>
-      <c r="T93" s="76">
-        <f t="shared" ca="1" si="340"/>
-        <v>5.7614635305298201E-2</v>
-      </c>
-      <c r="U93" s="76">
-        <f t="shared" ca="1" si="340"/>
-        <v>6.0139860139860168E-2</v>
-      </c>
-      <c r="V93" s="76">
-        <f t="shared" ca="1" si="340"/>
-        <v>2.607486383126667E-2</v>
-      </c>
-      <c r="W93" s="76">
-        <f t="shared" ca="1" si="340"/>
-        <v>-0.42049427365883063</v>
-      </c>
-      <c r="X93" s="76"/>
-      <c r="Y93" s="76"/>
-      <c r="Z93" s="76"/>
-      <c r="AA93" s="77"/>
-      <c r="AB93" s="76"/>
-      <c r="AC93" s="76"/>
-      <c r="AD93" s="76"/>
-      <c r="AE93" s="76"/>
-      <c r="AF93" s="76"/>
-      <c r="AG93" s="76"/>
-      <c r="AH93" s="76"/>
-      <c r="AI93" s="76"/>
-      <c r="AJ93" s="76"/>
-      <c r="AK93" s="76"/>
-      <c r="AL93" s="76"/>
-      <c r="AM93" s="76"/>
-      <c r="AN93" s="76"/>
-      <c r="AO93" s="76"/>
-      <c r="AP93" s="76"/>
-      <c r="AQ93" s="76"/>
-      <c r="AR93" s="76"/>
-      <c r="AS93" s="76"/>
-      <c r="AT93" s="75"/>
-      <c r="AU93" s="75"/>
-      <c r="AV93" s="75"/>
-      <c r="AW93" s="75"/>
-      <c r="AX93" s="75"/>
-      <c r="AY93" s="75"/>
-      <c r="AZ93" s="75"/>
-      <c r="BA93" s="75"/>
-      <c r="BB93" s="75"/>
-      <c r="BC93" s="75"/>
-      <c r="BD93" s="75"/>
-      <c r="BE93" s="75"/>
-      <c r="BF93" s="75"/>
-      <c r="BG93" s="75"/>
-      <c r="BH93" s="75"/>
-      <c r="BI93" s="75"/>
-      <c r="BJ93" s="75"/>
-      <c r="BK93" s="75"/>
-      <c r="BL93" s="75"/>
-      <c r="BM93" s="75"/>
-      <c r="BN93" s="75"/>
-      <c r="BO93" s="75"/>
-      <c r="BP93" s="75"/>
-      <c r="BQ93" s="75"/>
-      <c r="BR93" s="75"/>
-      <c r="BS93" s="75"/>
-      <c r="BT93" s="75"/>
-      <c r="BU93" s="75"/>
-      <c r="BV93" s="75"/>
-      <c r="BW93" s="75"/>
-      <c r="BX93" s="75"/>
-      <c r="BY93" s="75"/>
-      <c r="BZ93" s="75"/>
-      <c r="CA93" s="75"/>
-      <c r="CB93" s="75"/>
-      <c r="CC93" s="75"/>
-      <c r="CD93" s="75"/>
-      <c r="CE93" s="75"/>
-      <c r="CF93" s="75"/>
-      <c r="CG93" s="75"/>
-      <c r="CH93" s="75"/>
-      <c r="CI93" s="75"/>
-      <c r="CJ93" s="75"/>
-      <c r="CK93" s="75"/>
-      <c r="CL93" s="75"/>
-      <c r="CM93" s="75"/>
-      <c r="CN93" s="75"/>
-      <c r="CO93" s="75"/>
-      <c r="CP93" s="75"/>
-      <c r="CQ93" s="75"/>
-      <c r="CR93" s="75"/>
-      <c r="CS93" s="75"/>
-      <c r="CT93" s="75"/>
-      <c r="CU93" s="75"/>
-      <c r="CV93" s="75"/>
-      <c r="CW93" s="75"/>
-      <c r="CX93" s="75"/>
-      <c r="CY93" s="75"/>
-      <c r="CZ93" s="75"/>
-      <c r="DA93" s="75"/>
-      <c r="DB93" s="75"/>
-      <c r="DC93" s="75"/>
-      <c r="DD93" s="76">
-        <f ca="1">DD55/DC55-1</f>
-        <v>0.21947175174700928</v>
-      </c>
-      <c r="DE93" s="75"/>
-      <c r="DF93" s="81"/>
-      <c r="DG93" s="81"/>
-      <c r="DH93" s="81"/>
-      <c r="DI93" s="75"/>
-      <c r="DJ93" s="75"/>
-      <c r="DK93" s="75"/>
-      <c r="DL93" s="75"/>
-      <c r="DM93" s="75"/>
-      <c r="DN93" s="75"/>
-      <c r="DO93" s="75"/>
-      <c r="DP93" s="75"/>
-      <c r="DQ93" s="75"/>
-      <c r="DR93" s="75"/>
-      <c r="DS93" s="75"/>
-      <c r="DT93" s="75"/>
-      <c r="DU93" s="75"/>
-      <c r="DV93" s="75"/>
+    <row r="93" spans="1:136" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="37"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="40"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="40"/>
+      <c r="R93" s="40"/>
+      <c r="S93" s="40"/>
+      <c r="T93" s="40"/>
+      <c r="U93" s="40"/>
+      <c r="V93" s="40"/>
+      <c r="W93" s="40"/>
+      <c r="X93" s="40"/>
+      <c r="Y93" s="53"/>
+      <c r="Z93" s="53"/>
+      <c r="AA93" s="53"/>
+      <c r="AB93" s="53"/>
+      <c r="AC93" s="53"/>
+      <c r="AD93" s="53"/>
+      <c r="AE93" s="40"/>
+      <c r="AF93" s="40"/>
+      <c r="AG93" s="40"/>
+      <c r="AH93" s="40"/>
+      <c r="AI93" s="40"/>
+      <c r="AJ93" s="40"/>
+      <c r="AK93" s="40"/>
+      <c r="AL93" s="40"/>
+      <c r="AM93" s="40"/>
+      <c r="AN93" s="40"/>
+      <c r="AO93" s="40"/>
+      <c r="AP93" s="40"/>
+      <c r="AQ93" s="40"/>
+      <c r="AR93" s="40"/>
+      <c r="AS93" s="40"/>
+      <c r="AT93" s="37"/>
+      <c r="AU93" s="37"/>
+      <c r="AV93" s="37"/>
+      <c r="AW93" s="37"/>
+      <c r="AX93" s="37"/>
+      <c r="AY93" s="37"/>
+      <c r="AZ93" s="37"/>
+      <c r="BA93" s="37"/>
+      <c r="BB93" s="37"/>
+      <c r="BC93" s="37"/>
+      <c r="BD93" s="37"/>
+      <c r="BE93" s="37"/>
+      <c r="BF93" s="37"/>
+      <c r="BG93" s="37"/>
+      <c r="BH93" s="37"/>
+      <c r="BI93" s="37"/>
+      <c r="BJ93" s="37"/>
+      <c r="BK93" s="37"/>
+      <c r="BL93" s="37"/>
+      <c r="BM93" s="37"/>
+      <c r="BN93" s="37"/>
+      <c r="BO93" s="37"/>
+      <c r="BP93" s="37"/>
+      <c r="BQ93" s="37"/>
+      <c r="BR93" s="37"/>
+      <c r="BS93" s="37"/>
+      <c r="BT93" s="37"/>
+      <c r="BU93" s="37"/>
+      <c r="BV93" s="37"/>
+      <c r="BW93" s="37"/>
+      <c r="BX93" s="37"/>
+      <c r="BY93" s="37"/>
+      <c r="BZ93" s="37"/>
+      <c r="CA93" s="37"/>
+      <c r="CB93" s="37"/>
+      <c r="CC93" s="37"/>
+      <c r="CD93" s="37"/>
+      <c r="CE93" s="37"/>
+      <c r="CF93" s="37"/>
+      <c r="CG93" s="37"/>
+      <c r="CH93" s="37"/>
+      <c r="CI93" s="37"/>
+      <c r="CJ93" s="37"/>
+      <c r="CK93" s="37"/>
+      <c r="CL93" s="37"/>
+      <c r="CM93" s="37"/>
+      <c r="CN93" s="37"/>
+      <c r="CO93" s="37"/>
+      <c r="CP93" s="37"/>
+      <c r="CQ93" s="37"/>
+      <c r="CR93" s="37"/>
+      <c r="CS93" s="37"/>
+      <c r="CT93" s="37"/>
+      <c r="CU93" s="37"/>
+      <c r="CV93" s="37"/>
+      <c r="CW93" s="37"/>
+      <c r="CX93" s="37"/>
+      <c r="CY93" s="37"/>
+      <c r="CZ93" s="37"/>
+      <c r="DA93" s="37"/>
+      <c r="DB93" s="37"/>
+      <c r="DC93" s="37"/>
+      <c r="DD93" s="40"/>
+      <c r="DE93" s="37"/>
+      <c r="DF93" s="56"/>
+      <c r="DG93" s="56"/>
+      <c r="DH93" s="56"/>
+      <c r="DI93" s="37"/>
+      <c r="DJ93" s="37"/>
+      <c r="DK93" s="37"/>
+      <c r="DL93" s="37"/>
+      <c r="DM93" s="37"/>
+      <c r="DN93" s="37"/>
+      <c r="DO93" s="37"/>
+      <c r="DP93" s="37"/>
+      <c r="DQ93" s="37"/>
+      <c r="DR93" s="37"/>
+      <c r="DS93" s="37"/>
+      <c r="DT93" s="37"/>
+      <c r="DU93" s="37"/>
+      <c r="DV93" s="37"/>
     </row>
     <row r="94" spans="1:136" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C94" s="37"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="40"/>
-      <c r="K94" s="40"/>
-      <c r="L94" s="40"/>
-      <c r="M94" s="40"/>
-      <c r="N94" s="40"/>
-      <c r="O94" s="40"/>
-      <c r="P94" s="40"/>
-      <c r="Q94" s="40"/>
-      <c r="R94" s="40"/>
-      <c r="S94" s="40"/>
-      <c r="T94" s="40"/>
-      <c r="U94" s="40"/>
-      <c r="V94" s="40"/>
-      <c r="W94" s="40"/>
-      <c r="X94" s="40"/>
-      <c r="Y94" s="53"/>
-      <c r="Z94" s="53"/>
-      <c r="AA94" s="53"/>
-      <c r="AB94" s="53"/>
-      <c r="AC94" s="53"/>
-      <c r="AD94" s="53"/>
-      <c r="AE94" s="40"/>
-      <c r="AF94" s="40"/>
-      <c r="AG94" s="40"/>
-      <c r="AH94" s="40"/>
-      <c r="AI94" s="40"/>
-      <c r="AJ94" s="40"/>
-      <c r="AK94" s="40"/>
-      <c r="AL94" s="40"/>
-      <c r="AM94" s="40"/>
-      <c r="AN94" s="40"/>
-      <c r="AO94" s="40"/>
-      <c r="AP94" s="40"/>
-      <c r="AQ94" s="40"/>
-      <c r="AR94" s="40"/>
-      <c r="AS94" s="40"/>
-      <c r="AT94" s="37"/>
-      <c r="AU94" s="37"/>
-      <c r="AV94" s="37"/>
-      <c r="AW94" s="37"/>
-      <c r="AX94" s="37"/>
-      <c r="AY94" s="37"/>
-      <c r="AZ94" s="37"/>
-      <c r="BA94" s="37"/>
-      <c r="BB94" s="37"/>
-      <c r="BC94" s="37"/>
-      <c r="BD94" s="37"/>
-      <c r="BE94" s="37"/>
-      <c r="BF94" s="37"/>
-      <c r="BG94" s="37"/>
-      <c r="BH94" s="37"/>
-      <c r="BI94" s="37"/>
-      <c r="BJ94" s="37"/>
-      <c r="BK94" s="37"/>
-      <c r="BL94" s="37"/>
-      <c r="BM94" s="37"/>
-      <c r="BN94" s="37"/>
-      <c r="BO94" s="37"/>
-      <c r="BP94" s="37"/>
-      <c r="BQ94" s="37"/>
-      <c r="BR94" s="37"/>
-      <c r="BS94" s="37"/>
-      <c r="BT94" s="37"/>
-      <c r="BU94" s="37"/>
-      <c r="BV94" s="37"/>
-      <c r="BW94" s="37"/>
-      <c r="BX94" s="37"/>
-      <c r="BY94" s="37"/>
-      <c r="BZ94" s="37"/>
-      <c r="CA94" s="37"/>
-      <c r="CB94" s="37"/>
-      <c r="CC94" s="37"/>
-      <c r="CD94" s="37"/>
-      <c r="CE94" s="37"/>
-      <c r="CF94" s="37"/>
-      <c r="CG94" s="37"/>
-      <c r="CH94" s="37"/>
-      <c r="CI94" s="37"/>
-      <c r="CJ94" s="37"/>
-      <c r="CK94" s="37"/>
-      <c r="CL94" s="37"/>
-      <c r="CM94" s="37"/>
-      <c r="CN94" s="37"/>
-      <c r="CO94" s="37"/>
-      <c r="CP94" s="37"/>
-      <c r="CQ94" s="37"/>
-      <c r="CR94" s="37"/>
-      <c r="CS94" s="37"/>
-      <c r="CT94" s="37"/>
-      <c r="CU94" s="37"/>
-      <c r="CV94" s="37"/>
-      <c r="CW94" s="37"/>
-      <c r="CX94" s="37"/>
-      <c r="CY94" s="37"/>
-      <c r="CZ94" s="37"/>
-      <c r="DA94" s="37"/>
-      <c r="DB94" s="37"/>
-      <c r="DC94" s="37"/>
-      <c r="DD94" s="40"/>
-      <c r="DE94" s="37"/>
-      <c r="DF94" s="56"/>
-      <c r="DG94" s="56"/>
-      <c r="DH94" s="56"/>
-      <c r="DI94" s="37"/>
-      <c r="DJ94" s="37"/>
-      <c r="DK94" s="37"/>
-      <c r="DL94" s="37"/>
-      <c r="DM94" s="37"/>
-      <c r="DN94" s="37"/>
-      <c r="DO94" s="37"/>
-      <c r="DP94" s="37"/>
-      <c r="DQ94" s="37"/>
-      <c r="DR94" s="37"/>
-      <c r="DS94" s="37"/>
-      <c r="DT94" s="37"/>
-      <c r="DU94" s="37"/>
-      <c r="DV94" s="37"/>
-    </row>
-    <row r="95" spans="1:136" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="23"/>
-      <c r="B95" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
-      <c r="K95" s="41"/>
-      <c r="L95" s="41"/>
-      <c r="M95" s="41"/>
-      <c r="N95" s="41"/>
-      <c r="O95" s="35">
+      <c r="A94" s="23"/>
+      <c r="B94" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="C94" s="33"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+      <c r="K94" s="41"/>
+      <c r="L94" s="41"/>
+      <c r="M94" s="41"/>
+      <c r="N94" s="41"/>
+      <c r="O94" s="35">
         <f>Main!K5-Main!K6</f>
         <v>-45379</v>
       </c>
-      <c r="P95" s="35">
-        <f ca="1">O95+P67</f>
+      <c r="P94" s="35">
+        <f ca="1">O94+P67</f>
         <v>-41303</v>
       </c>
-      <c r="Q95" s="35">
-        <f>Q96-Q107</f>
+      <c r="Q94" s="35">
+        <f>Q95-Q106</f>
         <v>1176</v>
       </c>
-      <c r="R95" s="35">
-        <f>Q95+R67</f>
+      <c r="R94" s="35">
+        <f>Q94+R67</f>
         <v>-681.5</v>
       </c>
-      <c r="S95" s="35"/>
-      <c r="T95" s="35">
+      <c r="S94" s="35"/>
+      <c r="T94" s="35">
         <f>7507+613+983-124-6235</f>
         <v>2744</v>
       </c>
-      <c r="U95" s="35"/>
-      <c r="V95" s="35"/>
-      <c r="W95" s="35"/>
-      <c r="X95" s="35">
-        <f>+X96-X107</f>
+      <c r="U94" s="35"/>
+      <c r="V94" s="35"/>
+      <c r="W94" s="35"/>
+      <c r="X94" s="35">
+        <f>+X95-X106</f>
         <v>3711</v>
       </c>
-      <c r="Y95" s="35">
-        <f t="shared" ref="Y95:AF95" si="341">+Y96-Y107</f>
-        <v>0</v>
-      </c>
-      <c r="Z95" s="35">
-        <f t="shared" si="341"/>
-        <v>0</v>
-      </c>
-      <c r="AA95" s="35">
-        <f t="shared" si="341"/>
+      <c r="Y94" s="35">
+        <f t="shared" ref="Y94:AF94" si="340">+Y95-Y106</f>
+        <v>0</v>
+      </c>
+      <c r="Z94" s="35">
+        <f t="shared" si="340"/>
+        <v>0</v>
+      </c>
+      <c r="AA94" s="35">
+        <f t="shared" si="340"/>
         <v>4447</v>
       </c>
-      <c r="AB95" s="35">
-        <f t="shared" si="341"/>
-        <v>0</v>
-      </c>
-      <c r="AC95" s="35">
-        <f t="shared" si="341"/>
-        <v>0</v>
-      </c>
-      <c r="AD95" s="35">
-        <f t="shared" si="341"/>
-        <v>0</v>
-      </c>
-      <c r="AE95" s="35">
-        <f t="shared" si="341"/>
+      <c r="AB94" s="35">
+        <f t="shared" si="340"/>
+        <v>0</v>
+      </c>
+      <c r="AC94" s="35">
+        <f t="shared" si="340"/>
+        <v>0</v>
+      </c>
+      <c r="AD94" s="35">
+        <f t="shared" si="340"/>
+        <v>0</v>
+      </c>
+      <c r="AE94" s="35">
+        <f t="shared" si="340"/>
         <v>3199</v>
       </c>
-      <c r="AF95" s="35">
-        <f t="shared" si="341"/>
+      <c r="AF94" s="35">
+        <f t="shared" si="340"/>
         <v>3324</v>
       </c>
-      <c r="AG95" s="35"/>
-      <c r="AH95" s="35"/>
-      <c r="AI95" s="35"/>
-      <c r="AJ95" s="35"/>
-      <c r="AK95" s="35">
-        <f>AK96-AK107</f>
+      <c r="AG94" s="35"/>
+      <c r="AH94" s="35"/>
+      <c r="AI94" s="35"/>
+      <c r="AJ94" s="35"/>
+      <c r="AK94" s="35">
+        <f>AK95-AK106</f>
         <v>2919</v>
       </c>
-      <c r="AL95" s="35"/>
-      <c r="AM95" s="35"/>
-      <c r="AN95" s="35"/>
-      <c r="AO95" s="35"/>
-      <c r="AP95" s="35"/>
-      <c r="AQ95" s="35"/>
-      <c r="AR95" s="35"/>
-      <c r="AS95" s="35"/>
-      <c r="AT95" s="33"/>
-      <c r="AU95" s="33"/>
-      <c r="AV95" s="33"/>
-      <c r="AW95" s="33"/>
-      <c r="AX95" s="33"/>
-      <c r="AY95" s="33"/>
-      <c r="AZ95" s="33"/>
-      <c r="BA95" s="33"/>
-      <c r="BB95" s="33"/>
-      <c r="BC95" s="33"/>
-      <c r="BD95" s="33"/>
-      <c r="BE95" s="33"/>
-      <c r="BF95" s="33"/>
-      <c r="BG95" s="33"/>
-      <c r="BH95" s="33"/>
-      <c r="BI95" s="33"/>
-      <c r="BJ95" s="33"/>
-      <c r="BK95" s="33"/>
-      <c r="BL95" s="33"/>
-      <c r="BM95" s="33"/>
-      <c r="BN95" s="33"/>
-      <c r="BO95" s="33"/>
-      <c r="BP95" s="33"/>
-      <c r="BQ95" s="33"/>
-      <c r="BR95" s="33"/>
-      <c r="BS95" s="33"/>
-      <c r="BT95" s="35">
-        <f>+BT96-BT107</f>
+      <c r="AL94" s="35"/>
+      <c r="AM94" s="35"/>
+      <c r="AN94" s="35"/>
+      <c r="AO94" s="35"/>
+      <c r="AP94" s="35"/>
+      <c r="AQ94" s="35"/>
+      <c r="AR94" s="35"/>
+      <c r="AS94" s="35"/>
+      <c r="AT94" s="33"/>
+      <c r="AU94" s="33"/>
+      <c r="AV94" s="33"/>
+      <c r="AW94" s="33"/>
+      <c r="AX94" s="33"/>
+      <c r="AY94" s="33"/>
+      <c r="AZ94" s="33"/>
+      <c r="BA94" s="33"/>
+      <c r="BB94" s="33"/>
+      <c r="BC94" s="33"/>
+      <c r="BD94" s="33"/>
+      <c r="BE94" s="33"/>
+      <c r="BF94" s="33"/>
+      <c r="BG94" s="33"/>
+      <c r="BH94" s="33"/>
+      <c r="BI94" s="33"/>
+      <c r="BJ94" s="33"/>
+      <c r="BK94" s="33"/>
+      <c r="BL94" s="33"/>
+      <c r="BM94" s="33"/>
+      <c r="BN94" s="33"/>
+      <c r="BO94" s="33"/>
+      <c r="BP94" s="33"/>
+      <c r="BQ94" s="33"/>
+      <c r="BR94" s="33"/>
+      <c r="BS94" s="33"/>
+      <c r="BT94" s="35">
+        <f>+BT95-BT106</f>
         <v>-28832</v>
       </c>
-      <c r="BU95" s="33"/>
-      <c r="BV95" s="33"/>
-      <c r="BW95" s="33"/>
-      <c r="BX95" s="33"/>
-      <c r="BY95" s="33"/>
-      <c r="BZ95" s="33"/>
-      <c r="CA95" s="33"/>
-      <c r="CB95" s="35">
-        <f>+CB96-CB107</f>
+      <c r="BU94" s="33"/>
+      <c r="BV94" s="33"/>
+      <c r="BW94" s="33"/>
+      <c r="BX94" s="33"/>
+      <c r="BY94" s="33"/>
+      <c r="BZ94" s="33"/>
+      <c r="CA94" s="35">
+        <f>+CA95-CA106</f>
+        <v>-45640</v>
+      </c>
+      <c r="CB94" s="35">
+        <f>+CB95-CB106</f>
         <v>-45379</v>
       </c>
-      <c r="CC95" s="35">
-        <f t="shared" ref="CC95:CH95" si="342">+CB95+CC67</f>
+      <c r="CC94" s="35">
+        <f>+CB94+CC67</f>
         <v>-41487.116320000001</v>
       </c>
-      <c r="CD95" s="35">
-        <f t="shared" si="342"/>
+      <c r="CD94" s="35">
+        <f>+CC94+CD67</f>
         <v>-37357.570720000003</v>
       </c>
-      <c r="CE95" s="35">
-        <f t="shared" si="342"/>
+      <c r="CE94" s="35">
+        <f>+CD94+CE67</f>
         <v>-32733.672400000003</v>
       </c>
-      <c r="CF95" s="35">
-        <f t="shared" si="342"/>
+      <c r="CF94" s="35">
+        <f>+CE94+CF67</f>
         <v>-27823.398273600003</v>
       </c>
-      <c r="CG95" s="35">
-        <f t="shared" si="342"/>
+      <c r="CG94" s="35">
+        <f>+CF94+CG67</f>
         <v>-23307.632356800001</v>
       </c>
-      <c r="CH95" s="35">
-        <f t="shared" si="342"/>
+      <c r="CH94" s="35">
+        <f>+CG94+CH67</f>
         <v>-18644.736451199999</v>
       </c>
-      <c r="CI95" s="35"/>
-      <c r="CJ95" s="33"/>
-      <c r="CK95" s="33"/>
-      <c r="CL95" s="33"/>
-      <c r="CM95" s="33"/>
-      <c r="CN95" s="33"/>
-      <c r="CO95" s="33"/>
-      <c r="CP95" s="35">
+      <c r="CI94" s="35"/>
+      <c r="CJ94" s="33"/>
+      <c r="CK94" s="33"/>
+      <c r="CL94" s="33"/>
+      <c r="CM94" s="33"/>
+      <c r="CN94" s="33"/>
+      <c r="CO94" s="33"/>
+      <c r="CP94" s="35">
         <f>2421+308-177-588</f>
         <v>1964</v>
       </c>
-      <c r="CQ95" s="33"/>
-      <c r="CR95" s="33"/>
-      <c r="CS95" s="33"/>
-      <c r="CT95" s="33"/>
-      <c r="CU95" s="33"/>
-      <c r="CV95" s="33"/>
-      <c r="CW95" s="33"/>
-      <c r="CX95" s="33"/>
-      <c r="CY95" s="33"/>
-      <c r="CZ95" s="33"/>
-      <c r="DA95" s="33"/>
-      <c r="DB95" s="33"/>
-      <c r="DC95" s="33"/>
-      <c r="DD95" s="41"/>
-      <c r="DE95" s="35"/>
-      <c r="DF95" s="54"/>
-      <c r="DG95" s="54"/>
-      <c r="DH95" s="54"/>
-      <c r="DI95" s="35"/>
-      <c r="DJ95" s="35"/>
-      <c r="DK95" s="35"/>
-      <c r="DL95" s="35"/>
-      <c r="DM95" s="35"/>
-      <c r="DN95" s="35"/>
-      <c r="DO95" s="35"/>
-      <c r="DP95" s="35"/>
-      <c r="DQ95" s="35"/>
-      <c r="DR95" s="35"/>
-      <c r="DS95" s="35"/>
-      <c r="DT95" s="35"/>
-      <c r="DU95" s="35"/>
-      <c r="DV95" s="35">
-        <f>+CH95</f>
+      <c r="CQ94" s="33"/>
+      <c r="CR94" s="33"/>
+      <c r="CS94" s="33"/>
+      <c r="CT94" s="33"/>
+      <c r="CU94" s="33"/>
+      <c r="CV94" s="33"/>
+      <c r="CW94" s="33"/>
+      <c r="CX94" s="33"/>
+      <c r="CY94" s="33"/>
+      <c r="CZ94" s="33"/>
+      <c r="DA94" s="33"/>
+      <c r="DB94" s="33"/>
+      <c r="DC94" s="33"/>
+      <c r="DD94" s="41"/>
+      <c r="DE94" s="35"/>
+      <c r="DF94" s="54"/>
+      <c r="DG94" s="54"/>
+      <c r="DH94" s="54"/>
+      <c r="DI94" s="35"/>
+      <c r="DJ94" s="35"/>
+      <c r="DK94" s="35"/>
+      <c r="DL94" s="35"/>
+      <c r="DM94" s="35"/>
+      <c r="DN94" s="35"/>
+      <c r="DO94" s="35"/>
+      <c r="DP94" s="35"/>
+      <c r="DQ94" s="35"/>
+      <c r="DR94" s="35"/>
+      <c r="DS94" s="35"/>
+      <c r="DT94" s="35"/>
+      <c r="DU94" s="35"/>
+      <c r="DV94" s="35">
+        <f>+CH94</f>
         <v>-18644.736451199999</v>
       </c>
-      <c r="DW95" s="44">
-        <f t="shared" ref="DW95:EF95" si="343">+DV95+DW67</f>
+      <c r="DW94" s="44">
+        <f>+DV94+DW67</f>
         <v>7546.0087013200027</v>
       </c>
-      <c r="DX95" s="44">
-        <f t="shared" si="343"/>
+      <c r="DX94" s="44">
+        <f>+DW94+DX67</f>
         <v>34954.279951278964</v>
       </c>
-      <c r="DY95" s="44">
-        <f t="shared" si="343"/>
+      <c r="DY94" s="44">
+        <f>+DX94+DY67</f>
         <v>60601.963702859772</v>
       </c>
-      <c r="DZ95" s="44">
-        <f t="shared" si="343"/>
+      <c r="DZ94" s="44">
+        <f>+DY94+DZ67</f>
         <v>84417.176206873322</v>
       </c>
-      <c r="EA95" s="44">
-        <f t="shared" si="343"/>
+      <c r="EA94" s="44">
+        <f>+DZ94+EA67</f>
         <v>108762.44028843251</v>
       </c>
-      <c r="EB95" s="44">
-        <f t="shared" si="343"/>
+      <c r="EB94" s="44">
+        <f>+EA94+EB67</f>
         <v>133950.96366000862</v>
       </c>
-      <c r="EC95" s="44">
-        <f t="shared" si="343"/>
+      <c r="EC94" s="44">
+        <f>+EB94+EC67</f>
         <v>159862.86939798042</v>
       </c>
-      <c r="ED95" s="44">
-        <f t="shared" si="343"/>
+      <c r="ED94" s="44">
+        <f>+EC94+ED67</f>
         <v>177721.3293295858</v>
       </c>
-      <c r="EE95" s="44">
-        <f t="shared" si="343"/>
+      <c r="EE94" s="44">
+        <f>+ED94+EE67</f>
         <v>193717.63797271263</v>
       </c>
-      <c r="EF95" s="44">
-        <f t="shared" si="343"/>
+      <c r="EF94" s="44">
+        <f>+EE94+EF67</f>
         <v>203157.75166403185</v>
       </c>
     </row>
-    <row r="96" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A96" s="25"/>
+    <row r="95" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="A95" s="25"/>
+      <c r="B95" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="30"/>
+      <c r="M95" s="30"/>
+      <c r="N95" s="30"/>
+      <c r="O95" s="30"/>
+      <c r="P95" s="30"/>
+      <c r="Q95" s="35">
+        <f>7173+258</f>
+        <v>7431</v>
+      </c>
+      <c r="R95" s="30"/>
+      <c r="S95" s="30"/>
+      <c r="T95" s="30"/>
+      <c r="U95" s="30"/>
+      <c r="V95" s="30"/>
+      <c r="W95" s="30"/>
+      <c r="X95" s="30">
+        <f>5918+1536+2795</f>
+        <v>10249</v>
+      </c>
+      <c r="Y95" s="50"/>
+      <c r="Z95" s="50"/>
+      <c r="AA95" s="50">
+        <f>3405+3388+3065</f>
+        <v>9858</v>
+      </c>
+      <c r="AB95" s="50"/>
+      <c r="AC95" s="50"/>
+      <c r="AD95" s="50"/>
+      <c r="AE95" s="30">
+        <f>2307+2722+3585</f>
+        <v>8614</v>
+      </c>
+      <c r="AF95" s="30">
+        <f>2801+2236+3732</f>
+        <v>8769</v>
+      </c>
+      <c r="AG95" s="30"/>
+      <c r="AH95" s="30"/>
+      <c r="AI95" s="30"/>
+      <c r="AJ95" s="30"/>
+      <c r="AK95" s="30">
+        <f>1771+2036</f>
+        <v>3807</v>
+      </c>
+      <c r="AL95" s="30"/>
+      <c r="AM95" s="30"/>
+      <c r="AN95" s="30"/>
+      <c r="AO95" s="30"/>
+      <c r="AP95" s="30"/>
+      <c r="AQ95" s="30"/>
+      <c r="AR95" s="30"/>
+      <c r="AS95" s="30"/>
+      <c r="AT95" s="30"/>
+      <c r="AU95" s="30"/>
+      <c r="AV95" s="30"/>
+      <c r="AW95" s="30"/>
+      <c r="AX95" s="30"/>
+      <c r="AY95" s="30"/>
+      <c r="AZ95" s="30"/>
+      <c r="BA95" s="30"/>
+      <c r="BB95" s="30"/>
+      <c r="BC95" s="30"/>
+      <c r="BD95" s="30"/>
+      <c r="BE95" s="30"/>
+      <c r="BF95" s="30"/>
+      <c r="BG95" s="30"/>
+      <c r="BH95" s="30"/>
+      <c r="BI95" s="30"/>
+      <c r="BJ95" s="30"/>
+      <c r="BK95" s="30"/>
+      <c r="BL95" s="30"/>
+      <c r="BM95" s="30"/>
+      <c r="BN95" s="30"/>
+      <c r="BO95" s="30"/>
+      <c r="BP95" s="30"/>
+      <c r="BQ95" s="30"/>
+      <c r="BR95" s="30"/>
+      <c r="BS95" s="30"/>
+      <c r="BT95" s="30">
+        <f>10750+2478</f>
+        <v>13228</v>
+      </c>
+      <c r="BU95" s="30"/>
+      <c r="BV95" s="30"/>
+      <c r="BW95" s="30"/>
+      <c r="BX95" s="30"/>
+      <c r="BY95" s="30"/>
+      <c r="BZ95" s="30"/>
+      <c r="CA95" s="30">
+        <f>9330+340+367</f>
+        <v>10037</v>
+      </c>
+      <c r="CB95" s="30">
+        <f>6293+360+357</f>
+        <v>7010</v>
+      </c>
+      <c r="CC95" s="30"/>
+      <c r="CD95" s="30"/>
+      <c r="CE95" s="30"/>
+      <c r="CF95" s="30"/>
+      <c r="CG95" s="30"/>
+      <c r="CH95" s="30"/>
+      <c r="CI95" s="30"/>
+      <c r="CJ95" s="30"/>
+      <c r="CK95" s="30"/>
+      <c r="CL95" s="30"/>
+      <c r="CM95" s="30"/>
+      <c r="CN95" s="30"/>
+      <c r="CO95" s="30"/>
+      <c r="CP95" s="30"/>
+      <c r="CQ95" s="30"/>
+      <c r="CR95" s="30"/>
+      <c r="CS95" s="30"/>
+      <c r="CT95" s="30"/>
+      <c r="CU95" s="30"/>
+      <c r="CV95" s="30"/>
+      <c r="CW95" s="30"/>
+      <c r="CX95" s="30"/>
+      <c r="CY95" s="30"/>
+      <c r="CZ95" s="30"/>
+      <c r="DA95" s="30"/>
+      <c r="DB95" s="30"/>
+      <c r="DC95" s="30"/>
+      <c r="DD95" s="30"/>
+      <c r="DE95" s="30"/>
+      <c r="DF95" s="50"/>
+      <c r="DG95" s="50"/>
+      <c r="DH95" s="50"/>
+      <c r="DI95" s="30"/>
+      <c r="DJ95" s="30"/>
+      <c r="DK95" s="30"/>
+      <c r="DL95" s="30"/>
+      <c r="DM95" s="30"/>
+      <c r="DN95" s="30"/>
+      <c r="DO95" s="25"/>
+    </row>
+    <row r="96" spans="1:136" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="25" t="s">
-        <v>192</v>
+        <v>325</v>
       </c>
       <c r="C96" s="30"/>
       <c r="D96" s="30"/>
@@ -30009,9 +30027,8 @@
       <c r="N96" s="30"/>
       <c r="O96" s="30"/>
       <c r="P96" s="30"/>
-      <c r="Q96" s="35">
-        <f>7173+258</f>
-        <v>7431</v>
+      <c r="Q96" s="30">
+        <v>4224</v>
       </c>
       <c r="R96" s="30"/>
       <c r="S96" s="30"/>
@@ -30020,33 +30037,28 @@
       <c r="V96" s="30"/>
       <c r="W96" s="30"/>
       <c r="X96" s="30">
-        <f>5918+1536+2795</f>
-        <v>10249</v>
+        <v>3172</v>
       </c>
       <c r="Y96" s="50"/>
       <c r="Z96" s="50"/>
       <c r="AA96" s="50">
-        <f>3405+3388+3065</f>
-        <v>9858</v>
+        <v>3587</v>
       </c>
       <c r="AB96" s="50"/>
       <c r="AC96" s="50"/>
       <c r="AD96" s="50"/>
       <c r="AE96" s="30">
-        <f>2307+2722+3585</f>
-        <v>8614</v>
+        <v>3613</v>
       </c>
       <c r="AF96" s="30">
-        <f>2801+2236+3732</f>
-        <v>8769</v>
+        <v>2825</v>
       </c>
       <c r="AG96" s="30"/>
       <c r="AH96" s="30"/>
       <c r="AI96" s="30"/>
       <c r="AJ96" s="30"/>
       <c r="AK96" s="30">
-        <f>1771+2036</f>
-        <v>3807</v>
+        <v>3673</v>
       </c>
       <c r="AL96" s="30"/>
       <c r="AM96" s="30"/>
@@ -30083,8 +30095,7 @@
       <c r="BR96" s="30"/>
       <c r="BS96" s="30"/>
       <c r="BT96" s="30">
-        <f>10750+2478</f>
-        <v>13228</v>
+        <v>9054</v>
       </c>
       <c r="BU96" s="30"/>
       <c r="BV96" s="30"/>
@@ -30092,10 +30103,11 @@
       <c r="BX96" s="30"/>
       <c r="BY96" s="30"/>
       <c r="BZ96" s="30"/>
-      <c r="CA96" s="30"/>
+      <c r="CA96" s="30">
+        <v>10447</v>
+      </c>
       <c r="CB96" s="30">
-        <f>6293+360+357</f>
-        <v>7010</v>
+        <v>11423</v>
       </c>
       <c r="CC96" s="30"/>
       <c r="CD96" s="30"/>
@@ -30135,7 +30147,6 @@
       <c r="DL96" s="30"/>
       <c r="DM96" s="30"/>
       <c r="DN96" s="30"/>
-      <c r="DO96" s="25"/>
     </row>
     <row r="97" spans="2:118" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="25" t="s">
@@ -30156,7 +30167,7 @@
       <c r="O97" s="30"/>
       <c r="P97" s="30"/>
       <c r="Q97" s="30">
-        <v>4224</v>
+        <v>2055</v>
       </c>
       <c r="R97" s="30"/>
       <c r="S97" s="30"/>
@@ -30165,28 +30176,28 @@
       <c r="V97" s="30"/>
       <c r="W97" s="30"/>
       <c r="X97" s="30">
-        <v>3172</v>
+        <v>1265</v>
       </c>
       <c r="Y97" s="50"/>
       <c r="Z97" s="50"/>
       <c r="AA97" s="50">
-        <v>3587</v>
+        <v>1322</v>
       </c>
       <c r="AB97" s="50"/>
       <c r="AC97" s="50"/>
       <c r="AD97" s="50"/>
       <c r="AE97" s="30">
-        <v>3613</v>
+        <v>1463</v>
       </c>
       <c r="AF97" s="30">
-        <v>2825</v>
+        <v>1521</v>
       </c>
       <c r="AG97" s="30"/>
       <c r="AH97" s="30"/>
       <c r="AI97" s="30"/>
       <c r="AJ97" s="30"/>
       <c r="AK97" s="30">
-        <v>3673</v>
+        <v>1640</v>
       </c>
       <c r="AL97" s="30"/>
       <c r="AM97" s="30"/>
@@ -30223,7 +30234,7 @@
       <c r="BR97" s="30"/>
       <c r="BS97" s="30"/>
       <c r="BT97" s="30">
-        <v>9054</v>
+        <v>2142</v>
       </c>
       <c r="BU97" s="30"/>
       <c r="BV97" s="30"/>
@@ -30231,9 +30242,11 @@
       <c r="BX97" s="30"/>
       <c r="BY97" s="30"/>
       <c r="BZ97" s="30"/>
-      <c r="CA97" s="30"/>
+      <c r="CA97" s="30">
+        <v>2985</v>
+      </c>
       <c r="CB97" s="30">
-        <v>11423</v>
+        <v>3077</v>
       </c>
       <c r="CC97" s="30"/>
       <c r="CD97" s="30"/>
@@ -30293,7 +30306,7 @@
       <c r="O98" s="30"/>
       <c r="P98" s="30"/>
       <c r="Q98" s="30">
-        <v>2055</v>
+        <v>691</v>
       </c>
       <c r="R98" s="30"/>
       <c r="S98" s="30"/>
@@ -30302,28 +30315,28 @@
       <c r="V98" s="30"/>
       <c r="W98" s="30"/>
       <c r="X98" s="30">
-        <v>1265</v>
+        <v>796</v>
       </c>
       <c r="Y98" s="50"/>
       <c r="Z98" s="50"/>
       <c r="AA98" s="50">
-        <v>1322</v>
+        <v>1143</v>
       </c>
       <c r="AB98" s="50"/>
       <c r="AC98" s="50"/>
       <c r="AD98" s="50"/>
       <c r="AE98" s="30">
-        <v>1463</v>
+        <v>1160</v>
       </c>
       <c r="AF98" s="30">
-        <v>1521</v>
+        <v>1175</v>
       </c>
       <c r="AG98" s="30"/>
       <c r="AH98" s="30"/>
       <c r="AI98" s="30"/>
       <c r="AJ98" s="30"/>
       <c r="AK98" s="30">
-        <v>1640</v>
+        <v>2036</v>
       </c>
       <c r="AL98" s="30"/>
       <c r="AM98" s="30"/>
@@ -30360,7 +30373,7 @@
       <c r="BR98" s="30"/>
       <c r="BS98" s="30"/>
       <c r="BT98" s="30">
-        <v>2142</v>
+        <v>0</v>
       </c>
       <c r="BU98" s="30"/>
       <c r="BV98" s="30"/>
@@ -30368,9 +30381,11 @@
       <c r="BX98" s="30"/>
       <c r="BY98" s="30"/>
       <c r="BZ98" s="30"/>
-      <c r="CA98" s="30"/>
+      <c r="CA98" s="30">
+        <v>0</v>
+      </c>
       <c r="CB98" s="30">
-        <v>3077</v>
+        <v>0</v>
       </c>
       <c r="CC98" s="30"/>
       <c r="CD98" s="30"/>
@@ -30430,7 +30445,7 @@
       <c r="O99" s="30"/>
       <c r="P99" s="30"/>
       <c r="Q99" s="30">
-        <v>691</v>
+        <v>378</v>
       </c>
       <c r="R99" s="30"/>
       <c r="S99" s="30"/>
@@ -30439,28 +30454,28 @@
       <c r="V99" s="30"/>
       <c r="W99" s="30"/>
       <c r="X99" s="30">
-        <v>796</v>
+        <v>296</v>
       </c>
       <c r="Y99" s="50"/>
       <c r="Z99" s="50"/>
       <c r="AA99" s="50">
-        <v>1143</v>
+        <v>451</v>
       </c>
       <c r="AB99" s="50"/>
       <c r="AC99" s="50"/>
       <c r="AD99" s="50"/>
       <c r="AE99" s="30">
-        <v>1160</v>
+        <v>500</v>
       </c>
       <c r="AF99" s="30">
-        <v>1175</v>
+        <v>455</v>
       </c>
       <c r="AG99" s="30"/>
       <c r="AH99" s="30"/>
       <c r="AI99" s="30"/>
       <c r="AJ99" s="30"/>
       <c r="AK99" s="30">
-        <v>2036</v>
+        <v>556</v>
       </c>
       <c r="AL99" s="30"/>
       <c r="AM99" s="30"/>
@@ -30497,7 +30512,7 @@
       <c r="BR99" s="30"/>
       <c r="BS99" s="30"/>
       <c r="BT99" s="30">
-        <v>0</v>
+        <v>5762</v>
       </c>
       <c r="BU99" s="30"/>
       <c r="BV99" s="30"/>
@@ -30505,7 +30520,9 @@
       <c r="BX99" s="30"/>
       <c r="BY99" s="30"/>
       <c r="BZ99" s="30"/>
-      <c r="CA99" s="30"/>
+      <c r="CA99" s="30">
+        <v>0</v>
+      </c>
       <c r="CB99" s="30">
         <v>0</v>
       </c>
@@ -30567,7 +30584,7 @@
       <c r="O100" s="30"/>
       <c r="P100" s="30"/>
       <c r="Q100" s="30">
-        <v>378</v>
+        <v>5360</v>
       </c>
       <c r="R100" s="30"/>
       <c r="S100" s="30"/>
@@ -30576,28 +30593,28 @@
       <c r="V100" s="30"/>
       <c r="W100" s="30"/>
       <c r="X100" s="30">
-        <v>296</v>
+        <v>4745</v>
       </c>
       <c r="Y100" s="50"/>
       <c r="Z100" s="50"/>
       <c r="AA100" s="50">
-        <v>451</v>
+        <v>4604</v>
       </c>
       <c r="AB100" s="50"/>
       <c r="AC100" s="50"/>
       <c r="AD100" s="50"/>
       <c r="AE100" s="30">
-        <v>500</v>
+        <v>4512</v>
       </c>
       <c r="AF100" s="30">
-        <v>455</v>
+        <v>4478</v>
       </c>
       <c r="AG100" s="30"/>
       <c r="AH100" s="30"/>
       <c r="AI100" s="30"/>
       <c r="AJ100" s="30"/>
       <c r="AK100" s="30">
-        <v>556</v>
+        <v>5236</v>
       </c>
       <c r="AL100" s="30"/>
       <c r="AM100" s="30"/>
@@ -30634,7 +30651,7 @@
       <c r="BR100" s="30"/>
       <c r="BS100" s="30"/>
       <c r="BT100" s="30">
-        <v>5762</v>
+        <v>5970</v>
       </c>
       <c r="BU100" s="30"/>
       <c r="BV100" s="30"/>
@@ -30642,9 +30659,11 @@
       <c r="BX100" s="30"/>
       <c r="BY100" s="30"/>
       <c r="BZ100" s="30"/>
-      <c r="CA100" s="30"/>
+      <c r="CA100" s="30">
+        <v>6750</v>
+      </c>
       <c r="CB100" s="30">
-        <v>0</v>
+        <v>6845</v>
       </c>
       <c r="CC100" s="30"/>
       <c r="CD100" s="30"/>
@@ -30704,7 +30723,8 @@
       <c r="O101" s="30"/>
       <c r="P101" s="30"/>
       <c r="Q101" s="30">
-        <v>5360</v>
+        <f>4841+1212</f>
+        <v>6053</v>
       </c>
       <c r="R101" s="30"/>
       <c r="S101" s="30"/>
@@ -30713,28 +30733,33 @@
       <c r="V101" s="30"/>
       <c r="W101" s="30"/>
       <c r="X101" s="30">
-        <v>4745</v>
+        <f>5218+2763</f>
+        <v>7981</v>
       </c>
       <c r="Y101" s="50"/>
       <c r="Z101" s="50"/>
       <c r="AA101" s="50">
-        <v>4604</v>
+        <f>5233+3299</f>
+        <v>8532</v>
       </c>
       <c r="AB101" s="50"/>
       <c r="AC101" s="50"/>
       <c r="AD101" s="50"/>
       <c r="AE101" s="30">
-        <v>4512</v>
+        <f>6799+4816</f>
+        <v>11615</v>
       </c>
       <c r="AF101" s="30">
-        <v>4478</v>
+        <f>6799+4569</f>
+        <v>11368</v>
       </c>
       <c r="AG101" s="30"/>
       <c r="AH101" s="30"/>
       <c r="AI101" s="30"/>
       <c r="AJ101" s="30"/>
       <c r="AK101" s="30">
-        <v>5236</v>
+        <f>7646+8176</f>
+        <v>15822</v>
       </c>
       <c r="AL101" s="30"/>
       <c r="AM101" s="30"/>
@@ -30771,7 +30796,8 @@
       <c r="BR101" s="30"/>
       <c r="BS101" s="30"/>
       <c r="BT101" s="30">
-        <v>5970</v>
+        <f>20446+37690</f>
+        <v>58136</v>
       </c>
       <c r="BU101" s="30"/>
       <c r="BV101" s="30"/>
@@ -30779,9 +30805,13 @@
       <c r="BX101" s="30"/>
       <c r="BY101" s="30"/>
       <c r="BZ101" s="30"/>
-      <c r="CA101" s="30"/>
+      <c r="CA101" s="30">
+        <f>21738+32760</f>
+        <v>54498</v>
+      </c>
       <c r="CB101" s="30">
-        <v>6845</v>
+        <f>21732+29428</f>
+        <v>51160</v>
       </c>
       <c r="CC101" s="30"/>
       <c r="CD101" s="30"/>
@@ -30824,7 +30854,7 @@
     </row>
     <row r="102" spans="2:118" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="25" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C102" s="30"/>
       <c r="D102" s="30"/>
@@ -30841,8 +30871,7 @@
       <c r="O102" s="30"/>
       <c r="P102" s="30"/>
       <c r="Q102" s="30">
-        <f>4841+1212</f>
-        <v>6053</v>
+        <v>1119</v>
       </c>
       <c r="R102" s="30"/>
       <c r="S102" s="30"/>
@@ -30851,33 +30880,28 @@
       <c r="V102" s="30"/>
       <c r="W102" s="30"/>
       <c r="X102" s="30">
-        <f>5218+2763</f>
-        <v>7981</v>
+        <v>1331</v>
       </c>
       <c r="Y102" s="50"/>
       <c r="Z102" s="50"/>
       <c r="AA102" s="50">
-        <f>5233+3299</f>
-        <v>8532</v>
+        <v>587</v>
       </c>
       <c r="AB102" s="50"/>
       <c r="AC102" s="50"/>
       <c r="AD102" s="50"/>
       <c r="AE102" s="30">
-        <f>6799+4816</f>
-        <v>11615</v>
+        <v>108</v>
       </c>
       <c r="AF102" s="30">
-        <f>6799+4569</f>
-        <v>11368</v>
+        <v>201</v>
       </c>
       <c r="AG102" s="30"/>
       <c r="AH102" s="30"/>
       <c r="AI102" s="30"/>
       <c r="AJ102" s="30"/>
       <c r="AK102" s="30">
-        <f>7646+8176</f>
-        <v>15822</v>
+        <v>195</v>
       </c>
       <c r="AL102" s="30"/>
       <c r="AM102" s="30"/>
@@ -30914,8 +30938,7 @@
       <c r="BR102" s="30"/>
       <c r="BS102" s="30"/>
       <c r="BT102" s="30">
-        <f>20446+37690</f>
-        <v>58136</v>
+        <v>1337</v>
       </c>
       <c r="BU102" s="30"/>
       <c r="BV102" s="30"/>
@@ -30923,10 +30946,11 @@
       <c r="BX102" s="30"/>
       <c r="BY102" s="30"/>
       <c r="BZ102" s="30"/>
-      <c r="CA102" s="30"/>
+      <c r="CA102" s="30">
+        <v>2723</v>
+      </c>
       <c r="CB102" s="30">
-        <f>21732+29428</f>
-        <v>51160</v>
+        <v>3323</v>
       </c>
       <c r="CC102" s="30"/>
       <c r="CD102" s="30"/>
@@ -30969,7 +30993,7 @@
     </row>
     <row r="103" spans="2:118" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="25" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C103" s="30"/>
       <c r="D103" s="30"/>
@@ -30986,7 +31010,7 @@
       <c r="O103" s="30"/>
       <c r="P103" s="30"/>
       <c r="Q103" s="30">
-        <v>1119</v>
+        <v>1165</v>
       </c>
       <c r="R103" s="30"/>
       <c r="S103" s="30"/>
@@ -30995,28 +31019,28 @@
       <c r="V103" s="30"/>
       <c r="W103" s="30"/>
       <c r="X103" s="30">
-        <v>1331</v>
+        <v>1216</v>
       </c>
       <c r="Y103" s="50"/>
       <c r="Z103" s="50"/>
       <c r="AA103" s="50">
-        <v>587</v>
+        <v>767</v>
       </c>
       <c r="AB103" s="50"/>
       <c r="AC103" s="50"/>
       <c r="AD103" s="50"/>
       <c r="AE103" s="30">
-        <v>108</v>
+        <v>823</v>
       </c>
       <c r="AF103" s="30">
-        <v>201</v>
+        <v>875</v>
       </c>
       <c r="AG103" s="30"/>
       <c r="AH103" s="30"/>
       <c r="AI103" s="30"/>
       <c r="AJ103" s="30"/>
       <c r="AK103" s="30">
-        <v>195</v>
+        <v>1301</v>
       </c>
       <c r="AL103" s="30"/>
       <c r="AM103" s="30"/>
@@ -31053,7 +31077,7 @@
       <c r="BR103" s="30"/>
       <c r="BS103" s="30"/>
       <c r="BT103" s="30">
-        <v>1337</v>
+        <v>4728</v>
       </c>
       <c r="BU103" s="30"/>
       <c r="BV103" s="30"/>
@@ -31061,9 +31085,13 @@
       <c r="BX103" s="30"/>
       <c r="BY103" s="30"/>
       <c r="BZ103" s="30"/>
-      <c r="CA103" s="30"/>
+      <c r="CA103" s="30">
+        <f>5567+6024</f>
+        <v>11591</v>
+      </c>
       <c r="CB103" s="30">
-        <v>3323</v>
+        <f>5737+6071</f>
+        <v>11808</v>
       </c>
       <c r="CC103" s="30"/>
       <c r="CD103" s="30"/>
@@ -31123,7 +31151,8 @@
       <c r="O104" s="30"/>
       <c r="P104" s="30"/>
       <c r="Q104" s="30">
-        <v>1165</v>
+        <f>SUM(Q95:Q103)</f>
+        <v>28476</v>
       </c>
       <c r="R104" s="30"/>
       <c r="S104" s="30"/>
@@ -31132,28 +31161,33 @@
       <c r="V104" s="30"/>
       <c r="W104" s="30"/>
       <c r="X104" s="30">
-        <v>1216</v>
+        <f>SUM(X95:X103)</f>
+        <v>31051</v>
       </c>
       <c r="Y104" s="50"/>
       <c r="Z104" s="50"/>
       <c r="AA104" s="50">
-        <v>767</v>
+        <f>SUM(AA95:AA103)</f>
+        <v>30851</v>
       </c>
       <c r="AB104" s="50"/>
       <c r="AC104" s="50"/>
       <c r="AD104" s="50"/>
-      <c r="AE104" s="30">
-        <v>823</v>
-      </c>
-      <c r="AF104" s="30">
-        <v>875</v>
+      <c r="AE104" s="50">
+        <f>SUM(AE95:AE103)</f>
+        <v>32408</v>
+      </c>
+      <c r="AF104" s="50">
+        <f>SUM(AF95:AF103)</f>
+        <v>31667</v>
       </c>
       <c r="AG104" s="30"/>
       <c r="AH104" s="30"/>
       <c r="AI104" s="30"/>
       <c r="AJ104" s="30"/>
       <c r="AK104" s="30">
-        <v>1301</v>
+        <f>SUM(AK94:AK103)</f>
+        <v>37185</v>
       </c>
       <c r="AL104" s="30"/>
       <c r="AM104" s="30"/>
@@ -31190,7 +31224,8 @@
       <c r="BR104" s="30"/>
       <c r="BS104" s="30"/>
       <c r="BT104" s="30">
-        <v>4728</v>
+        <f>SUM(BT95:BT103)</f>
+        <v>100357</v>
       </c>
       <c r="BU104" s="30"/>
       <c r="BV104" s="30"/>
@@ -31198,10 +31233,13 @@
       <c r="BX104" s="30"/>
       <c r="BY104" s="30"/>
       <c r="BZ104" s="30"/>
-      <c r="CA104" s="30"/>
+      <c r="CA104" s="30">
+        <f>SUM(CA95:CA103)</f>
+        <v>99031</v>
+      </c>
       <c r="CB104" s="30">
-        <f>5737+6071</f>
-        <v>11808</v>
+        <f>SUM(CB95:CB103)</f>
+        <v>94646</v>
       </c>
       <c r="CC104" s="30"/>
       <c r="CD104" s="30"/>
@@ -31243,9 +31281,6 @@
       <c r="DN104" s="30"/>
     </row>
     <row r="105" spans="2:118" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="25" t="s">
-        <v>333</v>
-      </c>
       <c r="C105" s="30"/>
       <c r="D105" s="30"/>
       <c r="E105" s="30"/>
@@ -31260,45 +31295,27 @@
       <c r="N105" s="30"/>
       <c r="O105" s="30"/>
       <c r="P105" s="30"/>
-      <c r="Q105" s="30">
-        <f>SUM(Q96:Q104)</f>
-        <v>28476</v>
-      </c>
+      <c r="Q105" s="30"/>
       <c r="R105" s="30"/>
       <c r="S105" s="30"/>
       <c r="T105" s="30"/>
       <c r="U105" s="30"/>
       <c r="V105" s="30"/>
       <c r="W105" s="30"/>
-      <c r="X105" s="30">
-        <f>SUM(X96:X104)</f>
-        <v>31051</v>
-      </c>
+      <c r="X105" s="30"/>
       <c r="Y105" s="50"/>
       <c r="Z105" s="50"/>
-      <c r="AA105" s="50">
-        <f>SUM(AA96:AA104)</f>
-        <v>30851</v>
-      </c>
+      <c r="AA105" s="50"/>
       <c r="AB105" s="50"/>
       <c r="AC105" s="50"/>
       <c r="AD105" s="50"/>
-      <c r="AE105" s="50">
-        <f>SUM(AE96:AE104)</f>
-        <v>32408</v>
-      </c>
-      <c r="AF105" s="50">
-        <f>SUM(AF96:AF104)</f>
-        <v>31667</v>
-      </c>
+      <c r="AE105" s="50"/>
+      <c r="AF105" s="30"/>
       <c r="AG105" s="30"/>
       <c r="AH105" s="30"/>
       <c r="AI105" s="30"/>
       <c r="AJ105" s="30"/>
-      <c r="AK105" s="30">
-        <f>SUM(AK95:AK104)</f>
-        <v>37185</v>
-      </c>
+      <c r="AK105" s="30"/>
       <c r="AL105" s="30"/>
       <c r="AM105" s="30"/>
       <c r="AN105" s="30"/>
@@ -31333,10 +31350,7 @@
       <c r="BQ105" s="30"/>
       <c r="BR105" s="30"/>
       <c r="BS105" s="30"/>
-      <c r="BT105" s="30">
-        <f>SUM(BT96:BT104)</f>
-        <v>100357</v>
-      </c>
+      <c r="BT105" s="30"/>
       <c r="BU105" s="30"/>
       <c r="BV105" s="30"/>
       <c r="BW105" s="30"/>
@@ -31344,10 +31358,7 @@
       <c r="BY105" s="30"/>
       <c r="BZ105" s="30"/>
       <c r="CA105" s="30"/>
-      <c r="CB105" s="30">
-        <f>SUM(CB96:CB104)</f>
-        <v>94646</v>
-      </c>
+      <c r="CB105" s="30"/>
       <c r="CC105" s="30"/>
       <c r="CD105" s="30"/>
       <c r="CE105" s="30"/>
@@ -31388,6 +31399,9 @@
       <c r="DN105" s="30"/>
     </row>
     <row r="106" spans="2:118" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="25" t="s">
+        <v>192</v>
+      </c>
       <c r="C106" s="30"/>
       <c r="D106" s="30"/>
       <c r="E106" s="30"/>
@@ -31402,27 +31416,45 @@
       <c r="N106" s="30"/>
       <c r="O106" s="30"/>
       <c r="P106" s="30"/>
-      <c r="Q106" s="30"/>
+      <c r="Q106" s="30">
+        <f>135+6120</f>
+        <v>6255</v>
+      </c>
       <c r="R106" s="30"/>
       <c r="S106" s="30"/>
       <c r="T106" s="30"/>
       <c r="U106" s="30"/>
       <c r="V106" s="30"/>
       <c r="W106" s="30"/>
-      <c r="X106" s="30"/>
+      <c r="X106" s="30">
+        <f>290+6248</f>
+        <v>6538</v>
+      </c>
       <c r="Y106" s="50"/>
       <c r="Z106" s="50"/>
-      <c r="AA106" s="50"/>
+      <c r="AA106" s="50">
+        <f>135+5276</f>
+        <v>5411</v>
+      </c>
       <c r="AB106" s="50"/>
       <c r="AC106" s="50"/>
       <c r="AD106" s="50"/>
-      <c r="AE106" s="50"/>
-      <c r="AF106" s="30"/>
+      <c r="AE106" s="50">
+        <f>145+5270</f>
+        <v>5415</v>
+      </c>
+      <c r="AF106" s="30">
+        <f>236+5209</f>
+        <v>5445</v>
+      </c>
       <c r="AG106" s="30"/>
       <c r="AH106" s="30"/>
       <c r="AI106" s="30"/>
       <c r="AJ106" s="30"/>
-      <c r="AK106" s="30"/>
+      <c r="AK106" s="30">
+        <f>208+680</f>
+        <v>888</v>
+      </c>
       <c r="AL106" s="30"/>
       <c r="AM106" s="30"/>
       <c r="AN106" s="30"/>
@@ -31457,15 +31489,24 @@
       <c r="BQ106" s="30"/>
       <c r="BR106" s="30"/>
       <c r="BS106" s="30"/>
-      <c r="BT106" s="30"/>
+      <c r="BT106" s="30">
+        <f>37107+4953</f>
+        <v>42060</v>
+      </c>
       <c r="BU106" s="30"/>
       <c r="BV106" s="30"/>
       <c r="BW106" s="30"/>
       <c r="BX106" s="30"/>
       <c r="BY106" s="30"/>
       <c r="BZ106" s="30"/>
-      <c r="CA106" s="30"/>
-      <c r="CB106" s="30"/>
+      <c r="CA106" s="30">
+        <f>6190+49487</f>
+        <v>55677</v>
+      </c>
+      <c r="CB106" s="30">
+        <f>3531+48858</f>
+        <v>52389</v>
+      </c>
       <c r="CC106" s="30"/>
       <c r="CD106" s="30"/>
       <c r="CE106" s="30"/>
@@ -31507,7 +31548,7 @@
     </row>
     <row r="107" spans="2:118" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="25" t="s">
-        <v>193</v>
+        <v>333</v>
       </c>
       <c r="C107" s="30"/>
       <c r="D107" s="30"/>
@@ -31524,8 +31565,7 @@
       <c r="O107" s="30"/>
       <c r="P107" s="30"/>
       <c r="Q107" s="30">
-        <f>135+6120</f>
-        <v>6255</v>
+        <v>1441</v>
       </c>
       <c r="R107" s="30"/>
       <c r="S107" s="30"/>
@@ -31534,33 +31574,28 @@
       <c r="V107" s="30"/>
       <c r="W107" s="30"/>
       <c r="X107" s="30">
-        <f>290+6248</f>
-        <v>6538</v>
+        <v>1681</v>
       </c>
       <c r="Y107" s="50"/>
       <c r="Z107" s="50"/>
       <c r="AA107" s="50">
-        <f>135+5276</f>
-        <v>5411</v>
+        <v>2036</v>
       </c>
       <c r="AB107" s="50"/>
       <c r="AC107" s="50"/>
       <c r="AD107" s="50"/>
       <c r="AE107" s="50">
-        <f>145+5270</f>
-        <v>5415</v>
+        <v>2385</v>
       </c>
       <c r="AF107" s="30">
-        <f>236+5209</f>
-        <v>5445</v>
+        <v>2134</v>
       </c>
       <c r="AG107" s="30"/>
       <c r="AH107" s="30"/>
       <c r="AI107" s="30"/>
       <c r="AJ107" s="30"/>
       <c r="AK107" s="30">
-        <f>208+680</f>
-        <v>888</v>
+        <v>2466</v>
       </c>
       <c r="AL107" s="30"/>
       <c r="AM107" s="30"/>
@@ -31597,8 +31632,7 @@
       <c r="BR107" s="30"/>
       <c r="BS107" s="30"/>
       <c r="BT107" s="30">
-        <f>37107+4953</f>
-        <v>42060</v>
+        <v>2882</v>
       </c>
       <c r="BU107" s="30"/>
       <c r="BV107" s="30"/>
@@ -31606,10 +31640,11 @@
       <c r="BX107" s="30"/>
       <c r="BY107" s="30"/>
       <c r="BZ107" s="30"/>
-      <c r="CA107" s="30"/>
+      <c r="CA107" s="30">
+        <v>3539</v>
+      </c>
       <c r="CB107" s="30">
-        <f>3531+48858</f>
-        <v>52389</v>
+        <v>3751</v>
       </c>
       <c r="CC107" s="30"/>
       <c r="CD107" s="30"/>
@@ -31669,7 +31704,7 @@
       <c r="O108" s="30"/>
       <c r="P108" s="30"/>
       <c r="Q108" s="30">
-        <v>1441</v>
+        <v>2897</v>
       </c>
       <c r="R108" s="30"/>
       <c r="S108" s="30"/>
@@ -31678,28 +31713,28 @@
       <c r="V108" s="30"/>
       <c r="W108" s="30"/>
       <c r="X108" s="30">
-        <v>1681</v>
+        <v>2386</v>
       </c>
       <c r="Y108" s="50"/>
       <c r="Z108" s="50"/>
       <c r="AA108" s="50">
-        <v>2036</v>
+        <v>2661</v>
       </c>
       <c r="AB108" s="50"/>
       <c r="AC108" s="50"/>
       <c r="AD108" s="50"/>
       <c r="AE108" s="50">
-        <v>2385</v>
+        <v>2566</v>
       </c>
       <c r="AF108" s="30">
-        <v>2134</v>
+        <v>2467</v>
       </c>
       <c r="AG108" s="30"/>
       <c r="AH108" s="30"/>
       <c r="AI108" s="30"/>
       <c r="AJ108" s="30"/>
       <c r="AK108" s="30">
-        <v>2466</v>
+        <v>2277</v>
       </c>
       <c r="AL108" s="30"/>
       <c r="AM108" s="30"/>
@@ -31736,7 +31771,7 @@
       <c r="BR108" s="30"/>
       <c r="BS108" s="30"/>
       <c r="BT108" s="30">
-        <v>2882</v>
+        <v>13080</v>
       </c>
       <c r="BU108" s="30"/>
       <c r="BV108" s="30"/>
@@ -31744,9 +31779,11 @@
       <c r="BX108" s="30"/>
       <c r="BY108" s="30"/>
       <c r="BZ108" s="30"/>
-      <c r="CA108" s="30"/>
+      <c r="CA108" s="30">
+        <v>0</v>
+      </c>
       <c r="CB108" s="30">
-        <v>3751</v>
+        <v>0</v>
       </c>
       <c r="CC108" s="30"/>
       <c r="CD108" s="30"/>
@@ -31806,7 +31843,8 @@
       <c r="O109" s="30"/>
       <c r="P109" s="30"/>
       <c r="Q109" s="30">
-        <v>2897</v>
+        <f>832+809</f>
+        <v>1641</v>
       </c>
       <c r="R109" s="30"/>
       <c r="S109" s="30"/>
@@ -31815,28 +31853,31 @@
       <c r="V109" s="30"/>
       <c r="W109" s="30"/>
       <c r="X109" s="30">
-        <v>2386</v>
+        <v>275</v>
       </c>
       <c r="Y109" s="50"/>
       <c r="Z109" s="50"/>
       <c r="AA109" s="50">
-        <v>2661</v>
+        <f>347+899</f>
+        <v>1246</v>
       </c>
       <c r="AB109" s="50"/>
       <c r="AC109" s="50"/>
       <c r="AD109" s="50"/>
       <c r="AE109" s="50">
-        <v>2566</v>
+        <f>287+836</f>
+        <v>1123</v>
       </c>
       <c r="AF109" s="30">
-        <v>2467</v>
+        <f>357+805</f>
+        <v>1162</v>
       </c>
       <c r="AG109" s="30"/>
       <c r="AH109" s="30"/>
       <c r="AI109" s="30"/>
       <c r="AJ109" s="30"/>
       <c r="AK109" s="30">
-        <v>2277</v>
+        <v>4198</v>
       </c>
       <c r="AL109" s="30"/>
       <c r="AM109" s="30"/>
@@ -31872,18 +31913,18 @@
       <c r="BQ109" s="30"/>
       <c r="BR109" s="30"/>
       <c r="BS109" s="30"/>
-      <c r="BT109" s="30">
-        <v>13080</v>
-      </c>
+      <c r="BT109" s="30"/>
       <c r="BU109" s="30"/>
       <c r="BV109" s="30"/>
       <c r="BW109" s="30"/>
       <c r="BX109" s="30"/>
       <c r="BY109" s="30"/>
       <c r="BZ109" s="30"/>
-      <c r="CA109" s="30"/>
+      <c r="CA109" s="30">
+        <v>442</v>
+      </c>
       <c r="CB109" s="30">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="CC109" s="30"/>
       <c r="CD109" s="30"/>
@@ -31943,8 +31984,7 @@
       <c r="O110" s="30"/>
       <c r="P110" s="30"/>
       <c r="Q110" s="30">
-        <f>832+809</f>
-        <v>1641</v>
+        <v>769</v>
       </c>
       <c r="R110" s="30"/>
       <c r="S110" s="30"/>
@@ -31953,31 +31993,28 @@
       <c r="V110" s="30"/>
       <c r="W110" s="30"/>
       <c r="X110" s="30">
-        <v>275</v>
+        <v>671</v>
       </c>
       <c r="Y110" s="50"/>
       <c r="Z110" s="50"/>
       <c r="AA110" s="50">
-        <f>347+899</f>
-        <v>1246</v>
+        <v>935</v>
       </c>
       <c r="AB110" s="50"/>
       <c r="AC110" s="50"/>
       <c r="AD110" s="50"/>
       <c r="AE110" s="50">
-        <f>287+836</f>
-        <v>1123</v>
+        <v>1073</v>
       </c>
       <c r="AF110" s="30">
-        <f>357+805</f>
-        <v>1162</v>
+        <v>1061</v>
       </c>
       <c r="AG110" s="30"/>
       <c r="AH110" s="30"/>
       <c r="AI110" s="30"/>
       <c r="AJ110" s="30"/>
       <c r="AK110" s="30">
-        <v>4198</v>
+        <v>1034</v>
       </c>
       <c r="AL110" s="30"/>
       <c r="AM110" s="30"/>
@@ -32020,9 +32057,11 @@
       <c r="BX110" s="30"/>
       <c r="BY110" s="30"/>
       <c r="BZ110" s="30"/>
-      <c r="CA110" s="30"/>
+      <c r="CA110" s="30">
+        <v>0</v>
+      </c>
       <c r="CB110" s="30">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="CC110" s="30"/>
       <c r="CD110" s="30"/>
@@ -32065,7 +32104,7 @@
     </row>
     <row r="111" spans="2:118" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="25" t="s">
-        <v>337</v>
+        <v>105</v>
       </c>
       <c r="C111" s="30"/>
       <c r="D111" s="30"/>
@@ -32082,7 +32121,8 @@
       <c r="O111" s="30"/>
       <c r="P111" s="30"/>
       <c r="Q111" s="30">
-        <v>769</v>
+        <f>199+455</f>
+        <v>654</v>
       </c>
       <c r="R111" s="30"/>
       <c r="S111" s="30"/>
@@ -32091,28 +32131,33 @@
       <c r="V111" s="30"/>
       <c r="W111" s="30"/>
       <c r="X111" s="30">
-        <v>671</v>
+        <f>49+749</f>
+        <v>798</v>
       </c>
       <c r="Y111" s="50"/>
       <c r="Z111" s="50"/>
       <c r="AA111" s="50">
-        <v>935</v>
+        <f>63+660</f>
+        <v>723</v>
       </c>
       <c r="AB111" s="50"/>
       <c r="AC111" s="50"/>
       <c r="AD111" s="50"/>
       <c r="AE111" s="50">
-        <v>1073</v>
+        <f>162+573</f>
+        <v>735</v>
       </c>
       <c r="AF111" s="30">
-        <v>1061</v>
+        <f>138+604</f>
+        <v>742</v>
       </c>
       <c r="AG111" s="30"/>
       <c r="AH111" s="30"/>
       <c r="AI111" s="30"/>
       <c r="AJ111" s="30"/>
       <c r="AK111" s="30">
-        <v>1034</v>
+        <f>739+904+208</f>
+        <v>1851</v>
       </c>
       <c r="AL111" s="30"/>
       <c r="AM111" s="30"/>
@@ -32148,14 +32193,18 @@
       <c r="BQ111" s="30"/>
       <c r="BR111" s="30"/>
       <c r="BS111" s="30"/>
-      <c r="BT111" s="30"/>
+      <c r="BT111" s="30">
+        <v>3034</v>
+      </c>
       <c r="BU111" s="30"/>
       <c r="BV111" s="30"/>
       <c r="BW111" s="30"/>
       <c r="BX111" s="30"/>
       <c r="BY111" s="30"/>
       <c r="BZ111" s="30"/>
-      <c r="CA111" s="30"/>
+      <c r="CA111" s="30">
+        <v>0</v>
+      </c>
       <c r="CB111" s="30">
         <v>0</v>
       </c>
@@ -32200,7 +32249,7 @@
     </row>
     <row r="112" spans="2:118" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="25" t="s">
-        <v>105</v>
+        <v>337</v>
       </c>
       <c r="C112" s="30"/>
       <c r="D112" s="30"/>
@@ -32217,8 +32266,7 @@
       <c r="O112" s="30"/>
       <c r="P112" s="30"/>
       <c r="Q112" s="30">
-        <f>199+455</f>
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="R112" s="30"/>
       <c r="S112" s="30"/>
@@ -32227,33 +32275,28 @@
       <c r="V112" s="30"/>
       <c r="W112" s="30"/>
       <c r="X112" s="30">
-        <f>49+749</f>
-        <v>798</v>
+        <v>556</v>
       </c>
       <c r="Y112" s="50"/>
       <c r="Z112" s="50"/>
       <c r="AA112" s="50">
-        <f>63+660</f>
-        <v>723</v>
+        <v>578</v>
       </c>
       <c r="AB112" s="50"/>
       <c r="AC112" s="50"/>
       <c r="AD112" s="50"/>
       <c r="AE112" s="50">
-        <f>162+573</f>
-        <v>735</v>
+        <v>593</v>
       </c>
       <c r="AF112" s="30">
-        <f>138+604</f>
-        <v>742</v>
+        <v>598</v>
       </c>
       <c r="AG112" s="30"/>
       <c r="AH112" s="30"/>
       <c r="AI112" s="30"/>
       <c r="AJ112" s="30"/>
       <c r="AK112" s="30">
-        <f>739+904+208</f>
-        <v>1851</v>
+        <v>611</v>
       </c>
       <c r="AL112" s="30"/>
       <c r="AM112" s="30"/>
@@ -32289,16 +32332,16 @@
       <c r="BQ112" s="30"/>
       <c r="BR112" s="30"/>
       <c r="BS112" s="30"/>
-      <c r="BT112" s="30">
-        <v>3034</v>
-      </c>
+      <c r="BT112" s="30"/>
       <c r="BU112" s="30"/>
       <c r="BV112" s="30"/>
       <c r="BW112" s="30"/>
       <c r="BX112" s="30"/>
       <c r="BY112" s="30"/>
       <c r="BZ112" s="30"/>
-      <c r="CA112" s="30"/>
+      <c r="CA112" s="30">
+        <v>0</v>
+      </c>
       <c r="CB112" s="30">
         <v>0</v>
       </c>
@@ -32360,7 +32403,7 @@
       <c r="O113" s="30"/>
       <c r="P113" s="30"/>
       <c r="Q113" s="30">
-        <v>618</v>
+        <v>60</v>
       </c>
       <c r="R113" s="30"/>
       <c r="S113" s="30"/>
@@ -32369,28 +32412,28 @@
       <c r="V113" s="30"/>
       <c r="W113" s="30"/>
       <c r="X113" s="30">
-        <v>556</v>
+        <v>0</v>
       </c>
       <c r="Y113" s="50"/>
       <c r="Z113" s="50"/>
       <c r="AA113" s="50">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="AB113" s="50"/>
       <c r="AC113" s="50"/>
       <c r="AD113" s="50"/>
       <c r="AE113" s="50">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="AF113" s="30">
-        <v>598</v>
+        <v>0</v>
       </c>
       <c r="AG113" s="30"/>
       <c r="AH113" s="30"/>
       <c r="AI113" s="30"/>
       <c r="AJ113" s="30"/>
       <c r="AK113" s="30">
-        <v>611</v>
+        <v>0</v>
       </c>
       <c r="AL113" s="30"/>
       <c r="AM113" s="30"/>
@@ -32433,7 +32476,9 @@
       <c r="BX113" s="30"/>
       <c r="BY113" s="30"/>
       <c r="BZ113" s="30"/>
-      <c r="CA113" s="30"/>
+      <c r="CA113" s="30">
+        <v>0</v>
+      </c>
       <c r="CB113" s="30">
         <v>0</v>
       </c>
@@ -32495,7 +32540,7 @@
       <c r="O114" s="30"/>
       <c r="P114" s="30"/>
       <c r="Q114" s="30">
-        <v>60</v>
+        <v>695</v>
       </c>
       <c r="R114" s="30"/>
       <c r="S114" s="30"/>
@@ -32504,28 +32549,28 @@
       <c r="V114" s="30"/>
       <c r="W114" s="30"/>
       <c r="X114" s="30">
-        <v>0</v>
+        <v>1248</v>
       </c>
       <c r="Y114" s="50"/>
       <c r="Z114" s="50"/>
       <c r="AA114" s="50">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="AB114" s="50"/>
       <c r="AC114" s="50"/>
       <c r="AD114" s="50"/>
       <c r="AE114" s="50">
-        <v>0</v>
+        <v>1616</v>
       </c>
       <c r="AF114" s="30">
-        <v>0</v>
+        <v>1543</v>
       </c>
       <c r="AG114" s="30"/>
       <c r="AH114" s="30"/>
       <c r="AI114" s="30"/>
       <c r="AJ114" s="30"/>
       <c r="AK114" s="30">
-        <v>0</v>
+        <v>773</v>
       </c>
       <c r="AL114" s="30"/>
       <c r="AM114" s="30"/>
@@ -32568,7 +32613,9 @@
       <c r="BX114" s="30"/>
       <c r="BY114" s="30"/>
       <c r="BZ114" s="30"/>
-      <c r="CA114" s="30"/>
+      <c r="CA114" s="30">
+        <v>0</v>
+      </c>
       <c r="CB114" s="30">
         <v>0</v>
       </c>
@@ -32613,7 +32660,7 @@
     </row>
     <row r="115" spans="1:119" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="25" t="s">
-        <v>340</v>
+        <v>103</v>
       </c>
       <c r="C115" s="30"/>
       <c r="D115" s="30"/>
@@ -32630,7 +32677,7 @@
       <c r="O115" s="30"/>
       <c r="P115" s="30"/>
       <c r="Q115" s="30">
-        <v>695</v>
+        <v>508</v>
       </c>
       <c r="R115" s="30"/>
       <c r="S115" s="30"/>
@@ -32639,29 +32686,28 @@
       <c r="V115" s="30"/>
       <c r="W115" s="30"/>
       <c r="X115" s="30">
-        <v>1248</v>
+        <f>915+409</f>
+        <v>1324</v>
       </c>
       <c r="Y115" s="50"/>
       <c r="Z115" s="50"/>
       <c r="AA115" s="50">
-        <v>922</v>
+        <v>438</v>
       </c>
       <c r="AB115" s="50"/>
       <c r="AC115" s="50"/>
       <c r="AD115" s="50"/>
       <c r="AE115" s="50">
-        <v>1616</v>
+        <v>656</v>
       </c>
       <c r="AF115" s="30">
-        <v>1543</v>
+        <v>703</v>
       </c>
       <c r="AG115" s="30"/>
       <c r="AH115" s="30"/>
       <c r="AI115" s="30"/>
       <c r="AJ115" s="30"/>
-      <c r="AK115" s="30">
-        <v>773</v>
-      </c>
+      <c r="AK115" s="30"/>
       <c r="AL115" s="30"/>
       <c r="AM115" s="30"/>
       <c r="AN115" s="30"/>
@@ -32696,16 +32742,22 @@
       <c r="BQ115" s="30"/>
       <c r="BR115" s="30"/>
       <c r="BS115" s="30"/>
-      <c r="BT115" s="30"/>
+      <c r="BT115" s="30">
+        <v>6640</v>
+      </c>
       <c r="BU115" s="30"/>
       <c r="BV115" s="30"/>
       <c r="BW115" s="30"/>
       <c r="BX115" s="30"/>
       <c r="BY115" s="30"/>
       <c r="BZ115" s="30"/>
-      <c r="CA115" s="30"/>
+      <c r="CA115" s="30">
+        <f>16093+6732</f>
+        <v>22825</v>
+      </c>
       <c r="CB115" s="30">
-        <v>0</v>
+        <f>15983+4993</f>
+        <v>20976</v>
       </c>
       <c r="CC115" s="30"/>
       <c r="CD115" s="30"/>
@@ -32747,8 +32799,8 @@
       <c r="DN115" s="30"/>
     </row>
     <row r="116" spans="1:119" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="25" t="s">
-        <v>103</v>
+      <c r="B116" s="44" t="s">
+        <v>394</v>
       </c>
       <c r="C116" s="30"/>
       <c r="D116" s="30"/>
@@ -32765,7 +32817,8 @@
       <c r="O116" s="30"/>
       <c r="P116" s="30"/>
       <c r="Q116" s="30">
-        <v>508</v>
+        <f>SUM(Q106:Q115)</f>
+        <v>15538</v>
       </c>
       <c r="R116" s="30"/>
       <c r="S116" s="30"/>
@@ -32774,22 +32827,25 @@
       <c r="V116" s="30"/>
       <c r="W116" s="30"/>
       <c r="X116" s="30">
-        <f>915+409</f>
-        <v>1324</v>
+        <f>SUM(X106:X115)</f>
+        <v>15477</v>
       </c>
       <c r="Y116" s="50"/>
       <c r="Z116" s="50"/>
       <c r="AA116" s="50">
-        <v>438</v>
+        <f>SUM(AA106:AA115)</f>
+        <v>14950</v>
       </c>
       <c r="AB116" s="50"/>
       <c r="AC116" s="50"/>
       <c r="AD116" s="50"/>
       <c r="AE116" s="50">
-        <v>656</v>
-      </c>
-      <c r="AF116" s="30">
-        <v>703</v>
+        <f>SUM(AE106:AE115)</f>
+        <v>16162</v>
+      </c>
+      <c r="AF116" s="50">
+        <f>SUM(AF106:AF115)</f>
+        <v>15855</v>
       </c>
       <c r="AG116" s="30"/>
       <c r="AH116" s="30"/>
@@ -32830,19 +32886,20 @@
       <c r="BQ116" s="30"/>
       <c r="BR116" s="30"/>
       <c r="BS116" s="30"/>
-      <c r="BT116" s="30">
-        <v>6640</v>
-      </c>
+      <c r="BT116" s="30"/>
       <c r="BU116" s="30"/>
       <c r="BV116" s="30"/>
       <c r="BW116" s="30"/>
       <c r="BX116" s="30"/>
       <c r="BY116" s="30"/>
       <c r="BZ116" s="30"/>
-      <c r="CA116" s="30"/>
+      <c r="CA116" s="30">
+        <f>SUM(CA106:CA115)</f>
+        <v>82483</v>
+      </c>
       <c r="CB116" s="30">
-        <f>15983+4993</f>
-        <v>20976</v>
+        <f>SUM(CB106:CB115)</f>
+        <v>77577</v>
       </c>
       <c r="CC116" s="30"/>
       <c r="CD116" s="30"/>
@@ -32884,8 +32941,8 @@
       <c r="DN116" s="30"/>
     </row>
     <row r="117" spans="1:119" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="44" t="s">
-        <v>395</v>
+      <c r="B117" s="25" t="s">
+        <v>340</v>
       </c>
       <c r="C117" s="30"/>
       <c r="D117" s="30"/>
@@ -32902,8 +32959,8 @@
       <c r="O117" s="30"/>
       <c r="P117" s="30"/>
       <c r="Q117" s="30">
-        <f>SUM(Q107:Q116)</f>
-        <v>15538</v>
+        <f>Q104-Q116</f>
+        <v>12938</v>
       </c>
       <c r="R117" s="30"/>
       <c r="S117" s="30"/>
@@ -32912,25 +32969,21 @@
       <c r="V117" s="30"/>
       <c r="W117" s="30"/>
       <c r="X117" s="30">
-        <f>SUM(X107:X116)</f>
-        <v>15477</v>
+        <v>15574</v>
       </c>
       <c r="Y117" s="50"/>
       <c r="Z117" s="50"/>
       <c r="AA117" s="50">
-        <f>SUM(AA107:AA116)</f>
-        <v>14950</v>
+        <v>15901</v>
       </c>
       <c r="AB117" s="50"/>
       <c r="AC117" s="50"/>
       <c r="AD117" s="50"/>
       <c r="AE117" s="50">
-        <f>SUM(AE107:AE116)</f>
-        <v>16162</v>
-      </c>
-      <c r="AF117" s="50">
-        <f>SUM(AF107:AF116)</f>
-        <v>15855</v>
+        <v>16246</v>
+      </c>
+      <c r="AF117" s="30">
+        <v>15812</v>
       </c>
       <c r="AG117" s="30"/>
       <c r="AH117" s="30"/>
@@ -32971,17 +33024,20 @@
       <c r="BQ117" s="30"/>
       <c r="BR117" s="30"/>
       <c r="BS117" s="30"/>
-      <c r="BT117" s="30"/>
+      <c r="BT117" s="30">
+        <v>32661</v>
+      </c>
       <c r="BU117" s="30"/>
       <c r="BV117" s="30"/>
       <c r="BW117" s="30"/>
       <c r="BX117" s="30"/>
       <c r="BY117" s="30"/>
       <c r="BZ117" s="30"/>
-      <c r="CA117" s="30"/>
+      <c r="CA117" s="30">
+        <v>16548</v>
+      </c>
       <c r="CB117" s="30">
-        <f>SUM(CB107:CB116)</f>
-        <v>77577</v>
+        <v>17069</v>
       </c>
       <c r="CC117" s="30"/>
       <c r="CD117" s="30"/>
@@ -33023,8 +33079,8 @@
       <c r="DN117" s="30"/>
     </row>
     <row r="118" spans="1:119" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="25" t="s">
-        <v>341</v>
+      <c r="B118" s="44" t="s">
+        <v>393</v>
       </c>
       <c r="C118" s="30"/>
       <c r="D118" s="30"/>
@@ -33041,8 +33097,8 @@
       <c r="O118" s="30"/>
       <c r="P118" s="30"/>
       <c r="Q118" s="30">
-        <f>Q105-Q117</f>
-        <v>12938</v>
+        <f>+Q117+Q116</f>
+        <v>28476</v>
       </c>
       <c r="R118" s="30"/>
       <c r="S118" s="30"/>
@@ -33051,21 +33107,25 @@
       <c r="V118" s="30"/>
       <c r="W118" s="30"/>
       <c r="X118" s="30">
-        <v>15574</v>
+        <f>+X117+X116</f>
+        <v>31051</v>
       </c>
       <c r="Y118" s="50"/>
       <c r="Z118" s="50"/>
       <c r="AA118" s="50">
-        <v>15901</v>
+        <f>+AA117+AA116</f>
+        <v>30851</v>
       </c>
       <c r="AB118" s="50"/>
       <c r="AC118" s="50"/>
       <c r="AD118" s="50"/>
       <c r="AE118" s="50">
-        <v>16246</v>
-      </c>
-      <c r="AF118" s="30">
-        <v>15812</v>
+        <f>+AE117+AE116</f>
+        <v>32408</v>
+      </c>
+      <c r="AF118" s="50">
+        <f>+AF117+AF116</f>
+        <v>31667</v>
       </c>
       <c r="AG118" s="30"/>
       <c r="AH118" s="30"/>
@@ -33107,7 +33167,8 @@
       <c r="BR118" s="30"/>
       <c r="BS118" s="30"/>
       <c r="BT118" s="30">
-        <v>32661</v>
+        <f>SUM(BT106:BT117)</f>
+        <v>100357</v>
       </c>
       <c r="BU118" s="30"/>
       <c r="BV118" s="30"/>
@@ -33115,9 +33176,13 @@
       <c r="BX118" s="30"/>
       <c r="BY118" s="30"/>
       <c r="BZ118" s="30"/>
-      <c r="CA118" s="30"/>
+      <c r="CA118" s="30">
+        <f>+CA117+CA116</f>
+        <v>99031</v>
+      </c>
       <c r="CB118" s="30">
-        <v>17069</v>
+        <f>+CB117+CB116</f>
+        <v>94646</v>
       </c>
       <c r="CC118" s="30"/>
       <c r="CD118" s="30"/>
@@ -33159,8 +33224,8 @@
       <c r="DN118" s="30"/>
     </row>
     <row r="119" spans="1:119" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="44" t="s">
-        <v>394</v>
+      <c r="B119" s="25" t="s">
+        <v>341</v>
       </c>
       <c r="C119" s="30"/>
       <c r="D119" s="30"/>
@@ -33177,8 +33242,8 @@
       <c r="O119" s="30"/>
       <c r="P119" s="30"/>
       <c r="Q119" s="30">
-        <f>+Q118+Q117</f>
-        <v>28476</v>
+        <f>Q104-Q116-Q101</f>
+        <v>6885</v>
       </c>
       <c r="R119" s="30"/>
       <c r="S119" s="30"/>
@@ -33187,25 +33252,25 @@
       <c r="V119" s="30"/>
       <c r="W119" s="30"/>
       <c r="X119" s="30">
-        <f>+X118+X117</f>
-        <v>31051</v>
+        <f>X104-X116-X101</f>
+        <v>7593</v>
       </c>
       <c r="Y119" s="50"/>
       <c r="Z119" s="50"/>
       <c r="AA119" s="50">
-        <f>+AA118+AA117</f>
-        <v>30851</v>
+        <f>AA104-AA116-AA101</f>
+        <v>7369</v>
       </c>
       <c r="AB119" s="50"/>
       <c r="AC119" s="50"/>
       <c r="AD119" s="50"/>
       <c r="AE119" s="50">
-        <f>+AE118+AE117</f>
-        <v>32408</v>
+        <f>AE104-AE116-AE101</f>
+        <v>4631</v>
       </c>
       <c r="AF119" s="50">
-        <f>+AF118+AF117</f>
-        <v>31667</v>
+        <f>AF104-AF116-AF101</f>
+        <v>4444</v>
       </c>
       <c r="AG119" s="30"/>
       <c r="AH119" s="30"/>
@@ -33246,10 +33311,7 @@
       <c r="BQ119" s="30"/>
       <c r="BR119" s="30"/>
       <c r="BS119" s="30"/>
-      <c r="BT119" s="30">
-        <f>SUM(BT107:BT118)</f>
-        <v>100357</v>
-      </c>
+      <c r="BT119" s="30"/>
       <c r="BU119" s="30"/>
       <c r="BV119" s="30"/>
       <c r="BW119" s="30"/>
@@ -33257,10 +33319,7 @@
       <c r="BY119" s="30"/>
       <c r="BZ119" s="30"/>
       <c r="CA119" s="30"/>
-      <c r="CB119" s="30">
-        <f>+CB118+CB117</f>
-        <v>94646</v>
-      </c>
+      <c r="CB119" s="30"/>
       <c r="CC119" s="30"/>
       <c r="CD119" s="30"/>
       <c r="CE119" s="30"/>
@@ -33301,305 +33360,434 @@
       <c r="DN119" s="30"/>
     </row>
     <row r="120" spans="1:119" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
-      <c r="F120" s="30"/>
-      <c r="G120" s="30"/>
-      <c r="H120" s="30"/>
-      <c r="I120" s="30"/>
-      <c r="J120" s="30"/>
-      <c r="K120" s="30"/>
-      <c r="L120" s="30"/>
-      <c r="M120" s="30"/>
-      <c r="N120" s="30"/>
-      <c r="O120" s="30"/>
-      <c r="P120" s="30"/>
-      <c r="Q120" s="30">
-        <f>Q105-Q117-Q102</f>
-        <v>6885</v>
-      </c>
-      <c r="R120" s="30"/>
-      <c r="S120" s="30"/>
-      <c r="T120" s="30"/>
-      <c r="U120" s="30"/>
-      <c r="V120" s="30"/>
-      <c r="W120" s="30"/>
-      <c r="X120" s="30">
-        <f>X105-X117-X102</f>
-        <v>7593</v>
-      </c>
-      <c r="Y120" s="50"/>
-      <c r="Z120" s="50"/>
-      <c r="AA120" s="50">
-        <f>AA105-AA117-AA102</f>
-        <v>7369</v>
-      </c>
-      <c r="AB120" s="50"/>
-      <c r="AC120" s="50"/>
-      <c r="AD120" s="50"/>
-      <c r="AE120" s="50">
-        <f>AE105-AE117-AE102</f>
-        <v>4631</v>
-      </c>
-      <c r="AF120" s="50">
-        <f>AF105-AF117-AF102</f>
-        <v>4444</v>
-      </c>
-      <c r="AG120" s="30"/>
-      <c r="AH120" s="30"/>
-      <c r="AI120" s="30"/>
-      <c r="AJ120" s="30"/>
-      <c r="AK120" s="30"/>
-      <c r="AL120" s="30"/>
-      <c r="AM120" s="30"/>
-      <c r="AN120" s="30"/>
-      <c r="AO120" s="30"/>
-      <c r="AP120" s="30"/>
-      <c r="AQ120" s="30"/>
-      <c r="AR120" s="30"/>
-      <c r="AS120" s="30"/>
-      <c r="AT120" s="30"/>
-      <c r="AU120" s="30"/>
-      <c r="AV120" s="30"/>
-      <c r="AW120" s="30"/>
-      <c r="AX120" s="30"/>
-      <c r="AY120" s="30"/>
-      <c r="AZ120" s="30"/>
-      <c r="BA120" s="30"/>
-      <c r="BB120" s="30"/>
-      <c r="BC120" s="30"/>
-      <c r="BD120" s="30"/>
-      <c r="BE120" s="30"/>
-      <c r="BF120" s="30"/>
-      <c r="BG120" s="30"/>
-      <c r="BH120" s="30"/>
-      <c r="BI120" s="30"/>
-      <c r="BJ120" s="30"/>
-      <c r="BK120" s="30"/>
-      <c r="BL120" s="30"/>
-      <c r="BM120" s="30"/>
-      <c r="BN120" s="30"/>
-      <c r="BO120" s="30"/>
-      <c r="BP120" s="30"/>
-      <c r="BQ120" s="30"/>
-      <c r="BR120" s="30"/>
-      <c r="BS120" s="30"/>
-      <c r="BT120" s="30"/>
-      <c r="BU120" s="30"/>
-      <c r="BV120" s="30"/>
-      <c r="BW120" s="30"/>
-      <c r="BX120" s="30"/>
-      <c r="BY120" s="30"/>
-      <c r="BZ120" s="30"/>
-      <c r="CA120" s="30"/>
-      <c r="CB120" s="30"/>
-      <c r="CC120" s="30"/>
-      <c r="CD120" s="30"/>
-      <c r="CE120" s="30"/>
-      <c r="CF120" s="30"/>
-      <c r="CG120" s="30"/>
-      <c r="CH120" s="30"/>
-      <c r="CI120" s="30"/>
-      <c r="CJ120" s="30"/>
-      <c r="CK120" s="30"/>
-      <c r="CL120" s="30"/>
-      <c r="CM120" s="30"/>
-      <c r="CN120" s="30"/>
-      <c r="CO120" s="30"/>
-      <c r="CP120" s="30"/>
-      <c r="CQ120" s="30"/>
-      <c r="CR120" s="30"/>
-      <c r="CS120" s="30"/>
-      <c r="CT120" s="30"/>
-      <c r="CU120" s="30"/>
-      <c r="CV120" s="30"/>
-      <c r="CW120" s="30"/>
-      <c r="CX120" s="30"/>
-      <c r="CY120" s="30"/>
-      <c r="CZ120" s="30"/>
-      <c r="DA120" s="30"/>
-      <c r="DB120" s="30"/>
-      <c r="DC120" s="30"/>
-      <c r="DD120" s="30"/>
-      <c r="DE120" s="30"/>
-      <c r="DF120" s="50"/>
-      <c r="DG120" s="50"/>
-      <c r="DH120" s="50"/>
-      <c r="DI120" s="30"/>
-      <c r="DJ120" s="30"/>
-      <c r="DK120" s="30"/>
-      <c r="DL120" s="30"/>
-      <c r="DM120" s="30"/>
-      <c r="DN120" s="30"/>
-    </row>
-    <row r="121" spans="1:119" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="28"/>
-      <c r="J121" s="28"/>
-      <c r="K121" s="28"/>
-      <c r="L121" s="28"/>
-      <c r="M121" s="28"/>
-      <c r="N121" s="28"/>
-      <c r="O121" s="28"/>
-      <c r="P121" s="28"/>
-      <c r="Q121" s="28"/>
-      <c r="R121" s="28"/>
-      <c r="S121" s="28"/>
-      <c r="T121" s="28"/>
-      <c r="U121" s="28"/>
-      <c r="V121" s="28"/>
-      <c r="W121" s="28"/>
-      <c r="X121" s="28"/>
-      <c r="Y121" s="48"/>
-      <c r="Z121" s="48"/>
-      <c r="AA121" s="48"/>
-      <c r="AB121" s="48"/>
-      <c r="AC121" s="48"/>
-      <c r="AD121" s="48"/>
-      <c r="AE121" s="28"/>
-      <c r="AF121" s="28"/>
-      <c r="AG121" s="28"/>
-      <c r="AH121" s="28"/>
-      <c r="AI121" s="28"/>
-      <c r="AJ121" s="28"/>
-      <c r="AK121" s="28"/>
-      <c r="AL121" s="28"/>
-      <c r="AM121" s="28"/>
-      <c r="AN121" s="28"/>
-      <c r="AO121" s="28"/>
-      <c r="AP121" s="28"/>
-      <c r="AQ121" s="28"/>
-      <c r="AR121" s="28"/>
-      <c r="AS121" s="28"/>
-      <c r="AT121" s="28"/>
-      <c r="AU121" s="28"/>
-      <c r="AV121" s="28"/>
-      <c r="AW121" s="28"/>
-      <c r="AX121" s="28"/>
-      <c r="AY121" s="28"/>
-      <c r="AZ121" s="28"/>
-      <c r="BA121" s="28"/>
-      <c r="BB121" s="28"/>
-      <c r="BC121" s="28"/>
-      <c r="BD121" s="28"/>
-      <c r="BE121" s="28"/>
-      <c r="BF121" s="28"/>
-      <c r="BG121" s="28"/>
-      <c r="BH121" s="28"/>
-      <c r="BI121" s="28"/>
-      <c r="BJ121" s="28"/>
-      <c r="BK121" s="28"/>
-      <c r="BL121" s="28"/>
-      <c r="BM121" s="28"/>
-      <c r="BN121" s="28"/>
-      <c r="BO121" s="28"/>
-      <c r="BP121" s="28"/>
-      <c r="BQ121" s="28"/>
-      <c r="BR121" s="28"/>
-      <c r="BS121" s="28"/>
-      <c r="BT121" s="28"/>
-      <c r="BU121" s="28"/>
-      <c r="BV121" s="28"/>
-      <c r="BW121" s="28"/>
-      <c r="BX121" s="28"/>
-      <c r="BY121" s="28"/>
-      <c r="BZ121" s="28"/>
-      <c r="CA121" s="28"/>
-      <c r="CB121" s="28"/>
-      <c r="CC121" s="28"/>
-      <c r="CD121" s="28"/>
-      <c r="CE121" s="28"/>
-      <c r="CF121" s="28"/>
-      <c r="CG121" s="28"/>
-      <c r="CH121" s="28"/>
-      <c r="CI121" s="28"/>
-      <c r="CJ121" s="28"/>
-      <c r="CK121" s="28"/>
-      <c r="CL121" s="28"/>
-      <c r="CM121" s="28"/>
-      <c r="CN121" s="28"/>
-      <c r="CO121" s="28"/>
-      <c r="CP121" s="28"/>
-      <c r="CQ121" s="28"/>
-      <c r="CR121" s="28"/>
-      <c r="CS121" s="28"/>
-      <c r="CT121" s="28"/>
-      <c r="CU121" s="28"/>
-      <c r="CV121" s="28"/>
-      <c r="CW121" s="28"/>
-      <c r="CX121" s="28"/>
-      <c r="CY121" s="28"/>
-      <c r="CZ121" s="28"/>
-      <c r="DA121" s="28"/>
-      <c r="DB121" s="28"/>
-      <c r="DC121" s="28"/>
-      <c r="DD121" s="28"/>
-      <c r="DE121" s="28"/>
-      <c r="DF121" s="48"/>
-      <c r="DG121" s="48"/>
-      <c r="DH121" s="48"/>
-      <c r="DI121" s="28"/>
-      <c r="DJ121" s="28"/>
-      <c r="DK121" s="28"/>
-      <c r="DL121" s="28"/>
-      <c r="DM121" s="28"/>
-      <c r="DN121" s="28"/>
-      <c r="DO121" s="1"/>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="28"/>
+      <c r="L120" s="28"/>
+      <c r="M120" s="28"/>
+      <c r="N120" s="28"/>
+      <c r="O120" s="28"/>
+      <c r="P120" s="28"/>
+      <c r="Q120" s="28"/>
+      <c r="R120" s="28"/>
+      <c r="S120" s="28"/>
+      <c r="T120" s="28"/>
+      <c r="U120" s="28"/>
+      <c r="V120" s="28"/>
+      <c r="W120" s="28"/>
+      <c r="X120" s="28"/>
+      <c r="Y120" s="48"/>
+      <c r="Z120" s="48"/>
+      <c r="AA120" s="48"/>
+      <c r="AB120" s="48"/>
+      <c r="AC120" s="48"/>
+      <c r="AD120" s="48"/>
+      <c r="AE120" s="28"/>
+      <c r="AF120" s="28"/>
+      <c r="AG120" s="28"/>
+      <c r="AH120" s="28"/>
+      <c r="AI120" s="28"/>
+      <c r="AJ120" s="28"/>
+      <c r="AK120" s="28"/>
+      <c r="AL120" s="28"/>
+      <c r="AM120" s="28"/>
+      <c r="AN120" s="28"/>
+      <c r="AO120" s="28"/>
+      <c r="AP120" s="28"/>
+      <c r="AQ120" s="28"/>
+      <c r="AR120" s="28"/>
+      <c r="AS120" s="28"/>
+      <c r="AT120" s="28"/>
+      <c r="AU120" s="28"/>
+      <c r="AV120" s="28"/>
+      <c r="AW120" s="28"/>
+      <c r="AX120" s="28"/>
+      <c r="AY120" s="28"/>
+      <c r="AZ120" s="28"/>
+      <c r="BA120" s="28"/>
+      <c r="BB120" s="28"/>
+      <c r="BC120" s="28"/>
+      <c r="BD120" s="28"/>
+      <c r="BE120" s="28"/>
+      <c r="BF120" s="28"/>
+      <c r="BG120" s="28"/>
+      <c r="BH120" s="28"/>
+      <c r="BI120" s="28"/>
+      <c r="BJ120" s="28"/>
+      <c r="BK120" s="28"/>
+      <c r="BL120" s="28"/>
+      <c r="BM120" s="28"/>
+      <c r="BN120" s="28"/>
+      <c r="BO120" s="28"/>
+      <c r="BP120" s="28"/>
+      <c r="BQ120" s="28"/>
+      <c r="BR120" s="28"/>
+      <c r="BS120" s="28"/>
+      <c r="BT120" s="28"/>
+      <c r="BU120" s="28"/>
+      <c r="BV120" s="28"/>
+      <c r="BW120" s="28"/>
+      <c r="BX120" s="28"/>
+      <c r="BY120" s="28"/>
+      <c r="BZ120" s="28"/>
+      <c r="CA120" s="28"/>
+      <c r="CB120" s="28"/>
+      <c r="CC120" s="28"/>
+      <c r="CD120" s="28"/>
+      <c r="CE120" s="28"/>
+      <c r="CF120" s="28"/>
+      <c r="CG120" s="28"/>
+      <c r="CH120" s="28"/>
+      <c r="CI120" s="28"/>
+      <c r="CJ120" s="28"/>
+      <c r="CK120" s="28"/>
+      <c r="CL120" s="28"/>
+      <c r="CM120" s="28"/>
+      <c r="CN120" s="28"/>
+      <c r="CO120" s="28"/>
+      <c r="CP120" s="28"/>
+      <c r="CQ120" s="28"/>
+      <c r="CR120" s="28"/>
+      <c r="CS120" s="28"/>
+      <c r="CT120" s="28"/>
+      <c r="CU120" s="28"/>
+      <c r="CV120" s="28"/>
+      <c r="CW120" s="28"/>
+      <c r="CX120" s="28"/>
+      <c r="CY120" s="28"/>
+      <c r="CZ120" s="28"/>
+      <c r="DA120" s="28"/>
+      <c r="DB120" s="28"/>
+      <c r="DC120" s="28"/>
+      <c r="DD120" s="28"/>
+      <c r="DE120" s="28"/>
+      <c r="DF120" s="48"/>
+      <c r="DG120" s="48"/>
+      <c r="DH120" s="48"/>
+      <c r="DI120" s="28"/>
+      <c r="DJ120" s="28"/>
+      <c r="DK120" s="28"/>
+      <c r="DL120" s="28"/>
+      <c r="DM120" s="28"/>
+      <c r="DN120" s="28"/>
+      <c r="DO120" s="1"/>
+    </row>
+    <row r="121" spans="1:119" x14ac:dyDescent="0.2">
+      <c r="B121" s="23" t="s">
+        <v>733</v>
+      </c>
+      <c r="CA121" s="30">
+        <f>+CA67</f>
+        <v>4039</v>
+      </c>
+      <c r="CB121" s="30">
+        <f>+CB67</f>
+        <v>4310.6286400000008</v>
+      </c>
     </row>
     <row r="122" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="CO122" s="39">
+      <c r="B122" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="CA122" s="30">
+        <v>-11908</v>
+      </c>
+      <c r="CB122" s="30">
+        <f>-10224-CA122</f>
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="123" spans="1:119" x14ac:dyDescent="0.2">
+      <c r="B123" s="23" t="s">
+        <v>736</v>
+      </c>
+      <c r="CA123" s="30">
+        <v>2532</v>
+      </c>
+      <c r="CB123" s="30">
+        <f>5128-CA123</f>
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="124" spans="1:119" x14ac:dyDescent="0.2">
+      <c r="B124" s="23" t="s">
+        <v>737</v>
+      </c>
+      <c r="CA124" s="30">
+        <v>-711</v>
+      </c>
+      <c r="CB124" s="30">
+        <f>-1042-CA124</f>
+        <v>-331</v>
+      </c>
+    </row>
+    <row r="125" spans="1:119" x14ac:dyDescent="0.2">
+      <c r="B125" s="23" t="s">
+        <v>738</v>
+      </c>
+      <c r="CA125" s="30">
+        <v>133</v>
+      </c>
+      <c r="CB125" s="30">
+        <f>258-CA125</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:119" x14ac:dyDescent="0.2">
+      <c r="B126" s="23" t="s">
+        <v>739</v>
+      </c>
+      <c r="CA126" s="30">
+        <f>1+12949</f>
+        <v>12950</v>
+      </c>
+      <c r="CB126" s="30">
+        <f>871+13081-CA126</f>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:119" x14ac:dyDescent="0.2">
+      <c r="B127" s="23" t="s">
+        <v>740</v>
+      </c>
+      <c r="CA127" s="30">
+        <f>-280-102</f>
+        <v>-382</v>
+      </c>
+      <c r="CB127" s="30">
+        <f>-550-CA127-209</f>
+        <v>-377</v>
+      </c>
+    </row>
+    <row r="128" spans="1:119" x14ac:dyDescent="0.2">
+      <c r="B128" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="CA128" s="30">
+        <v>22</v>
+      </c>
+      <c r="CB128" s="30">
+        <f>20-CA128</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:80" x14ac:dyDescent="0.2">
+      <c r="B129" s="23" t="s">
+        <v>741</v>
+      </c>
+      <c r="CA129" s="30">
+        <f>479-218+300-665+910-608</f>
+        <v>198</v>
+      </c>
+      <c r="CB129" s="30">
+        <f>-540-443+41+70-1033-268-CA129</f>
+        <v>-2371</v>
+      </c>
+    </row>
+    <row r="130" spans="2:80" x14ac:dyDescent="0.2">
+      <c r="B130" s="23" t="s">
+        <v>735</v>
+      </c>
+      <c r="CA130" s="30">
+        <f>SUM(CA122:CA129)</f>
+        <v>2834</v>
+      </c>
+      <c r="CB130" s="30">
+        <f>SUM(CB122:CB129)</f>
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="132" spans="2:80" x14ac:dyDescent="0.2">
+      <c r="B132" s="23" t="s">
+        <v>745</v>
+      </c>
+      <c r="CA132" s="30">
+        <f>747-274+5</f>
+        <v>478</v>
+      </c>
+      <c r="CB132" s="30">
+        <f>822-358+60-CA132</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="133" spans="2:80" x14ac:dyDescent="0.2">
+      <c r="B133" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="CA133" s="30">
+        <v>-284</v>
+      </c>
+      <c r="CB133" s="30">
+        <f>-546-CA133</f>
+        <v>-262</v>
+      </c>
+    </row>
+    <row r="134" spans="2:80" x14ac:dyDescent="0.2">
+      <c r="B134" s="23" t="s">
+        <v>743</v>
+      </c>
+      <c r="CA134" s="30">
+        <v>241</v>
+      </c>
+      <c r="CB134" s="30">
+        <f>511-CA134</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" spans="2:80" x14ac:dyDescent="0.2">
+      <c r="B135" s="23" t="s">
+        <v>742</v>
+      </c>
+      <c r="CA135" s="30">
+        <v>-20053</v>
+      </c>
+      <c r="CB135" s="30">
+        <f>-21426-CA135</f>
+        <v>-1373</v>
+      </c>
+    </row>
+    <row r="136" spans="2:80" x14ac:dyDescent="0.2">
+      <c r="B136" s="23" t="s">
+        <v>735</v>
+      </c>
+      <c r="CA136" s="30">
+        <f>SUM(CA132:CA135)</f>
+        <v>-19618</v>
+      </c>
+      <c r="CB136" s="30">
+        <f>SUM(CB132:CB135)</f>
+        <v>-1319</v>
+      </c>
+    </row>
+    <row r="138" spans="2:80" x14ac:dyDescent="0.2">
+      <c r="B138" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="CA138" s="30">
+        <f>3070+12883</f>
+        <v>15953</v>
+      </c>
+      <c r="CB138" s="30">
+        <f>2987-2731+409-CA138+12883-395</f>
+        <v>-2800</v>
+      </c>
+    </row>
+    <row r="139" spans="2:80" x14ac:dyDescent="0.2">
+      <c r="B139" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="CA139" s="30">
+        <v>-1212</v>
+      </c>
+      <c r="CB139" s="30">
+        <f>-2429-CA139</f>
+        <v>-1217</v>
+      </c>
+    </row>
+    <row r="140" spans="2:80" x14ac:dyDescent="0.2">
+      <c r="B140" s="23" t="s">
+        <v>747</v>
+      </c>
+      <c r="CA140" s="30">
+        <v>-97</v>
+      </c>
+      <c r="CB140" s="30">
+        <f>-103-CA140</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="141" spans="2:80" x14ac:dyDescent="0.2">
+      <c r="B141" s="23" t="s">
+        <v>746</v>
+      </c>
+      <c r="CA141" s="30">
+        <f>SUM(CA138:CA140)</f>
+        <v>14644</v>
+      </c>
+      <c r="CB141" s="30">
+        <f>SUM(CB138:CB140)</f>
+        <v>-4023</v>
+      </c>
+    </row>
+    <row r="142" spans="2:80" x14ac:dyDescent="0.2">
+      <c r="CA142" s="30"/>
+    </row>
+    <row r="143" spans="2:80" x14ac:dyDescent="0.2">
+      <c r="B143" s="23" t="s">
+        <v>748</v>
+      </c>
+      <c r="CA143" s="28">
+        <v>-45</v>
+      </c>
+      <c r="CB143" s="28">
+        <f>-67-CA143</f>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="144" spans="2:80" x14ac:dyDescent="0.2">
+      <c r="B144" s="23" t="s">
+        <v>749</v>
+      </c>
+      <c r="CA144" s="30">
+        <f>+CA143+CA141+CA136+CA130</f>
+        <v>-2185</v>
+      </c>
+      <c r="CB144" s="30">
+        <f>+CB143+CB141+CB136+CB130</f>
+        <v>-3038</v>
+      </c>
+    </row>
+    <row r="147" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="B147" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="CO147" s="39">
         <f>CO55/CN55-1</f>
         <v>5.5340081354649406E-2</v>
       </c>
-      <c r="CP122" s="39">
+      <c r="CP147" s="39">
         <f>CP55/CO55-1</f>
         <v>2.3036930799569699E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="B123" s="1" t="s">
+    <row r="148" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="CO148" s="39">
+        <v>0.01</v>
+      </c>
+      <c r="CP148" s="39">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="149" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="B149" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="CO123" s="39">
+      <c r="CO149" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="CP149" s="39">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="150" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="B150" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="CO150" s="39">
         <v>0.01</v>
       </c>
-      <c r="CP123" s="39">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="124" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="B124" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="CO124" s="39">
-        <v>0.04</v>
-      </c>
-      <c r="CP124" s="39">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="125" spans="1:119" x14ac:dyDescent="0.2">
-      <c r="B125" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="CO125" s="39">
-        <v>0.01</v>
-      </c>
-      <c r="CP125" s="39">
+      <c r="CP150" s="39">
         <v>-0.03</v>
       </c>
     </row>
@@ -33640,18 +33828,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -33664,10 +33852,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="32" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -33713,7 +33901,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -33726,7 +33914,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -33734,15 +33922,15 @@
         <v>140</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>708</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -33750,7 +33938,7 @@
         <v>149</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -33761,13 +33949,13 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="32"/>
       <c r="C9" s="47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="32"/>
       <c r="C10" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -33775,42 +33963,42 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="47" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="32" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="32" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -33847,7 +34035,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -33865,19 +34053,19 @@
         <v>67</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="C5" s="23" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="C6" s="23" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -33910,7 +34098,7 @@
         <v>77</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -33918,19 +34106,19 @@
         <v>140</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="23"/>
       <c r="C12" s="23" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -33938,13 +34126,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="23"/>
       <c r="C15" s="23" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -33972,12 +34160,12 @@
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -34052,17 +34240,17 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -34120,7 +34308,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -34136,7 +34324,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -34160,7 +34348,7 @@
         <v>149</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -34168,27 +34356,27 @@
         <v>4</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>703</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -34196,7 +34384,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -34244,22 +34432,22 @@
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -34294,7 +34482,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D2" s="32"/>
     </row>
@@ -34303,7 +34491,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -34311,7 +34499,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -34319,7 +34507,7 @@
         <v>140</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -34327,7 +34515,7 @@
         <v>149</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -34337,12 +34525,12 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" s="47" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="32" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -34350,7 +34538,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="47" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -34358,17 +34546,17 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" s="47" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" s="32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" s="32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -34381,18 +34569,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34510,18 +34698,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2206DA00-2832-4926-9B8E-385E975B4BC4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC6227C-4700-4C6A-A399-7F39853AD9C6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC6227C-4700-4C6A-A399-7F39853AD9C6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2206DA00-2832-4926-9B8E-385E975B4BC4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/BMY.xlsx
+++ b/BMY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBB5B77-CD91-420C-9FCB-B1640D86D7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DAEB6C-A7DE-43CC-84C3-F84FCE947FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41730" yWindow="1050" windowWidth="30405" windowHeight="18060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32130" yWindow="3510" windowWidth="30195" windowHeight="16815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="23" r:id="rId1"/>
@@ -7289,10 +7289,10 @@
   <dimension ref="A1:FY150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BO126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CB149" sqref="CB149"/>
+      <selection pane="bottomRight" activeCell="BQ15" sqref="BQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29749,27 +29749,27 @@
         <v>-45379</v>
       </c>
       <c r="CC94" s="35">
-        <f>+CB94+CC67</f>
+        <f t="shared" ref="CC94:CH94" si="341">+CB94+CC67</f>
         <v>-41487.116320000001</v>
       </c>
       <c r="CD94" s="35">
-        <f>+CC94+CD67</f>
+        <f t="shared" si="341"/>
         <v>-37357.570720000003</v>
       </c>
       <c r="CE94" s="35">
-        <f>+CD94+CE67</f>
+        <f t="shared" si="341"/>
         <v>-32733.672400000003</v>
       </c>
       <c r="CF94" s="35">
-        <f>+CE94+CF67</f>
+        <f t="shared" si="341"/>
         <v>-27823.398273600003</v>
       </c>
       <c r="CG94" s="35">
-        <f>+CF94+CG67</f>
+        <f t="shared" si="341"/>
         <v>-23307.632356800001</v>
       </c>
       <c r="CH94" s="35">
-        <f>+CG94+CH67</f>
+        <f t="shared" si="341"/>
         <v>-18644.736451199999</v>
       </c>
       <c r="CI94" s="35"/>
@@ -29819,43 +29819,43 @@
         <v>-18644.736451199999</v>
       </c>
       <c r="DW94" s="44">
-        <f>+DV94+DW67</f>
+        <f t="shared" ref="DW94:EF94" si="342">+DV94+DW67</f>
         <v>7546.0087013200027</v>
       </c>
       <c r="DX94" s="44">
-        <f>+DW94+DX67</f>
+        <f t="shared" si="342"/>
         <v>34954.279951278964</v>
       </c>
       <c r="DY94" s="44">
-        <f>+DX94+DY67</f>
+        <f t="shared" si="342"/>
         <v>60601.963702859772</v>
       </c>
       <c r="DZ94" s="44">
-        <f>+DY94+DZ67</f>
+        <f t="shared" si="342"/>
         <v>84417.176206873322</v>
       </c>
       <c r="EA94" s="44">
-        <f>+DZ94+EA67</f>
+        <f t="shared" si="342"/>
         <v>108762.44028843251</v>
       </c>
       <c r="EB94" s="44">
-        <f>+EA94+EB67</f>
+        <f t="shared" si="342"/>
         <v>133950.96366000862</v>
       </c>
       <c r="EC94" s="44">
-        <f>+EB94+EC67</f>
+        <f t="shared" si="342"/>
         <v>159862.86939798042</v>
       </c>
       <c r="ED94" s="44">
-        <f>+EC94+ED67</f>
+        <f t="shared" si="342"/>
         <v>177721.3293295858</v>
       </c>
       <c r="EE94" s="44">
-        <f>+ED94+EE67</f>
+        <f t="shared" si="342"/>
         <v>193717.63797271263</v>
       </c>
       <c r="EF94" s="44">
-        <f>+EE94+EF67</f>
+        <f t="shared" si="342"/>
         <v>203157.75166403185</v>
       </c>
     </row>
@@ -34569,18 +34569,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34698,18 +34698,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC6227C-4700-4C6A-A399-7F39853AD9C6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2206DA00-2832-4926-9B8E-385E975B4BC4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2206DA00-2832-4926-9B8E-385E975B4BC4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC6227C-4700-4C6A-A399-7F39853AD9C6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/BMY.xlsx
+++ b/BMY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83709834-0A8C-4869-A6ED-16A663B07045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E018FD-FEA0-42BC-A43B-C24A76BCC166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36120" yWindow="1305" windowWidth="30855" windowHeight="18675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30090" yWindow="1620" windowWidth="30150" windowHeight="17955" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="23" r:id="rId1"/>
@@ -21,20 +21,21 @@
     <sheet name="Orencia" sheetId="3" r:id="rId6"/>
     <sheet name="Yervoy" sheetId="10" r:id="rId7"/>
     <sheet name="Eliquis" sheetId="9" r:id="rId8"/>
-    <sheet name="Empliciti" sheetId="22" r:id="rId9"/>
-    <sheet name="Avapro" sheetId="17" r:id="rId10"/>
-    <sheet name="Plavix" sheetId="2" r:id="rId11"/>
-    <sheet name="Abilify" sheetId="11" r:id="rId12"/>
-    <sheet name="Reyataz" sheetId="15" r:id="rId13"/>
-    <sheet name="Sprycel" sheetId="8" r:id="rId14"/>
-    <sheet name="Erbitux" sheetId="12" r:id="rId15"/>
-    <sheet name="Onglyza" sheetId="18" r:id="rId16"/>
-    <sheet name="Sustiva" sheetId="16" r:id="rId17"/>
-    <sheet name="dapagliflozin" sheetId="13" r:id="rId18"/>
-    <sheet name="ixabepilone" sheetId="7" r:id="rId19"/>
-    <sheet name="790052" sheetId="14" r:id="rId20"/>
-    <sheet name="Discontinuations" sheetId="5" r:id="rId21"/>
-    <sheet name="brivanib" sheetId="21" r:id="rId22"/>
+    <sheet name="Camzyos" sheetId="25" r:id="rId9"/>
+    <sheet name="Empliciti" sheetId="22" r:id="rId10"/>
+    <sheet name="Avapro" sheetId="17" r:id="rId11"/>
+    <sheet name="Plavix" sheetId="2" r:id="rId12"/>
+    <sheet name="Abilify" sheetId="11" r:id="rId13"/>
+    <sheet name="Reyataz" sheetId="15" r:id="rId14"/>
+    <sheet name="Sprycel" sheetId="8" r:id="rId15"/>
+    <sheet name="Erbitux" sheetId="12" r:id="rId16"/>
+    <sheet name="Onglyza" sheetId="18" r:id="rId17"/>
+    <sheet name="Sustiva" sheetId="16" r:id="rId18"/>
+    <sheet name="dapagliflozin" sheetId="13" r:id="rId19"/>
+    <sheet name="ixabepilone" sheetId="7" r:id="rId20"/>
+    <sheet name="790052" sheetId="14" r:id="rId21"/>
+    <sheet name="Discontinuations" sheetId="5" r:id="rId22"/>
+    <sheet name="brivanib" sheetId="21" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -699,7 +700,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="753">
   <si>
     <t>Name</t>
   </si>
@@ -2949,6 +2950,15 @@
   </si>
   <si>
     <t>CIC</t>
+  </si>
+  <si>
+    <t>mavacamten</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>$100k/year</t>
   </si>
 </sst>
 </file>
@@ -3955,7 +3965,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38:H39"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5071,6 +5081,114 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="47" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="32" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="32"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="47" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="32"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="47" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="32" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -5153,7 +5271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
@@ -5328,7 +5446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -5419,7 +5537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -5508,7 +5626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
@@ -5755,7 +5873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -5854,7 +5972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -5903,7 +6021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -5998,7 +6116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -6138,132 +6256,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -7102,6 +7094,132 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -7183,7 +7301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -7215,7 +7333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -7304,10 +7422,10 @@
   <dimension ref="A1:FY150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BR3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CJ30" sqref="CJ30"/>
+      <selection pane="bottomRight" activeCell="BS6" sqref="BS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19285,51 +19403,51 @@
         <v>3322</v>
       </c>
       <c r="AL57" s="30">
-        <f>+AL55-AL56</f>
+        <f t="shared" ref="AL57:AV57" si="128">+AL55-AL56</f>
         <v>3168</v>
       </c>
       <c r="AM57" s="30">
-        <f>+AM55-AM56</f>
+        <f t="shared" si="128"/>
         <v>2843</v>
       </c>
       <c r="AN57" s="30">
-        <f>+AN55-AN56</f>
+        <f t="shared" si="128"/>
         <v>2898</v>
       </c>
       <c r="AO57" s="30">
-        <f>+AO55-AO56</f>
+        <f t="shared" si="128"/>
         <v>3734</v>
       </c>
       <c r="AP57" s="30">
-        <f>+AP55-AP56</f>
+        <f t="shared" si="128"/>
         <v>3292</v>
       </c>
       <c r="AQ57" s="30">
-        <f>+AQ55-AQ56</f>
+        <f t="shared" si="128"/>
         <v>3194</v>
       </c>
       <c r="AR57" s="30">
-        <f>+AR55-AR56</f>
+        <f t="shared" si="128"/>
         <v>3150</v>
       </c>
       <c r="AS57" s="30">
-        <f>+AS55-AS56</f>
+        <f t="shared" si="128"/>
         <v>2972</v>
       </c>
       <c r="AT57" s="30">
-        <f>+AT55-AT56</f>
+        <f t="shared" si="128"/>
         <v>3335</v>
       </c>
       <c r="AU57" s="30">
-        <f>+AU55-AU56</f>
+        <f t="shared" si="128"/>
         <v>3339</v>
       </c>
       <c r="AV57" s="30">
-        <f>+AV55-AV56</f>
+        <f t="shared" si="128"/>
         <v>3665</v>
       </c>
       <c r="AW57" s="30">
-        <f t="shared" ref="AW57" si="128">+AW55-AW56</f>
+        <f t="shared" ref="AW57" si="129">+AW55-AW56</f>
         <v>3624</v>
       </c>
       <c r="AX57" s="30">
@@ -19345,7 +19463,7 @@
         <v>3705</v>
       </c>
       <c r="BA57" s="30">
-        <f t="shared" ref="BA57" si="129">+BA55-BA56</f>
+        <f t="shared" ref="BA57" si="130">+BA55-BA56</f>
         <v>3683</v>
       </c>
       <c r="BB57" s="30">
@@ -19363,41 +19481,41 @@
       <c r="BE57" s="30"/>
       <c r="BF57" s="30"/>
       <c r="BG57" s="30">
-        <f t="shared" ref="BG57:BH57" si="130">BG55-BG56</f>
+        <f t="shared" ref="BG57:BH57" si="131">BG55-BG56</f>
         <v>4096</v>
       </c>
       <c r="BH57" s="30">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>4301</v>
       </c>
       <c r="BI57" s="30"/>
       <c r="BJ57" s="30"/>
       <c r="BK57" s="30">
-        <f t="shared" ref="BK57" si="131">BK55-BK56</f>
+        <f t="shared" ref="BK57" si="132">BK55-BK56</f>
         <v>8557</v>
       </c>
       <c r="BL57" s="30">
-        <f t="shared" ref="BL57:BN57" si="132">BL55-BL56</f>
+        <f t="shared" ref="BL57:BN57" si="133">BL55-BL56</f>
         <v>7430</v>
       </c>
       <c r="BM57" s="30">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>8038</v>
       </c>
       <c r="BN57" s="30">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>8833</v>
       </c>
       <c r="BO57" s="30">
-        <f t="shared" ref="BO57:BQ57" si="133">BO55-BO56</f>
+        <f t="shared" ref="BO57:BQ57" si="134">BO55-BO56</f>
         <v>8649</v>
       </c>
       <c r="BP57" s="30">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>9340</v>
       </c>
       <c r="BQ57" s="30">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>9333</v>
       </c>
       <c r="BR57" s="30">
@@ -19409,7 +19527,7 @@
         <v>9229</v>
       </c>
       <c r="BT57" s="30">
-        <f t="shared" ref="BT57" si="134">BT55-BT56</f>
+        <f t="shared" ref="BT57" si="135">BT55-BT56</f>
         <v>9312</v>
       </c>
       <c r="BU57" s="30">
@@ -19421,19 +19539,19 @@
         <v>8813</v>
       </c>
       <c r="BW57" s="30">
-        <f t="shared" ref="BW57:BZ57" si="135">+BW55*0.79</f>
+        <f t="shared" ref="BW57:BZ57" si="136">+BW55*0.79</f>
         <v>8956.23</v>
       </c>
       <c r="BX57" s="30">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>8868.5400000000009</v>
       </c>
       <c r="BY57" s="30">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>8663.1400000000012</v>
       </c>
       <c r="BZ57" s="30">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>9066.83</v>
       </c>
       <c r="CA57" s="30">
@@ -19449,23 +19567,23 @@
         <v>9070.7167999999983</v>
       </c>
       <c r="CD57" s="30">
-        <f t="shared" ref="CD57:CH57" si="136">+CD55*0.79</f>
+        <f t="shared" ref="CD57:CH57" si="137">+CD55*0.79</f>
         <v>9667.6328999999987</v>
       </c>
       <c r="CE57" s="30">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>10158.222900000001</v>
       </c>
       <c r="CF57" s="30">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>10430.851900000001</v>
       </c>
       <c r="CG57" s="30">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>9892.6282180000017</v>
       </c>
       <c r="CH57" s="30">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>10379.377791000001</v>
       </c>
       <c r="CI57" s="30"/>
@@ -19525,35 +19643,35 @@
         <v>15646</v>
       </c>
       <c r="DI57" s="30">
-        <f t="shared" ref="DI57:DP57" si="137">DI55*DI87</f>
+        <f t="shared" ref="DI57:DP57" si="138">DI55*DI87</f>
         <v>12826.1</v>
       </c>
       <c r="DJ57" s="65">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>10914.7045</v>
       </c>
       <c r="DK57" s="65">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>11097.897999999999</v>
       </c>
       <c r="DL57" s="30">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>10988.41670625</v>
       </c>
       <c r="DM57" s="30">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>14319.809814374999</v>
       </c>
       <c r="DN57" s="30">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>15562.004719921873</v>
       </c>
       <c r="DO57" s="30">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>16920.75</v>
       </c>
       <c r="DP57" s="30">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
       <c r="DQ57" s="30"/>
@@ -19573,39 +19691,39 @@
         <v>40293.454080800002</v>
       </c>
       <c r="DX57" s="25">
-        <f t="shared" ref="DX57:EF57" si="138">+DX55*0.8</f>
+        <f t="shared" ref="DX57:EF57" si="139">+DX55*0.8</f>
         <v>42073.697200536</v>
       </c>
       <c r="DY57" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>39027.768479954728</v>
       </c>
       <c r="DZ57" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>35892.918145216419</v>
       </c>
       <c r="EA57" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>36415.271802929536</v>
       </c>
       <c r="EB57" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>37412.959768105597</v>
       </c>
       <c r="EC57" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>38215.843121064201</v>
       </c>
       <c r="ED57" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>25507.010732956223</v>
       </c>
       <c r="EE57" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>22422.366166907919</v>
       </c>
       <c r="EF57" s="25">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>12139.034750057697</v>
       </c>
     </row>
@@ -19834,15 +19952,15 @@
         <v>1762</v>
       </c>
       <c r="BX58" s="30">
-        <f t="shared" ref="BX58:BZ58" si="139">+BX55*0.17</f>
+        <f t="shared" ref="BX58:BZ58" si="140">+BX55*0.17</f>
         <v>1908.42</v>
       </c>
       <c r="BY58" s="30">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>1864.22</v>
       </c>
       <c r="BZ58" s="30">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>1951.0900000000001</v>
       </c>
       <c r="CA58" s="30">
@@ -19853,27 +19971,27 @@
         <v>1927.5042000000001</v>
       </c>
       <c r="CC58" s="30">
-        <f t="shared" ref="CC58:CH58" si="140">+BY58*1.01</f>
+        <f t="shared" ref="CC58:CH58" si="141">+BY58*1.01</f>
         <v>1882.8622</v>
       </c>
       <c r="CD58" s="30">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1970.6009000000001</v>
       </c>
       <c r="CE58" s="30">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>2008.89</v>
       </c>
       <c r="CF58" s="30">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1946.7792420000001</v>
       </c>
       <c r="CG58" s="30">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1901.690822</v>
       </c>
       <c r="CH58" s="30">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>1990.3069090000001</v>
       </c>
       <c r="CI58" s="30"/>
@@ -19951,11 +20069,11 @@
         <v>1283.7636632812498</v>
       </c>
       <c r="DO58" s="30">
-        <f t="shared" ref="DO58:DP58" si="141">+DN58*0.5</f>
+        <f t="shared" ref="DO58:DP58" si="142">+DN58*0.5</f>
         <v>641.88183164062491</v>
       </c>
       <c r="DP58" s="30">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>320.94091582031245</v>
       </c>
       <c r="DQ58" s="30"/>
@@ -19963,11 +20081,11 @@
       <c r="DS58" s="30"/>
       <c r="DT58" s="30"/>
       <c r="DU58" s="35">
-        <f t="shared" ref="DU58:DU60" si="142">SUM(CA58:CD58)</f>
+        <f t="shared" ref="DU58:DU60" si="143">SUM(CA58:CD58)</f>
         <v>7769.9673000000012</v>
       </c>
       <c r="DV58" s="35">
-        <f t="shared" ref="DV58:DV60" si="143">SUM(CE58:CH58)</f>
+        <f t="shared" ref="DV58:DV60" si="144">SUM(CE58:CH58)</f>
         <v>7847.6669730000003</v>
       </c>
       <c r="DW58" s="25">
@@ -19975,39 +20093,39 @@
         <v>7555.0226401500004</v>
       </c>
       <c r="DX58" s="25">
-        <f t="shared" ref="DX58:EF58" si="144">+DX55*0.15</f>
+        <f t="shared" ref="DX58:EF58" si="145">+DX55*0.15</f>
         <v>7888.8182251004982</v>
       </c>
       <c r="DY58" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>7317.7065899915106</v>
       </c>
       <c r="DZ58" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>6729.9221522280786</v>
       </c>
       <c r="EA58" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>6827.863463049287</v>
       </c>
       <c r="EB58" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>7014.9299565197989</v>
       </c>
       <c r="EC58" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>7165.4705851995368</v>
       </c>
       <c r="ED58" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>4782.5645124292914</v>
       </c>
       <c r="EE58" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>4204.1936562952342</v>
       </c>
       <c r="EF58" s="25">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>2276.0690156358182</v>
       </c>
     </row>
@@ -20232,35 +20350,35 @@
         <v>957</v>
       </c>
       <c r="DI59" s="30">
-        <f t="shared" ref="DI59:DP59" si="145">DI55*0.06</f>
+        <f t="shared" ref="DI59:DP59" si="146">DI55*0.06</f>
         <v>1054.2</v>
       </c>
       <c r="DJ59" s="65">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>897.09899999999993</v>
       </c>
       <c r="DK59" s="65">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>912.15599999999995</v>
       </c>
       <c r="DL59" s="30">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>903.15753749999999</v>
       </c>
       <c r="DM59" s="30">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>1161.065660625</v>
       </c>
       <c r="DN59" s="30">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>1244.9603775937499</v>
       </c>
       <c r="DO59" s="30">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>1353.6599999999999</v>
       </c>
       <c r="DP59" s="30">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>1568.7</v>
       </c>
       <c r="DQ59" s="30"/>
@@ -20268,11 +20386,11 @@
       <c r="DS59" s="30"/>
       <c r="DT59" s="30"/>
       <c r="DU59" s="35">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="DV59" s="35">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
     </row>
@@ -20499,15 +20617,15 @@
         <v>2206</v>
       </c>
       <c r="BX60" s="30">
-        <f t="shared" ref="BX60:BZ60" si="146">+BT60</f>
+        <f t="shared" ref="BX60:BZ60" si="147">+BT60</f>
         <v>2300</v>
       </c>
       <c r="BY60" s="30">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>3251</v>
       </c>
       <c r="BZ60" s="30">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>2510</v>
       </c>
       <c r="CA60" s="30">
@@ -20522,23 +20640,23 @@
         <v>2323</v>
       </c>
       <c r="CD60" s="30">
-        <f t="shared" ref="CD60" si="147">+BZ60*1.01</f>
+        <f t="shared" ref="CD60" si="148">+BZ60*1.01</f>
         <v>2535.1</v>
       </c>
       <c r="CE60" s="30">
-        <f t="shared" ref="CE60" si="148">+CA60*1.01</f>
+        <f t="shared" ref="CE60" si="149">+CA60*1.01</f>
         <v>2369.46</v>
       </c>
       <c r="CF60" s="30">
-        <f t="shared" ref="CF60" si="149">+CB60*1.01</f>
+        <f t="shared" ref="CF60" si="150">+CB60*1.01</f>
         <v>2346.23</v>
       </c>
       <c r="CG60" s="30">
-        <f t="shared" ref="CG60" si="150">+CC60*1.01</f>
+        <f t="shared" ref="CG60" si="151">+CC60*1.01</f>
         <v>2346.23</v>
       </c>
       <c r="CH60" s="30">
-        <f t="shared" ref="CH60" si="151">+CD60*1.01</f>
+        <f t="shared" ref="CH60" si="152">+CD60*1.01</f>
         <v>2560.451</v>
       </c>
       <c r="CI60" s="30"/>
@@ -20604,11 +20722,11 @@
       <c r="DS60" s="30"/>
       <c r="DT60" s="30"/>
       <c r="DU60" s="35">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>9527.1</v>
       </c>
       <c r="DV60" s="35">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>9622.3709999999992</v>
       </c>
     </row>
@@ -20617,55 +20735,55 @@
         <v>244</v>
       </c>
       <c r="C61" s="30">
-        <f t="shared" ref="C61:R61" si="152">C60+C59+C58</f>
+        <f t="shared" ref="C61:R61" si="153">C60+C59+C58</f>
         <v>2154</v>
       </c>
       <c r="D61" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2282</v>
       </c>
       <c r="E61" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2304</v>
       </c>
       <c r="F61" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2588</v>
       </c>
       <c r="G61" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2283</v>
       </c>
       <c r="H61" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2273</v>
       </c>
       <c r="I61" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2231</v>
       </c>
       <c r="J61" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2498</v>
       </c>
       <c r="K61" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2192</v>
       </c>
       <c r="L61" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2355</v>
       </c>
       <c r="M61" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2392</v>
       </c>
       <c r="N61" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2734</v>
       </c>
       <c r="O61" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2348</v>
       </c>
       <c r="P61" s="30">
@@ -20677,59 +20795,59 @@
         <v>2330</v>
       </c>
       <c r="R61" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2330</v>
       </c>
       <c r="S61" s="30">
-        <f t="shared" ref="S61:Z61" si="153">S60+S59+S58</f>
+        <f t="shared" ref="S61:Z61" si="154">S60+S59+S58</f>
         <v>2311</v>
       </c>
       <c r="T61" s="30">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>2306</v>
       </c>
       <c r="U61" s="30">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>2316</v>
       </c>
       <c r="V61" s="30">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>2612</v>
       </c>
       <c r="W61" s="30">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>2022</v>
       </c>
       <c r="X61" s="30">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>1979</v>
       </c>
       <c r="Y61" s="30">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>1947</v>
       </c>
       <c r="Z61" s="50">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>2281</v>
       </c>
       <c r="AA61" s="50">
-        <f t="shared" ref="AA61:AK61" si="154">AA60+AA59+AA58</f>
+        <f t="shared" ref="AA61:AK61" si="155">AA60+AA59+AA58</f>
         <v>2077</v>
       </c>
       <c r="AB61" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>2216</v>
       </c>
       <c r="AC61" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>2197</v>
       </c>
       <c r="AD61" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>2509</v>
       </c>
       <c r="AE61" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>2105</v>
       </c>
       <c r="AF61" s="30">
@@ -20737,23 +20855,23 @@
         <v>2190</v>
       </c>
       <c r="AG61" s="50">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>4019</v>
       </c>
       <c r="AH61" s="50">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>2437</v>
       </c>
       <c r="AI61" s="50">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>2113</v>
       </c>
       <c r="AJ61" s="50">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>2211</v>
       </c>
       <c r="AK61" s="50">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>2067</v>
       </c>
       <c r="AL61" s="50">
@@ -20773,103 +20891,103 @@
         <v>2183</v>
       </c>
       <c r="AP61" s="30">
-        <f t="shared" ref="AP61" si="155">SUM(AP58:AP60)</f>
+        <f t="shared" ref="AP61" si="156">SUM(AP58:AP60)</f>
         <v>2553</v>
       </c>
       <c r="AQ61" s="30">
-        <f t="shared" ref="AQ61:AR61" si="156">SUM(AQ58:AQ60)</f>
+        <f t="shared" ref="AQ61:AR61" si="157">SUM(AQ58:AQ60)</f>
         <v>2045</v>
       </c>
       <c r="AR61" s="30">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>2991</v>
       </c>
       <c r="AS61" s="30">
-        <f t="shared" ref="AS61" si="157">SUM(AS58:AS60)</f>
+        <f t="shared" ref="AS61" si="158">SUM(AS58:AS60)</f>
         <v>2308</v>
       </c>
       <c r="AT61" s="30">
-        <f t="shared" ref="AT61" si="158">SUM(AT58:AT60)</f>
+        <f t="shared" ref="AT61" si="159">SUM(AT58:AT60)</f>
         <v>3417</v>
       </c>
       <c r="AU61" s="30">
-        <f t="shared" ref="AU61:AV61" si="159">SUM(AU58:AU60)</f>
+        <f t="shared" ref="AU61:AV61" si="160">SUM(AU58:AU60)</f>
         <v>2204</v>
       </c>
       <c r="AV61" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>2504</v>
       </c>
       <c r="AW61" s="30">
-        <f t="shared" ref="AW61:AX61" si="160">SUM(AW58:AW60)</f>
+        <f t="shared" ref="AW61:AX61" si="161">SUM(AW58:AW60)</f>
         <v>2223</v>
       </c>
       <c r="AX61" s="30">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>2675</v>
       </c>
       <c r="AY61" s="30">
-        <f t="shared" ref="AY61:AZ61" si="161">SUM(AY58:AY60)</f>
+        <f t="shared" ref="AY61:AZ61" si="162">SUM(AY58:AY60)</f>
         <v>2191</v>
       </c>
       <c r="AZ61" s="30">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>2377</v>
       </c>
       <c r="BA61" s="30">
-        <f t="shared" ref="BA61:BB61" si="162">SUM(BA58:BA60)</f>
+        <f t="shared" ref="BA61:BB61" si="163">SUM(BA58:BA60)</f>
         <v>2316</v>
       </c>
       <c r="BB61" s="30">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>2692</v>
       </c>
       <c r="BC61" s="30">
-        <f t="shared" ref="BC61:BD61" si="163">SUM(BC58:BC60)</f>
+        <f t="shared" ref="BC61:BD61" si="164">SUM(BC58:BC60)</f>
         <v>2149</v>
       </c>
       <c r="BD61" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>2472</v>
       </c>
       <c r="BG61" s="30">
-        <f t="shared" ref="BG61:BH61" si="164">SUM(BG58:BG60)</f>
+        <f t="shared" ref="BG61:BH61" si="165">SUM(BG58:BG60)</f>
         <v>2354</v>
       </c>
       <c r="BH61" s="30">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>2401</v>
       </c>
       <c r="BK61" s="30">
-        <f t="shared" ref="BK61" si="165">SUM(BK58:BK60)</f>
+        <f t="shared" ref="BK61" si="166">SUM(BK58:BK60)</f>
         <v>3978</v>
       </c>
       <c r="BL61" s="30">
-        <f t="shared" ref="BL61:BN61" si="166">SUM(BL58:BL60)</f>
+        <f t="shared" ref="BL61:BN61" si="167">SUM(BL58:BL60)</f>
         <v>4150</v>
       </c>
       <c r="BM61" s="30">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>4205</v>
       </c>
       <c r="BN61" s="30">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>5017</v>
       </c>
       <c r="BO61" s="30">
-        <f t="shared" ref="BO61:BR61" si="167">SUM(BO58:BO60)</f>
+        <f t="shared" ref="BO61:BR61" si="168">SUM(BO58:BO60)</f>
         <v>3885</v>
       </c>
       <c r="BP61" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>4129</v>
       </c>
       <c r="BQ61" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>5039</v>
       </c>
       <c r="BR61" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>4959</v>
       </c>
       <c r="BS61" s="30">
@@ -20885,55 +21003,55 @@
         <v>5158.0600000000004</v>
       </c>
       <c r="BV61" s="30">
-        <f t="shared" ref="BV61:BZ61" si="168">SUM(BV58:BV60)</f>
+        <f t="shared" ref="BV61:BZ61" si="169">SUM(BV58:BV60)</f>
         <v>4776</v>
       </c>
       <c r="BW61" s="30">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>3968</v>
       </c>
       <c r="BX61" s="30">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>4208.42</v>
       </c>
       <c r="BY61" s="30">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>5115.22</v>
       </c>
       <c r="BZ61" s="30">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>4461.09</v>
       </c>
       <c r="CA61" s="30">
-        <f t="shared" ref="CA61:CH61" si="169">SUM(CA58:CA60)</f>
+        <f t="shared" ref="CA61:CH61" si="170">SUM(CA58:CA60)</f>
         <v>4335</v>
       </c>
       <c r="CB61" s="30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>4250.5042000000003</v>
       </c>
       <c r="CC61" s="30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>4205.8621999999996</v>
       </c>
       <c r="CD61" s="30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>4505.7008999999998</v>
       </c>
       <c r="CE61" s="30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>4378.3500000000004</v>
       </c>
       <c r="CF61" s="30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>4293.0092420000001</v>
       </c>
       <c r="CG61" s="30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>4247.920822</v>
       </c>
       <c r="CH61" s="30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>4550.7579089999999</v>
       </c>
       <c r="CL61" s="30">
@@ -20958,51 +21076,51 @@
       </c>
       <c r="DD61" s="30"/>
       <c r="DE61" s="30">
-        <f t="shared" ref="DE61:DN61" si="170">SUM(DE58:DE60)</f>
+        <f t="shared" ref="DE61:DN61" si="171">SUM(DE58:DE60)</f>
         <v>9366</v>
       </c>
       <c r="DF61" s="50">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>9545</v>
       </c>
       <c r="DG61" s="50">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>8229</v>
       </c>
       <c r="DH61" s="50">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>8999</v>
       </c>
       <c r="DI61" s="30">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>5047.05</v>
       </c>
       <c r="DJ61" s="65">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>4690.3064999999997</v>
       </c>
       <c r="DK61" s="65">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>4515.703125</v>
       </c>
       <c r="DL61" s="30">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>3605.81788125</v>
       </c>
       <c r="DM61" s="30">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>3728.5929871874996</v>
       </c>
       <c r="DN61" s="30">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>2528.7240408749994</v>
       </c>
       <c r="DO61" s="30">
-        <f t="shared" ref="DO61:DV61" si="171">SUM(DO58:DO60)</f>
+        <f t="shared" ref="DO61:DV61" si="172">SUM(DO58:DO60)</f>
         <v>1995.5418316406249</v>
       </c>
       <c r="DP61" s="30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>1889.6409158203126</v>
       </c>
       <c r="DQ61" s="30">
@@ -21010,15 +21128,15 @@
         <v>0</v>
       </c>
       <c r="DR61" s="30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="DS61" s="30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="DT61" s="30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0</v>
       </c>
       <c r="DU61" s="30">
@@ -21026,47 +21144,47 @@
         <v>17297.067300000002</v>
       </c>
       <c r="DV61" s="30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>17470.037972999999</v>
       </c>
       <c r="DW61" s="30">
-        <f t="shared" ref="DW61:EF61" si="172">SUM(DW58:DW60)</f>
+        <f t="shared" ref="DW61:EF61" si="173">SUM(DW58:DW60)</f>
         <v>7555.0226401500004</v>
       </c>
       <c r="DX61" s="30">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>7888.8182251004982</v>
       </c>
       <c r="DY61" s="30">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>7317.7065899915106</v>
       </c>
       <c r="DZ61" s="30">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>6729.9221522280786</v>
       </c>
       <c r="EA61" s="30">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>6827.863463049287</v>
       </c>
       <c r="EB61" s="30">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>7014.9299565197989</v>
       </c>
       <c r="EC61" s="30">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>7165.4705851995368</v>
       </c>
       <c r="ED61" s="30">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>4782.5645124292914</v>
       </c>
       <c r="EE61" s="30">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>4204.1936562952342</v>
       </c>
       <c r="EF61" s="30">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>2276.0690156358182</v>
       </c>
     </row>
@@ -21075,55 +21193,55 @@
         <v>243</v>
       </c>
       <c r="C62" s="30">
-        <f t="shared" ref="C62:R62" si="173">C57-C61</f>
+        <f t="shared" ref="C62:R62" si="174">C57-C61</f>
         <v>2867</v>
       </c>
       <c r="D62" s="30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>3346</v>
       </c>
       <c r="E62" s="30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>3104</v>
       </c>
       <c r="F62" s="30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>3146</v>
       </c>
       <c r="G62" s="30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>3074</v>
       </c>
       <c r="H62" s="30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>3309</v>
       </c>
       <c r="I62" s="30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>2056</v>
       </c>
       <c r="J62" s="30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>1701</v>
       </c>
       <c r="K62" s="30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>2620</v>
       </c>
       <c r="L62" s="30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>3187</v>
       </c>
       <c r="M62" s="30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>3836</v>
       </c>
       <c r="N62" s="30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>3940</v>
       </c>
       <c r="O62" s="30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>4133</v>
       </c>
       <c r="P62" s="30">
@@ -21135,59 +21253,59 @@
         <v>4669</v>
       </c>
       <c r="R62" s="30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>-2330</v>
       </c>
       <c r="S62" s="30">
-        <f t="shared" ref="S62:Z62" si="174">S57-S61</f>
+        <f t="shared" ref="S62:Z62" si="175">S57-S61</f>
         <v>4571</v>
       </c>
       <c r="T62" s="30">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>5136</v>
       </c>
       <c r="U62" s="30">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>5218</v>
       </c>
       <c r="V62" s="30">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>4809</v>
       </c>
       <c r="W62" s="30">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1479</v>
       </c>
       <c r="X62" s="30">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>5219</v>
       </c>
       <c r="Y62" s="30">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1571</v>
       </c>
       <c r="Z62" s="50">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>1416</v>
       </c>
       <c r="AA62" s="50">
-        <f t="shared" ref="AA62:AK62" si="175">AA57-AA61</f>
+        <f t="shared" ref="AA62:AK62" si="176">AA57-AA61</f>
         <v>1591</v>
       </c>
       <c r="AB62" s="30">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>1737</v>
       </c>
       <c r="AC62" s="30">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>1741</v>
       </c>
       <c r="AD62" s="30">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>1578</v>
       </c>
       <c r="AE62" s="30">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>1843</v>
       </c>
       <c r="AF62" s="30">
@@ -21195,23 +21313,23 @@
         <v>1008</v>
       </c>
       <c r="AG62" s="50">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>-1270</v>
       </c>
       <c r="AH62" s="50">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>679</v>
       </c>
       <c r="AI62" s="50">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>1013</v>
       </c>
       <c r="AJ62" s="50">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>729</v>
       </c>
       <c r="AK62" s="50">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>1255</v>
       </c>
       <c r="AL62" s="50">
@@ -21231,103 +21349,103 @@
         <v>1551</v>
       </c>
       <c r="AP62" s="30">
-        <f t="shared" ref="AP62" si="176">AP57-AP61</f>
+        <f t="shared" ref="AP62" si="177">AP57-AP61</f>
         <v>739</v>
       </c>
       <c r="AQ62" s="30">
-        <f t="shared" ref="AQ62:AR62" si="177">AQ57-AQ61</f>
+        <f t="shared" ref="AQ62:AR62" si="178">AQ57-AQ61</f>
         <v>1149</v>
       </c>
       <c r="AR62" s="30">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>159</v>
       </c>
       <c r="AS62" s="30">
-        <f t="shared" ref="AS62" si="178">AS57-AS61</f>
+        <f t="shared" ref="AS62" si="179">AS57-AS61</f>
         <v>664</v>
       </c>
       <c r="AT62" s="30">
-        <f t="shared" ref="AT62:AV62" si="179">AT57-AT61</f>
+        <f t="shared" ref="AT62:AV62" si="180">AT57-AT61</f>
         <v>-82</v>
       </c>
       <c r="AU62" s="30">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>1135</v>
       </c>
       <c r="AV62" s="30">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>1161</v>
       </c>
       <c r="AW62" s="30">
-        <f t="shared" ref="AW62:AX62" si="180">AW57-AW61</f>
+        <f t="shared" ref="AW62:AX62" si="181">AW57-AW61</f>
         <v>1401</v>
       </c>
       <c r="AX62" s="30">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>1191</v>
       </c>
       <c r="AY62" s="30">
-        <f t="shared" ref="AY62:AZ62" si="181">AY57-AY61</f>
+        <f t="shared" ref="AY62:AZ62" si="182">AY57-AY61</f>
         <v>1473</v>
       </c>
       <c r="AZ62" s="30">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>1328</v>
       </c>
       <c r="BA62" s="30">
-        <f t="shared" ref="BA62:BB62" si="182">BA57-BA61</f>
+        <f t="shared" ref="BA62:BB62" si="183">BA57-BA61</f>
         <v>1367</v>
       </c>
       <c r="BB62" s="30">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>1102</v>
       </c>
       <c r="BC62" s="30">
-        <f t="shared" ref="BC62:BD62" si="183">BC57-BC61</f>
+        <f t="shared" ref="BC62:BD62" si="184">BC57-BC61</f>
         <v>1473</v>
       </c>
       <c r="BD62" s="30">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>1621</v>
       </c>
       <c r="BG62" s="30">
-        <f t="shared" ref="BG62:BH62" si="184">BG57-BG61</f>
+        <f t="shared" ref="BG62:BH62" si="185">BG57-BG61</f>
         <v>1742</v>
       </c>
       <c r="BH62" s="30">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>1900</v>
       </c>
       <c r="BK62" s="30">
-        <f t="shared" ref="BK62" si="185">BK57-BK61</f>
+        <f t="shared" ref="BK62" si="186">BK57-BK61</f>
         <v>4579</v>
       </c>
       <c r="BL62" s="30">
-        <f t="shared" ref="BL62:BN62" si="186">BL57-BL61</f>
+        <f t="shared" ref="BL62:BN62" si="187">BL57-BL61</f>
         <v>3280</v>
       </c>
       <c r="BM62" s="30">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>3833</v>
       </c>
       <c r="BN62" s="30">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>3816</v>
       </c>
       <c r="BO62" s="30">
-        <f t="shared" ref="BO62:BR62" si="187">BO57-BO61</f>
+        <f t="shared" ref="BO62:BR62" si="188">BO57-BO61</f>
         <v>4764</v>
       </c>
       <c r="BP62" s="30">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>5211</v>
       </c>
       <c r="BQ62" s="30">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>4294</v>
       </c>
       <c r="BR62" s="30">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>4670</v>
       </c>
       <c r="BS62" s="30">
@@ -21343,23 +21461,23 @@
         <v>3704.1600000000008</v>
       </c>
       <c r="BV62" s="30">
-        <f t="shared" ref="BV62:BZ62" si="188">BV57-BV61</f>
+        <f t="shared" ref="BV62:BZ62" si="189">BV57-BV61</f>
         <v>4037</v>
       </c>
       <c r="BW62" s="30">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>4988.2299999999996</v>
       </c>
       <c r="BX62" s="30">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>4660.1200000000008</v>
       </c>
       <c r="BY62" s="30">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>3547.920000000001</v>
       </c>
       <c r="BZ62" s="30">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>4605.74</v>
       </c>
       <c r="CA62" s="30">
@@ -21367,31 +21485,31 @@
         <v>4620</v>
       </c>
       <c r="CB62" s="30">
-        <f t="shared" ref="CB62:CH62" si="189">CB57-CB61</f>
+        <f t="shared" ref="CB62:CH62" si="190">CB57-CB61</f>
         <v>5388.2858000000006</v>
       </c>
       <c r="CC62" s="30">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>4864.8545999999988</v>
       </c>
       <c r="CD62" s="30">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>5161.9319999999989</v>
       </c>
       <c r="CE62" s="30">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>5779.8729000000003</v>
       </c>
       <c r="CF62" s="30">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>6137.8426580000014</v>
       </c>
       <c r="CG62" s="30">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>5644.7073960000016</v>
       </c>
       <c r="CH62" s="30">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>5828.6198820000009</v>
       </c>
       <c r="CL62" s="30">
@@ -21415,67 +21533,67 @@
         <v>2903</v>
       </c>
       <c r="DE62" s="30">
-        <f t="shared" ref="DE62:DN62" si="190">DE57-DE61</f>
+        <f t="shared" ref="DE62:DN62" si="191">DE57-DE61</f>
         <v>10920</v>
       </c>
       <c r="DF62" s="50">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>19734</v>
       </c>
       <c r="DG62" s="50">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>9685</v>
       </c>
       <c r="DH62" s="50">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>6647</v>
       </c>
       <c r="DI62" s="30">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>7779.05</v>
       </c>
       <c r="DJ62" s="65">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>6224.3980000000001</v>
       </c>
       <c r="DK62" s="65">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>6582.1948749999992</v>
       </c>
       <c r="DL62" s="30">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>7382.598825</v>
       </c>
       <c r="DM62" s="30">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>10591.2168271875</v>
       </c>
       <c r="DN62" s="30">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>13033.280679046875</v>
       </c>
       <c r="DO62" s="30">
-        <f t="shared" ref="DO62:DT62" si="191">DO57-DO61</f>
+        <f t="shared" ref="DO62:DT62" si="192">DO57-DO61</f>
         <v>14925.208168359375</v>
       </c>
       <c r="DP62" s="30">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>-1889.6409158203126</v>
       </c>
       <c r="DQ62" s="30">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="DR62" s="30">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="DS62" s="30">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="DT62" s="30">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>0</v>
       </c>
       <c r="DU62" s="30">
@@ -21487,43 +21605,43 @@
         <v>24891.042836000008</v>
       </c>
       <c r="DW62" s="30">
-        <f t="shared" ref="DW62:EF62" si="192">DW57-DW61</f>
+        <f t="shared" ref="DW62:EF62" si="193">DW57-DW61</f>
         <v>32738.431440650002</v>
       </c>
       <c r="DX62" s="30">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>34184.878975435502</v>
       </c>
       <c r="DY62" s="30">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>31710.061889963217</v>
       </c>
       <c r="DZ62" s="30">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>29162.995992988341</v>
       </c>
       <c r="EA62" s="30">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>29587.408339880247</v>
       </c>
       <c r="EB62" s="30">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>30398.029811585799</v>
       </c>
       <c r="EC62" s="30">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>31050.372535864662</v>
       </c>
       <c r="ED62" s="30">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>20724.44622052693</v>
       </c>
       <c r="EE62" s="30">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>18218.172510612683</v>
       </c>
       <c r="EF62" s="30">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>9862.9657344218795</v>
       </c>
     </row>
@@ -21723,7 +21841,7 @@
       <c r="BE63" s="30"/>
       <c r="BF63" s="30"/>
       <c r="BG63" s="30">
-        <f t="shared" ref="BG63" si="193">-100+106+10-71-2+15+303</f>
+        <f t="shared" ref="BG63" si="194">-100+106+10-71-2+15+303</f>
         <v>261</v>
       </c>
       <c r="BH63" s="30">
@@ -21774,19 +21892,19 @@
         <v>217</v>
       </c>
       <c r="BW63" s="30">
-        <f t="shared" ref="BW63:BZ63" si="194">AVERAGE(BS63:BV63)</f>
+        <f t="shared" ref="BW63:BZ63" si="195">AVERAGE(BS63:BV63)</f>
         <v>162.375</v>
       </c>
       <c r="BX63" s="30">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>173.21875</v>
       </c>
       <c r="BY63" s="30">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>171.7734375</v>
       </c>
       <c r="BZ63" s="30">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>181.091796875</v>
       </c>
       <c r="CA63" s="30">
@@ -21852,35 +21970,35 @@
         <v>450</v>
       </c>
       <c r="DI63" s="30">
-        <f t="shared" ref="DI63:DP63" si="195">DH94*$DY$69</f>
+        <f t="shared" ref="DI63:DP63" si="196">DH94*$DY$69</f>
         <v>0</v>
       </c>
       <c r="DJ63" s="65">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="DK63" s="65">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="DL63" s="30">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="DM63" s="30">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="DN63" s="30">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="DO63" s="30">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="DP63" s="30">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0</v>
       </c>
       <c r="DQ63" s="30"/>
@@ -21888,11 +22006,11 @@
       <c r="DS63" s="30"/>
       <c r="DT63" s="30"/>
       <c r="DU63" s="35">
-        <f t="shared" ref="DU63" si="196">SUM(CA63:CD63)</f>
+        <f t="shared" ref="DU63" si="197">SUM(CA63:CD63)</f>
         <v>154</v>
       </c>
       <c r="DV63" s="35">
-        <f t="shared" ref="DV63" si="197">SUM(CE63:CH63)</f>
+        <f t="shared" ref="DV63" si="198">SUM(CE63:CH63)</f>
         <v>0</v>
       </c>
       <c r="DX63" s="25">
@@ -21900,35 +22018,35 @@
         <v>75.460087013200024</v>
       </c>
       <c r="DY63" s="25">
-        <f t="shared" ref="DY63:EF63" si="198">DX94*$EI$72</f>
+        <f t="shared" ref="DY63:EF63" si="199">DX94*$EI$72</f>
         <v>349.54279951278966</v>
       </c>
       <c r="DZ63" s="25">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>606.01963702859769</v>
       </c>
       <c r="EA63" s="25">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>844.17176206873319</v>
       </c>
       <c r="EB63" s="25">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>1087.624402884325</v>
       </c>
       <c r="EC63" s="25">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>1339.5096366000862</v>
       </c>
       <c r="ED63" s="25">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>1598.6286939798042</v>
       </c>
       <c r="EE63" s="25">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>1777.213293295858</v>
       </c>
       <c r="EF63" s="25">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>1937.1763797271265</v>
       </c>
     </row>
@@ -21937,59 +22055,59 @@
         <v>104</v>
       </c>
       <c r="C64" s="30">
-        <f t="shared" ref="C64:R64" si="199">C62+C63</f>
+        <f t="shared" ref="C64:R64" si="200">C62+C63</f>
         <v>2911</v>
       </c>
       <c r="D64" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>3328</v>
       </c>
       <c r="E64" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>3150</v>
       </c>
       <c r="F64" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>3371</v>
       </c>
       <c r="G64" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>3130</v>
       </c>
       <c r="H64" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>3378</v>
       </c>
       <c r="I64" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>2208</v>
       </c>
       <c r="J64" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>1599</v>
       </c>
       <c r="K64" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>2724</v>
       </c>
       <c r="L64" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>3315</v>
       </c>
       <c r="M64" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>3964</v>
       </c>
       <c r="N64" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>3740</v>
       </c>
       <c r="O64" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>4258</v>
       </c>
       <c r="P64" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>4609</v>
       </c>
       <c r="Q64" s="30">
@@ -21997,203 +22115,203 @@
         <v>4890</v>
       </c>
       <c r="R64" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>-2210</v>
       </c>
       <c r="S64" s="30">
-        <f t="shared" ref="S64:AA64" si="200">S62+S63</f>
+        <f t="shared" ref="S64:AA64" si="201">S62+S63</f>
         <v>4795</v>
       </c>
       <c r="T64" s="30">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>5308</v>
       </c>
       <c r="U64" s="30">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>5387</v>
       </c>
       <c r="V64" s="30">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>5188</v>
       </c>
       <c r="W64" s="30">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>1463</v>
       </c>
       <c r="X64" s="30">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>5323</v>
       </c>
       <c r="Y64" s="30">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>1651</v>
       </c>
       <c r="Z64" s="50">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>1435</v>
       </c>
       <c r="AA64" s="50">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>1811</v>
       </c>
       <c r="AB64" s="30">
-        <f t="shared" ref="AB64:AN64" si="201">AB62+AB63</f>
+        <f t="shared" ref="AB64:AN64" si="202">AB62+AB63</f>
         <v>1830</v>
       </c>
       <c r="AC64" s="30">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>1838</v>
       </c>
       <c r="AD64" s="30">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>1618</v>
       </c>
       <c r="AE64" s="30">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>1877</v>
       </c>
       <c r="AF64" s="30">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>1079</v>
       </c>
       <c r="AG64" s="50">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>-713</v>
       </c>
       <c r="AH64" s="50">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>599</v>
       </c>
       <c r="AI64" s="50">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>1032</v>
       </c>
       <c r="AJ64" s="50">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>530</v>
       </c>
       <c r="AK64" s="50">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>1250</v>
       </c>
       <c r="AL64" s="50">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>869</v>
       </c>
       <c r="AM64" s="50">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>985</v>
       </c>
       <c r="AN64" s="50">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>909</v>
       </c>
       <c r="AO64" s="50">
-        <f t="shared" ref="AO64" si="202">AO62+AO63</f>
+        <f t="shared" ref="AO64" si="203">AO62+AO63</f>
         <v>1828</v>
       </c>
       <c r="AP64" s="30">
-        <f t="shared" ref="AP64" si="203">AP62+AP63</f>
+        <f t="shared" ref="AP64" si="204">AP62+AP63</f>
         <v>-60</v>
       </c>
       <c r="AQ64" s="30">
-        <f t="shared" ref="AQ64:AS64" si="204">AQ62+AQ63</f>
+        <f t="shared" ref="AQ64:AS64" si="205">AQ62+AQ63</f>
         <v>1448</v>
       </c>
       <c r="AR64" s="30">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>52</v>
       </c>
       <c r="AS64" s="30">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>987</v>
       </c>
       <c r="AT64" s="30">
-        <f t="shared" ref="AT64" si="205">AT62+AT63</f>
+        <f t="shared" ref="AT64" si="206">AT62+AT63</f>
         <v>-320</v>
       </c>
       <c r="AU64" s="30">
-        <f t="shared" ref="AU64:AV64" si="206">AU62+AU63</f>
+        <f t="shared" ref="AU64:AV64" si="207">AU62+AU63</f>
         <v>1655</v>
       </c>
       <c r="AV64" s="30">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>1615</v>
       </c>
       <c r="AW64" s="30">
-        <f t="shared" ref="AW64:AX64" si="207">AW62+AW63</f>
+        <f t="shared" ref="AW64:AX64" si="208">AW62+AW63</f>
         <v>1647</v>
       </c>
       <c r="AX64" s="30">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>1361</v>
       </c>
       <c r="AY64" s="30">
-        <f t="shared" ref="AY64:AZ64" si="208">AY62+AY63</f>
+        <f t="shared" ref="AY64:AZ64" si="209">AY62+AY63</f>
         <v>1768</v>
       </c>
       <c r="AZ64" s="30">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>1577</v>
       </c>
       <c r="BA64" s="30">
-        <f t="shared" ref="BA64:BB64" si="209">BA62+BA63</f>
+        <f t="shared" ref="BA64:BB64" si="210">BA62+BA63</f>
         <v>1608</v>
       </c>
       <c r="BB64" s="30">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>1375</v>
       </c>
       <c r="BC64" s="30">
-        <f t="shared" ref="BC64:BD64" si="210">BC62+BC63</f>
+        <f t="shared" ref="BC64:BD64" si="211">BC62+BC63</f>
         <v>1880</v>
       </c>
       <c r="BD64" s="30">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>2005</v>
       </c>
       <c r="BE64" s="30"/>
       <c r="BF64" s="30"/>
       <c r="BG64" s="30">
-        <f t="shared" ref="BG64:BH64" si="211">BG62+BG63</f>
+        <f t="shared" ref="BG64:BH64" si="212">BG62+BG63</f>
         <v>2003</v>
       </c>
       <c r="BH64" s="30">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>2161</v>
       </c>
       <c r="BI64" s="30"/>
       <c r="BJ64" s="30"/>
       <c r="BK64" s="30">
-        <f t="shared" ref="BK64" si="212">BK62+BK63</f>
+        <f t="shared" ref="BK64" si="213">BK62+BK63</f>
         <v>4676</v>
       </c>
       <c r="BL64" s="30">
-        <f t="shared" ref="BL64:BN64" si="213">BL62+BL63</f>
+        <f t="shared" ref="BL64:BN64" si="214">BL62+BL63</f>
         <v>3284</v>
       </c>
       <c r="BM64" s="30">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>3866</v>
       </c>
       <c r="BN64" s="30">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>3941</v>
       </c>
       <c r="BO64" s="30">
-        <f t="shared" ref="BO64:BR64" si="214">BO62+BO63</f>
+        <f t="shared" ref="BO64:BR64" si="215">BO62+BO63</f>
         <v>4781</v>
       </c>
       <c r="BP64" s="30">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>5250</v>
       </c>
       <c r="BQ64" s="30">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>4413</v>
       </c>
       <c r="BR64" s="30">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>4791</v>
       </c>
       <c r="BS64" s="30">
@@ -22209,55 +22327,55 @@
         <v>3838.6600000000008</v>
       </c>
       <c r="BV64" s="30">
-        <f t="shared" ref="BV64:CH64" si="215">BV62+BV63</f>
+        <f t="shared" ref="BV64:CH64" si="216">BV62+BV63</f>
         <v>4254</v>
       </c>
       <c r="BW64" s="30">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>5150.6049999999996</v>
       </c>
       <c r="BX64" s="30">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>4833.3387500000008</v>
       </c>
       <c r="BY64" s="30">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>3719.693437500001</v>
       </c>
       <c r="BZ64" s="30">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>4786.8317968749998</v>
       </c>
       <c r="CA64" s="30">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>4774</v>
       </c>
       <c r="CB64" s="30">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>5388.2858000000006</v>
       </c>
       <c r="CC64" s="30">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>4864.8545999999988</v>
       </c>
       <c r="CD64" s="30">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>5161.9319999999989</v>
       </c>
       <c r="CE64" s="30">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>5779.8729000000003</v>
       </c>
       <c r="CF64" s="30">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>6137.8426580000014</v>
       </c>
       <c r="CG64" s="30">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>5644.7073960000016</v>
       </c>
       <c r="CH64" s="30">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>5828.6198820000009</v>
       </c>
       <c r="CI64" s="30"/>
@@ -22284,67 +22402,67 @@
         <v>3071</v>
       </c>
       <c r="DE64" s="30">
-        <f t="shared" ref="DE64:DN64" si="216">DE63+DE62</f>
+        <f t="shared" ref="DE64:DN64" si="217">DE63+DE62</f>
         <v>11547</v>
       </c>
       <c r="DF64" s="50">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>20678</v>
       </c>
       <c r="DG64" s="50">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>9872</v>
       </c>
       <c r="DH64" s="50">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>7097</v>
       </c>
       <c r="DI64" s="30">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>7779.05</v>
       </c>
       <c r="DJ64" s="65">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>6224.3980000000001</v>
       </c>
       <c r="DK64" s="65">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>6582.1948749999992</v>
       </c>
       <c r="DL64" s="30">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>7382.598825</v>
       </c>
       <c r="DM64" s="30">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>10591.2168271875</v>
       </c>
       <c r="DN64" s="30">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>13033.280679046875</v>
       </c>
       <c r="DO64" s="30">
-        <f t="shared" ref="DO64:DT64" si="217">DO63+DO62</f>
+        <f t="shared" ref="DO64:DT64" si="218">DO63+DO62</f>
         <v>14925.208168359375</v>
       </c>
       <c r="DP64" s="30">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>-1889.6409158203126</v>
       </c>
       <c r="DQ64" s="30">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="DR64" s="30">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="DS64" s="30">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="DT64" s="30">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>0</v>
       </c>
       <c r="DU64" s="30">
@@ -22356,43 +22474,43 @@
         <v>24891.042836000008</v>
       </c>
       <c r="DW64" s="30">
-        <f t="shared" ref="DW64:EF64" si="218">DW63+DW62</f>
+        <f t="shared" ref="DW64:EF64" si="219">DW63+DW62</f>
         <v>32738.431440650002</v>
       </c>
       <c r="DX64" s="30">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>34260.3390624487</v>
       </c>
       <c r="DY64" s="30">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>32059.604689476007</v>
       </c>
       <c r="DZ64" s="30">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>29769.01563001694</v>
       </c>
       <c r="EA64" s="30">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>30431.580101948981</v>
       </c>
       <c r="EB64" s="30">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>31485.654214470123</v>
       </c>
       <c r="EC64" s="30">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>32389.88217246475</v>
       </c>
       <c r="ED64" s="30">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>22323.074914506735</v>
       </c>
       <c r="EE64" s="30">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>19995.385803908543</v>
       </c>
       <c r="EF64" s="30">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>11800.142114149006</v>
       </c>
     </row>
@@ -22612,19 +22730,19 @@
         <v>0</v>
       </c>
       <c r="BW65" s="30">
-        <f t="shared" ref="BW65:BZ65" si="219">+BW64*0.2</f>
+        <f t="shared" ref="BW65:BZ65" si="220">+BW64*0.2</f>
         <v>1030.1209999999999</v>
       </c>
       <c r="BX65" s="30">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>966.66775000000018</v>
       </c>
       <c r="BY65" s="30">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>743.93868750000024</v>
       </c>
       <c r="BZ65" s="30">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>957.366359375</v>
       </c>
       <c r="CA65" s="30">
@@ -22632,31 +22750,31 @@
         <v>732</v>
       </c>
       <c r="CB65" s="30">
-        <f t="shared" ref="CB65:CH65" si="220">+CB64*0.2</f>
+        <f t="shared" ref="CB65:CH65" si="221">+CB64*0.2</f>
         <v>1077.6571600000002</v>
       </c>
       <c r="CC65" s="30">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>972.97091999999975</v>
       </c>
       <c r="CD65" s="30">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>1032.3863999999999</v>
       </c>
       <c r="CE65" s="30">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>1155.9745800000001</v>
       </c>
       <c r="CF65" s="30">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>1227.5685316000004</v>
       </c>
       <c r="CG65" s="30">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>1128.9414792000005</v>
       </c>
       <c r="CH65" s="30">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>1165.7239764000003</v>
       </c>
       <c r="CI65" s="30"/>
@@ -22735,11 +22853,11 @@
         <v>3649.3185901331253</v>
       </c>
       <c r="DO65" s="30">
-        <f t="shared" ref="DO65:DP65" si="221">DO64*0.28</f>
+        <f t="shared" ref="DO65:DP65" si="222">DO64*0.28</f>
         <v>4179.058287140625</v>
       </c>
       <c r="DP65" s="30">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>-529.09945642968762</v>
       </c>
       <c r="DQ65" s="30"/>
@@ -22747,11 +22865,11 @@
       <c r="DS65" s="30"/>
       <c r="DT65" s="30"/>
       <c r="DU65" s="35">
-        <f t="shared" ref="DU65" si="222">SUM(CA65:CD65)</f>
+        <f t="shared" ref="DU65" si="223">SUM(CA65:CD65)</f>
         <v>3815.0144799999998</v>
       </c>
       <c r="DV65" s="35">
-        <f t="shared" ref="DV65" si="223">SUM(CE65:CH65)</f>
+        <f t="shared" ref="DV65" si="224">SUM(CE65:CH65)</f>
         <v>4678.2085672000012</v>
       </c>
       <c r="DW65" s="25">
@@ -22759,39 +22877,39 @@
         <v>6547.6862881300003</v>
       </c>
       <c r="DX65" s="25">
-        <f t="shared" ref="DX65:EF65" si="224">+DX64*0.2</f>
+        <f t="shared" ref="DX65:EF65" si="225">+DX64*0.2</f>
         <v>6852.0678124897404</v>
       </c>
       <c r="DY65" s="25">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>6411.9209378952019</v>
       </c>
       <c r="DZ65" s="25">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>5953.8031260033886</v>
       </c>
       <c r="EA65" s="25">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>6086.3160203897969</v>
       </c>
       <c r="EB65" s="25">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>6297.1308428940247</v>
       </c>
       <c r="EC65" s="25">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>6477.9764344929499</v>
       </c>
       <c r="ED65" s="25">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>4464.6149829013475</v>
       </c>
       <c r="EE65" s="25">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>3999.0771607817087</v>
       </c>
       <c r="EF65" s="25">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>2360.0284228298015</v>
       </c>
     </row>
@@ -23006,19 +23124,19 @@
         <v>0</v>
       </c>
       <c r="BW66" s="30">
-        <f t="shared" ref="BW66:BZ66" si="225">AVERAGE(BS66:BV66)</f>
+        <f t="shared" ref="BW66:BZ66" si="226">AVERAGE(BS66:BV66)</f>
         <v>4.4375</v>
       </c>
       <c r="BX66" s="30">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>4.296875</v>
       </c>
       <c r="BY66" s="30">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>3.37109375</v>
       </c>
       <c r="BZ66" s="30">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>3.0263671875</v>
       </c>
       <c r="CA66" s="30">
@@ -23087,35 +23205,35 @@
         <v>3.102000000000001E-3</v>
       </c>
       <c r="DO66" s="30">
-        <f t="shared" ref="DO66:DT66" si="226">DN66*0.1</f>
+        <f t="shared" ref="DO66:DT66" si="227">DN66*0.1</f>
         <v>3.1020000000000011E-4</v>
       </c>
       <c r="DP66" s="30">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>3.1020000000000011E-5</v>
       </c>
       <c r="DQ66" s="30">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>3.1020000000000014E-6</v>
       </c>
       <c r="DR66" s="30">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>3.1020000000000017E-7</v>
       </c>
       <c r="DS66" s="30">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>3.1020000000000016E-8</v>
       </c>
       <c r="DT66" s="30">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>3.1020000000000019E-9</v>
       </c>
       <c r="DU66" s="35">
-        <f t="shared" ref="DU66" si="227">SUM(CA66:CD66)</f>
+        <f t="shared" ref="DU66" si="228">SUM(CA66:CD66)</f>
         <v>3</v>
       </c>
       <c r="DV66" s="35">
-        <f t="shared" ref="DV66" si="228">SUM(CE66:CH66)</f>
+        <f t="shared" ref="DV66" si="229">SUM(CE66:CH66)</f>
         <v>0</v>
       </c>
       <c r="DW66" s="1">
@@ -23154,59 +23272,59 @@
         <v>440</v>
       </c>
       <c r="C67" s="30">
-        <f t="shared" ref="C67:R67" si="229">C64-C65-C66</f>
+        <f t="shared" ref="C67:R67" si="230">C64-C65-C66</f>
         <v>2521</v>
       </c>
       <c r="D67" s="28">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>3189</v>
       </c>
       <c r="E67" s="28">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>2488</v>
       </c>
       <c r="F67" s="28">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>3038</v>
       </c>
       <c r="G67" s="28">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>2651</v>
       </c>
       <c r="H67" s="28">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>2935</v>
       </c>
       <c r="I67" s="30">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>1929</v>
       </c>
       <c r="J67" s="30">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>1766</v>
       </c>
       <c r="K67" s="30">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>2515</v>
       </c>
       <c r="L67" s="30">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>2864</v>
       </c>
       <c r="M67" s="30">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>3411</v>
       </c>
       <c r="N67" s="30">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>3346</v>
       </c>
       <c r="O67" s="30">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>3669</v>
       </c>
       <c r="P67" s="30">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>4076</v>
       </c>
       <c r="Q67" s="30">
@@ -23214,27 +23332,27 @@
         <v>4236</v>
       </c>
       <c r="R67" s="30">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>-1857.5</v>
       </c>
       <c r="S67" s="30">
-        <f t="shared" ref="S67:Y67" si="230">S64-S65-S66</f>
+        <f t="shared" ref="S67:Y67" si="231">S64-S65-S66</f>
         <v>4049</v>
       </c>
       <c r="T67" s="30">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>4550</v>
       </c>
       <c r="U67" s="30">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>4629</v>
       </c>
       <c r="V67" s="30">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>4672</v>
       </c>
       <c r="W67" s="30">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>754</v>
       </c>
       <c r="X67" s="30">
@@ -23242,7 +23360,7 @@
         <v>4658</v>
       </c>
       <c r="Y67" s="30">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>986</v>
       </c>
       <c r="Z67" s="50">
@@ -23254,43 +23372,43 @@
         <v>1030</v>
       </c>
       <c r="AB67" s="30">
-        <f t="shared" ref="AB67:AK67" si="231">+AB64-AB65-AB66</f>
+        <f t="shared" ref="AB67:AK67" si="232">+AB64-AB65-AB66</f>
         <v>942</v>
       </c>
       <c r="AC67" s="30">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>977</v>
       </c>
       <c r="AD67" s="30">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>876</v>
       </c>
       <c r="AE67" s="30">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>951</v>
       </c>
       <c r="AF67" s="30">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>665</v>
       </c>
       <c r="AG67" s="50">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>-713</v>
       </c>
       <c r="AH67" s="50">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>760</v>
       </c>
       <c r="AI67" s="50">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>967</v>
       </c>
       <c r="AJ67" s="50">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>536</v>
       </c>
       <c r="AK67" s="50">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>1124</v>
       </c>
       <c r="AL67" s="50">
@@ -23310,103 +23428,103 @@
         <v>1541</v>
       </c>
       <c r="AP67" s="30">
-        <f t="shared" ref="AP67" si="232">AP64-AP65-AP66</f>
+        <f t="shared" ref="AP67" si="233">AP64-AP65-AP66</f>
         <v>13</v>
       </c>
       <c r="AQ67" s="30">
-        <f t="shared" ref="AQ67:AS67" si="233">AQ64-AQ65-AQ66</f>
+        <f t="shared" ref="AQ67:AS67" si="234">AQ64-AQ65-AQ66</f>
         <v>1186</v>
       </c>
       <c r="AR67" s="30">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>-130</v>
       </c>
       <c r="AS67" s="30">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>706</v>
       </c>
       <c r="AT67" s="30">
-        <f t="shared" ref="AT67" si="234">AT64-AT65-AT66</f>
+        <f t="shared" ref="AT67" si="235">AT64-AT65-AT66</f>
         <v>-138</v>
       </c>
       <c r="AU67" s="30">
-        <f t="shared" ref="AU67:AV67" si="235">AU64-AU65-AU66</f>
+        <f t="shared" ref="AU67:AV67" si="236">AU64-AU65-AU66</f>
         <v>1195</v>
       </c>
       <c r="AV67" s="30">
-        <f t="shared" si="235"/>
+        <f t="shared" si="236"/>
         <v>1166</v>
       </c>
       <c r="AW67" s="30">
-        <f t="shared" ref="AW67:AX67" si="236">AW64-AW65-AW66</f>
+        <f t="shared" ref="AW67:AX67" si="237">AW64-AW65-AW66</f>
         <v>1287</v>
       </c>
       <c r="AX67" s="30">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>1064</v>
       </c>
       <c r="AY67" s="30">
-        <f t="shared" ref="AY67:AZ67" si="237">AY64-AY65-AY66</f>
+        <f t="shared" ref="AY67:AZ67" si="238">AY64-AY65-AY66</f>
         <v>1400</v>
       </c>
       <c r="AZ67" s="30">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>1218</v>
       </c>
       <c r="BA67" s="30">
-        <f t="shared" ref="BA67:BB67" si="238">BA64-BA65-BA66</f>
+        <f t="shared" ref="BA67:BB67" si="239">BA64-BA65-BA66</f>
         <v>1229</v>
       </c>
       <c r="BB67" s="30">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>1122</v>
       </c>
       <c r="BC67" s="30">
-        <f t="shared" ref="BC67:BD67" si="239">BC64-BC65-BC66</f>
+        <f t="shared" ref="BC67:BD67" si="240">BC64-BC65-BC66</f>
         <v>1547</v>
       </c>
       <c r="BD67" s="30">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>1646</v>
       </c>
       <c r="BG67" s="30">
-        <f t="shared" ref="BG67:BH67" si="240">BG64-BG65-BG66</f>
+        <f t="shared" ref="BG67:BH67" si="241">BG64-BG65-BG66</f>
         <v>1734</v>
       </c>
       <c r="BH67" s="30">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>1817</v>
       </c>
       <c r="BK67" s="30">
-        <f t="shared" ref="BK67" si="241">BK64-BK65-BK66</f>
+        <f t="shared" ref="BK67" si="242">BK64-BK65-BK66</f>
         <v>4205</v>
       </c>
       <c r="BL67" s="30">
-        <f t="shared" ref="BL67:BN67" si="242">BL64-BL65-BL66</f>
+        <f t="shared" ref="BL67:BN67" si="243">BL64-BL65-BL66</f>
         <v>1572</v>
       </c>
       <c r="BM67" s="30">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>3481</v>
       </c>
       <c r="BN67" s="30">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>3331</v>
       </c>
       <c r="BO67" s="30">
-        <f t="shared" ref="BO67:BR67" si="243">BO64-BO65-BO66</f>
+        <f t="shared" ref="BO67:BR67" si="244">BO64-BO65-BO66</f>
         <v>3969</v>
       </c>
       <c r="BP67" s="30">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>4460</v>
       </c>
       <c r="BQ67" s="30">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>3802</v>
       </c>
       <c r="BR67" s="30">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>4071</v>
       </c>
       <c r="BS67" s="30">
@@ -23422,55 +23540,55 @@
         <v>3066.1780000000008</v>
       </c>
       <c r="BV67" s="30">
-        <f t="shared" ref="BV67:CH67" si="244">BV64-BV65-BV66</f>
+        <f t="shared" ref="BV67:CH67" si="245">BV64-BV65-BV66</f>
         <v>4254</v>
       </c>
       <c r="BW67" s="30">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>4116.0464999999995</v>
       </c>
       <c r="BX67" s="30">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>3862.3741250000007</v>
       </c>
       <c r="BY67" s="30">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>2972.383656250001</v>
       </c>
       <c r="BZ67" s="30">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>3826.4390703125</v>
       </c>
       <c r="CA67" s="30">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>4039</v>
       </c>
       <c r="CB67" s="30">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>4310.6286400000008</v>
       </c>
       <c r="CC67" s="30">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>3891.883679999999</v>
       </c>
       <c r="CD67" s="30">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>4129.5455999999995</v>
       </c>
       <c r="CE67" s="30">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>4623.8983200000002</v>
       </c>
       <c r="CF67" s="30">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>4910.2741264000015</v>
       </c>
       <c r="CG67" s="30">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>4515.7659168000009</v>
       </c>
       <c r="CH67" s="30">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>4662.8959056000003</v>
       </c>
       <c r="CL67" s="30">
@@ -23510,27 +23628,27 @@
         <v>3825</v>
       </c>
       <c r="DI67" s="30">
-        <f t="shared" ref="DI67:DN67" si="245">DI64-DI65-DI66</f>
+        <f t="shared" ref="DI67:DN67" si="246">DI64-DI65-DI66</f>
         <v>5212.9255000000003</v>
       </c>
       <c r="DJ67" s="65">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>4450.5465599999998</v>
       </c>
       <c r="DK67" s="65">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>4736.0783099999999</v>
       </c>
       <c r="DL67" s="30">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>5315.1609539999999</v>
       </c>
       <c r="DM67" s="30">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>7625.6450955749988</v>
       </c>
       <c r="DN67" s="30">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>9383.958986913749</v>
       </c>
       <c r="DO67" s="30">
@@ -23538,7 +23656,7 @@
         <v>9383.958986913749</v>
       </c>
       <c r="DP67" s="30">
-        <f t="shared" ref="DP67" si="246">DO67*(1+$DY$70)</f>
+        <f t="shared" ref="DP67" si="247">DO67*(1+$DY$70)</f>
         <v>9383.958986913749</v>
       </c>
       <c r="DQ67" s="30"/>
@@ -23554,43 +23672,43 @@
         <v>20212.834268800005</v>
       </c>
       <c r="DW67" s="30">
-        <f t="shared" ref="DW67:EF67" si="247">+DW64-DW65-DW66</f>
+        <f t="shared" ref="DW67:EF67" si="248">+DW64-DW65-DW66</f>
         <v>26190.745152520001</v>
       </c>
       <c r="DX67" s="30">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>27408.271249958962</v>
       </c>
       <c r="DY67" s="30">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>25647.683751580807</v>
       </c>
       <c r="DZ67" s="30">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>23815.212504013551</v>
       </c>
       <c r="EA67" s="30">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>24345.264081559184</v>
       </c>
       <c r="EB67" s="30">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>25188.523371576099</v>
       </c>
       <c r="EC67" s="30">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>25911.9057379718</v>
       </c>
       <c r="ED67" s="30">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>17858.459931605386</v>
       </c>
       <c r="EE67" s="30">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>15996.308643126835</v>
       </c>
       <c r="EF67" s="30">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>9440.1136913192058</v>
       </c>
       <c r="EG67" s="30">
@@ -23598,179 +23716,179 @@
         <v>9345.7125544060145</v>
       </c>
       <c r="EH67" s="30">
-        <f t="shared" ref="EH67:FY67" si="248">+EG67*(1+$EI$71)</f>
+        <f t="shared" ref="EH67:FY67" si="249">+EG67*(1+$EI$71)</f>
         <v>9252.255428861954</v>
       </c>
       <c r="EI67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>9159.7328745733339</v>
       </c>
       <c r="EJ67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>9068.1355458276012</v>
       </c>
       <c r="EK67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>8977.4541903693244</v>
       </c>
       <c r="EL67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>8887.6796484656315</v>
       </c>
       <c r="EM67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>8798.8028519809759</v>
       </c>
       <c r="EN67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>8710.8148234611654</v>
       </c>
       <c r="EO67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>8623.7066752265528</v>
       </c>
       <c r="EP67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>8537.4696084742864</v>
       </c>
       <c r="EQ67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>8452.0949123895425</v>
       </c>
       <c r="ER67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>8367.5739632656478</v>
       </c>
       <c r="ES67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>8283.8982236329921</v>
       </c>
       <c r="ET67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>8201.0592413966624</v>
       </c>
       <c r="EU67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>8119.0486489826953</v>
       </c>
       <c r="EV67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>8037.8581624928684</v>
       </c>
       <c r="EW67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>7957.4795808679401</v>
       </c>
       <c r="EX67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>7877.9047850592606</v>
       </c>
       <c r="EY67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>7799.1257372086675</v>
       </c>
       <c r="EZ67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>7721.1344798365808</v>
       </c>
       <c r="FA67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>7643.9231350382152</v>
       </c>
       <c r="FB67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>7567.4839036878329</v>
       </c>
       <c r="FC67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>7491.8090646509545</v>
       </c>
       <c r="FD67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>7416.8909740044446</v>
       </c>
       <c r="FE67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>7342.7220642643997</v>
       </c>
       <c r="FF67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>7269.2948436217557</v>
       </c>
       <c r="FG67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>7196.6018951855385</v>
       </c>
       <c r="FH67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>7124.6358762336831</v>
       </c>
       <c r="FI67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>7053.3895174713462</v>
       </c>
       <c r="FJ67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>6982.8556222966326</v>
       </c>
       <c r="FK67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>6913.027066073666</v>
       </c>
       <c r="FL67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>6843.8967954129294</v>
       </c>
       <c r="FM67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>6775.4578274588002</v>
       </c>
       <c r="FN67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>6707.7032491842119</v>
       </c>
       <c r="FO67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>6640.6262166923698</v>
       </c>
       <c r="FP67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>6574.2199545254462</v>
       </c>
       <c r="FQ67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>6508.477754980192</v>
       </c>
       <c r="FR67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>6443.3929774303897</v>
       </c>
       <c r="FS67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>6378.9590476560861</v>
       </c>
       <c r="FT67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>6315.1694571795251</v>
       </c>
       <c r="FU67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>6252.0177626077302</v>
       </c>
       <c r="FV67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>6189.4975849816528</v>
       </c>
       <c r="FW67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>6127.6026091318363</v>
       </c>
       <c r="FX67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>6066.326583040518</v>
       </c>
       <c r="FY67" s="30">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>6005.6633172101128</v>
       </c>
     </row>
@@ -23779,55 +23897,55 @@
         <v>107</v>
       </c>
       <c r="C68" s="38">
-        <f t="shared" ref="C68:R68" si="249">C67/C69</f>
+        <f t="shared" ref="C68:R68" si="250">C67/C69</f>
         <v>1.2725896012115094</v>
       </c>
       <c r="D68" s="38">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>1.607358870967742</v>
       </c>
       <c r="E68" s="38">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>1.2540322580645162</v>
       </c>
       <c r="F68" s="38">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>1.5320221886031267</v>
       </c>
       <c r="G68" s="38">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>1.3335010060362174</v>
       </c>
       <c r="H68" s="38">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>1.4719157472417252</v>
       </c>
       <c r="I68" s="38">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>0.96837349397590367</v>
       </c>
       <c r="J68" s="38">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>0.90056093829678741</v>
       </c>
       <c r="K68" s="38">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>1.2593890836254382</v>
       </c>
       <c r="L68" s="38">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>1.427716849451645</v>
       </c>
       <c r="M68" s="38">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>1.695328031809145</v>
       </c>
       <c r="N68" s="38">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>1.6941772151898735</v>
       </c>
       <c r="O68" s="38">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>1.827191235059761</v>
       </c>
       <c r="P68" s="38">
@@ -23839,83 +23957,83 @@
         <v>2.1398137967980082</v>
       </c>
       <c r="R68" s="38">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>-0.93878965122764124</v>
       </c>
       <c r="S68" s="38">
-        <f t="shared" ref="S68:Y68" si="250">S67/S69</f>
+        <f t="shared" ref="S68:Y68" si="251">S67/S69</f>
         <v>2.0418557740796772</v>
       </c>
       <c r="T68" s="38">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>2.2945032778618257</v>
       </c>
       <c r="U68" s="38">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>2.333165322580645</v>
       </c>
       <c r="V68" s="38">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>2.3751906456532792</v>
       </c>
       <c r="W68" s="38">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>0.43845519557776647</v>
       </c>
       <c r="X68" s="38">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>2.6956018518518516</v>
       </c>
       <c r="Y68" s="38">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>0.57126303592120509</v>
       </c>
       <c r="Z68" s="52">
-        <f t="shared" ref="Z68:AE68" si="251">Z67/Z69</f>
+        <f t="shared" ref="Z68:AE68" si="252">Z67/Z69</f>
         <v>0.2930934416715032</v>
       </c>
       <c r="AA68" s="52">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>0.60093348891481912</v>
       </c>
       <c r="AB68" s="38">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>0.54703832752613235</v>
       </c>
       <c r="AC68" s="38">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>0.56967930029154523</v>
       </c>
       <c r="AD68" s="38">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>0.51168224299065423</v>
       </c>
       <c r="AE68" s="38">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>0.55744431418522855</v>
       </c>
       <c r="AF68" s="38">
-        <f t="shared" ref="AF68:AK68" si="252">AF67/AF69</f>
+        <f t="shared" ref="AF68:AK68" si="253">AF67/AF69</f>
         <v>0.38980070339976552</v>
       </c>
       <c r="AG68" s="52">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>-0.42364824717765892</v>
       </c>
       <c r="AH68" s="52">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>0.46426389737324375</v>
       </c>
       <c r="AI68" s="52">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>0.58855751673767498</v>
       </c>
       <c r="AJ68" s="52">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>0.32563791008505466</v>
       </c>
       <c r="AK68" s="52">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>0.68245294474802676</v>
       </c>
       <c r="AL68" s="52">
@@ -23935,69 +24053,69 @@
         <v>0.92275449101796403</v>
       </c>
       <c r="AP68" s="38">
-        <f t="shared" ref="AP68" si="253">AP67/AP69</f>
+        <f t="shared" ref="AP68" si="254">AP67/AP69</f>
         <v>7.7704722056186493E-3</v>
       </c>
       <c r="AQ68" s="38">
-        <f t="shared" ref="AQ68:AS68" si="254">AQ67/AQ69</f>
+        <f t="shared" ref="AQ68:AS68" si="255">AQ67/AQ69</f>
         <v>0.70763723150357993</v>
       </c>
       <c r="AR68" s="38">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-7.7984403119376128E-2</v>
       </c>
       <c r="AS68" s="38">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.42073897497020263</v>
       </c>
       <c r="AT68" s="38">
-        <f t="shared" ref="AT68" si="255">AT67/AT69</f>
+        <f t="shared" ref="AT68" si="256">AT67/AT69</f>
         <v>-8.2684242061114438E-2</v>
       </c>
       <c r="AU68" s="38">
-        <f t="shared" ref="AU68:AV68" si="256">AU67/AU69</f>
+        <f t="shared" ref="AU68:AV68" si="257">AU67/AU69</f>
         <v>0.71130952380952384</v>
       </c>
       <c r="AV68" s="38">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>0.69446098868374029</v>
       </c>
       <c r="AW68" s="38">
-        <f t="shared" ref="AW68:AX68" si="257">AW67/AW69</f>
+        <f t="shared" ref="AW68:AX68" si="258">AW67/AW69</f>
         <v>0.76652769505658125</v>
       </c>
       <c r="AX68" s="38">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>0.6333333333333333</v>
       </c>
       <c r="AY68" s="38">
-        <f t="shared" ref="AY68:AZ68" si="258">AY67/AY69</f>
+        <f t="shared" ref="AY68:AZ68" si="259">AY67/AY69</f>
         <v>0.83782166367444644</v>
       </c>
       <c r="AZ68" s="38">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>0.73818181818181816</v>
       </c>
       <c r="BA68" s="38">
-        <f t="shared" ref="BA68:BB68" si="259">BA67/BA69</f>
+        <f t="shared" ref="BA68:BB68" si="260">BA67/BA69</f>
         <v>0.74711246200607906</v>
       </c>
       <c r="BB68" s="38">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.68331303288672351</v>
       </c>
       <c r="BC68" s="38">
-        <f t="shared" ref="BC68:BD68" si="260">BC67/BC69</f>
+        <f t="shared" ref="BC68:BD68" si="261">BC67/BC69</f>
         <v>0.94329268292682922</v>
       </c>
       <c r="BD68" s="38">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>1.0061124694376529</v>
       </c>
       <c r="BE68" s="37"/>
       <c r="BF68" s="37"/>
       <c r="BG68" s="38">
-        <f t="shared" ref="BG68" si="261">BG67/BG69</f>
+        <f t="shared" ref="BG68" si="262">BG67/BG69</f>
         <v>1.059254734270006</v>
       </c>
       <c r="BH68" s="38">
@@ -24007,99 +24125,99 @@
       <c r="BI68" s="37"/>
       <c r="BJ68" s="37"/>
       <c r="BK68" s="38">
-        <f t="shared" ref="BK68" si="262">BK67/BK69</f>
+        <f t="shared" ref="BK68" si="263">BK67/BK69</f>
         <v>1.862267493356953</v>
       </c>
       <c r="BL68" s="38">
-        <f t="shared" ref="BL68:BS68" si="263">BL67/BL69</f>
+        <f t="shared" ref="BL68:BS68" si="264">BL67/BL69</f>
         <v>0.69465311533362795</v>
       </c>
       <c r="BM68" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>1.5200873362445415</v>
       </c>
       <c r="BN68" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>1.4571303587051618</v>
       </c>
       <c r="BO68" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>1.752317880794702</v>
       </c>
       <c r="BP68" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>1.9804618117229129</v>
       </c>
       <c r="BQ68" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>1.6950512706197058</v>
       </c>
       <c r="BR68" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>1.8346101847679135</v>
       </c>
       <c r="BS68" s="38">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>2.1159889094269873</v>
       </c>
       <c r="BT68" s="38">
-        <f t="shared" ref="BT68:BU68" si="264">BT67/BT69</f>
+        <f t="shared" ref="BT68:BU68" si="265">BT67/BT69</f>
         <v>2.1172638436482085</v>
       </c>
       <c r="BU68" s="38">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>1.4267929269427644</v>
       </c>
       <c r="BV68" s="38">
-        <f t="shared" ref="BV68" si="265">BV67/BV69</f>
+        <f t="shared" ref="BV68" si="266">BV67/BV69</f>
         <v>2.0028248587570623</v>
       </c>
       <c r="BW68" s="38">
-        <f t="shared" ref="BW68" si="266">BW67/BW69</f>
+        <f t="shared" ref="BW68" si="267">BW67/BW69</f>
         <v>1.9378749999999998</v>
       </c>
       <c r="BX68" s="38">
-        <f t="shared" ref="BX68" si="267">BX67/BX69</f>
+        <f t="shared" ref="BX68" si="268">BX67/BX69</f>
         <v>1.8184435616760832</v>
       </c>
       <c r="BY68" s="38">
-        <f t="shared" ref="BY68" si="268">BY67/BY69</f>
+        <f t="shared" ref="BY68" si="269">BY67/BY69</f>
         <v>1.3994273334510363</v>
       </c>
       <c r="BZ68" s="38">
-        <f t="shared" ref="BZ68:CB68" si="269">BZ67/BZ69</f>
+        <f t="shared" ref="BZ68:CB68" si="270">BZ67/BZ69</f>
         <v>1.8015249860228342</v>
       </c>
       <c r="CA68" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>1.9965397923875432</v>
       </c>
       <c r="CB68" s="38">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>2.1308100049431542</v>
       </c>
       <c r="CC68" s="38">
-        <f t="shared" ref="CC68:CH68" si="270">CC67/CC69</f>
+        <f t="shared" ref="CC68:CH68" si="271">CC67/CC69</f>
         <v>1.9238179337617396</v>
       </c>
       <c r="CD68" s="38">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v>2.0412978744438948</v>
       </c>
       <c r="CE68" s="38">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v>2.2856640237271382</v>
       </c>
       <c r="CF68" s="38">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v>2.4272239873455272</v>
       </c>
       <c r="CG68" s="38">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v>2.2322125144834408</v>
       </c>
       <c r="CH68" s="38">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v>2.3049411298072173</v>
       </c>
       <c r="CI68" s="37"/>
@@ -24140,115 +24258,115 @@
       <c r="DC68" s="37"/>
       <c r="DD68" s="37"/>
       <c r="DE68" s="38">
-        <f t="shared" ref="DE68:DN68" si="271">DE67/DE69</f>
+        <f t="shared" ref="DE68:DN68" si="272">DE67/DE69</f>
         <v>5.0781123126353505</v>
       </c>
       <c r="DF68" s="52">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>9.0438297334849054</v>
       </c>
       <c r="DG68" s="52">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>4.0036690149483647</v>
       </c>
       <c r="DH68" s="52">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>2.2293457671572199</v>
       </c>
       <c r="DI68" s="38">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>3.0382780125309634</v>
       </c>
       <c r="DJ68" s="68">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>2.5939365059012092</v>
       </c>
       <c r="DK68" s="68">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>2.7603545446597697</v>
       </c>
       <c r="DL68" s="38">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>3.0978644639370536</v>
       </c>
       <c r="DM68" s="38">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>4.4444966315459702</v>
       </c>
       <c r="DN68" s="38">
-        <f t="shared" si="271"/>
-        <v>5.4693043782099657</v>
-      </c>
-      <c r="DO68" s="38">
-        <f t="shared" ref="DO68:DV68" si="272">DO67/DO69</f>
-        <v>5.4693043782099657</v>
-      </c>
-      <c r="DP68" s="38">
         <f t="shared" si="272"/>
         <v>5.4693043782099657</v>
       </c>
+      <c r="DO68" s="38">
+        <f t="shared" ref="DO68:DV68" si="273">DO67/DO69</f>
+        <v>5.4693043782099657</v>
+      </c>
+      <c r="DP68" s="38">
+        <f t="shared" si="273"/>
+        <v>5.4693043782099657</v>
+      </c>
       <c r="DQ68" s="38">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="DR68" s="38">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="DS68" s="38">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="DT68" s="38">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="DU68" s="38">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>8.0924656055363346</v>
       </c>
       <c r="DV68" s="38">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>9.9915147151754837</v>
       </c>
       <c r="DW68" s="38">
-        <f t="shared" ref="DW68:EF68" si="273">DW67/DW69</f>
+        <f t="shared" ref="DW68:EF68" si="274">DW67/DW69</f>
         <v>12.946487964666337</v>
       </c>
       <c r="DX68" s="38">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>13.548329831912486</v>
       </c>
       <c r="DY68" s="38">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>12.678044365586162</v>
       </c>
       <c r="DZ68" s="38">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>11.772225656951829</v>
       </c>
       <c r="EA68" s="38">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>12.034238300325844</v>
       </c>
       <c r="EB68" s="38">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>12.45107433098176</v>
       </c>
       <c r="EC68" s="38">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>12.808653355398814</v>
       </c>
       <c r="ED68" s="38">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>8.8277112860135372</v>
       </c>
       <c r="EE68" s="38">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>7.9072212768793051</v>
       </c>
       <c r="EF68" s="38">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>4.6663933224514116</v>
       </c>
     </row>
@@ -24463,19 +24581,19 @@
         <v>2124</v>
       </c>
       <c r="BW69" s="30">
-        <f t="shared" ref="BW69:BZ69" si="274">+BV69</f>
+        <f t="shared" ref="BW69:BZ69" si="275">+BV69</f>
         <v>2124</v>
       </c>
       <c r="BX69" s="30">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>2124</v>
       </c>
       <c r="BY69" s="30">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>2124</v>
       </c>
       <c r="BZ69" s="30">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>2124</v>
       </c>
       <c r="CA69" s="30">
@@ -24486,27 +24604,27 @@
         <v>2023</v>
       </c>
       <c r="CC69" s="30">
-        <f t="shared" ref="CC69:CH69" si="275">+CB69</f>
+        <f t="shared" ref="CC69:CH69" si="276">+CB69</f>
         <v>2023</v>
       </c>
       <c r="CD69" s="30">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>2023</v>
       </c>
       <c r="CE69" s="30">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>2023</v>
       </c>
       <c r="CF69" s="30">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>2023</v>
       </c>
       <c r="CG69" s="30">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>2023</v>
       </c>
       <c r="CH69" s="30">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>2023</v>
       </c>
       <c r="CL69" s="30">
@@ -24541,51 +24659,51 @@
         <v>1715.75</v>
       </c>
       <c r="DI69" s="30">
-        <f t="shared" ref="DI69:DN69" si="276">DH69</f>
+        <f t="shared" ref="DI69:DN69" si="277">DH69</f>
         <v>1715.75</v>
       </c>
       <c r="DJ69" s="65">
-        <f t="shared" si="276"/>
-        <v>1715.75</v>
-      </c>
-      <c r="DK69" s="65">
-        <f t="shared" si="276"/>
-        <v>1715.75</v>
-      </c>
-      <c r="DL69" s="30">
-        <f t="shared" si="276"/>
-        <v>1715.75</v>
-      </c>
-      <c r="DM69" s="30">
-        <f t="shared" si="276"/>
-        <v>1715.75</v>
-      </c>
-      <c r="DN69" s="30">
-        <f t="shared" si="276"/>
-        <v>1715.75</v>
-      </c>
-      <c r="DO69" s="30">
-        <f t="shared" ref="DO69:DT69" si="277">DN69</f>
-        <v>1715.75</v>
-      </c>
-      <c r="DP69" s="30">
         <f t="shared" si="277"/>
         <v>1715.75</v>
       </c>
-      <c r="DQ69" s="30">
+      <c r="DK69" s="65">
         <f t="shared" si="277"/>
         <v>1715.75</v>
       </c>
-      <c r="DR69" s="30">
+      <c r="DL69" s="30">
         <f t="shared" si="277"/>
         <v>1715.75</v>
       </c>
-      <c r="DS69" s="30">
+      <c r="DM69" s="30">
         <f t="shared" si="277"/>
         <v>1715.75</v>
       </c>
+      <c r="DN69" s="30">
+        <f t="shared" si="277"/>
+        <v>1715.75</v>
+      </c>
+      <c r="DO69" s="30">
+        <f t="shared" ref="DO69:DT69" si="278">DN69</f>
+        <v>1715.75</v>
+      </c>
+      <c r="DP69" s="30">
+        <f t="shared" si="278"/>
+        <v>1715.75</v>
+      </c>
+      <c r="DQ69" s="30">
+        <f t="shared" si="278"/>
+        <v>1715.75</v>
+      </c>
+      <c r="DR69" s="30">
+        <f t="shared" si="278"/>
+        <v>1715.75</v>
+      </c>
+      <c r="DS69" s="30">
+        <f t="shared" si="278"/>
+        <v>1715.75</v>
+      </c>
       <c r="DT69" s="30">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>1715.75</v>
       </c>
       <c r="DU69" s="30">
@@ -24597,43 +24715,43 @@
         <v>2023</v>
       </c>
       <c r="DW69" s="30">
-        <f t="shared" ref="DW69:EF69" si="278">+DV69</f>
+        <f t="shared" ref="DW69:EF69" si="279">+DV69</f>
         <v>2023</v>
       </c>
       <c r="DX69" s="30">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>2023</v>
       </c>
       <c r="DY69" s="30">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>2023</v>
       </c>
       <c r="DZ69" s="30">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>2023</v>
       </c>
       <c r="EA69" s="30">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>2023</v>
       </c>
       <c r="EB69" s="30">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>2023</v>
       </c>
       <c r="EC69" s="30">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>2023</v>
       </c>
       <c r="ED69" s="30">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>2023</v>
       </c>
       <c r="EE69" s="30">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>2023</v>
       </c>
       <c r="EF69" s="30">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>2023</v>
       </c>
     </row>
@@ -24665,259 +24783,259 @@
         <v>359</v>
       </c>
       <c r="G71" s="40">
-        <f t="shared" ref="G71:AK71" si="279">G55/C55-1</f>
+        <f t="shared" ref="G71:AK71" si="280">G55/C55-1</f>
         <v>6.9661865998747574E-2</v>
       </c>
       <c r="H71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>5.4844606946984342E-3</v>
       </c>
       <c r="I71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>-0.16528805688579307</v>
       </c>
       <c r="J71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>-0.23673079547005049</v>
       </c>
       <c r="K71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>-9.9663398214547061E-2</v>
       </c>
       <c r="L71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>-8.2517482517482366E-3</v>
       </c>
       <c r="M71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.36474269819193328</v>
       </c>
       <c r="N71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.51787629603146224</v>
       </c>
       <c r="O71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.32282184655396629</v>
       </c>
       <c r="P71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.18713862642786627</v>
       </c>
       <c r="Q71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>9.2993630573248387E-2</v>
       </c>
       <c r="R71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>1.6252502649864553E-2</v>
       </c>
       <c r="S71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>1.9292209388056092E-2</v>
       </c>
       <c r="T71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>5.7614635305298201E-2</v>
       </c>
       <c r="U71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>6.0139860139860168E-2</v>
       </c>
       <c r="V71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>2.607486383126667E-2</v>
       </c>
       <c r="W71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>-0.42049427365883063</v>
       </c>
       <c r="X71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>-4.8073683028192704E-2</v>
       </c>
       <c r="Y71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>-0.47251539138082677</v>
       </c>
       <c r="Z71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>-0.42274678111587982</v>
       </c>
       <c r="AA71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>4.2438111087996777E-2</v>
       </c>
       <c r="AB71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>-0.35882005899705016</v>
       </c>
       <c r="AC71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.11400583576490209</v>
       </c>
       <c r="AD71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>6.7110154568577496E-2</v>
       </c>
       <c r="AE71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>4.7894631810017962E-2</v>
       </c>
       <c r="AF71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>-0.18237026131762979</v>
       </c>
       <c r="AG71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>-0.30102899906454628</v>
       </c>
       <c r="AH71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>-0.23157315731573158</v>
       </c>
       <c r="AI71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>-0.202247191011236</v>
       </c>
       <c r="AJ71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>-8.8903893765473807E-2</v>
       </c>
       <c r="AK71" s="40">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.20369379014989297</v>
       </c>
       <c r="AL71" s="40">
-        <f t="shared" ref="AL71" si="280">AL55/AH55-1</f>
+        <f t="shared" ref="AL71" si="281">AL55/AH55-1</f>
         <v>5.9651634454784164E-2</v>
       </c>
       <c r="AM71" s="40">
-        <f t="shared" ref="AM71" si="281">AM55/AI55-1</f>
+        <f t="shared" ref="AM71" si="282">AM55/AI55-1</f>
         <v>-9.0236333253759793E-2</v>
       </c>
       <c r="AN71" s="40">
-        <f t="shared" ref="AN71" si="282">AN55/AJ55-1</f>
+        <f t="shared" ref="AN71" si="283">AN55/AJ55-1</f>
         <v>-3.9278656126482181E-2</v>
       </c>
       <c r="AO71" s="40">
-        <f t="shared" ref="AO71" si="283">AO55/AK55-1</f>
+        <f t="shared" ref="AO71" si="284">AO55/AK55-1</f>
         <v>5.4258394485212413E-2</v>
       </c>
       <c r="AP71" s="40">
-        <f t="shared" ref="AP71" si="284">AP55/AL55-1</f>
+        <f t="shared" ref="AP71" si="285">AP55/AL55-1</f>
         <v>-4.1206935374915599E-2</v>
       </c>
       <c r="AQ71" s="40">
-        <f t="shared" ref="AQ71" si="285">AQ55/AM55-1</f>
+        <f t="shared" ref="AQ71" si="286">AQ55/AM55-1</f>
         <v>6.0351613749672017E-2</v>
       </c>
       <c r="AR71" s="40">
-        <f t="shared" ref="AR71" si="286">AR55/AN55-1</f>
+        <f t="shared" ref="AR71" si="287">AR55/AN55-1</f>
         <v>7.045512985343283E-2</v>
       </c>
       <c r="AS71" s="40">
-        <f t="shared" ref="AS71" si="287">AS55/AO55-1</f>
+        <f t="shared" ref="AS71" si="288">AS55/AO55-1</f>
         <v>-0.14174224847078676</v>
       </c>
       <c r="AT71" s="40">
-        <f t="shared" ref="AT71" si="288">AT55/AP55-1</f>
+        <f t="shared" ref="AT71" si="289">AT55/AP55-1</f>
         <v>6.8107092531703994E-3</v>
       </c>
       <c r="AU71" s="40">
-        <f t="shared" ref="AU71" si="289">AU55/AQ55-1</f>
+        <f t="shared" ref="AU71" si="290">AU55/AQ55-1</f>
         <v>8.6612224696857254E-2</v>
       </c>
       <c r="AV71" s="40">
-        <f t="shared" ref="AV71" si="290">AV55/AR55-1</f>
+        <f t="shared" ref="AV71" si="291">AV55/AR55-1</f>
         <v>0.17006966130194567</v>
       </c>
       <c r="AW71" s="40">
-        <f t="shared" ref="AW71" si="291">AW55/AS55-1</f>
+        <f t="shared" ref="AW71" si="292">AW55/AS55-1</f>
         <v>0.20963381666257064</v>
       </c>
       <c r="AX71" s="40">
-        <f t="shared" ref="AX71" si="292">AX55/AT55-1</f>
+        <f t="shared" ref="AX71" si="293">AX55/AT55-1</f>
         <v>0.22299976673664568</v>
       </c>
       <c r="AY71" s="40">
-        <f t="shared" ref="AX71:BA71" si="293">AY55/AU55-1</f>
+        <f t="shared" ref="AY71:BA71" si="294">AY55/AU55-1</f>
         <v>0.12252334320200409</v>
       </c>
       <c r="AZ71" s="40">
-        <f t="shared" si="293"/>
+        <f t="shared" si="294"/>
         <v>5.6045986450420804E-2</v>
       </c>
       <c r="BA71" s="40">
-        <f t="shared" si="293"/>
+        <f t="shared" si="294"/>
         <v>6.7452255180820764E-2</v>
       </c>
       <c r="BB71" s="40">
-        <f t="shared" ref="BB71" si="294">BB55/AX55-1</f>
+        <f t="shared" ref="BB71" si="295">BB55/AX55-1</f>
         <v>3.9290482548159478E-2</v>
       </c>
       <c r="BC71" s="40">
-        <f t="shared" ref="BC71:BK71" si="295">BC55/AY55-1</f>
+        <f t="shared" ref="BC71:BK71" si="296">BC55/AY55-1</f>
         <v>5.3560559951308484E-2</v>
       </c>
       <c r="BD71" s="40">
-        <f t="shared" ref="BD71" si="296">BD55/AZ55-1</f>
+        <f t="shared" ref="BD71" si="297">BD55/AZ55-1</f>
         <v>0.10886469673405919</v>
       </c>
       <c r="BE71" s="40">
-        <f t="shared" ref="BE71" si="297">BE55/BA55-1</f>
+        <f t="shared" ref="BE71" si="298">BE55/BA55-1</f>
         <v>8.3174724019794422E-2</v>
       </c>
       <c r="BF71" s="40">
-        <f t="shared" ref="BF71" si="298">BF55/BB55-1</f>
+        <f t="shared" ref="BF71" si="299">BF55/BB55-1</f>
         <v>9.616443384107165E-2</v>
       </c>
       <c r="BG71" s="40">
-        <f t="shared" si="295"/>
+        <f t="shared" si="296"/>
         <v>0.13999614866165988</v>
       </c>
       <c r="BH71" s="40">
-        <f t="shared" si="295"/>
+        <f t="shared" si="296"/>
         <v>9.9754558204768529E-2</v>
       </c>
       <c r="BI71" s="40">
-        <f t="shared" si="295"/>
+        <f t="shared" si="296"/>
         <v>5.5526269548409779E-2</v>
       </c>
       <c r="BJ71" s="40">
-        <f t="shared" si="295"/>
+        <f t="shared" si="296"/>
         <v>0.33015235225179973</v>
       </c>
       <c r="BK71" s="40">
-        <f t="shared" si="295"/>
+        <f t="shared" si="296"/>
         <v>0.82111486486486496</v>
       </c>
       <c r="BL71" s="40">
-        <f t="shared" ref="BL71" si="299">BL55/BH55-1</f>
+        <f t="shared" ref="BL71" si="300">BL55/BH55-1</f>
         <v>0.6146979116849991</v>
       </c>
       <c r="BM71" s="40">
-        <f t="shared" ref="BM71" si="300">BM55/BI55-1</f>
+        <f t="shared" ref="BM71" si="301">BM55/BI55-1</f>
         <v>0.75461961045446979</v>
       </c>
       <c r="BN71" s="40">
-        <f t="shared" ref="BN71" si="301">BN55/BJ55-1</f>
+        <f t="shared" ref="BN71" si="302">BN55/BJ55-1</f>
         <v>0.39307740717432349</v>
       </c>
       <c r="BO71" s="40">
-        <f t="shared" ref="BO71" si="302">BO55/BK55-1</f>
+        <f t="shared" ref="BO71" si="303">BO55/BK55-1</f>
         <v>2.7084686021704885E-2</v>
       </c>
       <c r="BP71" s="40">
-        <f t="shared" ref="BP71:BR71" si="303">BP55/BL55-1</f>
+        <f t="shared" ref="BP71:BR71" si="304">BP55/BL55-1</f>
         <v>0.15539539934840563</v>
       </c>
       <c r="BQ71" s="40">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v>0.10284629981024662</v>
       </c>
       <c r="BR71" s="40">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v>8.2851463679074699E-2</v>
       </c>
       <c r="BS71" s="40">
@@ -24925,11 +25043,11 @@
         <v>5.1928113429061673E-2</v>
       </c>
       <c r="BT71" s="40">
-        <f t="shared" ref="BT71" si="304">BT55/BP55-1</f>
+        <f t="shared" ref="BT71" si="305">BT55/BP55-1</f>
         <v>1.5722464325386598E-2</v>
       </c>
       <c r="BU71" s="40">
-        <f t="shared" ref="BU71" si="305">BU55/BQ55-1</f>
+        <f t="shared" ref="BU71" si="306">BU55/BQ55-1</f>
         <v>-3.4927735719201602E-2</v>
       </c>
       <c r="BV71" s="40">
@@ -24937,51 +25055,51 @@
         <v>-4.8310387984981218E-2</v>
       </c>
       <c r="BW71" s="40">
-        <f t="shared" ref="BW71" si="306">BW55/BS55-1</f>
+        <f t="shared" ref="BW71" si="307">BW55/BS55-1</f>
         <v>-2.6699862637362681E-2</v>
       </c>
       <c r="BX71" s="40">
-        <f t="shared" ref="BX71" si="307">BX55/BT55-1</f>
+        <f t="shared" ref="BX71" si="308">BX55/BT55-1</f>
         <v>-5.5606965592664204E-2</v>
       </c>
       <c r="BY71" s="40">
-        <f t="shared" ref="BY71" si="308">BY55/BU55-1</f>
+        <f t="shared" ref="BY71" si="309">BY55/BU55-1</f>
         <v>-2.2463897307897995E-2</v>
       </c>
       <c r="BZ71" s="40">
-        <f t="shared" ref="BZ71:CH71" si="309">BZ55/BV55-1</f>
+        <f t="shared" ref="BZ71:CH71" si="310">BZ55/BV55-1</f>
         <v>6.2247939680870612E-3</v>
       </c>
       <c r="CA71" s="40">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>4.6573167504630808E-2</v>
       </c>
       <c r="CB71" s="40">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>8.6851950828433999E-2</v>
       </c>
       <c r="CC71" s="40">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>4.7047236914097956E-2</v>
       </c>
       <c r="CD71" s="40">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>6.6263832011849599E-2</v>
       </c>
       <c r="CE71" s="40">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>8.3734513274336342E-2</v>
       </c>
       <c r="CF71" s="40">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>8.217441193344821E-2</v>
       </c>
       <c r="CG71" s="40">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>9.0611517934283015E-2</v>
       </c>
       <c r="CH71" s="40">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>7.3621422985558516E-2</v>
       </c>
       <c r="CI71" s="37"/>
@@ -25002,135 +25120,135 @@
       <c r="CX71" s="37"/>
       <c r="CY71" s="37"/>
       <c r="CZ71" s="53">
-        <f t="shared" ref="CZ71:EF71" si="310">CZ55/CY55-1</f>
+        <f t="shared" ref="CZ71:EF71" si="311">CZ55/CY55-1</f>
         <v>0.26885218551885215</v>
       </c>
       <c r="DA71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>5.6735257379527892E-2</v>
       </c>
       <c r="DB71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>0.72471071295259426</v>
       </c>
       <c r="DC71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>-8.635429066118383E-2</v>
       </c>
       <c r="DD71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>0.21947175174700928</v>
       </c>
       <c r="DE71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>9.3142968142968074E-2</v>
       </c>
       <c r="DF71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>4.0959573522878712E-2</v>
       </c>
       <c r="DG71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>-0.34019005348810738</v>
       </c>
       <c r="DH71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>-8.3954982536328715E-2</v>
       </c>
       <c r="DI71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>-0.17294294859725101</v>
       </c>
       <c r="DJ71" s="70">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>-0.14902390438247015</v>
       </c>
       <c r="DK71" s="70">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>1.6784100751422226E-2</v>
       </c>
       <c r="DL71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>-9.865047754989309E-3</v>
       </c>
       <c r="DM71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>0.28556272014172257</v>
       </c>
       <c r="DN71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>7.2256651638107572E-2</v>
       </c>
       <c r="DO71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>8.7311712374608996E-2</v>
       </c>
       <c r="DP71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>0.15885820663977657</v>
       </c>
       <c r="DQ71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>0.62623828647925039</v>
       </c>
       <c r="DR71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>9.0949715414647914E-2</v>
       </c>
       <c r="DS71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>-4.8722647407567488E-3</v>
       </c>
       <c r="DT71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>-2.4978877358694973E-2</v>
       </c>
       <c r="DU71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>6.1756876860863175E-2</v>
       </c>
       <c r="DV71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>0.11378901686141574</v>
       </c>
       <c r="DW71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>-5.3662430856743271E-2</v>
       </c>
       <c r="DX71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>4.4181943701477877E-2</v>
       </c>
       <c r="DY71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>-7.2395081089818403E-2</v>
       </c>
       <c r="DZ71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>-8.032358643175852E-2</v>
       </c>
       <c r="EA71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>1.4553111998299118E-2</v>
       </c>
       <c r="EB71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>2.7397515267091777E-2</v>
       </c>
       <c r="EC71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>2.1460033045636262E-2</v>
       </c>
       <c r="ED71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>-0.33255402341504259</v>
       </c>
       <c r="EE71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>-0.12093320531922624</v>
       </c>
       <c r="EF71" s="53">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v>-0.4586193687277702</v>
       </c>
       <c r="EH71" s="19" t="s">
@@ -25331,151 +25449,151 @@
       <c r="AV73" s="33"/>
       <c r="AW73" s="33"/>
       <c r="AX73" s="41">
-        <f t="shared" ref="AX73:CH73" si="311">AX4/AT4-1</f>
+        <f t="shared" ref="AX73:CH73" si="312">AX4/AT4-1</f>
         <v>0.57475083056478415</v>
       </c>
       <c r="AY73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.5</v>
       </c>
       <c r="AZ73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.5135135135135136</v>
       </c>
       <c r="BA73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.39366515837104066</v>
       </c>
       <c r="BB73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.43776371308016881</v>
       </c>
       <c r="BC73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.36784741144414168</v>
       </c>
       <c r="BD73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.40306122448979598</v>
       </c>
       <c r="BE73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.28003246753246747</v>
       </c>
       <c r="BF73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.25091709464416723</v>
       </c>
       <c r="BG73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.27822045152722441</v>
       </c>
       <c r="BH73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.23757575757575755</v>
       </c>
       <c r="BI73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.22257450856055794</v>
       </c>
       <c r="BJ73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.19296187683284449</v>
       </c>
       <c r="BK73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.37194805194805203</v>
       </c>
       <c r="BL73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>5.9255631733594605E-2</v>
       </c>
       <c r="BM73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>8.6618257261410703E-2</v>
       </c>
       <c r="BN73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.115535889872173</v>
       </c>
       <c r="BO73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>9.2767890950397502E-2</v>
       </c>
       <c r="BP73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.29079981507165975</v>
       </c>
       <c r="BQ73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.15178997613365164</v>
       </c>
       <c r="BR73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.17717055971793738</v>
       </c>
       <c r="BS73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.11261261261261257</v>
       </c>
       <c r="BT73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.1586676217765044</v>
       </c>
       <c r="BU73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>0.1002900953170327</v>
       </c>
       <c r="BV73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>6.3646574316735816E-3</v>
       </c>
       <c r="BW73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>6.602304578013074E-2</v>
       </c>
       <c r="BX73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>-9.582689335394079E-3</v>
       </c>
       <c r="BY73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>1.883239171374762E-2</v>
       </c>
       <c r="BZ73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>6.9196428571428603E-2</v>
       </c>
       <c r="CA73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>8.6765994741454966E-2</v>
       </c>
       <c r="CB73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>6.616729088639195E-2</v>
       </c>
       <c r="CC73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="CD73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="CE73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="CF73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="CG73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="CH73" s="41">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="CI73" s="33"/>
@@ -25579,135 +25697,135 @@
       <c r="AV74" s="33"/>
       <c r="AW74" s="33"/>
       <c r="AX74" s="41">
-        <f t="shared" ref="AX74:CD74" si="312">AX5/AT5-1</f>
+        <f t="shared" ref="AX74:CD74" si="313">AX5/AT5-1</f>
         <v>1.7578947368421054</v>
       </c>
       <c r="AY74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.60085227272727271</v>
       </c>
       <c r="AZ74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.42261904761904767</v>
       </c>
       <c r="BA74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.375</v>
       </c>
       <c r="BB74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>3.8931297709923651E-2</v>
       </c>
       <c r="BC74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.34072759538598052</v>
       </c>
       <c r="BD74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.36150627615062758</v>
       </c>
       <c r="BE74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.41739130434782612</v>
       </c>
       <c r="BF74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.32549595885378402</v>
       </c>
       <c r="BG74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.19192587690271345</v>
       </c>
       <c r="BH74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.12046711739397664</v>
       </c>
       <c r="BI74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>1.3385387618516376E-2</v>
       </c>
       <c r="BJ74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>-2.2727272727272707E-2</v>
       </c>
       <c r="BK74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>-1.9433647973348123E-2</v>
       </c>
       <c r="BL74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>-9.3252879868348848E-2</v>
       </c>
       <c r="BM74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>-2.0363236103467242E-2</v>
       </c>
       <c r="BN74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>1.7016449234259712E-2</v>
       </c>
       <c r="BO74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>-2.6047565118912819E-2</v>
       </c>
       <c r="BP74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.15547489413188154</v>
       </c>
       <c r="BQ74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>7.02247191011236E-2</v>
       </c>
       <c r="BR74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.10875627440044622</v>
       </c>
       <c r="BS74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.11802325581395356</v>
       </c>
       <c r="BT74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>8.010471204188474E-2</v>
       </c>
       <c r="BU74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>7.4540682414698134E-2</v>
       </c>
       <c r="BV74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.11468812877263579</v>
       </c>
       <c r="BW74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.14508580343213739</v>
       </c>
       <c r="BX74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>3.9747939893359119E-2</v>
       </c>
       <c r="BY74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.11138251099169527</v>
       </c>
       <c r="BZ74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>7.7166064981949445E-2</v>
       </c>
       <c r="CA74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>-5.6312443233424214E-2</v>
       </c>
       <c r="CB74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.11282051282051286</v>
       </c>
       <c r="CC74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="CD74" s="41">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="CE74" s="41"/>
@@ -25832,63 +25950,63 @@
       <c r="BL75" s="41"/>
       <c r="BM75" s="41"/>
       <c r="BN75" s="41">
-        <f t="shared" ref="BN75:CB75" si="313">BN6/BJ6-1</f>
+        <f t="shared" ref="BN75:CB75" si="314">BN6/BJ6-1</f>
         <v>1.5250192455735183</v>
       </c>
       <c r="BO75" s="41">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>9.9485420240137401E-3</v>
       </c>
       <c r="BP75" s="41">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>0.11026352288488206</v>
       </c>
       <c r="BQ75" s="41">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>0.10571522960026436</v>
       </c>
       <c r="BR75" s="41">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>1.4634146341463428E-2</v>
       </c>
       <c r="BS75" s="41">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>-4.9932065217391353E-2</v>
       </c>
       <c r="BT75" s="41">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>-0.21892567145534036</v>
       </c>
       <c r="BU75" s="41">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>-0.27696444577233348</v>
       </c>
       <c r="BV75" s="41">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>-0.32091346153846156</v>
       </c>
       <c r="BW75" s="41">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>-0.37432963889882021</v>
       </c>
       <c r="BX75" s="41">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>-0.41303478608556576</v>
       </c>
       <c r="BY75" s="41">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>-0.40950413223140492</v>
       </c>
       <c r="BZ75" s="41">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>-0.3584070796460177</v>
       </c>
       <c r="CA75" s="41">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>-4.6285714285714263E-2</v>
       </c>
       <c r="CB75" s="41">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>-7.8337874659400564E-2</v>
       </c>
       <c r="CC75" s="41"/>
@@ -25964,127 +26082,127 @@
         <v>359</v>
       </c>
       <c r="G76" s="76">
-        <f t="shared" ref="G76:AK76" si="314">+G38/C38-1</f>
+        <f t="shared" ref="G76:AK76" si="315">+G38/C38-1</f>
         <v>0.21130221130221138</v>
       </c>
       <c r="H76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>0.18285123966942152</v>
       </c>
       <c r="I76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>-0.3571428571428571</v>
       </c>
       <c r="J76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>-0.53251649387370403</v>
       </c>
       <c r="K76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>-4.8681541582150101E-2</v>
       </c>
       <c r="L76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>3.8427947598253187E-2</v>
       </c>
       <c r="M76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>0.99047619047619051</v>
       </c>
       <c r="N76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>1.7701612903225805</v>
       </c>
       <c r="O76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>0.3944562899786781</v>
       </c>
       <c r="P76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>0.16652649285113541</v>
       </c>
       <c r="Q76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>0.1475279106858054</v>
       </c>
       <c r="R76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>6.9141193595342099E-2</v>
       </c>
       <c r="S76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>9.7094801223241545E-2</v>
       </c>
       <c r="T76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>0.1095890410958904</v>
       </c>
       <c r="U76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>7.9916608756080532E-2</v>
       </c>
       <c r="V76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>0.10142954390741998</v>
       </c>
       <c r="W76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>0.16097560975609748</v>
       </c>
       <c r="X76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>5.7179987004548405E-2</v>
       </c>
       <c r="Y76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>6.6924066924066938E-2</v>
       </c>
       <c r="Z76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>5.9950556242274411E-2</v>
       </c>
       <c r="AA76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>5.7623049219687861E-2</v>
       </c>
       <c r="AB76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>0.146281499692686</v>
       </c>
       <c r="AC76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>7.8407720144752613E-2</v>
       </c>
       <c r="AD76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>-2.507288629737614E-2</v>
       </c>
       <c r="AE76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>-3.9160045402951149E-2</v>
       </c>
       <c r="AF76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>-0.60268096514745306</v>
       </c>
       <c r="AG76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>-0.96420581655480986</v>
       </c>
       <c r="AH76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>-0.97069377990430628</v>
       </c>
       <c r="AI76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>-0.94624926166568224</v>
       </c>
       <c r="AJ76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>-0.94062078272604588</v>
       </c>
       <c r="AK76" s="76">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>-0.34375</v>
       </c>
       <c r="AL76" s="76"/>
@@ -26159,95 +26277,95 @@
         <v>359</v>
       </c>
       <c r="CZ76" s="77">
-        <f t="shared" ref="CZ76:DV76" si="315">CZ38/CY38-1</f>
+        <f t="shared" ref="CZ76:DV76" si="316">CZ38/CY38-1</f>
         <v>0.30529100529100539</v>
       </c>
       <c r="DA76" s="77">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>0.34860154033238744</v>
       </c>
       <c r="DB76" s="77">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>0.14908325819056212</v>
       </c>
       <c r="DC76" s="77">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>-0.14805126863719587</v>
       </c>
       <c r="DD76" s="77">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>0.45993245317777087</v>
       </c>
       <c r="DE76" s="77">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>0.17833859095688753</v>
       </c>
       <c r="DF76" s="77">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>9.6912368374085345E-2</v>
       </c>
       <c r="DG76" s="77">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>8.4607875040676905E-2</v>
       </c>
       <c r="DH76" s="77">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>6.3156315631563098E-2</v>
       </c>
       <c r="DI76" s="77">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>-0.64060956681247361</v>
       </c>
       <c r="DJ76" s="78">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>-0.8</v>
       </c>
       <c r="DK76" s="78">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>-0.5</v>
       </c>
       <c r="DL76" s="77">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>-1</v>
       </c>
       <c r="DM76" s="77" t="e">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DN76" s="77" t="e">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DO76" s="77" t="e">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP76" s="77" t="e">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DQ76" s="77" t="e">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DR76" s="77" t="e">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DS76" s="77" t="e">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DT76" s="77" t="e">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DU76" s="77" t="e">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DV76" s="77" t="e">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>#DIV/0!</v>
       </c>
       <c r="EH76" s="23" t="s">
@@ -26274,127 +26392,127 @@
         <v>359</v>
       </c>
       <c r="G77" s="76">
-        <f t="shared" ref="G77:AK77" si="316">+G43/C43-1</f>
+        <f t="shared" ref="G77:AK77" si="317">+G43/C43-1</f>
         <v>1.1560693641618602E-2</v>
       </c>
       <c r="H77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.15568862275449091</v>
       </c>
       <c r="I77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.18235294117647061</v>
       </c>
       <c r="J77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.30588235294117649</v>
       </c>
       <c r="K77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.29142857142857137</v>
       </c>
       <c r="L77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.20725388601036276</v>
       </c>
       <c r="M77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.17910447761194037</v>
       </c>
       <c r="N77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.1711711711711712</v>
       </c>
       <c r="O77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.20796460176991149</v>
       </c>
       <c r="P77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.21030042918454939</v>
       </c>
       <c r="Q77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.240506329113924</v>
       </c>
       <c r="R77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.15384615384615374</v>
       </c>
       <c r="S77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>6.9597069597069572E-2</v>
       </c>
       <c r="T77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.1063829787234043</v>
       </c>
       <c r="U77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="V77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.19333333333333336</v>
       </c>
       <c r="W77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.14726027397260277</v>
       </c>
       <c r="X77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>6.0897435897435903E-2</v>
       </c>
       <c r="Y77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>8.5714285714285632E-2</v>
       </c>
       <c r="Z77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>5.5865921787709993E-3</v>
       </c>
       <c r="AA77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>2.3880597014925398E-2</v>
       </c>
       <c r="AB77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.12084592145015116</v>
       </c>
       <c r="AC77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>4.9707602339181367E-2</v>
       </c>
       <c r="AD77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.14444444444444438</v>
       </c>
       <c r="AE77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>0.12536443148688048</v>
       </c>
       <c r="AF77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>4.5822102425876032E-2</v>
       </c>
       <c r="AG77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>3.0640668523676862E-2</v>
       </c>
       <c r="AH77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>-7.0388349514563076E-2</v>
       </c>
       <c r="AI77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>2.5906735751295429E-3</v>
       </c>
       <c r="AJ77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>5.9278350515463929E-2</v>
       </c>
       <c r="AK77" s="76">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v>5.1351351351351271E-2</v>
       </c>
       <c r="AL77" s="76"/>
@@ -26517,111 +26635,111 @@
         <v>359</v>
       </c>
       <c r="K78" s="57">
-        <f t="shared" ref="K78:AK78" si="317">+K3/G3-1</f>
+        <f t="shared" ref="K78:AK78" si="318">+K3/G3-1</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="L78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>2.0555555555555554</v>
       </c>
       <c r="M78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="N78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>1.34375</v>
       </c>
       <c r="O78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>1.1219512195121952</v>
       </c>
       <c r="P78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.92727272727272725</v>
       </c>
       <c r="Q78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.98333333333333339</v>
       </c>
       <c r="R78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.72</v>
       </c>
       <c r="S78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.42528735632183912</v>
       </c>
       <c r="T78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.39622641509433953</v>
       </c>
       <c r="U78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.3613445378151261</v>
       </c>
       <c r="V78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.30232558139534893</v>
       </c>
       <c r="W78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.36290322580645151</v>
       </c>
       <c r="X78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.20270270270270263</v>
       </c>
       <c r="Y78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.13580246913580241</v>
       </c>
       <c r="Z78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.20238095238095233</v>
       </c>
       <c r="AA78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.1775147928994083</v>
       </c>
       <c r="AB78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.2808988764044944</v>
       </c>
       <c r="AC78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.26630434782608692</v>
       </c>
       <c r="AD78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.2722772277227723</v>
       </c>
       <c r="AE78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.27638190954773867</v>
       </c>
       <c r="AF78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.27192982456140347</v>
       </c>
       <c r="AG78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.31759656652360513</v>
       </c>
       <c r="AH78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.2645914396887159</v>
       </c>
       <c r="AI78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.25984251968503935</v>
       </c>
       <c r="AJ78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.21379310344827585</v>
       </c>
       <c r="AK78" s="57">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v>0.22149837133550498</v>
       </c>
       <c r="AL78" s="57"/>
@@ -26635,123 +26753,123 @@
       <c r="AV78" s="57"/>
       <c r="AW78" s="57"/>
       <c r="AX78" s="57">
-        <f t="shared" ref="AX78:BA78" si="318">+AX3/AT3-1</f>
+        <f t="shared" ref="AX78:BA78" si="319">+AX3/AT3-1</f>
         <v>0.15740740740740744</v>
       </c>
       <c r="AY78" s="57">
-        <f t="shared" si="318"/>
+        <f t="shared" si="319"/>
         <v>0.12631578947368416</v>
       </c>
       <c r="AZ78" s="57">
-        <f t="shared" si="318"/>
+        <f t="shared" si="319"/>
         <v>9.612141652613837E-2</v>
       </c>
       <c r="BA78" s="57">
-        <f t="shared" si="318"/>
+        <f t="shared" si="319"/>
         <v>0.10489510489510478</v>
       </c>
       <c r="BB78" s="57">
-        <f t="shared" ref="BB78" si="319">+BB3/AX3-1</f>
+        <f t="shared" ref="BB78" si="320">+BB3/AX3-1</f>
         <v>5.9199999999999919E-2</v>
       </c>
       <c r="BC78" s="57">
-        <f t="shared" ref="BC78" si="320">+BC3/AY3-1</f>
+        <f t="shared" ref="BC78" si="321">+BC3/AY3-1</f>
         <v>0.108411214953271</v>
       </c>
       <c r="BD78" s="57">
-        <f t="shared" ref="BD78" si="321">+BD3/AZ3-1</f>
+        <f t="shared" ref="BD78" si="322">+BD3/AZ3-1</f>
         <v>9.3846153846153912E-2</v>
       </c>
       <c r="BE78" s="57">
-        <f t="shared" ref="BE78" si="322">+BE3/BA3-1</f>
+        <f t="shared" ref="BE78" si="323">+BE3/BA3-1</f>
         <v>6.8037974683544222E-2</v>
       </c>
       <c r="BF78" s="57">
-        <f t="shared" ref="BF78" si="323">+BF3/BB3-1</f>
+        <f t="shared" ref="BF78" si="324">+BF3/BB3-1</f>
         <v>0.10422960725075536</v>
       </c>
       <c r="BG78" s="57">
-        <f t="shared" ref="BG78" si="324">+BG3/BC3-1</f>
+        <f t="shared" ref="BG78" si="325">+BG3/BC3-1</f>
         <v>7.9258010118043787E-2</v>
       </c>
       <c r="BH78" s="57">
-        <f t="shared" ref="BH78" si="325">+BH3/BD3-1</f>
+        <f t="shared" ref="BH78" si="326">+BH3/BD3-1</f>
         <v>9.4233473980309457E-2</v>
       </c>
       <c r="BI78" s="57">
-        <f t="shared" ref="BI78" si="326">+BI3/BE3-1</f>
+        <f t="shared" ref="BI78" si="327">+BI3/BE3-1</f>
         <v>0.13629629629629636</v>
       </c>
       <c r="BJ78" s="57">
-        <f t="shared" ref="BJ78" si="327">+BJ3/BF3-1</f>
+        <f t="shared" ref="BJ78" si="328">+BJ3/BF3-1</f>
         <v>8.3447332421340725E-2</v>
       </c>
       <c r="BK78" s="57">
-        <f t="shared" ref="BK78" si="328">+BK3/BG3-1</f>
+        <f t="shared" ref="BK78" si="329">+BK3/BG3-1</f>
         <v>0.11562500000000009</v>
       </c>
       <c r="BL78" s="57">
-        <f t="shared" ref="BL78" si="329">+BL3/BH3-1</f>
+        <f t="shared" ref="BL78" si="330">+BL3/BH3-1</f>
         <v>-3.5989717223650408E-2</v>
       </c>
       <c r="BM78" s="57">
-        <f t="shared" ref="BM78" si="330">+BM3/BI3-1</f>
+        <f t="shared" ref="BM78" si="331">+BM3/BI3-1</f>
         <v>7.6923076923076872E-2</v>
       </c>
       <c r="BN78" s="57">
-        <f t="shared" ref="BN78" si="331">+BN3/BJ3-1</f>
+        <f t="shared" ref="BN78" si="332">+BN3/BJ3-1</f>
         <v>9.4696969696969724E-2</v>
       </c>
       <c r="BO78" s="57">
-        <f t="shared" ref="BO78" si="332">+BO3/BK3-1</f>
+        <f t="shared" ref="BO78" si="333">+BO3/BK3-1</f>
         <v>6.1624649859943981E-2</v>
       </c>
       <c r="BP78" s="57">
-        <f t="shared" ref="BP78" si="333">+BP3/BL3-1</f>
+        <f t="shared" ref="BP78" si="334">+BP3/BL3-1</f>
         <v>8.5333333333333261E-2</v>
       </c>
       <c r="BQ78" s="57">
-        <f t="shared" ref="BQ78" si="334">+BQ3/BM3-1</f>
+        <f t="shared" ref="BQ78" si="335">+BQ3/BM3-1</f>
         <v>5.3268765133171803E-2</v>
       </c>
       <c r="BR78" s="57">
-        <f t="shared" ref="BR78" si="335">+BR3/BN3-1</f>
+        <f t="shared" ref="BR78" si="336">+BR3/BN3-1</f>
         <v>-3.4602076124568004E-3</v>
       </c>
       <c r="BS78" s="57">
-        <f t="shared" ref="BS78" si="336">+BS3/BO3-1</f>
+        <f t="shared" ref="BS78" si="337">+BS3/BO3-1</f>
         <v>4.4854881266490843E-2</v>
       </c>
       <c r="BT78" s="57">
-        <f t="shared" ref="BT78" si="337">+BT3/BP3-1</f>
+        <f t="shared" ref="BT78" si="338">+BT3/BP3-1</f>
         <v>7.6167076167076075E-2</v>
       </c>
       <c r="BU78" s="57">
-        <f t="shared" ref="BU78" si="338">+BU3/BQ3-1</f>
+        <f t="shared" ref="BU78" si="339">+BU3/BQ3-1</f>
         <v>1.4942528735632177E-2</v>
       </c>
       <c r="BV78" s="57">
-        <f t="shared" ref="BV78" si="339">+BV3/BR3-1</f>
+        <f t="shared" ref="BV78" si="340">+BV3/BR3-1</f>
         <v>5.6712962962963021E-2</v>
       </c>
       <c r="BW78" s="57">
-        <f t="shared" ref="BW78" si="340">+BW3/BS3-1</f>
+        <f t="shared" ref="BW78" si="341">+BW3/BS3-1</f>
         <v>-3.5353535353535359E-2</v>
       </c>
       <c r="BX78" s="57">
-        <f t="shared" ref="BX78:CA78" si="341">+BX3/BT3-1</f>
+        <f t="shared" ref="BX78:CA78" si="342">+BX3/BT3-1</f>
         <v>5.821917808219168E-2</v>
       </c>
       <c r="BY78" s="57">
-        <f t="shared" si="341"/>
+        <f t="shared" si="342"/>
         <v>4.7565118912797244E-2</v>
       </c>
       <c r="BZ78" s="57">
-        <f t="shared" si="341"/>
+        <f t="shared" si="342"/>
         <v>7.8860898138006563E-2</v>
       </c>
       <c r="CA78" s="57">
-        <f t="shared" si="341"/>
+        <f t="shared" si="342"/>
         <v>4.4502617801047029E-2</v>
       </c>
       <c r="CB78" s="57">
@@ -26779,127 +26897,127 @@
         <v>359</v>
       </c>
       <c r="G79" s="76">
-        <f t="shared" ref="G79:AK79" si="342">+G34/C34-1</f>
+        <f t="shared" ref="G79:AK79" si="343">+G34/C34-1</f>
         <v>0.18877551020408156</v>
       </c>
       <c r="H79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>8.5271317829457294E-2</v>
       </c>
       <c r="I79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>0.10358565737051784</v>
       </c>
       <c r="J79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>0.10830324909747291</v>
       </c>
       <c r="K79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>0.15879828326180268</v>
       </c>
       <c r="L79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>6.0714285714285721E-2</v>
       </c>
       <c r="M79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>0.11552346570397121</v>
       </c>
       <c r="N79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>6.8403908794788304E-2</v>
       </c>
       <c r="O79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>0.12962962962962954</v>
       </c>
       <c r="P79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>0.12794612794612803</v>
       </c>
       <c r="Q79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>8.0906148867313954E-2</v>
       </c>
       <c r="R79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-3.6585365853658569E-2</v>
       </c>
       <c r="S79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-9.8360655737704805E-3</v>
       </c>
       <c r="T79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-6.5671641791044788E-2</v>
       </c>
       <c r="U79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-1.4970059880239472E-2</v>
       </c>
       <c r="V79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>7.2784810126582222E-2</v>
       </c>
       <c r="W79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>3.9735099337748325E-2</v>
       </c>
       <c r="X79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-1.9169329073482455E-2</v>
       </c>
       <c r="Y79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-7.9027355623100259E-2</v>
       </c>
       <c r="Z79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-0.25663716814159288</v>
       </c>
       <c r="AA79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-7.6433121019108263E-2</v>
       </c>
       <c r="AB79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-0.1824104234527687</v>
       </c>
       <c r="AC79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-0.28712871287128716</v>
       </c>
       <c r="AD79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-0.22619047619047616</v>
       </c>
       <c r="AE79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-0.28620689655172415</v>
       </c>
       <c r="AF79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-0.53386454183266929</v>
       </c>
       <c r="AG79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-0.56018518518518512</v>
       </c>
       <c r="AH79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-0.56923076923076921</v>
       </c>
       <c r="AI79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-0.77777777777777779</v>
       </c>
       <c r="AJ79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-0.52136752136752129</v>
       </c>
       <c r="AK79" s="76">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v>-0.25263157894736843</v>
       </c>
       <c r="AL79" s="76"/>
@@ -27003,127 +27121,127 @@
         <v>359</v>
       </c>
       <c r="G80" s="76">
-        <f t="shared" ref="G80:AK80" si="343">+G44/C44-1</f>
+        <f t="shared" ref="G80:AK80" si="344">+G44/C44-1</f>
         <v>0.38926174496644306</v>
       </c>
       <c r="H80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.28961748633879791</v>
       </c>
       <c r="I80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.32386363636363646</v>
       </c>
       <c r="J80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.3563829787234043</v>
       </c>
       <c r="K80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.27053140096618367</v>
       </c>
       <c r="L80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>7.6271186440677985E-2</v>
       </c>
       <c r="M80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.17167381974248919</v>
       </c>
       <c r="N80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.30980392156862746</v>
       </c>
       <c r="O80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.12927756653992395</v>
       </c>
       <c r="P80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.27559055118110232</v>
       </c>
       <c r="Q80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.25274725274725274</v>
       </c>
       <c r="R80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>-1.4970059880239472E-2</v>
       </c>
       <c r="S80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>8.4175084175084125E-2</v>
       </c>
       <c r="T80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>2.1604938271605034E-2</v>
       </c>
       <c r="U80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>5.2631578947368363E-2</v>
       </c>
       <c r="V80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.17933130699088151</v>
       </c>
       <c r="W80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.15838509316770177</v>
       </c>
       <c r="X80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>7.8549848942598199E-2</v>
       </c>
       <c r="Y80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="Z80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>-3.6082474226804107E-2</v>
       </c>
       <c r="AA80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>-1.8766756032171594E-2</v>
       </c>
       <c r="AB80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.10924369747899165</v>
       </c>
       <c r="AC80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>4.2666666666666631E-2</v>
       </c>
       <c r="AD80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>0.11229946524064172</v>
       </c>
       <c r="AE80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>-2.1857923497267784E-2</v>
       </c>
       <c r="AF80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>2.5252525252525304E-2</v>
       </c>
       <c r="AG80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>-7.1611253196930957E-2</v>
       </c>
       <c r="AH80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>-5.2884615384615419E-2</v>
       </c>
       <c r="AI80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>8.379888268156499E-3</v>
       </c>
       <c r="AJ80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>6.1576354679802936E-2</v>
       </c>
       <c r="AK80" s="76">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v>3.3057851239669311E-2</v>
       </c>
       <c r="AL80" s="76"/>
@@ -27236,115 +27354,115 @@
         <v>359</v>
       </c>
       <c r="J81" s="76">
-        <f t="shared" ref="J81:AK81" si="344">+J45/F45-1</f>
+        <f t="shared" ref="J81:AK81" si="345">+J45/F45-1</f>
         <v>6.2</v>
       </c>
       <c r="K81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>3.0909090909090908</v>
       </c>
       <c r="L81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>3.2142857142857144</v>
       </c>
       <c r="M81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>2.2727272727272729</v>
       </c>
       <c r="N81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>1.75</v>
       </c>
       <c r="O81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>1.4</v>
       </c>
       <c r="P81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>1.3050847457627119</v>
       </c>
       <c r="Q81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>1</v>
       </c>
       <c r="R81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="S81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.40740740740740744</v>
       </c>
       <c r="T81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.31617647058823528</v>
       </c>
       <c r="U81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.32638888888888884</v>
       </c>
       <c r="V81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.3856209150326797</v>
       </c>
       <c r="W81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.42105263157894735</v>
       </c>
       <c r="X81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.24581005586592175</v>
       </c>
       <c r="Y81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.19371727748691092</v>
       </c>
       <c r="Z81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.24528301886792447</v>
       </c>
       <c r="AA81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.27314814814814814</v>
       </c>
       <c r="AB81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.3094170403587444</v>
       </c>
       <c r="AC81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.36403508771929816</v>
       </c>
       <c r="AD81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.20454545454545459</v>
       </c>
       <c r="AE81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.18181818181818188</v>
       </c>
       <c r="AF81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.22260273972602729</v>
       </c>
       <c r="AG81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.112540192926045</v>
       </c>
       <c r="AH81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.5691823899371069</v>
       </c>
       <c r="AI81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>0.12615384615384606</v>
       </c>
       <c r="AJ81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>3.9215686274509887E-2</v>
       </c>
       <c r="AK81" s="76">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v>9.2485549132947931E-2</v>
       </c>
       <c r="AL81" s="76"/>
@@ -27448,127 +27566,127 @@
         <v>359</v>
       </c>
       <c r="G82" s="76">
-        <f t="shared" ref="G82:P83" si="345">+G41/C41-1</f>
+        <f t="shared" ref="G82:P83" si="346">+G41/C41-1</f>
         <v>0.5862068965517242</v>
       </c>
       <c r="H82" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.75510204081632648</v>
       </c>
       <c r="I82" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.63551401869158886</v>
       </c>
       <c r="J82" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.38016528925619841</v>
       </c>
       <c r="K82" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.15942028985507251</v>
       </c>
       <c r="L82" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>-5.8139534883720922E-2</v>
       </c>
       <c r="M82" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>5.7142857142857162E-2</v>
       </c>
       <c r="N82" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.10778443113772451</v>
       </c>
       <c r="O82" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.16874999999999996</v>
       </c>
       <c r="P82" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.20987654320987659</v>
       </c>
       <c r="Q82" s="76">
-        <f t="shared" ref="Q82:Z83" si="346">+Q41/M41-1</f>
+        <f t="shared" ref="Q82:Z83" si="347">+Q41/M41-1</f>
         <v>-5.4054054054053502E-3</v>
       </c>
       <c r="R82" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>-1.6216216216216162E-2</v>
       </c>
       <c r="S82" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>-0.12299465240641716</v>
       </c>
       <c r="T82" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>-0.11734693877551017</v>
       </c>
       <c r="U82" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>-2.7173913043478271E-2</v>
       </c>
       <c r="V82" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>-8.2417582417582458E-2</v>
       </c>
       <c r="W82" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>1.2195121951219523E-2</v>
       </c>
       <c r="X82" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>-5.7803468208093012E-3</v>
       </c>
       <c r="Y82" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>-0.11173184357541899</v>
       </c>
       <c r="Z82" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>-1.19760479041916E-2</v>
       </c>
       <c r="AA82" s="76">
-        <f t="shared" ref="AA82:AJ83" si="347">+AA41/W41-1</f>
+        <f t="shared" ref="AA82:AJ83" si="348">+AA41/W41-1</f>
         <v>-6.0240963855421326E-3</v>
       </c>
       <c r="AB82" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>5.8139534883721034E-3</v>
       </c>
       <c r="AC82" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>8.1761006289308158E-2</v>
       </c>
       <c r="AD82" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>9.6969696969696928E-2</v>
       </c>
       <c r="AE82" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>8.4848484848484951E-2</v>
       </c>
       <c r="AF82" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>3.4682080924855585E-2</v>
       </c>
       <c r="AG82" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>5.8139534883721034E-3</v>
       </c>
       <c r="AH82" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>-5.5248618784530357E-2</v>
       </c>
       <c r="AI82" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>-9.4972067039106101E-2</v>
       </c>
       <c r="AJ82" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>-4.4692737430167551E-2</v>
       </c>
       <c r="AK82" s="76">
-        <f t="shared" ref="AK82:AK83" si="348">+AK41/AG41-1</f>
+        <f t="shared" ref="AK82:AK83" si="349">+AK41/AG41-1</f>
         <v>5.7803468208092568E-2</v>
       </c>
       <c r="AL82" s="76"/>
@@ -27672,127 +27790,127 @@
         <v>359</v>
       </c>
       <c r="G83" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.50531914893617014</v>
       </c>
       <c r="H83" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="I83" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.20384615384615379</v>
       </c>
       <c r="J83" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.6160714285714286</v>
       </c>
       <c r="K83" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.29328621908127217</v>
       </c>
       <c r="L83" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.27160493827160503</v>
       </c>
       <c r="M83" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.34185303514377008</v>
       </c>
       <c r="N83" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.27624309392265189</v>
       </c>
       <c r="O83" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.2404371584699454</v>
       </c>
       <c r="P83" s="76">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v>0.28398058252427183</v>
       </c>
       <c r="Q83" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>0.34285714285714275</v>
       </c>
       <c r="R83" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>0.31168831168831179</v>
       </c>
       <c r="S83" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>0.29735682819383258</v>
       </c>
       <c r="T83" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>0.21550094517958418</v>
       </c>
       <c r="U83" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>0.15780141843971629</v>
       </c>
       <c r="V83" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>0.16666666666666674</v>
       </c>
       <c r="W83" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>4.7538200339558578E-2</v>
       </c>
       <c r="X83" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>-1.5552099533437058E-2</v>
       </c>
       <c r="Y83" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>-6.8912710566615631E-2</v>
       </c>
       <c r="Z83" s="76">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v>0</v>
       </c>
       <c r="AA83" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>1.1345218800648205E-2</v>
       </c>
       <c r="AB83" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>0.11532385466034745</v>
       </c>
       <c r="AC83" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>0.13651315789473695</v>
       </c>
       <c r="AD83" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>4.2432814710042344E-2</v>
       </c>
       <c r="AE83" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>-4.8076923076922906E-3</v>
       </c>
       <c r="AF83" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>7.0821529745042078E-3</v>
       </c>
       <c r="AG83" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>-2.1707670043415339E-2</v>
       </c>
       <c r="AH83" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>0.11126187245590224</v>
       </c>
       <c r="AI83" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>-0.15942028985507251</v>
       </c>
       <c r="AJ83" s="76">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>-0.20815752461322079</v>
       </c>
       <c r="AK83" s="76">
-        <f t="shared" si="348"/>
+        <f t="shared" si="349"/>
         <v>-0.15828402366863903</v>
       </c>
       <c r="AL83" s="76"/>
@@ -27914,103 +28032,103 @@
         <v>359</v>
       </c>
       <c r="M84" s="41">
-        <f t="shared" ref="M84:AK84" si="349">M10/I10-1</f>
+        <f t="shared" ref="M84:AK84" si="350">M10/I10-1</f>
         <v>3.1818181818181817</v>
       </c>
       <c r="N84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>3</v>
       </c>
       <c r="O84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="P84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>1.1714285714285713</v>
       </c>
       <c r="Q84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.78260869565217384</v>
       </c>
       <c r="R84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.53571428571428581</v>
       </c>
       <c r="S84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="T84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.40789473684210531</v>
       </c>
       <c r="U84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.30487804878048785</v>
       </c>
       <c r="V84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.38372093023255816</v>
       </c>
       <c r="W84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.48863636363636354</v>
       </c>
       <c r="X84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.23364485981308403</v>
       </c>
       <c r="Y84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.34579439252336441</v>
       </c>
       <c r="Z84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.42016806722689082</v>
       </c>
       <c r="AA84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.31297709923664119</v>
       </c>
       <c r="AB84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.46212121212121215</v>
       </c>
       <c r="AC84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.46527777777777768</v>
       </c>
       <c r="AD84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.34319526627218933</v>
       </c>
       <c r="AE84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.34302325581395343</v>
       </c>
       <c r="AF84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.26424870466321249</v>
       </c>
       <c r="AG84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.24644549763033186</v>
       </c>
       <c r="AH84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.23788546255506615</v>
       </c>
       <c r="AI84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.24242424242424243</v>
       </c>
       <c r="AJ84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.27868852459016402</v>
       </c>
       <c r="AK84" s="41">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v>0.20152091254752857</v>
       </c>
       <c r="AL84" s="41"/>
@@ -28097,51 +28215,51 @@
         <v>359</v>
       </c>
       <c r="Z85" s="41">
-        <f t="shared" ref="Z85:AK85" si="350">Z37/V37-1</f>
+        <f t="shared" ref="Z85:AK85" si="351">Z37/V37-1</f>
         <v>17.25</v>
       </c>
       <c r="AA85" s="41">
-        <f t="shared" si="350"/>
+        <f t="shared" si="351"/>
         <v>7.1</v>
       </c>
       <c r="AB85" s="41">
-        <f t="shared" si="350"/>
+        <f t="shared" si="351"/>
         <v>3</v>
       </c>
       <c r="AC85" s="41">
-        <f t="shared" si="350"/>
+        <f t="shared" si="351"/>
         <v>1.7021276595744679</v>
       </c>
       <c r="AD85" s="41">
-        <f t="shared" si="350"/>
+        <f t="shared" si="351"/>
         <v>1.095890410958904</v>
       </c>
       <c r="AE85" s="41">
-        <f t="shared" si="350"/>
+        <f t="shared" si="351"/>
         <v>0.98765432098765427</v>
       </c>
       <c r="AF85" s="41">
-        <f t="shared" si="350"/>
+        <f t="shared" si="351"/>
         <v>0.53571428571428581</v>
       </c>
       <c r="AG85" s="41">
-        <f t="shared" si="350"/>
+        <f t="shared" si="351"/>
         <v>0.40157480314960625</v>
       </c>
       <c r="AH85" s="41">
-        <f t="shared" si="350"/>
+        <f t="shared" si="351"/>
         <v>0.29411764705882359</v>
       </c>
       <c r="AI85" s="41">
-        <f t="shared" si="350"/>
+        <f t="shared" si="351"/>
         <v>0.25465838509316763</v>
       </c>
       <c r="AJ85" s="41">
-        <f t="shared" si="350"/>
+        <f t="shared" si="351"/>
         <v>0.39534883720930236</v>
       </c>
       <c r="AK85" s="41">
-        <f t="shared" si="350"/>
+        <f t="shared" si="351"/>
         <v>0.18539325842696619</v>
       </c>
       <c r="AL85" s="41"/>
@@ -28202,123 +28320,123 @@
         <v>164</v>
       </c>
       <c r="C87" s="39">
-        <f t="shared" ref="C87:AF87" si="351">C57/C55</f>
+        <f t="shared" ref="C87:AF87" si="352">C57/C55</f>
         <v>0.7860050093926112</v>
       </c>
       <c r="D87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.79144986640416259</v>
       </c>
       <c r="E87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.78479175736467854</v>
       </c>
       <c r="F87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.7823714012825761</v>
       </c>
       <c r="G87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.78398946290062932</v>
       </c>
       <c r="H87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.78069930069930071</v>
       </c>
       <c r="I87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.74530598052851182</v>
       </c>
       <c r="J87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.75062567036110117</v>
       </c>
       <c r="K87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.78218465539661897</v>
       </c>
       <c r="L87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.78155408263996617</v>
       </c>
       <c r="M87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.79337579617834397</v>
       </c>
       <c r="N87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.78600871511011661</v>
       </c>
       <c r="O87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.79638731875153601</v>
       </c>
       <c r="P87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.80850558327393685</v>
       </c>
       <c r="Q87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.81573426573426577</v>
       </c>
       <c r="R87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0</v>
       </c>
       <c r="S87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.82965641952983726</v>
       </c>
       <c r="T87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.83589801190609903</v>
       </c>
       <c r="U87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.82827616534740545</v>
       </c>
       <c r="V87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.83815224757171902</v>
       </c>
       <c r="W87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.72831287705429582</v>
       </c>
       <c r="X87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.84932153392330378</v>
       </c>
       <c r="Y87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.73322217590662775</v>
       </c>
       <c r="Z87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.72334181177851697</v>
       </c>
       <c r="AA87" s="55">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.73198962282977453</v>
       </c>
       <c r="AB87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.72745675377254326</v>
       </c>
       <c r="AC87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.73676333021515439</v>
       </c>
       <c r="AD87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.74935826916024939</v>
       </c>
       <c r="AE87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.7518567891830128</v>
       </c>
       <c r="AF87" s="39">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v>0.71978392977717753</v>
       </c>
       <c r="AG87" s="39">
@@ -28345,39 +28463,39 @@
       <c r="AR87" s="39"/>
       <c r="AS87" s="39"/>
       <c r="BK87" s="57">
-        <f t="shared" ref="BK87:BS87" si="352">+BK57/BK55</f>
+        <f t="shared" ref="BK87:BS87" si="353">+BK57/BK55</f>
         <v>0.79371115851961782</v>
       </c>
       <c r="BL87" s="57">
-        <f t="shared" si="352"/>
+        <f t="shared" si="353"/>
         <v>0.73353736795340108</v>
       </c>
       <c r="BM87" s="57">
-        <f t="shared" si="352"/>
+        <f t="shared" si="353"/>
         <v>0.7626185958254269</v>
       </c>
       <c r="BN87" s="57">
-        <f t="shared" si="352"/>
+        <f t="shared" si="353"/>
         <v>0.79806649801228768</v>
       </c>
       <c r="BO87" s="57">
-        <f t="shared" si="352"/>
+        <f t="shared" si="353"/>
         <v>0.78108913573557304</v>
       </c>
       <c r="BP87" s="57">
-        <f t="shared" si="352"/>
+        <f t="shared" si="353"/>
         <v>0.79808596086473549</v>
       </c>
       <c r="BQ87" s="57">
-        <f t="shared" si="352"/>
+        <f t="shared" si="353"/>
         <v>0.80290777701307636</v>
       </c>
       <c r="BR87" s="57">
-        <f t="shared" si="352"/>
+        <f t="shared" si="353"/>
         <v>0.80342094284522314</v>
       </c>
       <c r="BS87" s="57">
-        <f t="shared" si="352"/>
+        <f t="shared" si="353"/>
         <v>0.79232486263736268</v>
       </c>
       <c r="BT87" s="57">
@@ -28385,35 +28503,35 @@
         <v>0.78337679818288886</v>
       </c>
       <c r="BU87" s="57">
-        <f t="shared" ref="BU87:CB87" si="353">+BU57/BU55</f>
+        <f t="shared" ref="BU87:CB87" si="354">+BU57/BU55</f>
         <v>0.79000000000000015</v>
       </c>
       <c r="BV87" s="57">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v>0.77266351043310544</v>
       </c>
       <c r="BW87" s="57">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v>0.78999999999999992</v>
       </c>
       <c r="BX87" s="57">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v>0.79</v>
       </c>
       <c r="BY87" s="57">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v>0.79000000000000015</v>
       </c>
       <c r="BZ87" s="57">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v>0.79</v>
       </c>
       <c r="CA87" s="57">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v>0.75474083438685213</v>
       </c>
       <c r="CB87" s="57">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v>0.79</v>
       </c>
       <c r="CC87" s="57"/>
@@ -28451,35 +28569,35 @@
       <c r="CW87" s="39"/>
       <c r="CX87" s="39"/>
       <c r="CY87" s="39">
-        <f t="shared" ref="CY87:DF87" si="354">CY57/CY55</f>
+        <f t="shared" ref="CY87:DF87" si="355">CY57/CY55</f>
         <v>0</v>
       </c>
       <c r="CZ87" s="39">
-        <f t="shared" si="354"/>
+        <f t="shared" si="355"/>
         <v>0</v>
       </c>
       <c r="DA87" s="39">
-        <f t="shared" si="354"/>
+        <f t="shared" si="355"/>
         <v>0</v>
       </c>
       <c r="DB87" s="39">
-        <f t="shared" si="354"/>
+        <f t="shared" si="355"/>
         <v>0</v>
       </c>
       <c r="DC87" s="39">
-        <f t="shared" si="354"/>
+        <f t="shared" si="355"/>
         <v>0</v>
       </c>
       <c r="DD87" s="39">
-        <f t="shared" si="354"/>
+        <f t="shared" si="355"/>
         <v>0.68</v>
       </c>
       <c r="DE87" s="39">
-        <f t="shared" si="354"/>
+        <f t="shared" si="355"/>
         <v>0.60079964460239899</v>
       </c>
       <c r="DF87" s="55">
-        <f t="shared" si="354"/>
+        <f t="shared" si="355"/>
         <v>0.8330203710026175</v>
       </c>
       <c r="DG87" s="55">
@@ -28520,47 +28638,47 @@
         <v>0.7812452393961925</v>
       </c>
       <c r="DV87" s="39">
-        <f t="shared" ref="DV87:EF87" si="355">+DV57/DV55</f>
+        <f t="shared" ref="DV87:EF87" si="356">+DV57/DV55</f>
         <v>0.79591850643893391</v>
       </c>
       <c r="DW87" s="39">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>0.8</v>
       </c>
       <c r="DX87" s="39">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>0.80000000000000016</v>
       </c>
       <c r="DY87" s="39">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>0.8</v>
       </c>
       <c r="DZ87" s="39">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>0.8</v>
       </c>
       <c r="EA87" s="39">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>0.8</v>
       </c>
       <c r="EB87" s="39">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>0.8</v>
       </c>
       <c r="EC87" s="39">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>0.8</v>
       </c>
       <c r="ED87" s="39">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>0.8</v>
       </c>
       <c r="EE87" s="39">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>0.8</v>
       </c>
       <c r="EF87" s="39">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>0.8</v>
       </c>
     </row>
@@ -28577,111 +28695,111 @@
       <c r="I88" s="39"/>
       <c r="J88" s="39"/>
       <c r="K88" s="39">
-        <f t="shared" ref="K88:AK88" si="356">+K58/K55</f>
+        <f t="shared" ref="K88:AK88" si="357">+K58/K55</f>
         <v>0.18416775032509752</v>
       </c>
       <c r="L88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.17049781413058807</v>
       </c>
       <c r="M88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.15464968152866243</v>
       </c>
       <c r="N88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.15816747144034859</v>
       </c>
       <c r="O88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.1502826247235193</v>
       </c>
       <c r="P88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.13578047042052743</v>
       </c>
       <c r="Q88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.13648018648018648</v>
       </c>
       <c r="R88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.13570518020628114</v>
       </c>
       <c r="S88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.12827004219409283</v>
       </c>
       <c r="T88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.12097045939570931</v>
       </c>
       <c r="U88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.12280123131046614</v>
       </c>
       <c r="V88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.13214366388073187</v>
       </c>
       <c r="W88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.18722696068233827</v>
       </c>
       <c r="X88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.10548672566371682</v>
       </c>
       <c r="Y88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.18591079616506878</v>
       </c>
       <c r="Z88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.19565642731363725</v>
       </c>
       <c r="AA88" s="55">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.18519257633206945</v>
       </c>
       <c r="AB88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.19138755980861244</v>
       </c>
       <c r="AC88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.19064546304957905</v>
       </c>
       <c r="AD88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.22295562889622295</v>
       </c>
       <c r="AE88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.19082079603884974</v>
       </c>
       <c r="AF88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.22597344136844474</v>
       </c>
       <c r="AG88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.77649892933618847</v>
       </c>
       <c r="AH88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="AI88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.23728813559322035</v>
       </c>
       <c r="AJ88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.2574110671936759</v>
       </c>
       <c r="AK88" s="39">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>0.21792305981765622</v>
       </c>
       <c r="AL88" s="39"/>
@@ -28713,111 +28831,111 @@
       <c r="DD88" s="39"/>
       <c r="DE88" s="39"/>
       <c r="DF88" s="55">
-        <f t="shared" ref="DF88:DV88" si="357">DF58/DF55</f>
+        <f t="shared" ref="DF88:DV88" si="358">DF58/DF55</f>
         <v>0.12598156367360874</v>
       </c>
       <c r="DG88" s="55">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>0.1589409684791514</v>
       </c>
       <c r="DH88" s="55">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>0.19784409715684428</v>
       </c>
       <c r="DI88" s="39">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>0.22725384177575411</v>
       </c>
       <c r="DJ88" s="39">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>0.25369825403885188</v>
       </c>
       <c r="DK88" s="39">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>0.23703492330259293</v>
       </c>
       <c r="DL88" s="39">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>0.17954743651242569</v>
       </c>
       <c r="DM88" s="39">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>0.1326812469079692</v>
       </c>
       <c r="DN88" s="39">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>6.1870097380729433E-2</v>
       </c>
       <c r="DO88" s="39">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>2.8450947725749076E-2</v>
       </c>
       <c r="DP88" s="39">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>1.2275422291845953E-2</v>
       </c>
       <c r="DQ88" s="39">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
       <c r="DR88" s="39">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
       <c r="DS88" s="39">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
       <c r="DT88" s="39">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>0</v>
       </c>
       <c r="DU88" s="39">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>0.1626011798993961</v>
       </c>
       <c r="DV88" s="39">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v>0.14744910320733051</v>
       </c>
       <c r="DW88" s="39">
-        <f t="shared" ref="DW88:EF88" si="358">DW58/DW55</f>
+        <f t="shared" ref="DW88:EF88" si="359">DW58/DW55</f>
         <v>0.15</v>
       </c>
       <c r="DX88" s="39">
-        <f t="shared" si="358"/>
+        <f t="shared" si="359"/>
         <v>0.15</v>
       </c>
       <c r="DY88" s="39">
-        <f t="shared" si="358"/>
+        <f t="shared" si="359"/>
         <v>0.15</v>
       </c>
       <c r="DZ88" s="39">
-        <f t="shared" si="358"/>
+        <f t="shared" si="359"/>
         <v>0.15</v>
       </c>
       <c r="EA88" s="39">
-        <f t="shared" si="358"/>
+        <f t="shared" si="359"/>
         <v>0.15</v>
       </c>
       <c r="EB88" s="39">
-        <f t="shared" si="358"/>
+        <f t="shared" si="359"/>
         <v>0.15</v>
       </c>
       <c r="EC88" s="39">
-        <f t="shared" si="358"/>
+        <f t="shared" si="359"/>
         <v>0.15</v>
       </c>
       <c r="ED88" s="39">
-        <f t="shared" si="358"/>
+        <f t="shared" si="359"/>
         <v>0.15</v>
       </c>
       <c r="EE88" s="39">
-        <f t="shared" si="358"/>
+        <f t="shared" si="359"/>
         <v>0.14999999999999997</v>
       </c>
       <c r="EF88" s="39">
-        <f t="shared" si="358"/>
+        <f t="shared" si="359"/>
         <v>0.15</v>
       </c>
     </row>
@@ -28834,111 +28952,111 @@
       <c r="I89" s="39"/>
       <c r="J89" s="39"/>
       <c r="K89" s="39">
-        <f t="shared" ref="K89:AK89" si="359">+K59/K55</f>
+        <f t="shared" ref="K89:AK89" si="360">+K59/K55</f>
         <v>4.3563068920676205E-2</v>
       </c>
       <c r="L89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>5.1896770554223662E-2</v>
       </c>
       <c r="M89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>4.4713375796178345E-2</v>
       </c>
       <c r="N89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>5.688375927452597E-2</v>
       </c>
       <c r="O89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>4.0550503809289755E-2</v>
       </c>
       <c r="P89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>4.9893086243763367E-2</v>
       </c>
       <c r="Q89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>4.2191142191142193E-2</v>
       </c>
       <c r="R89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>4.1951558697415695E-2</v>
       </c>
       <c r="S89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>3.9059674502712478E-2</v>
       </c>
       <c r="T89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>4.4928675727282937E-2</v>
       </c>
       <c r="U89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>3.9687774846086189E-2</v>
       </c>
       <c r="V89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>3.7723063022362772E-2</v>
       </c>
       <c r="W89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>4.4102350738506345E-2</v>
       </c>
       <c r="X89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>3.103244837758112E-2</v>
       </c>
       <c r="Y89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>4.8145060441850768E-2</v>
       </c>
       <c r="Z89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>5.3022891801995695E-2</v>
       </c>
       <c r="AA89" s="55">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>4.2706046697266013E-2</v>
       </c>
       <c r="AB89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>4.6558704453441298E-2</v>
       </c>
       <c r="AC89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>3.8353601496725911E-2</v>
       </c>
       <c r="AD89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>5.2255225522552254E-2</v>
       </c>
       <c r="AE89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>3.6945343744048752E-2</v>
       </c>
       <c r="AF89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>5.0416385325230698E-2</v>
       </c>
       <c r="AG89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>4.470021413276231E-2</v>
       </c>
       <c r="AH89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>5.0584586017656884E-2</v>
       </c>
       <c r="AI89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>4.5118166626879924E-2</v>
       </c>
       <c r="AJ89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>5.3853754940711464E-2</v>
       </c>
       <c r="AK89" s="39">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>4.3139871025127861E-2</v>
       </c>
       <c r="AL89" s="39"/>
@@ -28970,111 +29088,111 @@
       <c r="DD89" s="39"/>
       <c r="DE89" s="39"/>
       <c r="DF89" s="55">
-        <f t="shared" ref="DF89:DV89" si="360">DF59/DF55</f>
+        <f t="shared" ref="DF89:DV89" si="361">DF59/DF55</f>
         <v>4.0372140662342099E-2</v>
       </c>
       <c r="DG89" s="55">
-        <f t="shared" si="360"/>
+        <f t="shared" si="361"/>
         <v>4.2128411883920483E-2</v>
       </c>
       <c r="DH89" s="55">
-        <f t="shared" si="360"/>
+        <f t="shared" si="361"/>
         <v>4.5048013556768969E-2</v>
       </c>
       <c r="DI89" s="39">
-        <f t="shared" si="360"/>
+        <f t="shared" si="361"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="DJ89" s="39">
-        <f t="shared" si="360"/>
+        <f t="shared" si="361"/>
         <v>0.06</v>
       </c>
       <c r="DK89" s="39">
-        <f t="shared" si="360"/>
+        <f t="shared" si="361"/>
         <v>0.06</v>
       </c>
       <c r="DL89" s="39">
-        <f t="shared" si="360"/>
+        <f t="shared" si="361"/>
         <v>0.06</v>
       </c>
       <c r="DM89" s="39">
-        <f t="shared" si="360"/>
+        <f t="shared" si="361"/>
         <v>0.06</v>
       </c>
       <c r="DN89" s="39">
-        <f t="shared" si="360"/>
+        <f t="shared" si="361"/>
         <v>0.06</v>
       </c>
       <c r="DO89" s="39">
-        <f t="shared" si="360"/>
+        <f t="shared" si="361"/>
         <v>5.9999999999999991E-2</v>
       </c>
       <c r="DP89" s="39">
-        <f t="shared" si="360"/>
+        <f t="shared" si="361"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="DQ89" s="39">
-        <f t="shared" si="360"/>
-        <v>0</v>
-      </c>
-      <c r="DR89" s="39">
-        <f t="shared" si="360"/>
-        <v>0</v>
-      </c>
-      <c r="DS89" s="39">
-        <f t="shared" si="360"/>
-        <v>0</v>
-      </c>
-      <c r="DT89" s="39">
-        <f t="shared" si="360"/>
-        <v>0</v>
-      </c>
-      <c r="DU89" s="39">
-        <f t="shared" si="360"/>
-        <v>0</v>
-      </c>
-      <c r="DV89" s="39">
-        <f t="shared" si="360"/>
-        <v>0</v>
-      </c>
-      <c r="DW89" s="39">
-        <f t="shared" ref="DW89:EF89" si="361">DW59/DW55</f>
-        <v>0</v>
-      </c>
-      <c r="DX89" s="39">
         <f t="shared" si="361"/>
         <v>0</v>
       </c>
-      <c r="DY89" s="39">
+      <c r="DR89" s="39">
         <f t="shared" si="361"/>
         <v>0</v>
       </c>
-      <c r="DZ89" s="39">
+      <c r="DS89" s="39">
         <f t="shared" si="361"/>
         <v>0</v>
       </c>
-      <c r="EA89" s="39">
+      <c r="DT89" s="39">
         <f t="shared" si="361"/>
         <v>0</v>
       </c>
-      <c r="EB89" s="39">
+      <c r="DU89" s="39">
         <f t="shared" si="361"/>
         <v>0</v>
       </c>
-      <c r="EC89" s="39">
+      <c r="DV89" s="39">
         <f t="shared" si="361"/>
         <v>0</v>
       </c>
+      <c r="DW89" s="39">
+        <f t="shared" ref="DW89:EF89" si="362">DW59/DW55</f>
+        <v>0</v>
+      </c>
+      <c r="DX89" s="39">
+        <f t="shared" si="362"/>
+        <v>0</v>
+      </c>
+      <c r="DY89" s="39">
+        <f t="shared" si="362"/>
+        <v>0</v>
+      </c>
+      <c r="DZ89" s="39">
+        <f t="shared" si="362"/>
+        <v>0</v>
+      </c>
+      <c r="EA89" s="39">
+        <f t="shared" si="362"/>
+        <v>0</v>
+      </c>
+      <c r="EB89" s="39">
+        <f t="shared" si="362"/>
+        <v>0</v>
+      </c>
+      <c r="EC89" s="39">
+        <f t="shared" si="362"/>
+        <v>0</v>
+      </c>
       <c r="ED89" s="39">
-        <f t="shared" si="361"/>
+        <f t="shared" si="362"/>
         <v>0</v>
       </c>
       <c r="EE89" s="39">
-        <f t="shared" si="361"/>
+        <f t="shared" si="362"/>
         <v>0</v>
       </c>
       <c r="EF89" s="39">
-        <f t="shared" si="361"/>
+        <f t="shared" si="362"/>
         <v>0</v>
       </c>
     </row>
@@ -29091,111 +29209,111 @@
       <c r="I90" s="39"/>
       <c r="J90" s="39"/>
       <c r="K90" s="39">
-        <f t="shared" ref="K90:AK90" si="362">+K60/K55</f>
+        <f t="shared" ref="K90:AK90" si="363">+K60/K55</f>
         <v>0.12857607282184655</v>
       </c>
       <c r="L90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.10971654209561416</v>
       </c>
       <c r="M90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.10535031847133758</v>
       </c>
       <c r="N90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.10693675656577553</v>
       </c>
       <c r="O90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>9.7689850086016217E-2</v>
       </c>
       <c r="P90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>9.4440484675694936E-2</v>
       </c>
       <c r="Q90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>9.289044289044289E-2</v>
       </c>
       <c r="R90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>9.2362962104531238E-2</v>
       </c>
       <c r="S90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.11127185051235684</v>
       </c>
       <c r="T90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>9.3114680444793888E-2</v>
       </c>
       <c r="U90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>9.2128408091468772E-2</v>
       </c>
       <c r="V90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.12514117912807771</v>
       </c>
       <c r="W90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.18930726024547534</v>
       </c>
       <c r="X90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>9.6991150442477872E-2</v>
       </c>
       <c r="Y90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.17173822426010837</v>
       </c>
       <c r="Z90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.19761299158677362</v>
       </c>
       <c r="AA90" s="55">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.18658950309319497</v>
       </c>
       <c r="AB90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.16985645933014354</v>
       </c>
       <c r="AC90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.18203928905519176</v>
       </c>
       <c r="AD90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.18481848184818481</v>
       </c>
       <c r="AE90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.1731098838316511</v>
       </c>
       <c r="AF90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.216520369119964</v>
       </c>
       <c r="AG90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.25455032119914345</v>
       </c>
       <c r="AH90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.2581722739203054</v>
       </c>
       <c r="AI90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.22201002625925043</v>
       </c>
       <c r="AJ90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.2349308300395257</v>
       </c>
       <c r="AK90" s="39">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.19857682899710918</v>
       </c>
       <c r="AL90" s="39"/>
@@ -29229,103 +29347,103 @@
       <c r="DF90" s="55"/>
       <c r="DG90" s="55"/>
       <c r="DH90" s="55">
-        <f t="shared" ref="DH90:DV90" si="363">+DH60/DH55</f>
+        <f t="shared" ref="DH90:DV90" si="364">+DH60/DH55</f>
         <v>0.18070984748634908</v>
       </c>
       <c r="DI90" s="39">
-        <f t="shared" si="363"/>
-        <v>0</v>
-      </c>
-      <c r="DJ90" s="39">
-        <f t="shared" si="363"/>
-        <v>0</v>
-      </c>
-      <c r="DK90" s="39">
-        <f t="shared" si="363"/>
-        <v>0</v>
-      </c>
-      <c r="DL90" s="39">
-        <f t="shared" si="363"/>
-        <v>0</v>
-      </c>
-      <c r="DM90" s="39">
-        <f t="shared" si="363"/>
-        <v>0</v>
-      </c>
-      <c r="DN90" s="39">
-        <f t="shared" si="363"/>
-        <v>0</v>
-      </c>
-      <c r="DO90" s="39">
-        <f t="shared" si="363"/>
-        <v>0</v>
-      </c>
-      <c r="DP90" s="39">
-        <f t="shared" si="363"/>
-        <v>0</v>
-      </c>
-      <c r="DQ90" s="39">
-        <f t="shared" si="363"/>
-        <v>0</v>
-      </c>
-      <c r="DR90" s="39">
-        <f t="shared" si="363"/>
-        <v>0</v>
-      </c>
-      <c r="DS90" s="39">
-        <f t="shared" si="363"/>
-        <v>0</v>
-      </c>
-      <c r="DT90" s="39">
-        <f t="shared" si="363"/>
-        <v>0</v>
-      </c>
-      <c r="DU90" s="39">
-        <f t="shared" si="363"/>
-        <v>0.19937248655081682</v>
-      </c>
-      <c r="DV90" s="39">
-        <f t="shared" si="363"/>
-        <v>0.18079385625812844</v>
-      </c>
-      <c r="DW90" s="39">
-        <f t="shared" ref="DW90:EF90" si="364">+DW60/DW55</f>
-        <v>0</v>
-      </c>
-      <c r="DX90" s="39">
         <f t="shared" si="364"/>
         <v>0</v>
       </c>
-      <c r="DY90" s="39">
+      <c r="DJ90" s="39">
         <f t="shared" si="364"/>
         <v>0</v>
       </c>
-      <c r="DZ90" s="39">
+      <c r="DK90" s="39">
         <f t="shared" si="364"/>
         <v>0</v>
       </c>
-      <c r="EA90" s="39">
+      <c r="DL90" s="39">
         <f t="shared" si="364"/>
         <v>0</v>
       </c>
-      <c r="EB90" s="39">
+      <c r="DM90" s="39">
         <f t="shared" si="364"/>
         <v>0</v>
       </c>
-      <c r="EC90" s="39">
+      <c r="DN90" s="39">
         <f t="shared" si="364"/>
         <v>0</v>
       </c>
-      <c r="ED90" s="39">
+      <c r="DO90" s="39">
         <f t="shared" si="364"/>
         <v>0</v>
       </c>
-      <c r="EE90" s="39">
+      <c r="DP90" s="39">
         <f t="shared" si="364"/>
         <v>0</v>
       </c>
+      <c r="DQ90" s="39">
+        <f t="shared" si="364"/>
+        <v>0</v>
+      </c>
+      <c r="DR90" s="39">
+        <f t="shared" si="364"/>
+        <v>0</v>
+      </c>
+      <c r="DS90" s="39">
+        <f t="shared" si="364"/>
+        <v>0</v>
+      </c>
+      <c r="DT90" s="39">
+        <f t="shared" si="364"/>
+        <v>0</v>
+      </c>
+      <c r="DU90" s="39">
+        <f t="shared" si="364"/>
+        <v>0.19937248655081682</v>
+      </c>
+      <c r="DV90" s="39">
+        <f t="shared" si="364"/>
+        <v>0.18079385625812844</v>
+      </c>
+      <c r="DW90" s="39">
+        <f t="shared" ref="DW90:EF90" si="365">+DW60/DW55</f>
+        <v>0</v>
+      </c>
+      <c r="DX90" s="39">
+        <f t="shared" si="365"/>
+        <v>0</v>
+      </c>
+      <c r="DY90" s="39">
+        <f t="shared" si="365"/>
+        <v>0</v>
+      </c>
+      <c r="DZ90" s="39">
+        <f t="shared" si="365"/>
+        <v>0</v>
+      </c>
+      <c r="EA90" s="39">
+        <f t="shared" si="365"/>
+        <v>0</v>
+      </c>
+      <c r="EB90" s="39">
+        <f t="shared" si="365"/>
+        <v>0</v>
+      </c>
+      <c r="EC90" s="39">
+        <f t="shared" si="365"/>
+        <v>0</v>
+      </c>
+      <c r="ED90" s="39">
+        <f t="shared" si="365"/>
+        <v>0</v>
+      </c>
+      <c r="EE90" s="39">
+        <f t="shared" si="365"/>
+        <v>0</v>
+      </c>
       <c r="EF90" s="39">
-        <f t="shared" si="364"/>
+        <f t="shared" si="365"/>
         <v>0</v>
       </c>
     </row>
@@ -29342,111 +29460,111 @@
       <c r="I91" s="39"/>
       <c r="J91" s="39"/>
       <c r="K91" s="39">
-        <f t="shared" ref="K91:AK91" si="365">+K62/K55</f>
+        <f t="shared" ref="K91:AK91" si="366">+K62/K55</f>
         <v>0.42587776332899868</v>
       </c>
       <c r="L91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.44944295585954025</v>
       </c>
       <c r="M91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.48866242038216562</v>
       </c>
       <c r="N91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.46402072782946652</v>
       </c>
       <c r="O91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.50786434013271076</v>
       </c>
       <c r="P91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.5283915419339511</v>
       </c>
       <c r="Q91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.54417249417249414</v>
       </c>
       <c r="R91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>-0.27001970100822809</v>
       </c>
       <c r="S91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.55105485232067508</v>
       </c>
       <c r="T91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.57688419633831289</v>
       </c>
       <c r="U91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.57365875109938436</v>
       </c>
       <c r="V91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.54314434154054669</v>
       </c>
       <c r="W91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.30767630538797586</v>
       </c>
       <c r="X91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.61581120943952805</v>
       </c>
       <c r="Y91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.32742809503959985</v>
       </c>
       <c r="Z91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.27704950107611037</v>
       </c>
       <c r="AA91" s="55">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.31750149670724409</v>
       </c>
       <c r="AB91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.31965403018034599</v>
       </c>
       <c r="AC91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.32572497661365762</v>
       </c>
       <c r="AD91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.28932893289328931</v>
       </c>
       <c r="AE91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.35098076556846314</v>
       </c>
       <c r="AF91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.22687373396353816</v>
       </c>
       <c r="AG91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>-0.33993576017130622</v>
       </c>
       <c r="AH91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.16201383917919351</v>
       </c>
       <c r="AI91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.24182382430174265</v>
       </c>
       <c r="AJ91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.1800889328063241</v>
       </c>
       <c r="AK91" s="39">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v>0.27907493884812096</v>
       </c>
       <c r="AL91" s="39"/>
@@ -29458,39 +29576,39 @@
       <c r="AR91" s="39"/>
       <c r="AS91" s="39"/>
       <c r="BK91" s="57">
-        <f t="shared" ref="BK91:BS91" si="366">+BK62/BK55</f>
+        <f t="shared" ref="BK91:BS91" si="367">+BK62/BK55</f>
         <v>0.42472868936091274</v>
       </c>
       <c r="BL91" s="57">
-        <f t="shared" si="366"/>
+        <f t="shared" si="367"/>
         <v>0.32382268733339914</v>
       </c>
       <c r="BM91" s="57">
-        <f t="shared" si="366"/>
+        <f t="shared" si="367"/>
         <v>0.36366223908918405</v>
       </c>
       <c r="BN91" s="57">
-        <f t="shared" si="366"/>
+        <f t="shared" si="367"/>
         <v>0.34477773762197328</v>
       </c>
       <c r="BO91" s="57">
-        <f t="shared" si="366"/>
+        <f t="shared" si="367"/>
         <v>0.43023570848008669</v>
       </c>
       <c r="BP91" s="57">
-        <f t="shared" si="366"/>
+        <f t="shared" si="367"/>
         <v>0.44527044347603179</v>
       </c>
       <c r="BQ91" s="57">
-        <f t="shared" si="366"/>
+        <f t="shared" si="367"/>
         <v>0.36940812112869925</v>
       </c>
       <c r="BR91" s="57">
-        <f t="shared" si="366"/>
+        <f t="shared" si="367"/>
         <v>0.38965373383395913</v>
       </c>
       <c r="BS91" s="57">
-        <f t="shared" si="366"/>
+        <f t="shared" si="367"/>
         <v>0.45218063186813184</v>
       </c>
       <c r="BT91" s="57">
@@ -29498,7 +29616,7 @@
         <v>0.43989231934045597</v>
       </c>
       <c r="BU91" s="57">
-        <f t="shared" ref="BU91:CB91" si="367">+BU62/BU55</f>
+        <f t="shared" ref="BU91:CB91" si="368">+BU62/BU55</f>
         <v>0.33019789623818868</v>
       </c>
       <c r="BV91" s="57">
@@ -29506,27 +29624,27 @@
         <v>0.35393652463615644</v>
       </c>
       <c r="BW91" s="57">
-        <f t="shared" si="367"/>
+        <f t="shared" si="368"/>
         <v>0.43999558966216806</v>
       </c>
       <c r="BX91" s="57">
-        <f t="shared" si="367"/>
+        <f t="shared" si="368"/>
         <v>0.41511847496882243</v>
       </c>
       <c r="BY91" s="57">
-        <f t="shared" si="367"/>
+        <f t="shared" si="368"/>
         <v>0.32353820900966634</v>
       </c>
       <c r="BZ91" s="57">
-        <f t="shared" si="367"/>
+        <f t="shared" si="368"/>
         <v>0.40130173390258778</v>
       </c>
       <c r="CA91" s="57">
-        <f t="shared" si="367"/>
+        <f t="shared" si="368"/>
         <v>0.38938053097345132</v>
       </c>
       <c r="CB91" s="57">
-        <f t="shared" si="367"/>
+        <f t="shared" si="368"/>
         <v>0.44162657159249247</v>
       </c>
       <c r="CC91" s="57"/>
@@ -29558,103 +29676,103 @@
       <c r="DF91" s="55"/>
       <c r="DG91" s="55"/>
       <c r="DH91" s="55">
-        <f t="shared" ref="DH91:DV91" si="368">+DH62/DH55</f>
+        <f t="shared" ref="DH91:DV91" si="369">+DH62/DH55</f>
         <v>0.31288834494445489</v>
       </c>
       <c r="DI91" s="39">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>0.4427461582242459</v>
       </c>
       <c r="DJ91" s="39">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>0.41630174596114811</v>
       </c>
       <c r="DK91" s="39">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>0.43296507669740697</v>
       </c>
       <c r="DL91" s="39">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>0.49045256348757427</v>
       </c>
       <c r="DM91" s="39">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>0.54731875309203082</v>
       </c>
       <c r="DN91" s="39">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>0.6281299026192706</v>
       </c>
       <c r="DO91" s="39">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>0.66154905227425087</v>
       </c>
       <c r="DP91" s="39">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>-7.2275422291845956E-2</v>
       </c>
       <c r="DQ91" s="39">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>0</v>
       </c>
       <c r="DR91" s="39">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>0</v>
       </c>
       <c r="DS91" s="39">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>0</v>
       </c>
       <c r="DT91" s="39">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>0</v>
       </c>
       <c r="DU91" s="39">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>0.41927157294597961</v>
       </c>
       <c r="DV91" s="39">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v>0.46767554697347496</v>
       </c>
       <c r="DW91" s="39">
-        <f t="shared" ref="DW91:EF91" si="369">+DW62/DW55</f>
+        <f t="shared" ref="DW91:EF91" si="370">+DW62/DW55</f>
         <v>0.65</v>
       </c>
       <c r="DX91" s="39">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="DY91" s="39">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>0.65</v>
       </c>
       <c r="DZ91" s="39">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>0.65</v>
       </c>
       <c r="EA91" s="39">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>0.65</v>
       </c>
       <c r="EB91" s="39">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>0.65</v>
       </c>
       <c r="EC91" s="39">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>0.65</v>
       </c>
       <c r="ED91" s="39">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>0.65</v>
       </c>
       <c r="EE91" s="39">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>0.65</v>
       </c>
       <c r="EF91" s="39">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v>0.65</v>
       </c>
     </row>
@@ -29671,87 +29789,87 @@
       <c r="I92" s="39"/>
       <c r="J92" s="39"/>
       <c r="K92" s="39">
-        <f t="shared" ref="K92:U92" si="370">K65/K64</f>
+        <f t="shared" ref="K92:U92" si="371">K65/K64</f>
         <v>2.4963289280469897E-2</v>
       </c>
       <c r="L92" s="39">
-        <f t="shared" si="370"/>
+        <f t="shared" si="371"/>
         <v>7.7526395173453999E-2</v>
       </c>
       <c r="M92" s="39">
-        <f t="shared" si="370"/>
+        <f t="shared" si="371"/>
         <v>8.6276488395560041E-2</v>
       </c>
       <c r="N92" s="39">
-        <f t="shared" si="370"/>
+        <f t="shared" si="371"/>
         <v>4.7326203208556149E-2</v>
       </c>
       <c r="O92" s="39">
-        <f t="shared" si="370"/>
+        <f t="shared" si="371"/>
         <v>8.431188351338656E-2</v>
       </c>
       <c r="P92" s="39">
-        <f t="shared" si="370"/>
+        <f t="shared" si="371"/>
         <v>6.3354306791060966E-2</v>
       </c>
       <c r="Q92" s="39">
-        <f t="shared" si="370"/>
+        <f t="shared" si="371"/>
         <v>8.0777096114519428E-2</v>
       </c>
       <c r="R92" s="39">
-        <f t="shared" si="370"/>
+        <f t="shared" si="371"/>
         <v>0.25</v>
       </c>
       <c r="S92" s="39">
-        <f t="shared" si="370"/>
+        <f t="shared" si="371"/>
         <v>9.6558915537017731E-2</v>
       </c>
       <c r="T92" s="39">
-        <f t="shared" si="370"/>
+        <f t="shared" si="371"/>
         <v>8.3458929917106253E-2</v>
       </c>
       <c r="U92" s="39">
-        <f t="shared" si="370"/>
+        <f t="shared" si="371"/>
         <v>8.0564321514757745E-2</v>
       </c>
       <c r="V92" s="39">
-        <f t="shared" ref="V92:AA92" si="371">V65/V64</f>
+        <f t="shared" ref="V92:AA92" si="372">V65/V64</f>
         <v>3.6237471087124135E-2</v>
       </c>
       <c r="W92" s="39">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>0.23991797676008203</v>
       </c>
       <c r="X92" s="39">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>6.0867931617508926E-2</v>
       </c>
       <c r="Y92" s="39">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>0.1889763779527559</v>
       </c>
       <c r="Z92" s="39">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>0.3979094076655052</v>
       </c>
       <c r="AA92" s="55">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v>0.22087244616234125</v>
       </c>
       <c r="AB92" s="39">
-        <f t="shared" ref="AB92:AH92" si="372">AB65/AB64</f>
+        <f t="shared" ref="AB92:AH92" si="373">AB65/AB64</f>
         <v>0.26393442622950819</v>
       </c>
       <c r="AC92" s="39">
-        <f t="shared" si="372"/>
+        <f t="shared" si="373"/>
         <v>0.2584330794341676</v>
       </c>
       <c r="AD92" s="39">
-        <f t="shared" si="372"/>
+        <f t="shared" si="373"/>
         <v>0.22435105067985167</v>
       </c>
       <c r="AE92" s="39">
-        <f t="shared" si="372"/>
+        <f t="shared" si="373"/>
         <v>0.29035695258391048</v>
       </c>
       <c r="AF92" s="39">
@@ -29759,11 +29877,11 @@
         <v>0.23262279888785914</v>
       </c>
       <c r="AG92" s="39">
-        <f t="shared" si="372"/>
+        <f t="shared" si="373"/>
         <v>0</v>
       </c>
       <c r="AH92" s="39">
-        <f t="shared" si="372"/>
+        <f t="shared" si="373"/>
         <v>-0.26878130217028379</v>
       </c>
       <c r="AI92" s="39">
@@ -29809,103 +29927,103 @@
       <c r="DF92" s="55"/>
       <c r="DG92" s="55"/>
       <c r="DH92" s="55">
-        <f t="shared" ref="DH92:DN92" si="373">DH65/DH64</f>
+        <f t="shared" ref="DH92:DN92" si="374">DH65/DH64</f>
         <v>0.24249682964632943</v>
       </c>
       <c r="DI92" s="39">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="DJ92" s="39">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="DK92" s="39">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="DL92" s="39">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="DM92" s="39">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="DN92" s="39">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="DO92" s="39">
-        <f t="shared" ref="DO92:DV92" si="374">DO65/DO64</f>
+        <f t="shared" ref="DO92:DV92" si="375">DO65/DO64</f>
         <v>0.27999999999999997</v>
       </c>
       <c r="DP92" s="39">
-        <f t="shared" si="374"/>
+        <f t="shared" si="375"/>
         <v>0.28000000000000008</v>
       </c>
       <c r="DQ92" s="39" t="e">
-        <f t="shared" si="374"/>
+        <f t="shared" si="375"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DR92" s="39" t="e">
-        <f t="shared" si="374"/>
+        <f t="shared" si="375"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DS92" s="39" t="e">
-        <f t="shared" si="374"/>
+        <f t="shared" si="375"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DT92" s="39" t="e">
-        <f t="shared" si="374"/>
+        <f t="shared" si="375"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DU92" s="39">
-        <f t="shared" si="374"/>
+        <f t="shared" si="375"/>
         <v>0.1889643270584338</v>
       </c>
       <c r="DV92" s="39">
-        <f t="shared" si="374"/>
+        <f t="shared" si="375"/>
         <v>0.18794747162758046</v>
       </c>
       <c r="DW92" s="39">
-        <f t="shared" ref="DW92:EF92" si="375">DW65/DW64</f>
+        <f t="shared" ref="DW92:EF92" si="376">DW65/DW64</f>
         <v>0.2</v>
       </c>
       <c r="DX92" s="39">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>0.2</v>
       </c>
       <c r="DY92" s="39">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>0.2</v>
       </c>
       <c r="DZ92" s="39">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>0.2</v>
       </c>
       <c r="EA92" s="39">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>0.2</v>
       </c>
       <c r="EB92" s="39">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>0.2</v>
       </c>
       <c r="EC92" s="39">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>0.2</v>
       </c>
       <c r="ED92" s="39">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>0.2</v>
       </c>
       <c r="EE92" s="39">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>0.2</v>
       </c>
       <c r="EF92" s="39">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v>0.2</v>
       </c>
     </row>
@@ -30081,35 +30199,35 @@
         <v>3711</v>
       </c>
       <c r="Y94" s="35">
-        <f t="shared" ref="Y94:AF94" si="376">+Y95-Y106</f>
+        <f t="shared" ref="Y94:AF94" si="377">+Y95-Y106</f>
         <v>0</v>
       </c>
       <c r="Z94" s="35">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>0</v>
       </c>
       <c r="AA94" s="35">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>4447</v>
       </c>
       <c r="AB94" s="35">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>0</v>
       </c>
       <c r="AC94" s="35">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>0</v>
       </c>
       <c r="AD94" s="35">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>0</v>
       </c>
       <c r="AE94" s="35">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>3199</v>
       </c>
       <c r="AF94" s="35">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v>3324</v>
       </c>
       <c r="AG94" s="35"/>
@@ -30173,27 +30291,27 @@
         <v>-45379</v>
       </c>
       <c r="CC94" s="35">
-        <f t="shared" ref="CC94:CH94" si="377">+CB94+CC67</f>
+        <f t="shared" ref="CC94:CH94" si="378">+CB94+CC67</f>
         <v>-41487.116320000001</v>
       </c>
       <c r="CD94" s="35">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>-37357.570720000003</v>
       </c>
       <c r="CE94" s="35">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>-32733.672400000003</v>
       </c>
       <c r="CF94" s="35">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>-27823.398273600003</v>
       </c>
       <c r="CG94" s="35">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>-23307.632356800001</v>
       </c>
       <c r="CH94" s="35">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v>-18644.736451199999</v>
       </c>
       <c r="CI94" s="35"/>
@@ -30243,43 +30361,43 @@
         <v>-18644.736451199999</v>
       </c>
       <c r="DW94" s="44">
-        <f t="shared" ref="DW94:EF94" si="378">+DV94+DW67</f>
+        <f t="shared" ref="DW94:EF94" si="379">+DV94+DW67</f>
         <v>7546.0087013200027</v>
       </c>
       <c r="DX94" s="44">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>34954.279951278964</v>
       </c>
       <c r="DY94" s="44">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>60601.963702859772</v>
       </c>
       <c r="DZ94" s="44">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>84417.176206873322</v>
       </c>
       <c r="EA94" s="44">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>108762.44028843251</v>
       </c>
       <c r="EB94" s="44">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>133950.96366000862</v>
       </c>
       <c r="EC94" s="44">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>159862.86939798042</v>
       </c>
       <c r="ED94" s="44">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>177721.3293295858</v>
       </c>
       <c r="EE94" s="44">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>193717.63797271263</v>
       </c>
       <c r="EF94" s="44">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v>203157.75166403185</v>
       </c>
     </row>
@@ -34885,129 +35003,63 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEDC8E4-D96F-4D90-9C99-AC25C6D81FAF}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="32" t="s">
-        <v>64</v>
+        <v>722</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>636</v>
-      </c>
-      <c r="D2" s="32"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
-        <v>65</v>
+        <v>723</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="32" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="47" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C9" s="32" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="32"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="47" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="32"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C14" s="47" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15" s="32" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C16" s="32" t="s">
-        <v>487</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F761E86A-7BD3-4B57-906F-46A3F70A70BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -35121,24 +35173,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC6227C-4700-4C6A-A399-7F39853AD9C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2206DA00-2832-4926-9B8E-385E975B4BC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51D3B50D-5291-4A7C-B8EF-C3BAE1EC0802}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35152,4 +35202,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC6227C-4700-4C6A-A399-7F39853AD9C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2206DA00-2832-4926-9B8E-385E975B4BC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BMY.xlsx
+++ b/BMY.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E018FD-FEA0-42BC-A43B-C24A76BCC166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5E8BC3-52A0-4FBD-AEF3-592213296176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30090" yWindow="1620" windowWidth="30150" windowHeight="17955" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28200" yWindow="1770" windowWidth="27465" windowHeight="18600" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="23" r:id="rId1"/>
     <sheet name="Main" sheetId="1" r:id="rId2"/>
     <sheet name="Model" sheetId="6" r:id="rId3"/>
-    <sheet name="KarXT" sheetId="24" r:id="rId4"/>
+    <sheet name="Cobenfy" sheetId="24" r:id="rId4"/>
     <sheet name="Opdivo" sheetId="19" r:id="rId5"/>
     <sheet name="Orencia" sheetId="3" r:id="rId6"/>
     <sheet name="Yervoy" sheetId="10" r:id="rId7"/>
@@ -700,7 +700,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="755">
   <si>
     <t>Name</t>
   </si>
@@ -2959,6 +2959,12 @@
   </si>
   <si>
     <t>$100k/year</t>
+  </si>
+  <si>
+    <t>Cobenfy, fka KarXT</t>
+  </si>
+  <si>
+    <t>Cobenfy (xanomeline/trospium)</t>
   </si>
 </sst>
 </file>
@@ -3564,7 +3570,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>817563</xdr:colOff>
+      <xdr:colOff>760413</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>7938</xdr:rowOff>
     </xdr:to>
@@ -6267,7 +6273,9 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6701,81 +6709,81 @@
       <c r="H19" s="42"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="16">
+        <v>45561</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="86"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="73" t="s">
         <v>675</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C21" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F21" s="45">
         <v>44813</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G21" s="26" t="s">
         <v>670</v>
       </c>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="87" t="s">
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="87" t="s">
         <v>413</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="88">
+      <c r="F22" s="88">
         <v>40627</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H22" s="12" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="46" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="46" t="s">
         <v>655</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C24" s="26" t="s">
         <v>488</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G24" s="26" t="s">
         <v>652</v>
       </c>
-      <c r="H23" s="86"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="16">
-        <v>45561</v>
-      </c>
-      <c r="G24" s="26"/>
       <c r="H24" s="86"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
@@ -7082,10 +7090,10 @@
     <hyperlink ref="B3" location="Orencia!A1" display="Orencia (abatacept)" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="B17" location="Eliquis!A1" display="Eliquis (apixaban)" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="B15" location="Erbitux!A1" display="Erbitux" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B21" location="ipilimumab!A1" display="Ipilimumab (MDX-010)" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B22" location="ipilimumab!A1" display="Ipilimumab (MDX-010)" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
     <hyperlink ref="B5" location="Opdivo!A1" display="BMS-936558 (nivolumab)" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
     <hyperlink ref="B6" location="Empliciti!A1" display="Empliciti (elotuzumab)" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="B24" location="KarXT!A1" display="KarXT" xr:uid="{3C50964C-5D2C-4D4F-98DA-A004DC33CD79}"/>
+    <hyperlink ref="B20" location="KarXT!A1" display="KarXT" xr:uid="{3C50964C-5D2C-4D4F-98DA-A004DC33CD79}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="61" orientation="landscape" r:id="rId1"/>
@@ -7421,11 +7429,11 @@
   </sheetPr>
   <dimension ref="A1:FY150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="BP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BS6" sqref="BS6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34354,7 +34362,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34373,7 +34381,7 @@
         <v>722</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>693</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -35174,18 +35182,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35205,18 +35213,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC6227C-4700-4C6A-A399-7F39853AD9C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2206DA00-2832-4926-9B8E-385E975B4BC4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC6227C-4700-4C6A-A399-7F39853AD9C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>